--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a548da2118d25344/Alysson/Unifor/Monitoria/indice_nupe/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6ECD05B-93B1-436A-95B8-700D55E7E338}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBCF1B45-8313-46A7-B5EA-B0E7D284C9DF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2355" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -347,7 +347,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">¹ Data de referência: </t>
+      <t>¹ Data de referência: 1</t>
     </r>
     <r>
       <rPr>
@@ -357,7 +357,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>29 de Janeiro de 2021.</t>
+      <t>9 de Fevereiro de 2021.</t>
     </r>
   </si>
 </sst>
@@ -7543,6 +7543,12 @@
                 <c:pt idx="2256">
                   <c:v>44239</c:v>
                 </c:pt>
+                <c:pt idx="2257">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="2258">
+                  <c:v>44246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -14306,13 +14312,13 @@
                   <c:v>524.13582833129362</c:v>
                 </c:pt>
                 <c:pt idx="2251">
-                  <c:v>530.10770024967235</c:v>
+                  <c:v>532.28465914264518</c:v>
                 </c:pt>
                 <c:pt idx="2252">
                   <c:v>521.36381083943934</c:v>
                 </c:pt>
                 <c:pt idx="2253">
-                  <c:v>524.11589758796015</c:v>
+                  <c:v>522.19204121685777</c:v>
                 </c:pt>
                 <c:pt idx="2254">
                   <c:v>509.2808358133563</c:v>
@@ -14322,6 +14328,12 @@
                 </c:pt>
                 <c:pt idx="2256">
                   <c:v>506.02501970460531</c:v>
+                </c:pt>
+                <c:pt idx="2257">
+                  <c:v>494.13280592721168</c:v>
+                </c:pt>
+                <c:pt idx="2258">
+                  <c:v>492.49561126113719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21136,6 +21148,12 @@
                 <c:pt idx="2256">
                   <c:v>44239</c:v>
                 </c:pt>
+                <c:pt idx="2257">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="2258">
+                  <c:v>44246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -27915,6 +27933,12 @@
                 </c:pt>
                 <c:pt idx="2256">
                   <c:v>209.88124185079471</c:v>
+                </c:pt>
+                <c:pt idx="2257">
+                  <c:v>209.92352961905769</c:v>
+                </c:pt>
+                <c:pt idx="2258">
+                  <c:v>209.2328294040949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28902,7 +28926,7 @@
                   <c:v>494.03442088230048</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>506.02501970460531</c:v>
+                  <c:v>492.49561126113719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29613,7 +29637,7 @@
                   <c:v>204.40321387038799</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>209.88124185079471</c:v>
+                  <c:v>209.2328294040949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30004,34 +30028,34 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.50590000000000002</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0448</c:v>
+                  <c:v>1.0178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85429999999999995</c:v>
+                  <c:v>0.85019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75560000000000005</c:v>
+                  <c:v>0.75509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66739999999999999</c:v>
+                  <c:v>0.66790000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57720000000000005</c:v>
+                  <c:v>0.57750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40539999999999998</c:v>
+                  <c:v>0.41360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39090000000000003</c:v>
+                  <c:v>0.3921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13830000000000001</c:v>
+                  <c:v>0.13489999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30552,10 +30576,10 @@
                   <c:v>MDIA3.SA</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>GRND3.SA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>AERI3.SA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GRND3.SA</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>PGMN3.SA</c:v>
@@ -30564,10 +30588,10 @@
                   <c:v>BNBR3.SA</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>COCE5.SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>COCE3.SA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COCE5.SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30579,31 +30603,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.43835625609869849</c:v>
+                  <c:v>0.44594160118704962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27065365896897792</c:v>
+                  <c:v>0.26563233582364709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2942625164535693E-2</c:v>
+                  <c:v>6.3772928729853864E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3071651914730497E-2</c:v>
+                  <c:v>5.1870521812547428E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1599702478426462E-2</c:v>
+                  <c:v>5.0121657557831122E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8697795516497643E-2</c:v>
+                  <c:v>3.9800668158157901E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1648015593120839E-2</c:v>
+                  <c:v>3.2746680769462758E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7449530191443292E-2</c:v>
+                  <c:v>2.613960916092696E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5580764073569229E-2</c:v>
+                  <c:v>2.3973996800523319E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30990,10 +31014,10 @@
                   <c:v>MDIA3.SA</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>GRND3.SA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>AERI3.SA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GRND3.SA</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>PGMN3.SA</c:v>
@@ -31002,10 +31026,10 @@
                   <c:v>BNBR3.SA</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>COCE5.SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>COCE3.SA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COCE5.SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31026,10 +31050,10 @@
                   <c:v>4.4674823921718211E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.14416604095929181</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.1058555437796873</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14416604095929181</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.5066596654456469E-2</c:v>
@@ -31038,10 +31062,10 @@
                   <c:v>9.9999999999999985E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.025111917448334E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.9999999999999985E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.025111917448334E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33834,7 +33858,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{129C7279-EF9F-4FB6-BB9A-34686DAD9DD2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -33845,7 +33869,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F28CDB9-98F9-47CC-A3D6-161C67EE80CF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -33856,7 +33880,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9642432" cy="6002055"/>
+    <xdr:ext cx="9654886" cy="6018068"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -33889,7 +33913,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9642432" cy="6002055"/>
+    <xdr:ext cx="9654886" cy="6018068"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -34114,22 +34138,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B2" t="str">
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>2.4270776114932779E-2</v>
+            <v>-3.1147822016431852E-3</v>
           </cell>
           <cell r="D2">
-            <v>6.1362542603305981E-2</v>
+            <v>3.2985275104042033E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.87334726657974282</v>
+            <v>0.823260256374581</v>
           </cell>
           <cell r="F2">
-            <v>1.1625427345767221</v>
+            <v>1.1047236094480439</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -34159,27 +34183,27 @@
             <v>8.5909097291277492E-2</v>
           </cell>
           <cell r="P2">
-            <v>6.1362542603305759E-2</v>
+            <v>3.2985275104041811E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B3" t="str">
             <v>Ibovespa</v>
           </cell>
           <cell r="C3">
-            <v>2.6800106890101372E-2</v>
+            <v>2.3627884524209719E-2</v>
           </cell>
           <cell r="D3">
-            <v>-1.59254354349303E-3</v>
+            <v>-4.6770489329955867E-3</v>
           </cell>
           <cell r="E3">
-            <v>0.2461918312688316</v>
+            <v>0.2423418145296283</v>
           </cell>
           <cell r="F3">
-            <v>0.78686508055564075</v>
+            <v>0.78134469412859087</v>
           </cell>
           <cell r="G3">
             <v>7.3968354653416446E-2</v>
@@ -34209,27 +34233,27 @@
             <v>2.8819288744782678E-2</v>
           </cell>
           <cell r="P3">
-            <v>-1.59254354349303E-3</v>
+            <v>-4.6770489329956977E-3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B4" t="str">
             <v>BNBR3.SA</v>
           </cell>
           <cell r="C4">
-            <v>-3.6060999613342533E-2</v>
+            <v>-2.926491065922077E-2</v>
           </cell>
           <cell r="D4">
-            <v>-8.5526315789473673E-2</v>
+            <v>-7.9078973684210574E-2</v>
           </cell>
           <cell r="E4">
-            <v>0.54444444444444429</v>
+            <v>0.55533328888888867</v>
           </cell>
           <cell r="F4">
-            <v>1.4558304754710409</v>
+            <v>1.473144893043989</v>
           </cell>
           <cell r="G4">
             <v>-0.45714285714285718</v>
@@ -34259,27 +34283,27 @@
             <v>-0.19991576376283329</v>
           </cell>
           <cell r="P4">
-            <v>-8.5526315789473673E-2</v>
+            <v>-7.9078973684210574E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B5" t="str">
             <v>COCE3.SA</v>
           </cell>
           <cell r="C5">
-            <v>-5.1455547623218689E-2</v>
+            <v>-0.19370569935020779</v>
           </cell>
           <cell r="D5">
-            <v>-0.16969696059771239</v>
+            <v>-0.29421482904173091</v>
           </cell>
           <cell r="E5">
-            <v>0.36999997727272688</v>
+            <v>0.16454549999999979</v>
           </cell>
           <cell r="F5">
-            <v>0.43523807142857091</v>
+            <v>0.2200000476190471</v>
           </cell>
           <cell r="G5">
             <v>0.4144881889763779</v>
@@ -34309,27 +34333,27 @@
             <v>0.39615380769230768</v>
           </cell>
           <cell r="P5">
-            <v>-0.16969696059771239</v>
+            <v>-0.29421482904173091</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B6" t="str">
             <v>COCE5.SA</v>
           </cell>
           <cell r="C6">
-            <v>-2.0028595136931119E-2</v>
+            <v>-2.5393384313068149E-2</v>
           </cell>
           <cell r="D6">
-            <v>-8.6666683333333383E-2</v>
+            <v>-9.1666666666666674E-2</v>
           </cell>
           <cell r="E6">
-            <v>-3.636381818181933E-3</v>
+            <v>-9.0909090909092605E-3</v>
           </cell>
           <cell r="F6">
-            <v>0.17219249197860981</v>
+            <v>0.16577540106951871</v>
           </cell>
           <cell r="G6">
             <v>0.30624089096543128</v>
@@ -34359,27 +34383,27 @@
             <v>-3.8615606473321518E-2</v>
           </cell>
           <cell r="P6">
-            <v>-8.6666683333333383E-2</v>
+            <v>-9.1666666666666674E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B7" t="str">
             <v>GRND3.SA</v>
           </cell>
           <cell r="C7">
-            <v>1.0282776349614499E-2</v>
+            <v>-1.156812339331614E-2</v>
           </cell>
           <cell r="D7">
-            <v>-6.2052505966587179E-2</v>
+            <v>-8.2338902147971349E-2</v>
           </cell>
           <cell r="E7">
-            <v>-9.3425605536332279E-2</v>
+            <v>-0.11303344867358719</v>
           </cell>
           <cell r="F7">
-            <v>0.1795898539064453</v>
+            <v>0.15407709625198021</v>
           </cell>
           <cell r="G7">
             <v>1.14434332176116</v>
@@ -34409,27 +34433,27 @@
             <v>-0.31758957654723119</v>
           </cell>
           <cell r="P7">
-            <v>-6.2052505966587179E-2</v>
+            <v>-8.2338902147971349E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B8" t="str">
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C8">
-            <v>1.177243296272068E-2</v>
+            <v>-2.2890778286460689E-3</v>
           </cell>
           <cell r="D8">
-            <v>-9.1603050745653225E-2</v>
+            <v>-0.1042278595352948</v>
           </cell>
           <cell r="E8">
-            <v>-0.34142186036611327</v>
+            <v>-0.35057471264367812</v>
           </cell>
           <cell r="F8">
-            <v>-0.32836465742930049</v>
+            <v>-0.3376989773907233</v>
           </cell>
           <cell r="G8">
             <v>0.63710698113207531</v>
@@ -34459,27 +34483,27 @@
             <v>-0.10720840853429051</v>
           </cell>
           <cell r="P8">
-            <v>-9.1603050745653225E-2</v>
+            <v>-0.1042278595352948</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B9" t="str">
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>-1.264367816091949E-2</v>
+            <v>-2.2413793103448151E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.12581913499344699</v>
+            <v>0.1146788990825689</v>
           </cell>
           <cell r="E9">
-            <v>1.635777845965019</v>
+            <v>1.609696225836146</v>
           </cell>
           <cell r="F9">
-            <v>2.11231884057971</v>
+            <v>2.081521739130435</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -34491,27 +34515,27 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>0.12581913499344699</v>
+            <v>0.1146788990825689</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B10" t="str">
             <v>ARCE</v>
           </cell>
           <cell r="C10">
-            <v>0.15305655568750789</v>
+            <v>0.1014074814136892</v>
           </cell>
           <cell r="D10">
-            <v>8.5095489877754726E-2</v>
+            <v>3.6490608118537222E-2</v>
           </cell>
           <cell r="E10">
-            <v>1.2224824171045421</v>
+            <v>1.122930353619811</v>
           </cell>
           <cell r="F10">
-            <v>1.4861627811364451</v>
+            <v>1.3747996346313229</v>
           </cell>
           <cell r="M10">
             <v>3.6850058535654817E-2</v>
@@ -34523,72 +34547,72 @@
             <v>2.5537255795764709E-2</v>
           </cell>
           <cell r="P10">
-            <v>8.5095489877754726E-2</v>
+            <v>3.6490608118537222E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B11" t="str">
             <v>PGMN3.SA</v>
           </cell>
           <cell r="C11">
-            <v>-1.9627085377821318E-2</v>
+            <v>-1.477832512315269E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.107538802660754</v>
+            <v>0.1086474501108647</v>
           </cell>
           <cell r="E11">
-            <v>6.5031982942430622E-2</v>
+            <v>6.6098081023453936E-2</v>
           </cell>
           <cell r="F11">
-            <v>6.5031982942430622E-2</v>
+            <v>6.6098081023453936E-2</v>
           </cell>
           <cell r="O11">
             <v>-3.8379530916844429E-2</v>
           </cell>
           <cell r="P11">
-            <v>0.107538802660754</v>
+            <v>0.1086474501108647</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B12" t="str">
             <v>AERI3.SA</v>
           </cell>
           <cell r="C12">
-            <v>-6.8527918781725927E-2</v>
+            <v>-0.14527027027027031</v>
           </cell>
           <cell r="D12">
-            <v>0.10100000000000001</v>
+            <v>1.2000000000000011E-2</v>
           </cell>
           <cell r="E12">
-            <v>0.65067466266866547</v>
+            <v>0.51724137931034453</v>
           </cell>
           <cell r="F12">
-            <v>0.65067466266866547</v>
+            <v>0.51724137931034453</v>
           </cell>
           <cell r="O12">
             <v>0.49925037481259382</v>
           </cell>
           <cell r="P12">
-            <v>0.10100000000000001</v>
+            <v>1.2000000000000011E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>1.83E-2</v>
+            <v>1.77E-2</v>
           </cell>
           <cell r="C2">
             <v>6.6000000000000003E-2</v>
           </cell>
           <cell r="D2">
-            <v>3.6065573770491799</v>
+            <v>3.7288135593220342</v>
           </cell>
           <cell r="E2">
             <v>4.4000000000000003E-3</v>
@@ -34631,13 +34655,13 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B4">
-            <v>2.6700000000000002E-2</v>
+            <v>2.69E-2</v>
           </cell>
           <cell r="C4">
             <v>0.13900000000000001</v>
           </cell>
           <cell r="D4">
-            <v>5.2059925093632957</v>
+            <v>5.1672862453531598</v>
           </cell>
           <cell r="E4">
             <v>1.9300000000000001E-2</v>
@@ -34657,16 +34681,16 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B5">
-            <v>1.47E-2</v>
+            <v>1.17E-2</v>
           </cell>
           <cell r="C5">
-            <v>0.12590000000000001</v>
+            <v>0.12909999999999999</v>
           </cell>
           <cell r="D5">
-            <v>8.5646258503401373</v>
+            <v>11.034188034188031</v>
           </cell>
           <cell r="E5">
-            <v>1.5800000000000002E-2</v>
+            <v>1.67E-2</v>
           </cell>
           <cell r="F5">
             <v>48</v>
@@ -34683,13 +34707,13 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B6">
-            <v>5.7000000000000002E-3</v>
+            <v>5.5999999999999999E-3</v>
           </cell>
           <cell r="C6">
             <v>6.7100000000000007E-2</v>
           </cell>
           <cell r="D6">
-            <v>11.771929824561401</v>
+            <v>11.982142857142859</v>
           </cell>
           <cell r="E6">
             <v>4.4999999999999997E-3</v>
@@ -34709,13 +34733,13 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B7">
-            <v>6.7000000000000002E-3</v>
+            <v>6.3E-3</v>
           </cell>
           <cell r="C7">
             <v>7.9000000000000001E-2</v>
           </cell>
           <cell r="D7">
-            <v>11.791044776119399</v>
+            <v>12.53968253968254</v>
           </cell>
           <cell r="E7">
             <v>6.1999999999999998E-3</v>
@@ -34735,13 +34759,13 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B8">
-            <v>-3.2000000000000002E-3</v>
+            <v>-3.5000000000000001E-3</v>
           </cell>
           <cell r="C8">
             <v>9.2899999999999996E-2</v>
           </cell>
           <cell r="D8">
-            <v>-29.03125</v>
+            <v>-26.542857142857141</v>
           </cell>
           <cell r="E8">
             <v>8.6E-3</v>
@@ -34761,13 +34785,13 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>3.8800000000000001E-2</v>
+            <v>3.85E-2</v>
           </cell>
           <cell r="C9">
-            <v>0.10050000000000001</v>
+            <v>0.10059999999999999</v>
           </cell>
           <cell r="D9">
-            <v>2.59020618556701</v>
+            <v>2.6129870129870132</v>
           </cell>
           <cell r="E9">
             <v>1.01E-2</v>
@@ -34787,16 +34811,16 @@
             <v>ARCE</v>
           </cell>
           <cell r="B10">
-            <v>4.1200000000000001E-2</v>
+            <v>3.9399999999999998E-2</v>
           </cell>
           <cell r="C10">
-            <v>0.1419</v>
+            <v>0.14080000000000001</v>
           </cell>
           <cell r="D10">
-            <v>3.4441747572815529</v>
+            <v>3.5736040609137061</v>
           </cell>
           <cell r="E10">
-            <v>2.01E-2</v>
+            <v>1.9800000000000002E-2</v>
           </cell>
           <cell r="F10">
             <v>29</v>
@@ -34813,13 +34837,13 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>1.35E-2</v>
+            <v>1.37E-2</v>
           </cell>
           <cell r="C11">
-            <v>8.5099999999999995E-2</v>
+            <v>8.5000000000000006E-2</v>
           </cell>
           <cell r="D11">
-            <v>6.3037037037037038</v>
+            <v>6.2043795620437958</v>
           </cell>
           <cell r="E11">
             <v>7.1999999999999998E-3</v>
@@ -34839,16 +34863,16 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="B12">
-            <v>0.15359999999999999</v>
+            <v>0.13469999999999999</v>
           </cell>
           <cell r="C12">
-            <v>0.25640000000000002</v>
+            <v>0.27989999999999998</v>
           </cell>
           <cell r="D12">
-            <v>1.6692708333333339</v>
+            <v>2.077951002227171</v>
           </cell>
           <cell r="E12">
-            <v>6.5799999999999997E-2</v>
+            <v>7.8299999999999995E-2</v>
           </cell>
           <cell r="F12">
             <v>4</v>
@@ -34857,29 +34881,29 @@
             <v>0.50380000000000003</v>
           </cell>
           <cell r="H12">
-            <v>-6.8500000000000005E-2</v>
+            <v>-0.14380000000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>0.13769999999999999</v>
+            <v>0.13070000000000001</v>
           </cell>
           <cell r="C2">
-            <v>1.0800000000000001E-2</v>
+            <v>1.03E-2</v>
           </cell>
           <cell r="D2">
-            <v>0.50590000000000002</v>
+            <v>0.505</v>
           </cell>
           <cell r="E2">
-            <v>0.55389999999999995</v>
+            <v>0.55220000000000002</v>
           </cell>
           <cell r="F2">
             <v>0</v>
           </cell>
           <cell r="G2">
-            <v>0.30680000000000002</v>
+            <v>0.30499999999999999</v>
           </cell>
         </row>
         <row r="3">
@@ -34887,22 +34911,22 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B3">
-            <v>0.28210000000000002</v>
+            <v>0.28439999999999999</v>
           </cell>
           <cell r="C3">
-            <v>2.0899999999999998E-2</v>
+            <v>2.1100000000000001E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.39090000000000003</v>
+            <v>0.3921</v>
           </cell>
           <cell r="E3">
-            <v>0.2031</v>
+            <v>0.20369999999999999</v>
           </cell>
           <cell r="F3">
-            <v>0.16619999999999999</v>
+            <v>0.1648</v>
           </cell>
           <cell r="G3">
-            <v>4.1200000000000001E-2</v>
+            <v>4.1500000000000002E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -34910,22 +34934,22 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B4">
-            <v>2.4199999999999999E-2</v>
+            <v>-1.0200000000000001E-2</v>
           </cell>
           <cell r="C4">
-            <v>2E-3</v>
+            <v>-8.9999999999999998E-4</v>
           </cell>
           <cell r="D4">
-            <v>0.85429999999999995</v>
+            <v>0.85019999999999996</v>
           </cell>
           <cell r="E4">
-            <v>0.49030000000000001</v>
+            <v>0.47570000000000001</v>
           </cell>
           <cell r="F4">
-            <v>4.0000000000000002E-4</v>
+            <v>5.9999999999999995E-4</v>
           </cell>
           <cell r="G4">
-            <v>0.2404</v>
+            <v>0.2263</v>
           </cell>
         </row>
         <row r="5">
@@ -34933,22 +34957,22 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B5">
-            <v>-3.3700000000000001E-2</v>
+            <v>-3.4599999999999999E-2</v>
           </cell>
           <cell r="C5">
             <v>-2.8999999999999998E-3</v>
           </cell>
           <cell r="D5">
-            <v>0.57720000000000005</v>
+            <v>0.57750000000000001</v>
           </cell>
           <cell r="E5">
-            <v>0.62180000000000002</v>
+            <v>0.62150000000000005</v>
           </cell>
           <cell r="F5">
             <v>0</v>
           </cell>
           <cell r="G5">
-            <v>0.3866</v>
+            <v>0.38629999999999998</v>
           </cell>
         </row>
         <row r="6">
@@ -34956,22 +34980,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B6">
-            <v>-2.5999999999999999E-2</v>
+            <v>-3.0700000000000002E-2</v>
           </cell>
           <cell r="C6">
-            <v>-2.2000000000000001E-3</v>
+            <v>-2.5999999999999999E-3</v>
           </cell>
           <cell r="D6">
-            <v>0.60070000000000001</v>
+            <v>0.6</v>
           </cell>
           <cell r="E6">
-            <v>0.54920000000000002</v>
+            <v>0.54820000000000002</v>
           </cell>
           <cell r="F6">
             <v>1E-4</v>
           </cell>
           <cell r="G6">
-            <v>0.30159999999999998</v>
+            <v>0.30049999999999999</v>
           </cell>
         </row>
         <row r="7">
@@ -34979,22 +35003,22 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B7">
-            <v>-0.15970000000000001</v>
+            <v>-0.16209999999999999</v>
           </cell>
           <cell r="C7">
-            <v>-1.44E-2</v>
+            <v>-1.46E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.75560000000000005</v>
+            <v>0.75509999999999999</v>
           </cell>
           <cell r="E7">
-            <v>0.58750000000000002</v>
+            <v>0.58720000000000006</v>
           </cell>
           <cell r="F7">
             <v>0</v>
           </cell>
           <cell r="G7">
-            <v>0.34520000000000001</v>
+            <v>0.3448</v>
           </cell>
         </row>
         <row r="8">
@@ -35002,22 +35026,22 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.42599999999999999</v>
+            <v>0.42209999999999998</v>
           </cell>
           <cell r="C8">
-            <v>0.03</v>
+            <v>2.98E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.66739999999999999</v>
+            <v>0.66790000000000005</v>
           </cell>
           <cell r="E8">
-            <v>0.54200000000000004</v>
+            <v>0.54139999999999999</v>
           </cell>
           <cell r="F8">
             <v>8.9999999999999998E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.29370000000000002</v>
+            <v>0.29310000000000003</v>
           </cell>
         </row>
         <row r="9">
@@ -35025,22 +35049,22 @@
             <v>ARCE_Ibovespa</v>
           </cell>
           <cell r="B9">
-            <v>0.57709999999999995</v>
+            <v>0.54630000000000001</v>
           </cell>
           <cell r="C9">
-            <v>3.8699999999999998E-2</v>
+            <v>3.6999999999999998E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.13830000000000001</v>
+            <v>0.13489999999999999</v>
           </cell>
           <cell r="E9">
-            <v>8.0600000000000005E-2</v>
+            <v>7.9299999999999995E-2</v>
           </cell>
           <cell r="F9">
-            <v>0.67749999999999999</v>
+            <v>0.68269999999999997</v>
           </cell>
           <cell r="G9">
-            <v>6.4999999999999997E-3</v>
+            <v>6.3E-3</v>
           </cell>
         </row>
         <row r="10">
@@ -35048,22 +35072,22 @@
             <v>ARCE_SP500</v>
           </cell>
           <cell r="B10">
-            <v>0.15179999999999999</v>
+            <v>0.1348</v>
           </cell>
           <cell r="C10">
-            <v>1.18E-2</v>
+            <v>1.06E-2</v>
           </cell>
           <cell r="D10">
-            <v>1.0448</v>
+            <v>1.0178</v>
           </cell>
           <cell r="E10">
-            <v>0.443</v>
+            <v>0.43540000000000001</v>
           </cell>
           <cell r="F10">
-            <v>1.4200000000000001E-2</v>
+            <v>1.6199999999999999E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.19620000000000001</v>
+            <v>0.18959999999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -35071,22 +35095,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>-0.17530000000000001</v>
+            <v>-0.17519999999999999</v>
           </cell>
           <cell r="C11">
             <v>-1.5900000000000001E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.40539999999999998</v>
+            <v>0.41360000000000002</v>
           </cell>
           <cell r="E11">
-            <v>0.32200000000000001</v>
+            <v>0.33310000000000001</v>
           </cell>
           <cell r="F11">
-            <v>0.53359999999999996</v>
+            <v>0.51880000000000004</v>
           </cell>
           <cell r="G11">
-            <v>0.1037</v>
+            <v>0.1109</v>
           </cell>
         </row>
       </sheetData>
@@ -59865,7 +59889,7 @@
             <v>44232</v>
           </cell>
           <cell r="D2253">
-            <v>530.10770024967235</v>
+            <v>532.28465914264518</v>
           </cell>
           <cell r="E2253">
             <v>211.3066920393276</v>
@@ -59887,7 +59911,7 @@
             <v>44236</v>
           </cell>
           <cell r="D2255">
-            <v>524.11589758796015</v>
+            <v>522.19204121685777</v>
           </cell>
           <cell r="E2255">
             <v>210.4327448285583</v>
@@ -59924,6 +59948,28 @@
           </cell>
           <cell r="E2258">
             <v>209.88124185079471</v>
+          </cell>
+        </row>
+        <row r="2259">
+          <cell r="A2259">
+            <v>44245</v>
+          </cell>
+          <cell r="D2259">
+            <v>494.13280592721168</v>
+          </cell>
+          <cell r="E2259">
+            <v>209.92352961905769</v>
+          </cell>
+        </row>
+        <row r="2260">
+          <cell r="A2260">
+            <v>44246</v>
+          </cell>
+          <cell r="D2260">
+            <v>492.49561126113719</v>
+          </cell>
+          <cell r="E2260">
+            <v>209.2328294040949</v>
           </cell>
         </row>
       </sheetData>
@@ -61140,10 +61186,10 @@
             <v>44228</v>
           </cell>
           <cell r="C111">
-            <v>506.02501970460531</v>
+            <v>492.49561126113719</v>
           </cell>
           <cell r="D111">
-            <v>209.88124185079471</v>
+            <v>209.2328294040949</v>
           </cell>
         </row>
       </sheetData>
@@ -61162,7 +61208,7 @@
             <v>3714929530</v>
           </cell>
           <cell r="G2">
-            <v>0.43835625609869849</v>
+            <v>0.44594160118704962</v>
           </cell>
           <cell r="H2">
             <v>0.56032805836997823</v>
@@ -61182,7 +61228,7 @@
             <v>55737000</v>
           </cell>
           <cell r="G3">
-            <v>0.27065365896897792</v>
+            <v>0.26563233582364709</v>
           </cell>
           <cell r="H3">
             <v>2.965781714038454E-2</v>
@@ -61202,7 +61248,7 @@
             <v>339000000</v>
           </cell>
           <cell r="G4">
-            <v>6.2942625164535693E-2</v>
+            <v>6.3772928729853864E-2</v>
           </cell>
           <cell r="H4">
             <v>4.4674823921718211E-2</v>
@@ -61210,42 +61256,42 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>AERI3.SA</v>
+            <v>GRND3.SA</v>
           </cell>
           <cell r="C5">
-            <v>198252829.98445559</v>
+            <v>270003106</v>
           </cell>
           <cell r="D5">
-            <v>198252829.98445559</v>
+            <v>270003106</v>
           </cell>
           <cell r="E5">
-            <v>746598072</v>
+            <v>902160000</v>
           </cell>
           <cell r="G5">
-            <v>5.3071651914730497E-2</v>
+            <v>5.1870521812547428E-2</v>
           </cell>
           <cell r="H5">
-            <v>0.1058555437796873</v>
+            <v>0.14416604095929181</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>GRND3.SA</v>
+            <v>AERI3.SA</v>
           </cell>
           <cell r="C6">
-            <v>270003106</v>
+            <v>198252829.98445559</v>
           </cell>
           <cell r="D6">
-            <v>270003106</v>
+            <v>198252829.98445559</v>
           </cell>
           <cell r="E6">
-            <v>902160000</v>
+            <v>746598072</v>
           </cell>
           <cell r="G6">
-            <v>5.1599702478426462E-2</v>
+            <v>5.0121657557831122E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.14416604095929181</v>
+            <v>0.1058555437796873</v>
           </cell>
         </row>
         <row r="7">
@@ -61262,7 +61308,7 @@
             <v>443781062</v>
           </cell>
           <cell r="G7">
-            <v>3.8697795516497643E-2</v>
+            <v>3.9800668158157901E-2</v>
           </cell>
           <cell r="H7">
             <v>8.5066596654456469E-2</v>
@@ -61282,7 +61328,7 @@
             <v>86371464</v>
           </cell>
           <cell r="G8">
-            <v>3.1648015593120839E-2</v>
+            <v>3.2746680769462758E-2</v>
           </cell>
           <cell r="H8">
             <v>9.9999999999999985E-3</v>
@@ -61290,42 +61336,42 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>COCE3.SA</v>
+            <v>COCE5.SA</v>
           </cell>
           <cell r="C9">
-            <v>1003692</v>
+            <v>19198932</v>
           </cell>
           <cell r="D9">
-            <v>18728620.429844558</v>
+            <v>19198932</v>
           </cell>
           <cell r="E9">
-            <v>48067937</v>
+            <v>29787362</v>
           </cell>
           <cell r="G9">
-            <v>2.7449530191443292E-2</v>
+            <v>2.613960916092696E-2</v>
           </cell>
           <cell r="H9">
-            <v>9.9999999999999985E-3</v>
+            <v>1.025111917448334E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>COCE5.SA</v>
+            <v>COCE3.SA</v>
           </cell>
           <cell r="C10">
-            <v>19198932</v>
+            <v>1003692</v>
           </cell>
           <cell r="D10">
-            <v>19198932</v>
+            <v>18728620.429844558</v>
           </cell>
           <cell r="E10">
-            <v>29787362</v>
+            <v>48067937</v>
           </cell>
           <cell r="G10">
-            <v>2.5580764073569229E-2</v>
+            <v>2.3973996800523319E-2</v>
           </cell>
           <cell r="H10">
-            <v>1.025111917448334E-2</v>
+            <v>9.9999999999999985E-3</v>
           </cell>
           <cell r="I10">
             <v>81277833.393310711</v>
@@ -61340,7 +61386,7 @@
       <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B2" t="str">
             <v>BNBR3.SA</v>
@@ -61354,7 +61400,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B3" t="str">
             <v>COCE3.SA</v>
@@ -61368,7 +61414,7 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B4" t="str">
             <v>COCE5.SA</v>
@@ -61382,7 +61428,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B5" t="str">
             <v>GRND3.SA</v>
@@ -61396,7 +61442,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B6" t="str">
             <v>MDIA3.SA</v>
@@ -61410,7 +61456,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B7" t="str">
             <v>HAPV3.SA</v>
@@ -61424,7 +61470,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B8" t="str">
             <v>ARCE</v>
@@ -61438,7 +61484,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B9" t="str">
             <v>PGMN3.SA</v>
@@ -61452,7 +61498,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44239</v>
+            <v>44246</v>
           </cell>
           <cell r="B10" t="str">
             <v>AERI3.SA</v>
@@ -61770,8 +61816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B865D-1F9C-49C7-A6B7-434184FABAF6}">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61846,19 +61892,19 @@
       </c>
       <c r="C4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>2.6800106890101372E-2</v>
+        <v>2.3627884524209719E-2</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-1.59254354349303E-3</v>
+        <v>-4.6770489329955867E-3</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.2461918312688316</v>
+        <v>0.2423418145296283</v>
       </c>
       <c r="F4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.78686508055564075</v>
+        <v>0.78134469412859087</v>
       </c>
       <c r="G4" s="59">
         <v>0</v>
@@ -61906,19 +61952,19 @@
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>2.4270776114932779E-2</v>
+        <v>-3.1147822016431852E-3</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>6.1362542603305981E-2</v>
+        <v>3.2985275104042033E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.87334726657974282</v>
+        <v>0.823260256374581</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>1.1625427345767221</v>
+        <v>1.1047236094480439</v>
       </c>
       <c r="G5" s="60">
         <v>0</v>
@@ -61967,23 +62013,23 @@
       </c>
       <c r="C6" s="48">
         <f>[1]tab1_retorno_empresas!C4</f>
-        <v>-3.6060999613342533E-2</v>
+        <v>-2.926491065922077E-2</v>
       </c>
       <c r="D6" s="48">
         <f>[1]tab1_retorno_empresas!D4</f>
-        <v>-8.5526315789473673E-2</v>
+        <v>-7.9078973684210574E-2</v>
       </c>
       <c r="E6" s="48">
         <f>[1]tab1_retorno_empresas!E4</f>
-        <v>0.54444444444444429</v>
+        <v>0.55533328888888867</v>
       </c>
       <c r="F6" s="48">
         <f>[1]tab1_retorno_empresas!F4</f>
-        <v>1.4558304754710409</v>
+        <v>1.473144893043989</v>
       </c>
       <c r="G6" s="48">
         <f>_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.1648015593120839E-2</v>
+        <v>3.2746680769462758E-2</v>
       </c>
       <c r="H6" s="48">
         <f>[1]tab1_retorno_empresas!G4</f>
@@ -62029,23 +62075,23 @@
       </c>
       <c r="C7" s="48">
         <f>[1]tab1_retorno_empresas!C5</f>
-        <v>-5.1455547623218689E-2</v>
+        <v>-0.19370569935020779</v>
       </c>
       <c r="D7" s="48">
         <f>[1]tab1_retorno_empresas!D5</f>
-        <v>-0.16969696059771239</v>
+        <v>-0.29421482904173091</v>
       </c>
       <c r="E7" s="48">
         <f>[1]tab1_retorno_empresas!E5</f>
-        <v>0.36999997727272688</v>
+        <v>0.16454549999999979</v>
       </c>
       <c r="F7" s="48">
         <f>[1]tab1_retorno_empresas!F5</f>
-        <v>0.43523807142857091</v>
+        <v>0.2200000476190471</v>
       </c>
       <c r="G7" s="48">
         <f>_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>2.7449530191443292E-2</v>
+        <v>2.3973996800523319E-2</v>
       </c>
       <c r="H7" s="48">
         <f>[1]tab1_retorno_empresas!G5</f>
@@ -62091,23 +62137,23 @@
       </c>
       <c r="C8" s="48">
         <f>[1]tab1_retorno_empresas!C6</f>
-        <v>-2.0028595136931119E-2</v>
+        <v>-2.5393384313068149E-2</v>
       </c>
       <c r="D8" s="48">
         <f>[1]tab1_retorno_empresas!D6</f>
-        <v>-8.6666683333333383E-2</v>
+        <v>-9.1666666666666674E-2</v>
       </c>
       <c r="E8" s="48">
         <f>[1]tab1_retorno_empresas!E6</f>
-        <v>-3.636381818181933E-3</v>
+        <v>-9.0909090909092605E-3</v>
       </c>
       <c r="F8" s="48">
         <f>[1]tab1_retorno_empresas!F6</f>
-        <v>0.17219249197860981</v>
+        <v>0.16577540106951871</v>
       </c>
       <c r="G8" s="48">
         <f>_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>2.5580764073569229E-2</v>
+        <v>2.613960916092696E-2</v>
       </c>
       <c r="H8" s="48">
         <f>[1]tab1_retorno_empresas!G6</f>
@@ -62153,23 +62199,23 @@
       </c>
       <c r="C9" s="48">
         <f>[1]tab1_retorno_empresas!C7</f>
-        <v>1.0282776349614499E-2</v>
+        <v>-1.156812339331614E-2</v>
       </c>
       <c r="D9" s="48">
         <f>[1]tab1_retorno_empresas!D7</f>
-        <v>-6.2052505966587179E-2</v>
+        <v>-8.2338902147971349E-2</v>
       </c>
       <c r="E9" s="48">
         <f>[1]tab1_retorno_empresas!E7</f>
-        <v>-9.3425605536332279E-2</v>
+        <v>-0.11303344867358719</v>
       </c>
       <c r="F9" s="48">
         <f>[1]tab1_retorno_empresas!F7</f>
-        <v>0.1795898539064453</v>
+        <v>0.15407709625198021</v>
       </c>
       <c r="G9" s="48">
         <f>_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.1599702478426462E-2</v>
+        <v>5.1870521812547428E-2</v>
       </c>
       <c r="H9" s="48">
         <f>[1]tab1_retorno_empresas!G7</f>
@@ -62215,23 +62261,23 @@
       </c>
       <c r="C10" s="48">
         <f>[1]tab1_retorno_empresas!C8</f>
-        <v>1.177243296272068E-2</v>
+        <v>-2.2890778286460689E-3</v>
       </c>
       <c r="D10" s="48">
         <f>[1]tab1_retorno_empresas!D8</f>
-        <v>-9.1603050745653225E-2</v>
+        <v>-0.1042278595352948</v>
       </c>
       <c r="E10" s="48">
         <f>[1]tab1_retorno_empresas!E8</f>
-        <v>-0.34142186036611327</v>
+        <v>-0.35057471264367812</v>
       </c>
       <c r="F10" s="48">
         <f>[1]tab1_retorno_empresas!F8</f>
-        <v>-0.32836465742930049</v>
+        <v>-0.3376989773907233</v>
       </c>
       <c r="G10" s="48">
         <f>_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.2942625164535693E-2</v>
+        <v>6.3772928729853864E-2</v>
       </c>
       <c r="H10" s="48">
         <f>[1]tab1_retorno_empresas!G8</f>
@@ -62277,23 +62323,23 @@
       </c>
       <c r="C11" s="48">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>-1.264367816091949E-2</v>
+        <v>-2.2413793103448151E-2</v>
       </c>
       <c r="D11" s="48">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>0.12581913499344699</v>
+        <v>0.1146788990825689</v>
       </c>
       <c r="E11" s="48">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>1.635777845965019</v>
+        <v>1.609696225836146</v>
       </c>
       <c r="F11" s="48">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>2.11231884057971</v>
+        <v>2.081521739130435</v>
       </c>
       <c r="G11" s="48">
         <f>_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.43835625609869849</v>
+        <v>0.44594160118704962</v>
       </c>
       <c r="H11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
@@ -62339,23 +62385,23 @@
       </c>
       <c r="C12" s="48">
         <f>[1]tab1_retorno_empresas!C10</f>
-        <v>0.15305655568750789</v>
+        <v>0.1014074814136892</v>
       </c>
       <c r="D12" s="48">
         <f>[1]tab1_retorno_empresas!D10</f>
-        <v>8.5095489877754726E-2</v>
+        <v>3.6490608118537222E-2</v>
       </c>
       <c r="E12" s="48">
         <f>[1]tab1_retorno_empresas!E10</f>
-        <v>1.2224824171045421</v>
+        <v>1.122930353619811</v>
       </c>
       <c r="F12" s="48">
         <f>[1]tab1_retorno_empresas!F10</f>
-        <v>1.4861627811364451</v>
+        <v>1.3747996346313229</v>
       </c>
       <c r="G12" s="48">
         <f>_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.27065365896897792</v>
+        <v>0.26563233582364709</v>
       </c>
       <c r="H12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
@@ -62401,23 +62447,23 @@
       </c>
       <c r="C13" s="48">
         <f>[1]tab1_retorno_empresas!C11</f>
-        <v>-1.9627085377821318E-2</v>
+        <v>-1.477832512315269E-2</v>
       </c>
       <c r="D13" s="48">
         <f>[1]tab1_retorno_empresas!D11</f>
-        <v>0.107538802660754</v>
+        <v>0.1086474501108647</v>
       </c>
       <c r="E13" s="48">
         <f>[1]tab1_retorno_empresas!E11</f>
-        <v>6.5031982942430622E-2</v>
+        <v>6.6098081023453936E-2</v>
       </c>
       <c r="F13" s="48">
         <f>[1]tab1_retorno_empresas!F11</f>
-        <v>6.5031982942430622E-2</v>
+        <v>6.6098081023453936E-2</v>
       </c>
       <c r="G13" s="48">
         <f>_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.8697795516497643E-2</v>
+        <v>3.9800668158157901E-2</v>
       </c>
       <c r="H13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
@@ -62463,23 +62509,23 @@
       </c>
       <c r="C14" s="49">
         <f>[1]tab1_retorno_empresas!C12</f>
-        <v>-6.8527918781725927E-2</v>
+        <v>-0.14527027027027031</v>
       </c>
       <c r="D14" s="49">
         <f>[1]tab1_retorno_empresas!D12</f>
-        <v>0.10100000000000001</v>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="E14" s="49">
         <f>[1]tab1_retorno_empresas!E12</f>
-        <v>0.65067466266866547</v>
+        <v>0.51724137931034453</v>
       </c>
       <c r="F14" s="49">
         <f>[1]tab1_retorno_empresas!F12</f>
-        <v>0.65067466266866547</v>
+        <v>0.51724137931034453</v>
       </c>
       <c r="G14" s="49">
         <f>_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.3071651914730497E-2</v>
+        <v>5.0121657557831122E-2</v>
       </c>
       <c r="H14" s="18">
         <f>[1]tab1_retorno_empresas!G12</f>
@@ -62641,7 +62687,7 @@
   <dimension ref="C1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62726,7 +62772,7 @@
       </c>
       <c r="D6" s="14">
         <f>[1]tab2_risco_empresas!B$2</f>
-        <v>1.83E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E6" s="14">
         <f>[1]tab2_risco_empresas!C$2</f>
@@ -62734,7 +62780,7 @@
       </c>
       <c r="F6" s="58">
         <f>[1]tab2_risco_empresas!D$2</f>
-        <v>3.6065573770491799</v>
+        <v>3.7288135593220342</v>
       </c>
       <c r="G6" s="14">
         <f>[1]tab2_risco_empresas!E$2</f>
@@ -62759,16 +62805,16 @@
         <v>AERI3.SA</v>
       </c>
       <c r="D7" s="12">
-        <v>0.15359999999999999</v>
+        <v>0.13469999999999999</v>
       </c>
       <c r="E7" s="12">
-        <v>0.25640000000000002</v>
+        <v>0.27989999999999998</v>
       </c>
       <c r="F7" s="6">
-        <v>1.6692708333333339</v>
+        <v>2.077951002227171</v>
       </c>
       <c r="G7" s="13">
-        <v>6.5799999999999997E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="H7" s="20">
         <v>4</v>
@@ -62777,7 +62823,7 @@
         <v>0.50380000000000003</v>
       </c>
       <c r="J7" s="13">
-        <v>-6.8500000000000005E-2</v>
+        <v>-0.14380000000000001</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
@@ -62785,16 +62831,16 @@
         <v>ARCE</v>
       </c>
       <c r="D8" s="12">
-        <v>4.1200000000000001E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>0.1419</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="F8" s="6">
-        <v>3.4441747572815529</v>
+        <v>3.5736040609137061</v>
       </c>
       <c r="G8" s="13">
-        <v>2.01E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="H8" s="20">
         <v>29</v>
@@ -62811,13 +62857,13 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D9" s="12">
-        <v>3.8800000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>0.10050000000000001</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="F9" s="6">
-        <v>2.59020618556701</v>
+        <v>2.6129870129870132</v>
       </c>
       <c r="G9" s="13">
         <v>1.01E-2</v>
@@ -62837,13 +62883,13 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="D10" s="12">
-        <v>2.6700000000000002E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="E10" s="12">
         <v>0.13900000000000001</v>
       </c>
       <c r="F10" s="6">
-        <v>5.2059925093632957</v>
+        <v>5.1672862453531598</v>
       </c>
       <c r="G10" s="13">
         <v>1.9300000000000001E-2</v>
@@ -62860,54 +62906,54 @@
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="str">
-        <v>COCE3.SA</v>
+        <v>PGMN3.SA</v>
       </c>
       <c r="D11" s="15">
-        <v>1.47E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>0.12590000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F11" s="16">
-        <v>8.5646258503401373</v>
+        <v>6.2043795620437958</v>
       </c>
       <c r="G11" s="13">
-        <v>1.5800000000000002E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H11" s="20">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I11" s="13">
-        <v>0.5</v>
+        <v>0.12970000000000001</v>
       </c>
       <c r="J11" s="13">
-        <v>-0.28670000000000001</v>
+        <v>-0.1087</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="str">
-        <v>PGMN3.SA</v>
+        <v>COCE3.SA</v>
       </c>
       <c r="D12" s="15">
-        <v>1.35E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E12" s="15">
-        <v>8.5099999999999995E-2</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="F12" s="16">
-        <v>6.3037037037037038</v>
+        <v>11.034188034188031</v>
       </c>
       <c r="G12" s="13">
-        <v>7.1999999999999998E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I12" s="13">
-        <v>0.12970000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="13">
-        <v>-0.1087</v>
+        <v>-0.28670000000000001</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
@@ -62915,13 +62961,13 @@
         <v>GRND3.SA</v>
       </c>
       <c r="D13" s="15">
-        <v>6.7000000000000002E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E13" s="15">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F13" s="16">
-        <v>11.791044776119399</v>
+        <v>12.53968253968254</v>
       </c>
       <c r="G13" s="13">
         <v>6.1999999999999998E-3</v>
@@ -62941,13 +62987,13 @@
         <v>COCE5.SA</v>
       </c>
       <c r="D14" s="15">
-        <v>5.7000000000000002E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="E14" s="15">
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>11.771929824561401</v>
+        <v>11.982142857142859</v>
       </c>
       <c r="G14" s="13">
         <v>4.4999999999999997E-3</v>
@@ -62967,13 +63013,13 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="D15" s="17">
-        <v>-3.2000000000000002E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="E15" s="17">
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="F15" s="18">
-        <v>-29.03125</v>
+        <v>-26.542857142857141</v>
       </c>
       <c r="G15" s="19">
         <v>8.6E-3</v>
@@ -63008,7 +63054,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63056,19 +63102,19 @@
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>0.13769999999999999</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>1.0800000000000001E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.50590000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.55389999999999995</v>
+        <v>0.55220000000000002</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
@@ -63076,7 +63122,7 @@
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.30680000000000002</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -63085,22 +63131,22 @@
         <v>ARCE_SP500</v>
       </c>
       <c r="C5" s="25">
-        <v>0.15179999999999999</v>
+        <v>0.1348</v>
       </c>
       <c r="D5" s="25">
-        <v>1.18E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="E5" s="25">
-        <v>1.0448</v>
+        <v>1.0178</v>
       </c>
       <c r="F5" s="26">
-        <v>0.443</v>
+        <v>0.43540000000000001</v>
       </c>
       <c r="G5" s="25">
-        <v>1.4200000000000001E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="H5" s="25">
-        <v>0.19620000000000001</v>
+        <v>0.18959999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -63108,22 +63154,22 @@
         <v>COCE3.SA</v>
       </c>
       <c r="C6" s="12">
-        <v>2.4199999999999999E-2</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="D6" s="12">
-        <v>2E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E6" s="12">
-        <v>0.85429999999999995</v>
+        <v>0.85019999999999996</v>
       </c>
       <c r="F6" s="13">
-        <v>0.49030000000000001</v>
+        <v>0.47570000000000001</v>
       </c>
       <c r="G6" s="12">
-        <v>4.0000000000000002E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H6" s="12">
-        <v>0.2404</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -63131,22 +63177,22 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C7" s="12">
-        <v>-0.15970000000000001</v>
+        <v>-0.16209999999999999</v>
       </c>
       <c r="D7" s="12">
-        <v>-1.44E-2</v>
+        <v>-1.46E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.75560000000000005</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="F7" s="13">
-        <v>0.58750000000000002</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.34520000000000001</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -63154,22 +63200,22 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>0.42599999999999999</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="D8" s="12">
-        <v>0.03</v>
+        <v>2.98E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>0.66739999999999999</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="F8" s="13">
-        <v>0.54200000000000004</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="G8" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H8" s="12">
-        <v>0.29370000000000002</v>
+        <v>0.29310000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -63177,22 +63223,22 @@
         <v>GRND3.SA</v>
       </c>
       <c r="C9" s="15">
-        <v>-2.5999999999999999E-2</v>
+        <v>-3.0700000000000002E-2</v>
       </c>
       <c r="D9" s="15">
-        <v>-2.2000000000000001E-3</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E9" s="15">
-        <v>0.60070000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="13">
-        <v>0.54920000000000002</v>
+        <v>0.54820000000000002</v>
       </c>
       <c r="G9" s="15">
         <v>1E-4</v>
       </c>
       <c r="H9" s="15">
-        <v>0.30159999999999998</v>
+        <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -63200,22 +63246,22 @@
         <v>COCE5.SA</v>
       </c>
       <c r="C10" s="12">
-        <v>-3.3700000000000001E-2</v>
+        <v>-3.4599999999999999E-2</v>
       </c>
       <c r="D10" s="12">
         <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E10" s="12">
-        <v>0.57720000000000005</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="F10" s="13">
-        <v>0.62180000000000002</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0.3866</v>
+        <v>0.38629999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -63223,22 +63269,22 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="C11" s="12">
-        <v>-0.17530000000000001</v>
+        <v>-0.17519999999999999</v>
       </c>
       <c r="D11" s="12">
         <v>-1.5900000000000001E-2</v>
       </c>
       <c r="E11" s="12">
-        <v>0.40539999999999998</v>
+        <v>0.41360000000000002</v>
       </c>
       <c r="F11" s="13">
-        <v>0.32200000000000001</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="G11" s="12">
-        <v>0.53359999999999996</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="H11" s="12">
-        <v>0.1037</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -63246,22 +63292,22 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="C12" s="12">
-        <v>0.28210000000000002</v>
+        <v>0.28439999999999999</v>
       </c>
       <c r="D12" s="12">
-        <v>2.0899999999999998E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="E12" s="12">
-        <v>0.39090000000000003</v>
+        <v>0.3921</v>
       </c>
       <c r="F12" s="13">
-        <v>0.2031</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="G12" s="12">
-        <v>0.16619999999999999</v>
+        <v>0.1648</v>
       </c>
       <c r="H12" s="12">
-        <v>4.1200000000000001E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -63269,22 +63315,22 @@
         <v>ARCE_Ibovespa</v>
       </c>
       <c r="C13" s="17">
-        <v>0.57709999999999995</v>
+        <v>0.54630000000000001</v>
       </c>
       <c r="D13" s="17">
-        <v>3.8699999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>0.13830000000000001</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="F13" s="19">
-        <v>8.0600000000000005E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.67749999999999999</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="H13" s="17">
-        <v>6.4999999999999997E-3</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -63313,7 +63359,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63393,7 +63439,7 @@
       </c>
       <c r="H3" s="31">
         <f>[1]contribuicao!G2</f>
-        <v>0.43835625609869849</v>
+        <v>0.44594160118704962</v>
       </c>
       <c r="I3" s="31">
         <f>[1]contribuicao!H2</f>
@@ -63426,7 +63472,7 @@
       </c>
       <c r="H4" s="31">
         <f>[1]contribuicao!G3</f>
-        <v>0.27065365896897792</v>
+        <v>0.26563233582364709</v>
       </c>
       <c r="I4" s="31">
         <f>[1]contribuicao!H3</f>
@@ -63459,7 +63505,7 @@
       </c>
       <c r="H5" s="31">
         <f>[1]contribuicao!G4</f>
-        <v>6.2942625164535693E-2</v>
+        <v>6.3772928729853864E-2</v>
       </c>
       <c r="I5" s="31">
         <f>[1]contribuicao!H4</f>
@@ -63469,67 +63515,67 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="str">
         <f>[1]contribuicao!B5</f>
-        <v>AERI3.SA</v>
+        <v>GRND3.SA</v>
       </c>
       <c r="C6" s="28" t="str">
         <f>_xlfn.XLOOKUP($B6,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>AERIS</v>
+        <v>GRENDENE</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="30">
         <f>[1]contribuicao!C5</f>
-        <v>198252829.98445559</v>
+        <v>270003106</v>
       </c>
       <c r="F6" s="30">
         <f>[1]contribuicao!D5</f>
-        <v>198252829.98445559</v>
+        <v>270003106</v>
       </c>
       <c r="G6" s="30">
         <f>[1]contribuicao!$E5</f>
-        <v>746598072</v>
+        <v>902160000</v>
       </c>
       <c r="H6" s="31">
         <f>[1]contribuicao!G5</f>
-        <v>5.3071651914730497E-2</v>
+        <v>5.1870521812547428E-2</v>
       </c>
       <c r="I6" s="31">
         <f>[1]contribuicao!H5</f>
-        <v>0.1058555437796873</v>
+        <v>0.14416604095929181</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="str">
         <f>[1]contribuicao!B6</f>
-        <v>GRND3.SA</v>
+        <v>AERI3.SA</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>_xlfn.XLOOKUP($B7,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>GRENDENE</v>
+        <v>AERIS</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="30">
         <f>[1]contribuicao!C6</f>
-        <v>270003106</v>
+        <v>198252829.98445559</v>
       </c>
       <c r="F7" s="30">
         <f>[1]contribuicao!D6</f>
-        <v>270003106</v>
+        <v>198252829.98445559</v>
       </c>
       <c r="G7" s="30">
         <f>[1]contribuicao!$E6</f>
-        <v>902160000</v>
+        <v>746598072</v>
       </c>
       <c r="H7" s="31">
         <f>[1]contribuicao!G6</f>
-        <v>5.1599702478426462E-2</v>
+        <v>5.0121657557831122E-2</v>
       </c>
       <c r="I7" s="31">
         <f>[1]contribuicao!H6</f>
-        <v>0.14416604095929181</v>
+        <v>0.1058555437796873</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -63558,7 +63604,7 @@
       </c>
       <c r="H8" s="31">
         <f>[1]contribuicao!G7</f>
-        <v>3.8697795516497643E-2</v>
+        <v>3.9800668158157901E-2</v>
       </c>
       <c r="I8" s="31">
         <f>[1]contribuicao!H7</f>
@@ -63591,7 +63637,7 @@
       </c>
       <c r="H9" s="31">
         <f>[1]contribuicao!G8</f>
-        <v>3.1648015593120839E-2</v>
+        <v>3.2746680769462758E-2</v>
       </c>
       <c r="I9" s="31">
         <f>[1]contribuicao!H8</f>
@@ -63601,7 +63647,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="str">
         <f>[1]contribuicao!B9</f>
-        <v>COCE3.SA</v>
+        <v>COCE5.SA</v>
       </c>
       <c r="C10" s="28" t="str">
         <f>_xlfn.XLOOKUP($B10,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
@@ -63612,29 +63658,29 @@
       </c>
       <c r="E10" s="30">
         <f>[1]contribuicao!C9</f>
-        <v>1003692</v>
+        <v>19198932</v>
       </c>
       <c r="F10" s="30">
         <f>[1]contribuicao!D9</f>
-        <v>18728620.429844558</v>
+        <v>19198932</v>
       </c>
       <c r="G10" s="30">
         <f>[1]contribuicao!$E9</f>
-        <v>48067937</v>
+        <v>29787362</v>
       </c>
       <c r="H10" s="31">
         <f>[1]contribuicao!G9</f>
-        <v>2.7449530191443292E-2</v>
+        <v>2.613960916092696E-2</v>
       </c>
       <c r="I10" s="31">
         <f>[1]contribuicao!H9</f>
-        <v>9.9999999999999985E-3</v>
+        <v>1.025111917448334E-2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="str">
         <f>[1]contribuicao!B10</f>
-        <v>COCE5.SA</v>
+        <v>COCE3.SA</v>
       </c>
       <c r="C11" s="28" t="str">
         <f>IFERROR(_xlfn.XLOOKUP($B11,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10),"")</f>
@@ -63645,23 +63691,23 @@
       </c>
       <c r="E11" s="30">
         <f>[1]contribuicao!C10</f>
-        <v>19198932</v>
+        <v>1003692</v>
       </c>
       <c r="F11" s="30">
         <f>[1]contribuicao!D10</f>
-        <v>19198932</v>
+        <v>18728620.429844558</v>
       </c>
       <c r="G11" s="30">
         <f>[1]contribuicao!$E10</f>
-        <v>29787362</v>
+        <v>48067937</v>
       </c>
       <c r="H11" s="31">
         <f>[1]contribuicao!G10</f>
-        <v>2.5580764073569229E-2</v>
+        <v>2.3973996800523319E-2</v>
       </c>
       <c r="I11" s="31">
         <f>[1]contribuicao!H10</f>
-        <v>1.025111917448334E-2</v>
+        <v>9.9999999999999985E-3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -63889,7 +63935,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63922,7 +63968,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43">
         <f>[1]data_inclusao!A2</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C4" t="str">
         <f>[1]data_inclusao!B2</f>
@@ -63940,7 +63986,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <f>[1]data_inclusao!A3</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C5" t="str">
         <f>[1]data_inclusao!B3</f>
@@ -63958,7 +64004,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <f>[1]data_inclusao!A4</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C6" t="str">
         <f>[1]data_inclusao!B4</f>
@@ -63976,7 +64022,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <f>[1]data_inclusao!A5</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C7" t="str">
         <f>[1]data_inclusao!B5</f>
@@ -63994,7 +64040,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <f>[1]data_inclusao!A6</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C8" t="str">
         <f>[1]data_inclusao!B6</f>
@@ -64012,7 +64058,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <f>[1]data_inclusao!A7</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C9" t="str">
         <f>[1]data_inclusao!B7</f>
@@ -64030,7 +64076,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <f>[1]data_inclusao!A8</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C10" t="str">
         <f>[1]data_inclusao!B8</f>
@@ -64048,7 +64094,7 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <f>[1]data_inclusao!A9</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C11" t="str">
         <f>[1]data_inclusao!B9</f>
@@ -64066,7 +64112,7 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <f>[1]data_inclusao!A10</f>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="C12" s="40" t="str">
         <f>[1]data_inclusao!B10</f>

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBCF1B45-8313-46A7-B5EA-B0E7D284C9DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -770,7 +770,7 @@
             <c:numRef>
               <c:f>[1]indice!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40910</c:v>
@@ -14375,7 +14375,7 @@
             <c:numRef>
               <c:f>[1]indice!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40910</c:v>
@@ -28257,7 +28257,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -28968,7 +28968,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -61817,7 +61817,7 @@
   <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63935,7 +63935,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBCF1B45-8313-46A7-B5EA-B0E7D284C9DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -770,7 +770,7 @@
             <c:numRef>
               <c:f>[1]indice!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40910</c:v>
@@ -7548,6 +7548,9 @@
                 </c:pt>
                 <c:pt idx="2258">
                   <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="2259">
+                  <c:v>44249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14108,7 +14111,7 @@
                   <c:v>441.98452943191631</c:v>
                 </c:pt>
                 <c:pt idx="2183">
-                  <c:v>442.87142749621847</c:v>
+                  <c:v>442.94962006988891</c:v>
                 </c:pt>
                 <c:pt idx="2184">
                   <c:v>449.18139226999358</c:v>
@@ -14135,7 +14138,7 @@
                   <c:v>461.0083478981071</c:v>
                 </c:pt>
                 <c:pt idx="2192">
-                  <c:v>464.26100220677438</c:v>
+                  <c:v>464.92872643983861</c:v>
                 </c:pt>
                 <c:pt idx="2193">
                   <c:v>458.24641857487768</c:v>
@@ -14150,7 +14153,7 @@
                   <c:v>460.39521771313167</c:v>
                 </c:pt>
                 <c:pt idx="2197">
-                  <c:v>477.9550546184467</c:v>
+                  <c:v>478.5974636132612</c:v>
                 </c:pt>
                 <c:pt idx="2198">
                   <c:v>473.02708697651252</c:v>
@@ -14177,7 +14180,7 @@
                   <c:v>474.99825648205581</c:v>
                 </c:pt>
                 <c:pt idx="2206">
-                  <c:v>478.47731679869531</c:v>
+                  <c:v>478.32753321870251</c:v>
                 </c:pt>
                 <c:pt idx="2207">
                   <c:v>481.84373506144158</c:v>
@@ -14192,7 +14195,7 @@
                   <c:v>466.49760462989622</c:v>
                 </c:pt>
                 <c:pt idx="2211">
-                  <c:v>469.90305089764678</c:v>
+                  <c:v>470.20843458214023</c:v>
                 </c:pt>
                 <c:pt idx="2212">
                   <c:v>461.56959130668321</c:v>
@@ -14207,7 +14210,7 @@
                   <c:v>470.78426837469777</c:v>
                 </c:pt>
                 <c:pt idx="2216">
-                  <c:v>470.60778046489798</c:v>
+                  <c:v>470.78573487455873</c:v>
                 </c:pt>
                 <c:pt idx="2217">
                   <c:v>466.58383533336848</c:v>
@@ -14222,7 +14225,7 @@
                   <c:v>474.30996970436058</c:v>
                 </c:pt>
                 <c:pt idx="2221">
-                  <c:v>468.39712080325131</c:v>
+                  <c:v>468.68339885494231</c:v>
                 </c:pt>
                 <c:pt idx="2222">
                   <c:v>467.8960809463469</c:v>
@@ -14255,7 +14258,7 @@
                   <c:v>467.05378774932512</c:v>
                 </c:pt>
                 <c:pt idx="2232">
-                  <c:v>505.54701856530221</c:v>
+                  <c:v>505.95114565933068</c:v>
                 </c:pt>
                 <c:pt idx="2233">
                   <c:v>530.92910717282791</c:v>
@@ -14270,7 +14273,7 @@
                   <c:v>516.78221053458935</c:v>
                 </c:pt>
                 <c:pt idx="2237">
-                  <c:v>523.17718863678374</c:v>
+                  <c:v>519.518619745715</c:v>
                 </c:pt>
                 <c:pt idx="2238">
                   <c:v>527.52134391191521</c:v>
@@ -14285,7 +14288,7 @@
                   <c:v>520.34309004879549</c:v>
                 </c:pt>
                 <c:pt idx="2242">
-                  <c:v>512.33584825789535</c:v>
+                  <c:v>511.43316415724632</c:v>
                 </c:pt>
                 <c:pt idx="2243">
                   <c:v>514.91306160363206</c:v>
@@ -14297,7 +14300,7 @@
                   <c:v>508.87779311710273</c:v>
                 </c:pt>
                 <c:pt idx="2246">
-                  <c:v>494.03442088230048</c:v>
+                  <c:v>490.2008555654474</c:v>
                 </c:pt>
                 <c:pt idx="2247">
                   <c:v>504.16750263001148</c:v>
@@ -14312,7 +14315,7 @@
                   <c:v>524.13582833129362</c:v>
                 </c:pt>
                 <c:pt idx="2251">
-                  <c:v>532.28465914264518</c:v>
+                  <c:v>530.10770024967235</c:v>
                 </c:pt>
                 <c:pt idx="2252">
                   <c:v>521.36381083943934</c:v>
@@ -14327,13 +14330,16 @@
                   <c:v>513.505252331257</c:v>
                 </c:pt>
                 <c:pt idx="2256">
-                  <c:v>506.02501970460531</c:v>
+                  <c:v>506.39178297318688</c:v>
                 </c:pt>
                 <c:pt idx="2257">
                   <c:v>494.13280592721168</c:v>
                 </c:pt>
                 <c:pt idx="2258">
-                  <c:v>492.49561126113719</c:v>
+                  <c:v>495.86956575069809</c:v>
+                </c:pt>
+                <c:pt idx="2259">
+                  <c:v>490.92836344505719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14375,7 +14381,7 @@
             <c:numRef>
               <c:f>[1]indice!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40910</c:v>
@@ -21153,6 +21159,9 @@
                 </c:pt>
                 <c:pt idx="2258">
                   <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="2259">
+                  <c:v>44249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27860,7 +27869,7 @@
                   <c:v>214.88529442858649</c:v>
                 </c:pt>
                 <c:pt idx="2232">
-                  <c:v>220.5994291151284</c:v>
+                  <c:v>220.38446629312469</c:v>
                 </c:pt>
                 <c:pt idx="2233">
                   <c:v>216.38474821157979</c:v>
@@ -27878,7 +27887,7 @@
                   <c:v>212.32336046798471</c:v>
                 </c:pt>
                 <c:pt idx="2238">
-                  <c:v>212.32336046798471</c:v>
+                  <c:v>213.62723332276141</c:v>
                 </c:pt>
                 <c:pt idx="2239">
                   <c:v>212.62466081685869</c:v>
@@ -27939,6 +27948,9 @@
                 </c:pt>
                 <c:pt idx="2258">
                   <c:v>209.2328294040949</c:v>
+                </c:pt>
+                <c:pt idx="2259">
+                  <c:v>198.51992811079401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28257,7 +28269,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -28923,10 +28935,10 @@
                   <c:v>476.76924650405431</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>494.03442088230048</c:v>
+                  <c:v>490.2008555654474</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>492.49561126113719</c:v>
+                  <c:v>490.92836344505719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28968,7 +28980,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -29637,7 +29649,7 @@
                   <c:v>204.40321387038799</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>209.2328294040949</c:v>
+                  <c:v>198.51992811079401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30028,34 +30040,34 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.505</c:v>
+                  <c:v>0.50639999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0178</c:v>
+                  <c:v>1.0202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85019999999999996</c:v>
+                  <c:v>0.88780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75509999999999999</c:v>
+                  <c:v>0.75419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66790000000000005</c:v>
+                  <c:v>0.68030000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.60429999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57750000000000001</c:v>
+                  <c:v>0.5867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41360000000000002</c:v>
+                  <c:v>0.42349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3921</c:v>
+                  <c:v>0.4047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13489999999999999</c:v>
+                  <c:v>0.1085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30603,31 +30615,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.44594160118704962</c:v>
+                  <c:v>0.44157922994593263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26563233582364709</c:v>
+                  <c:v>0.27508010891412737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3772928729853864E-2</c:v>
+                  <c:v>6.2110276675833097E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1870521812547428E-2</c:v>
+                  <c:v>5.0547434655360747E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0121657557831122E-2</c:v>
+                  <c:v>5.018229588233817E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9800668158157901E-2</c:v>
+                  <c:v>3.9129173899198538E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2746680769462758E-2</c:v>
+                  <c:v>3.2161247099097387E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.613960916092696E-2</c:v>
+                  <c:v>2.5159701144226429E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3973996800523319E-2</c:v>
+                  <c:v>2.4050531783885581E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34138,22 +34150,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B2" t="str">
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>-3.1147822016431852E-3</v>
+            <v>1.484101611309185E-3</v>
           </cell>
           <cell r="D2">
-            <v>3.2985275104042033E-2</v>
+            <v>2.969805004166215E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.823260256374581</v>
+            <v>0.81745817288467659</v>
           </cell>
           <cell r="F2">
-            <v>1.1047236094480439</v>
+            <v>1.0980258371127469</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -34183,27 +34195,27 @@
             <v>8.5909097291277492E-2</v>
           </cell>
           <cell r="P2">
-            <v>3.2985275104041811E-2</v>
+            <v>2.969805004166215E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B3" t="str">
             <v>Ibovespa</v>
           </cell>
           <cell r="C3">
-            <v>2.3627884524209719E-2</v>
+            <v>-2.8782745868783929E-2</v>
           </cell>
           <cell r="D3">
-            <v>-4.6770489329955867E-3</v>
+            <v>-5.5638442324778208E-2</v>
           </cell>
           <cell r="E3">
-            <v>0.2423418145296283</v>
+            <v>0.17873284231670561</v>
           </cell>
           <cell r="F3">
-            <v>0.78134469412859087</v>
+            <v>0.69013830968167933</v>
           </cell>
           <cell r="G3">
             <v>7.3968354653416446E-2</v>
@@ -34233,27 +34245,27 @@
             <v>2.8819288744782678E-2</v>
           </cell>
           <cell r="P3">
-            <v>-4.6770489329956977E-3</v>
+            <v>-5.5638442324778097E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B4" t="str">
             <v>BNBR3.SA</v>
           </cell>
           <cell r="C4">
-            <v>-2.926491065922077E-2</v>
+            <v>-4.9653274608967291E-2</v>
           </cell>
           <cell r="D4">
-            <v>-7.9078973684210574E-2</v>
+            <v>-9.8421092105263064E-2</v>
           </cell>
           <cell r="E4">
-            <v>0.55533328888888867</v>
+            <v>0.52266659999999998</v>
           </cell>
           <cell r="F4">
-            <v>1.473144893043989</v>
+            <v>1.421201392975314</v>
           </cell>
           <cell r="G4">
             <v>-0.45714285714285718</v>
@@ -34283,12 +34295,12 @@
             <v>-0.19991576376283329</v>
           </cell>
           <cell r="P4">
-            <v>-7.9078973684210574E-2</v>
+            <v>-9.8421092105263064E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B5" t="str">
             <v>COCE3.SA</v>
@@ -34338,22 +34350,22 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B6" t="str">
             <v>COCE5.SA</v>
           </cell>
           <cell r="C6">
-            <v>-2.5393384313068149E-2</v>
+            <v>-5.4259358758195757E-2</v>
           </cell>
           <cell r="D6">
-            <v>-9.1666666666666674E-2</v>
+            <v>-0.1284999833333334</v>
           </cell>
           <cell r="E6">
-            <v>-9.0909090909092605E-3</v>
+            <v>-4.9272709090909313E-2</v>
           </cell>
           <cell r="F6">
-            <v>0.16577540106951871</v>
+            <v>0.1185026951871657</v>
           </cell>
           <cell r="G6">
             <v>0.30624089096543128</v>
@@ -34383,27 +34395,27 @@
             <v>-3.8615606473321518E-2</v>
           </cell>
           <cell r="P6">
-            <v>-9.1666666666666674E-2</v>
+            <v>-0.1284999833333334</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B7" t="str">
             <v>GRND3.SA</v>
           </cell>
           <cell r="C7">
-            <v>-1.156812339331614E-2</v>
+            <v>-3.1128404669260701E-2</v>
           </cell>
           <cell r="D7">
-            <v>-8.2338902147971349E-2</v>
+            <v>-0.10859188544152749</v>
           </cell>
           <cell r="E7">
-            <v>-0.11303344867358719</v>
+            <v>-0.1384083044982701</v>
           </cell>
           <cell r="F7">
-            <v>0.15407709625198021</v>
+            <v>0.1210605863462018</v>
           </cell>
           <cell r="G7">
             <v>1.14434332176116</v>
@@ -34433,27 +34445,27 @@
             <v>-0.31758957654723119</v>
           </cell>
           <cell r="P7">
-            <v>-8.2338902147971349E-2</v>
+            <v>-0.10859188544152749</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B8" t="str">
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C8">
-            <v>-2.2890778286460689E-3</v>
+            <v>-1.725275438794804E-2</v>
           </cell>
           <cell r="D8">
-            <v>-0.1042278595352948</v>
+            <v>-0.13035818759958351</v>
           </cell>
           <cell r="E8">
-            <v>-0.35057471264367812</v>
+            <v>-0.36951892294593452</v>
           </cell>
           <cell r="F8">
-            <v>-0.3376989773907233</v>
+            <v>-0.35701878230128492</v>
           </cell>
           <cell r="G8">
             <v>0.63710698113207531</v>
@@ -34483,27 +34495,27 @@
             <v>-0.10720840853429051</v>
           </cell>
           <cell r="P8">
-            <v>-0.1042278595352948</v>
+            <v>-0.13035818759958351</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B9" t="str">
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>-2.2413793103448151E-2</v>
+            <v>-2.213156668608041E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.1146788990825689</v>
+            <v>0.1002621887287025</v>
           </cell>
           <cell r="E9">
-            <v>1.609696225836146</v>
+            <v>1.57594369438478</v>
           </cell>
           <cell r="F9">
-            <v>2.081521739130435</v>
+            <v>2.0416668478260869</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -34515,27 +34527,27 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>0.1146788990825689</v>
+            <v>0.1002621887287025</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B10" t="str">
             <v>ARCE</v>
           </cell>
           <cell r="C10">
-            <v>0.1014074814136892</v>
+            <v>0.13695173309160041</v>
           </cell>
           <cell r="D10">
-            <v>3.6490608118537222E-2</v>
+            <v>6.9939884302379518E-2</v>
           </cell>
           <cell r="E10">
-            <v>1.122930353619811</v>
+            <v>1.1914408477440079</v>
           </cell>
           <cell r="F10">
-            <v>1.3747996346313229</v>
+            <v>1.451438369452339</v>
           </cell>
           <cell r="M10">
             <v>3.6850058535654817E-2</v>
@@ -34547,59 +34559,59 @@
             <v>2.5537255795764709E-2</v>
           </cell>
           <cell r="P10">
-            <v>3.6490608118537222E-2</v>
+            <v>6.9939884302379518E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B11" t="str">
             <v>PGMN3.SA</v>
           </cell>
           <cell r="C11">
-            <v>-1.477832512315269E-2</v>
+            <v>-3.4482758620689613E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.1086474501108647</v>
+            <v>8.6474501108647628E-2</v>
           </cell>
           <cell r="E11">
-            <v>6.6098081023453936E-2</v>
+            <v>4.4776119402985197E-2</v>
           </cell>
           <cell r="F11">
-            <v>6.6098081023453936E-2</v>
+            <v>4.4776119402985197E-2</v>
           </cell>
           <cell r="O11">
             <v>-3.8379530916844429E-2</v>
           </cell>
           <cell r="P11">
-            <v>0.1086474501108647</v>
+            <v>8.6474501108647628E-2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B12" t="str">
             <v>AERI3.SA</v>
           </cell>
           <cell r="C12">
-            <v>-0.14527027027027031</v>
+            <v>-0.1469594594594594</v>
           </cell>
           <cell r="D12">
-            <v>1.2000000000000011E-2</v>
+            <v>1.0000000000000011E-2</v>
           </cell>
           <cell r="E12">
-            <v>0.51724137931034453</v>
+            <v>0.5142428785607196</v>
           </cell>
           <cell r="F12">
-            <v>0.51724137931034453</v>
+            <v>0.5142428785607196</v>
           </cell>
           <cell r="O12">
             <v>0.49925037481259382</v>
           </cell>
           <cell r="P12">
-            <v>1.2000000000000011E-2</v>
+            <v>1.0000000000000011E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -34629,16 +34641,16 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.4800000000000001E-2</v>
+            <v>1.37E-2</v>
           </cell>
           <cell r="C3">
-            <v>7.22E-2</v>
+            <v>7.2499999999999995E-2</v>
           </cell>
           <cell r="D3">
-            <v>4.8783783783783781</v>
+            <v>5.2919708029197077</v>
           </cell>
           <cell r="E3">
-            <v>5.1999999999999998E-3</v>
+            <v>5.3E-3</v>
           </cell>
           <cell r="F3">
             <v>48</v>
@@ -34655,16 +34667,16 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B4">
-            <v>2.69E-2</v>
+            <v>2.64E-2</v>
           </cell>
           <cell r="C4">
-            <v>0.13900000000000001</v>
+            <v>0.13919999999999999</v>
           </cell>
           <cell r="D4">
-            <v>5.1672862453531598</v>
+            <v>5.2727272727272734</v>
           </cell>
           <cell r="E4">
-            <v>1.9300000000000001E-2</v>
+            <v>1.9400000000000001E-2</v>
           </cell>
           <cell r="F4">
             <v>48</v>
@@ -34707,16 +34719,16 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B6">
-            <v>5.5999999999999999E-3</v>
+            <v>4.7999999999999996E-3</v>
           </cell>
           <cell r="C6">
-            <v>6.7100000000000007E-2</v>
+            <v>6.7799999999999999E-2</v>
           </cell>
           <cell r="D6">
-            <v>11.982142857142859</v>
+            <v>14.125</v>
           </cell>
           <cell r="E6">
-            <v>4.4999999999999997E-3</v>
+            <v>4.5999999999999999E-3</v>
           </cell>
           <cell r="F6">
             <v>48</v>
@@ -34733,16 +34745,16 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B7">
+            <v>5.7000000000000002E-3</v>
+          </cell>
+          <cell r="C7">
+            <v>7.9399999999999998E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>13.92982456140351</v>
+          </cell>
+          <cell r="E7">
             <v>6.3E-3</v>
-          </cell>
-          <cell r="C7">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>12.53968253968254</v>
-          </cell>
-          <cell r="E7">
-            <v>6.1999999999999998E-3</v>
           </cell>
           <cell r="F7">
             <v>48</v>
@@ -34759,16 +34771,16 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B8">
-            <v>-3.5000000000000001E-3</v>
+            <v>-4.1000000000000003E-3</v>
           </cell>
           <cell r="C8">
-            <v>9.2899999999999996E-2</v>
+            <v>9.3200000000000005E-2</v>
           </cell>
           <cell r="D8">
-            <v>-26.542857142857141</v>
+            <v>-22.73170731707317</v>
           </cell>
           <cell r="E8">
-            <v>8.6E-3</v>
+            <v>8.6999999999999994E-3</v>
           </cell>
           <cell r="F8">
             <v>48</v>
@@ -34785,16 +34797,16 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>3.85E-2</v>
+            <v>3.7999999999999999E-2</v>
           </cell>
           <cell r="C9">
-            <v>0.10059999999999999</v>
+            <v>0.1002</v>
           </cell>
           <cell r="D9">
-            <v>2.6129870129870132</v>
+            <v>2.6368421052631579</v>
           </cell>
           <cell r="E9">
-            <v>1.01E-2</v>
+            <v>0.01</v>
           </cell>
           <cell r="F9">
             <v>34</v>
@@ -34811,16 +34823,16 @@
             <v>ARCE</v>
           </cell>
           <cell r="B10">
-            <v>3.9399999999999998E-2</v>
+            <v>4.0599999999999997E-2</v>
           </cell>
           <cell r="C10">
-            <v>0.14080000000000001</v>
+            <v>0.14149999999999999</v>
           </cell>
           <cell r="D10">
-            <v>3.5736040609137061</v>
+            <v>3.485221674876847</v>
           </cell>
           <cell r="E10">
-            <v>1.9800000000000002E-2</v>
+            <v>0.02</v>
           </cell>
           <cell r="F10">
             <v>29</v>
@@ -34837,22 +34849,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>1.37E-2</v>
+            <v>1.03E-2</v>
           </cell>
           <cell r="C11">
-            <v>8.5000000000000006E-2</v>
+            <v>8.5199999999999998E-2</v>
           </cell>
           <cell r="D11">
-            <v>6.2043795620437958</v>
+            <v>8.2718446601941746</v>
           </cell>
           <cell r="E11">
-            <v>7.1999999999999998E-3</v>
+            <v>7.3000000000000001E-3</v>
           </cell>
           <cell r="F11">
             <v>6</v>
           </cell>
           <cell r="G11">
-            <v>0.12970000000000001</v>
+            <v>0.12529999999999999</v>
           </cell>
           <cell r="H11">
             <v>-0.1087</v>
@@ -34863,16 +34875,16 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="B12">
-            <v>0.13469999999999999</v>
+            <v>0.13450000000000001</v>
           </cell>
           <cell r="C12">
-            <v>0.27989999999999998</v>
+            <v>0.28100000000000003</v>
           </cell>
           <cell r="D12">
-            <v>2.077951002227171</v>
+            <v>2.0892193308550189</v>
           </cell>
           <cell r="E12">
-            <v>7.8299999999999995E-2</v>
+            <v>7.9000000000000001E-2</v>
           </cell>
           <cell r="F12">
             <v>4</v>
@@ -34881,29 +34893,29 @@
             <v>0.50380000000000003</v>
           </cell>
           <cell r="H12">
-            <v>-0.14380000000000001</v>
+            <v>-0.14699999999999999</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>0.13070000000000001</v>
+            <v>0.13689999999999999</v>
           </cell>
           <cell r="C2">
-            <v>1.03E-2</v>
+            <v>1.0699999999999999E-2</v>
           </cell>
           <cell r="D2">
-            <v>0.505</v>
+            <v>0.50639999999999996</v>
           </cell>
           <cell r="E2">
-            <v>0.55220000000000002</v>
+            <v>0.55630000000000002</v>
           </cell>
           <cell r="F2">
             <v>0</v>
           </cell>
           <cell r="G2">
-            <v>0.30499999999999999</v>
+            <v>0.3095</v>
           </cell>
         </row>
         <row r="3">
@@ -34911,22 +34923,22 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B3">
-            <v>0.28439999999999999</v>
+            <v>0.28179999999999999</v>
           </cell>
           <cell r="C3">
-            <v>2.1100000000000001E-2</v>
+            <v>2.0899999999999998E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.3921</v>
+            <v>0.4047</v>
           </cell>
           <cell r="E3">
-            <v>0.20369999999999999</v>
+            <v>0.21079999999999999</v>
           </cell>
           <cell r="F3">
-            <v>0.1648</v>
+            <v>0.15049999999999999</v>
           </cell>
           <cell r="G3">
-            <v>4.1500000000000002E-2</v>
+            <v>4.4400000000000002E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -34934,22 +34946,22 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B4">
-            <v>-1.0200000000000001E-2</v>
+            <v>-5.1999999999999998E-3</v>
           </cell>
           <cell r="C4">
-            <v>-8.9999999999999998E-4</v>
+            <v>-4.0000000000000002E-4</v>
           </cell>
           <cell r="D4">
-            <v>0.85019999999999996</v>
+            <v>0.88780000000000003</v>
           </cell>
           <cell r="E4">
-            <v>0.47570000000000001</v>
+            <v>0.4985</v>
           </cell>
           <cell r="F4">
-            <v>5.9999999999999995E-4</v>
+            <v>2.9999999999999997E-4</v>
           </cell>
           <cell r="G4">
-            <v>0.2263</v>
+            <v>0.2485</v>
           </cell>
         </row>
         <row r="5">
@@ -34957,22 +34969,22 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B5">
-            <v>-3.4599999999999999E-2</v>
+            <v>-3.8300000000000001E-2</v>
           </cell>
           <cell r="C5">
-            <v>-2.8999999999999998E-3</v>
+            <v>-3.2000000000000002E-3</v>
           </cell>
           <cell r="D5">
-            <v>0.57750000000000001</v>
+            <v>0.5867</v>
           </cell>
           <cell r="E5">
-            <v>0.62150000000000005</v>
+            <v>0.62739999999999996</v>
           </cell>
           <cell r="F5">
             <v>0</v>
           </cell>
           <cell r="G5">
-            <v>0.38629999999999998</v>
+            <v>0.39369999999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -34980,22 +34992,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B6">
-            <v>-3.0700000000000002E-2</v>
+            <v>-3.0599999999999999E-2</v>
           </cell>
           <cell r="C6">
             <v>-2.5999999999999999E-3</v>
           </cell>
           <cell r="D6">
-            <v>0.6</v>
+            <v>0.60429999999999995</v>
           </cell>
           <cell r="E6">
-            <v>0.54820000000000002</v>
+            <v>0.55179999999999996</v>
           </cell>
           <cell r="F6">
-            <v>1E-4</v>
+            <v>0</v>
           </cell>
           <cell r="G6">
-            <v>0.30049999999999999</v>
+            <v>0.30449999999999999</v>
           </cell>
         </row>
         <row r="7">
@@ -35003,22 +35015,22 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B7">
-            <v>-0.16209999999999999</v>
+            <v>-0.1595</v>
           </cell>
           <cell r="C7">
-            <v>-1.46E-2</v>
+            <v>-1.44E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.75509999999999999</v>
+            <v>0.75419999999999998</v>
           </cell>
           <cell r="E7">
-            <v>0.58720000000000006</v>
+            <v>0.58650000000000002</v>
           </cell>
           <cell r="F7">
             <v>0</v>
           </cell>
           <cell r="G7">
-            <v>0.3448</v>
+            <v>0.34399999999999997</v>
           </cell>
         </row>
         <row r="8">
@@ -35026,22 +35038,22 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.42209999999999998</v>
+            <v>0.42970000000000003</v>
           </cell>
           <cell r="C8">
-            <v>2.98E-2</v>
+            <v>3.0200000000000001E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.66790000000000005</v>
+            <v>0.68030000000000002</v>
           </cell>
           <cell r="E8">
-            <v>0.54139999999999999</v>
+            <v>0.55579999999999996</v>
           </cell>
           <cell r="F8">
-            <v>8.9999999999999998E-4</v>
+            <v>5.9999999999999995E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.29310000000000003</v>
+            <v>0.30890000000000001</v>
           </cell>
         </row>
         <row r="9">
@@ -35049,22 +35061,22 @@
             <v>ARCE_Ibovespa</v>
           </cell>
           <cell r="B9">
-            <v>0.54630000000000001</v>
+            <v>0.58040000000000003</v>
           </cell>
           <cell r="C9">
-            <v>3.6999999999999998E-2</v>
+            <v>3.8899999999999997E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.13489999999999999</v>
+            <v>0.1085</v>
           </cell>
           <cell r="E9">
-            <v>7.9299999999999995E-2</v>
+            <v>6.3799999999999996E-2</v>
           </cell>
           <cell r="F9">
-            <v>0.68269999999999997</v>
+            <v>0.74239999999999995</v>
           </cell>
           <cell r="G9">
-            <v>6.3E-3</v>
+            <v>4.1000000000000003E-3</v>
           </cell>
         </row>
         <row r="10">
@@ -35072,22 +35084,22 @@
             <v>ARCE_SP500</v>
           </cell>
           <cell r="B10">
-            <v>0.1348</v>
+            <v>0.1439</v>
           </cell>
           <cell r="C10">
-            <v>1.06E-2</v>
+            <v>1.1299999999999999E-2</v>
           </cell>
           <cell r="D10">
-            <v>1.0178</v>
+            <v>1.0202</v>
           </cell>
           <cell r="E10">
-            <v>0.43540000000000001</v>
+            <v>0.43409999999999999</v>
           </cell>
           <cell r="F10">
-            <v>1.6199999999999999E-2</v>
+            <v>1.6500000000000001E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.18959999999999999</v>
+            <v>0.18840000000000001</v>
           </cell>
         </row>
         <row r="11">
@@ -35095,22 +35107,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>-0.17519999999999999</v>
+            <v>-0.17430000000000001</v>
           </cell>
           <cell r="C11">
-            <v>-1.5900000000000001E-2</v>
+            <v>-1.5800000000000002E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.41360000000000002</v>
+            <v>0.42349999999999999</v>
           </cell>
           <cell r="E11">
-            <v>0.33310000000000001</v>
+            <v>0.35520000000000002</v>
           </cell>
           <cell r="F11">
-            <v>0.51880000000000004</v>
+            <v>0.48970000000000002</v>
           </cell>
           <cell r="G11">
-            <v>0.1109</v>
+            <v>0.12609999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -59141,7 +59153,7 @@
             <v>44127</v>
           </cell>
           <cell r="D2185">
-            <v>442.87142749621847</v>
+            <v>442.94962006988891</v>
           </cell>
           <cell r="E2185">
             <v>178.41914226310041</v>
@@ -59240,7 +59252,7 @@
             <v>44141</v>
           </cell>
           <cell r="D2194">
-            <v>464.26100220677438</v>
+            <v>464.92872643983861</v>
           </cell>
           <cell r="E2194">
             <v>177.6068647143814</v>
@@ -59295,7 +59307,7 @@
             <v>44148</v>
           </cell>
           <cell r="D2199">
-            <v>477.9550546184467</v>
+            <v>478.5974636132612</v>
           </cell>
           <cell r="E2199">
             <v>184.14913486274099</v>
@@ -59394,7 +59406,7 @@
             <v>44162</v>
           </cell>
           <cell r="D2208">
-            <v>478.47731679869531</v>
+            <v>478.32753321870251</v>
           </cell>
           <cell r="E2208">
             <v>194.8320823201889</v>
@@ -59449,7 +59461,7 @@
             <v>44169</v>
           </cell>
           <cell r="D2213">
-            <v>469.90305089764678</v>
+            <v>470.20843458214023</v>
           </cell>
           <cell r="E2213">
             <v>200.30658631990701</v>
@@ -59504,7 +59516,7 @@
             <v>44176</v>
           </cell>
           <cell r="D2218">
-            <v>470.60778046489798</v>
+            <v>470.78573487455873</v>
           </cell>
           <cell r="E2218">
             <v>203.19801247489161</v>
@@ -59559,7 +59571,7 @@
             <v>44183</v>
           </cell>
           <cell r="D2223">
-            <v>468.39712080325131</v>
+            <v>468.68339885494231</v>
           </cell>
           <cell r="E2223">
             <v>207.34926172604571</v>
@@ -59680,10 +59692,10 @@
             <v>44204</v>
           </cell>
           <cell r="D2234">
-            <v>505.54701856530221</v>
+            <v>505.95114565933068</v>
           </cell>
           <cell r="E2234">
-            <v>220.5994291151284</v>
+            <v>220.38446629312469</v>
           </cell>
         </row>
         <row r="2235">
@@ -59735,7 +59747,7 @@
             <v>44211</v>
           </cell>
           <cell r="D2239">
-            <v>523.17718863678374</v>
+            <v>519.518619745715</v>
           </cell>
           <cell r="E2239">
             <v>212.32336046798471</v>
@@ -59749,7 +59761,7 @@
             <v>527.52134391191521</v>
           </cell>
           <cell r="E2240">
-            <v>212.32336046798471</v>
+            <v>213.62723332276141</v>
           </cell>
         </row>
         <row r="2241">
@@ -59790,7 +59802,7 @@
             <v>44218</v>
           </cell>
           <cell r="D2244">
-            <v>512.33584825789535</v>
+            <v>511.43316415724632</v>
           </cell>
           <cell r="E2244">
             <v>206.45593262148921</v>
@@ -59834,7 +59846,7 @@
             <v>44225</v>
           </cell>
           <cell r="D2248">
-            <v>494.03442088230048</v>
+            <v>490.2008555654474</v>
           </cell>
           <cell r="E2248">
             <v>204.40321387038799</v>
@@ -59889,7 +59901,7 @@
             <v>44232</v>
           </cell>
           <cell r="D2253">
-            <v>532.28465914264518</v>
+            <v>530.10770024967235</v>
           </cell>
           <cell r="E2253">
             <v>211.3066920393276</v>
@@ -59944,7 +59956,7 @@
             <v>44239</v>
           </cell>
           <cell r="D2258">
-            <v>506.02501970460531</v>
+            <v>506.39178297318688</v>
           </cell>
           <cell r="E2258">
             <v>209.88124185079471</v>
@@ -59966,10 +59978,21 @@
             <v>44246</v>
           </cell>
           <cell r="D2260">
-            <v>492.49561126113719</v>
+            <v>495.86956575069809</v>
           </cell>
           <cell r="E2260">
             <v>209.2328294040949</v>
+          </cell>
+        </row>
+        <row r="2261">
+          <cell r="A2261">
+            <v>44249</v>
+          </cell>
+          <cell r="D2261">
+            <v>490.92836344505719</v>
+          </cell>
+          <cell r="E2261">
+            <v>198.51992811079401</v>
           </cell>
         </row>
       </sheetData>
@@ -61175,7 +61198,7 @@
             <v>44197</v>
           </cell>
           <cell r="C110">
-            <v>494.03442088230048</v>
+            <v>490.2008555654474</v>
           </cell>
           <cell r="D110">
             <v>204.40321387038799</v>
@@ -61186,10 +61209,10 @@
             <v>44228</v>
           </cell>
           <cell r="C111">
-            <v>492.49561126113719</v>
+            <v>490.92836344505719</v>
           </cell>
           <cell r="D111">
-            <v>209.2328294040949</v>
+            <v>198.51992811079401</v>
           </cell>
         </row>
       </sheetData>
@@ -61208,7 +61231,7 @@
             <v>3714929530</v>
           </cell>
           <cell r="G2">
-            <v>0.44594160118704962</v>
+            <v>0.44157922994593263</v>
           </cell>
           <cell r="H2">
             <v>0.56032805836997823</v>
@@ -61228,7 +61251,7 @@
             <v>55737000</v>
           </cell>
           <cell r="G3">
-            <v>0.26563233582364709</v>
+            <v>0.27508010891412737</v>
           </cell>
           <cell r="H3">
             <v>2.965781714038454E-2</v>
@@ -61248,7 +61271,7 @@
             <v>339000000</v>
           </cell>
           <cell r="G4">
-            <v>6.3772928729853864E-2</v>
+            <v>6.2110276675833097E-2</v>
           </cell>
           <cell r="H4">
             <v>4.4674823921718211E-2</v>
@@ -61268,7 +61291,7 @@
             <v>902160000</v>
           </cell>
           <cell r="G5">
-            <v>5.1870521812547428E-2</v>
+            <v>5.0547434655360747E-2</v>
           </cell>
           <cell r="H5">
             <v>0.14416604095929181</v>
@@ -61288,7 +61311,7 @@
             <v>746598072</v>
           </cell>
           <cell r="G6">
-            <v>5.0121657557831122E-2</v>
+            <v>5.018229588233817E-2</v>
           </cell>
           <cell r="H6">
             <v>0.1058555437796873</v>
@@ -61308,7 +61331,7 @@
             <v>443781062</v>
           </cell>
           <cell r="G7">
-            <v>3.9800668158157901E-2</v>
+            <v>3.9129173899198538E-2</v>
           </cell>
           <cell r="H7">
             <v>8.5066596654456469E-2</v>
@@ -61328,7 +61351,7 @@
             <v>86371464</v>
           </cell>
           <cell r="G8">
-            <v>3.2746680769462758E-2</v>
+            <v>3.2161247099097387E-2</v>
           </cell>
           <cell r="H8">
             <v>9.9999999999999985E-3</v>
@@ -61348,7 +61371,7 @@
             <v>29787362</v>
           </cell>
           <cell r="G9">
-            <v>2.613960916092696E-2</v>
+            <v>2.5159701144226429E-2</v>
           </cell>
           <cell r="H9">
             <v>1.025111917448334E-2</v>
@@ -61368,7 +61391,7 @@
             <v>48067937</v>
           </cell>
           <cell r="G10">
-            <v>2.3973996800523319E-2</v>
+            <v>2.4050531783885581E-2</v>
           </cell>
           <cell r="H10">
             <v>9.9999999999999985E-3</v>
@@ -61386,7 +61409,7 @@
       <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B2" t="str">
             <v>BNBR3.SA</v>
@@ -61400,7 +61423,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B3" t="str">
             <v>COCE3.SA</v>
@@ -61414,7 +61437,7 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B4" t="str">
             <v>COCE5.SA</v>
@@ -61428,7 +61451,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B5" t="str">
             <v>GRND3.SA</v>
@@ -61442,7 +61465,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B6" t="str">
             <v>MDIA3.SA</v>
@@ -61456,7 +61479,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B7" t="str">
             <v>HAPV3.SA</v>
@@ -61470,7 +61493,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B8" t="str">
             <v>ARCE</v>
@@ -61484,7 +61507,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B9" t="str">
             <v>PGMN3.SA</v>
@@ -61498,7 +61521,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44246</v>
+            <v>44249</v>
           </cell>
           <cell r="B10" t="str">
             <v>AERI3.SA</v>
@@ -61817,7 +61840,7 @@
   <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61892,19 +61915,19 @@
       </c>
       <c r="C4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>2.3627884524209719E-2</v>
+        <v>-2.8782745868783929E-2</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-4.6770489329955867E-3</v>
+        <v>-5.5638442324778208E-2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.2423418145296283</v>
+        <v>0.17873284231670561</v>
       </c>
       <c r="F4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.78134469412859087</v>
+        <v>0.69013830968167933</v>
       </c>
       <c r="G4" s="59">
         <v>0</v>
@@ -61952,19 +61975,19 @@
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>-3.1147822016431852E-3</v>
+        <v>1.484101611309185E-3</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>3.2985275104042033E-2</v>
+        <v>2.969805004166215E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.823260256374581</v>
+        <v>0.81745817288467659</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>1.1047236094480439</v>
+        <v>1.0980258371127469</v>
       </c>
       <c r="G5" s="60">
         <v>0</v>
@@ -62013,23 +62036,23 @@
       </c>
       <c r="C6" s="48">
         <f>[1]tab1_retorno_empresas!C4</f>
-        <v>-2.926491065922077E-2</v>
+        <v>-4.9653274608967291E-2</v>
       </c>
       <c r="D6" s="48">
         <f>[1]tab1_retorno_empresas!D4</f>
-        <v>-7.9078973684210574E-2</v>
+        <v>-9.8421092105263064E-2</v>
       </c>
       <c r="E6" s="48">
         <f>[1]tab1_retorno_empresas!E4</f>
-        <v>0.55533328888888867</v>
+        <v>0.52266659999999998</v>
       </c>
       <c r="F6" s="48">
         <f>[1]tab1_retorno_empresas!F4</f>
-        <v>1.473144893043989</v>
+        <v>1.421201392975314</v>
       </c>
       <c r="G6" s="48">
         <f>_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.2746680769462758E-2</v>
+        <v>3.2161247099097387E-2</v>
       </c>
       <c r="H6" s="48">
         <f>[1]tab1_retorno_empresas!G4</f>
@@ -62091,7 +62114,7 @@
       </c>
       <c r="G7" s="48">
         <f>_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>2.3973996800523319E-2</v>
+        <v>2.4050531783885581E-2</v>
       </c>
       <c r="H7" s="48">
         <f>[1]tab1_retorno_empresas!G5</f>
@@ -62137,23 +62160,23 @@
       </c>
       <c r="C8" s="48">
         <f>[1]tab1_retorno_empresas!C6</f>
-        <v>-2.5393384313068149E-2</v>
+        <v>-5.4259358758195757E-2</v>
       </c>
       <c r="D8" s="48">
         <f>[1]tab1_retorno_empresas!D6</f>
-        <v>-9.1666666666666674E-2</v>
+        <v>-0.1284999833333334</v>
       </c>
       <c r="E8" s="48">
         <f>[1]tab1_retorno_empresas!E6</f>
-        <v>-9.0909090909092605E-3</v>
+        <v>-4.9272709090909313E-2</v>
       </c>
       <c r="F8" s="48">
         <f>[1]tab1_retorno_empresas!F6</f>
-        <v>0.16577540106951871</v>
+        <v>0.1185026951871657</v>
       </c>
       <c r="G8" s="48">
         <f>_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>2.613960916092696E-2</v>
+        <v>2.5159701144226429E-2</v>
       </c>
       <c r="H8" s="48">
         <f>[1]tab1_retorno_empresas!G6</f>
@@ -62199,23 +62222,23 @@
       </c>
       <c r="C9" s="48">
         <f>[1]tab1_retorno_empresas!C7</f>
-        <v>-1.156812339331614E-2</v>
+        <v>-3.1128404669260701E-2</v>
       </c>
       <c r="D9" s="48">
         <f>[1]tab1_retorno_empresas!D7</f>
-        <v>-8.2338902147971349E-2</v>
+        <v>-0.10859188544152749</v>
       </c>
       <c r="E9" s="48">
         <f>[1]tab1_retorno_empresas!E7</f>
-        <v>-0.11303344867358719</v>
+        <v>-0.1384083044982701</v>
       </c>
       <c r="F9" s="48">
         <f>[1]tab1_retorno_empresas!F7</f>
-        <v>0.15407709625198021</v>
+        <v>0.1210605863462018</v>
       </c>
       <c r="G9" s="48">
         <f>_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.1870521812547428E-2</v>
+        <v>5.0547434655360747E-2</v>
       </c>
       <c r="H9" s="48">
         <f>[1]tab1_retorno_empresas!G7</f>
@@ -62261,23 +62284,23 @@
       </c>
       <c r="C10" s="48">
         <f>[1]tab1_retorno_empresas!C8</f>
-        <v>-2.2890778286460689E-3</v>
+        <v>-1.725275438794804E-2</v>
       </c>
       <c r="D10" s="48">
         <f>[1]tab1_retorno_empresas!D8</f>
-        <v>-0.1042278595352948</v>
+        <v>-0.13035818759958351</v>
       </c>
       <c r="E10" s="48">
         <f>[1]tab1_retorno_empresas!E8</f>
-        <v>-0.35057471264367812</v>
+        <v>-0.36951892294593452</v>
       </c>
       <c r="F10" s="48">
         <f>[1]tab1_retorno_empresas!F8</f>
-        <v>-0.3376989773907233</v>
+        <v>-0.35701878230128492</v>
       </c>
       <c r="G10" s="48">
         <f>_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.3772928729853864E-2</v>
+        <v>6.2110276675833097E-2</v>
       </c>
       <c r="H10" s="48">
         <f>[1]tab1_retorno_empresas!G8</f>
@@ -62323,23 +62346,23 @@
       </c>
       <c r="C11" s="48">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>-2.2413793103448151E-2</v>
+        <v>-2.213156668608041E-2</v>
       </c>
       <c r="D11" s="48">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>0.1146788990825689</v>
+        <v>0.1002621887287025</v>
       </c>
       <c r="E11" s="48">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>1.609696225836146</v>
+        <v>1.57594369438478</v>
       </c>
       <c r="F11" s="48">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>2.081521739130435</v>
+        <v>2.0416668478260869</v>
       </c>
       <c r="G11" s="48">
         <f>_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.44594160118704962</v>
+        <v>0.44157922994593263</v>
       </c>
       <c r="H11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
@@ -62385,23 +62408,23 @@
       </c>
       <c r="C12" s="48">
         <f>[1]tab1_retorno_empresas!C10</f>
-        <v>0.1014074814136892</v>
+        <v>0.13695173309160041</v>
       </c>
       <c r="D12" s="48">
         <f>[1]tab1_retorno_empresas!D10</f>
-        <v>3.6490608118537222E-2</v>
+        <v>6.9939884302379518E-2</v>
       </c>
       <c r="E12" s="48">
         <f>[1]tab1_retorno_empresas!E10</f>
-        <v>1.122930353619811</v>
+        <v>1.1914408477440079</v>
       </c>
       <c r="F12" s="48">
         <f>[1]tab1_retorno_empresas!F10</f>
-        <v>1.3747996346313229</v>
+        <v>1.451438369452339</v>
       </c>
       <c r="G12" s="48">
         <f>_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.26563233582364709</v>
+        <v>0.27508010891412737</v>
       </c>
       <c r="H12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
@@ -62447,23 +62470,23 @@
       </c>
       <c r="C13" s="48">
         <f>[1]tab1_retorno_empresas!C11</f>
-        <v>-1.477832512315269E-2</v>
+        <v>-3.4482758620689613E-2</v>
       </c>
       <c r="D13" s="48">
         <f>[1]tab1_retorno_empresas!D11</f>
-        <v>0.1086474501108647</v>
+        <v>8.6474501108647628E-2</v>
       </c>
       <c r="E13" s="48">
         <f>[1]tab1_retorno_empresas!E11</f>
-        <v>6.6098081023453936E-2</v>
+        <v>4.4776119402985197E-2</v>
       </c>
       <c r="F13" s="48">
         <f>[1]tab1_retorno_empresas!F11</f>
-        <v>6.6098081023453936E-2</v>
+        <v>4.4776119402985197E-2</v>
       </c>
       <c r="G13" s="48">
         <f>_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.9800668158157901E-2</v>
+        <v>3.9129173899198538E-2</v>
       </c>
       <c r="H13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
@@ -62509,23 +62532,23 @@
       </c>
       <c r="C14" s="49">
         <f>[1]tab1_retorno_empresas!C12</f>
-        <v>-0.14527027027027031</v>
+        <v>-0.1469594594594594</v>
       </c>
       <c r="D14" s="49">
         <f>[1]tab1_retorno_empresas!D12</f>
-        <v>1.2000000000000011E-2</v>
+        <v>1.0000000000000011E-2</v>
       </c>
       <c r="E14" s="49">
         <f>[1]tab1_retorno_empresas!E12</f>
-        <v>0.51724137931034453</v>
+        <v>0.5142428785607196</v>
       </c>
       <c r="F14" s="49">
         <f>[1]tab1_retorno_empresas!F12</f>
-        <v>0.51724137931034453</v>
+        <v>0.5142428785607196</v>
       </c>
       <c r="G14" s="49">
         <f>_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.0121657557831122E-2</v>
+        <v>5.018229588233817E-2</v>
       </c>
       <c r="H14" s="18">
         <f>[1]tab1_retorno_empresas!G12</f>
@@ -62739,19 +62762,19 @@
       </c>
       <c r="D5" s="12">
         <f>[1]tab2_risco_empresas!B$3</f>
-        <v>1.4800000000000001E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E5" s="12">
         <f>[1]tab2_risco_empresas!C$3</f>
-        <v>7.22E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="F5" s="6">
         <f>[1]tab2_risco_empresas!D$3</f>
-        <v>4.8783783783783781</v>
+        <v>5.2919708029197077</v>
       </c>
       <c r="G5" s="12">
         <f>[1]tab2_risco_empresas!E$3</f>
-        <v>5.1999999999999998E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H5" s="53">
         <f>[1]tab2_risco_empresas!F$3</f>
@@ -62805,16 +62828,16 @@
         <v>AERI3.SA</v>
       </c>
       <c r="D7" s="12">
-        <v>0.13469999999999999</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="E7" s="12">
-        <v>0.27989999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="F7" s="6">
-        <v>2.077951002227171</v>
+        <v>2.0892193308550189</v>
       </c>
       <c r="G7" s="13">
-        <v>7.8299999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H7" s="20">
         <v>4</v>
@@ -62823,7 +62846,7 @@
         <v>0.50380000000000003</v>
       </c>
       <c r="J7" s="13">
-        <v>-0.14380000000000001</v>
+        <v>-0.14699999999999999</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
@@ -62831,16 +62854,16 @@
         <v>ARCE</v>
       </c>
       <c r="D8" s="12">
-        <v>3.9399999999999998E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>0.14080000000000001</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="F8" s="6">
-        <v>3.5736040609137061</v>
+        <v>3.485221674876847</v>
       </c>
       <c r="G8" s="13">
-        <v>1.9800000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H8" s="20">
         <v>29</v>
@@ -62857,16 +62880,16 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D9" s="12">
-        <v>3.85E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>0.10059999999999999</v>
+        <v>0.1002</v>
       </c>
       <c r="F9" s="6">
-        <v>2.6129870129870132</v>
+        <v>2.6368421052631579</v>
       </c>
       <c r="G9" s="13">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H9" s="20">
         <v>34</v>
@@ -62883,16 +62906,16 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="D10" s="12">
-        <v>2.69E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="E10" s="12">
-        <v>0.13900000000000001</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="F10" s="6">
-        <v>5.1672862453531598</v>
+        <v>5.2727272727272734</v>
       </c>
       <c r="G10" s="13">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="H10" s="20">
         <v>48</v>
@@ -62906,54 +62929,54 @@
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="str">
-        <v>PGMN3.SA</v>
+        <v>COCE3.SA</v>
       </c>
       <c r="D11" s="15">
-        <v>1.37E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>8.5000000000000006E-2</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="F11" s="16">
-        <v>6.2043795620437958</v>
+        <v>11.034188034188031</v>
       </c>
       <c r="G11" s="13">
-        <v>7.1999999999999998E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I11" s="13">
-        <v>0.12970000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="13">
-        <v>-0.1087</v>
+        <v>-0.28670000000000001</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="str">
-        <v>COCE3.SA</v>
+        <v>PGMN3.SA</v>
       </c>
       <c r="D12" s="15">
-        <v>1.17E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="E12" s="15">
-        <v>0.12909999999999999</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="F12" s="16">
-        <v>11.034188034188031</v>
+        <v>8.2718446601941746</v>
       </c>
       <c r="G12" s="13">
-        <v>1.67E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="H12" s="20">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I12" s="13">
-        <v>0.5</v>
+        <v>0.12529999999999999</v>
       </c>
       <c r="J12" s="13">
-        <v>-0.28670000000000001</v>
+        <v>-0.1087</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
@@ -62961,16 +62984,16 @@
         <v>GRND3.SA</v>
       </c>
       <c r="D13" s="15">
-        <v>6.3E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E13" s="15">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="F13" s="16">
-        <v>12.53968253968254</v>
+        <v>13.92982456140351</v>
       </c>
       <c r="G13" s="13">
-        <v>6.1999999999999998E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="H13" s="20">
         <v>48</v>
@@ -62987,16 +63010,16 @@
         <v>COCE5.SA</v>
       </c>
       <c r="D14" s="15">
-        <v>5.5999999999999999E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E14" s="15">
-        <v>6.7100000000000007E-2</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>11.982142857142859</v>
+        <v>14.125</v>
       </c>
       <c r="G14" s="13">
-        <v>4.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H14" s="20">
         <v>48</v>
@@ -63013,16 +63036,16 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="D15" s="17">
-        <v>-3.5000000000000001E-3</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="E15" s="17">
-        <v>9.2899999999999996E-2</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="F15" s="18">
-        <v>-26.542857142857141</v>
+        <v>-22.73170731707317</v>
       </c>
       <c r="G15" s="19">
-        <v>8.6E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="H15" s="21">
         <v>48</v>
@@ -63054,7 +63077,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63102,19 +63125,19 @@
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>0.13070000000000001</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>1.03E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.505</v>
+        <v>0.50639999999999996</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.55220000000000002</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
@@ -63122,7 +63145,7 @@
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.30499999999999999</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -63131,22 +63154,22 @@
         <v>ARCE_SP500</v>
       </c>
       <c r="C5" s="25">
-        <v>0.1348</v>
+        <v>0.1439</v>
       </c>
       <c r="D5" s="25">
-        <v>1.06E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E5" s="25">
-        <v>1.0178</v>
+        <v>1.0202</v>
       </c>
       <c r="F5" s="26">
-        <v>0.43540000000000001</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="G5" s="25">
-        <v>1.6199999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="H5" s="25">
-        <v>0.18959999999999999</v>
+        <v>0.18840000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -63154,22 +63177,22 @@
         <v>COCE3.SA</v>
       </c>
       <c r="C6" s="12">
-        <v>-1.0200000000000001E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="D6" s="12">
-        <v>-8.9999999999999998E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="E6" s="12">
-        <v>0.85019999999999996</v>
+        <v>0.88780000000000003</v>
       </c>
       <c r="F6" s="13">
-        <v>0.47570000000000001</v>
+        <v>0.4985</v>
       </c>
       <c r="G6" s="12">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H6" s="12">
-        <v>0.2263</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -63177,22 +63200,22 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C7" s="12">
-        <v>-0.16209999999999999</v>
+        <v>-0.1595</v>
       </c>
       <c r="D7" s="12">
-        <v>-1.46E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.75509999999999999</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="F7" s="13">
-        <v>0.58720000000000006</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.3448</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -63200,22 +63223,22 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>0.42209999999999998</v>
+        <v>0.42970000000000003</v>
       </c>
       <c r="D8" s="12">
-        <v>2.98E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>0.66790000000000005</v>
+        <v>0.68030000000000002</v>
       </c>
       <c r="F8" s="13">
-        <v>0.54139999999999999</v>
+        <v>0.55579999999999996</v>
       </c>
       <c r="G8" s="12">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H8" s="12">
-        <v>0.29310000000000003</v>
+        <v>0.30890000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -63223,22 +63246,22 @@
         <v>GRND3.SA</v>
       </c>
       <c r="C9" s="15">
-        <v>-3.0700000000000002E-2</v>
+        <v>-3.0599999999999999E-2</v>
       </c>
       <c r="D9" s="15">
         <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E9" s="15">
-        <v>0.6</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="F9" s="13">
-        <v>0.54820000000000002</v>
+        <v>0.55179999999999996</v>
       </c>
       <c r="G9" s="15">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15">
-        <v>0.30049999999999999</v>
+        <v>0.30449999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -63246,22 +63269,22 @@
         <v>COCE5.SA</v>
       </c>
       <c r="C10" s="12">
-        <v>-3.4599999999999999E-2</v>
+        <v>-3.8300000000000001E-2</v>
       </c>
       <c r="D10" s="12">
-        <v>-2.8999999999999998E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="E10" s="12">
-        <v>0.57750000000000001</v>
+        <v>0.5867</v>
       </c>
       <c r="F10" s="13">
-        <v>0.62150000000000005</v>
+        <v>0.62739999999999996</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0.38629999999999998</v>
+        <v>0.39369999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -63269,22 +63292,22 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="C11" s="12">
-        <v>-0.17519999999999999</v>
+        <v>-0.17430000000000001</v>
       </c>
       <c r="D11" s="12">
-        <v>-1.5900000000000001E-2</v>
+        <v>-1.5800000000000002E-2</v>
       </c>
       <c r="E11" s="12">
-        <v>0.41360000000000002</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="F11" s="13">
-        <v>0.33310000000000001</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="G11" s="12">
-        <v>0.51880000000000004</v>
+        <v>0.48970000000000002</v>
       </c>
       <c r="H11" s="12">
-        <v>0.1109</v>
+        <v>0.12609999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -63292,22 +63315,22 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="C12" s="12">
-        <v>0.28439999999999999</v>
+        <v>0.28179999999999999</v>
       </c>
       <c r="D12" s="12">
-        <v>2.1100000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E12" s="12">
-        <v>0.3921</v>
+        <v>0.4047</v>
       </c>
       <c r="F12" s="13">
-        <v>0.20369999999999999</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="G12" s="12">
-        <v>0.1648</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="H12" s="12">
-        <v>4.1500000000000002E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -63315,22 +63338,22 @@
         <v>ARCE_Ibovespa</v>
       </c>
       <c r="C13" s="17">
-        <v>0.54630000000000001</v>
+        <v>0.58040000000000003</v>
       </c>
       <c r="D13" s="17">
-        <v>3.6999999999999998E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>0.13489999999999999</v>
+        <v>0.1085</v>
       </c>
       <c r="F13" s="19">
-        <v>7.9299999999999995E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.68269999999999997</v>
+        <v>0.74239999999999995</v>
       </c>
       <c r="H13" s="17">
-        <v>6.3E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -63439,7 +63462,7 @@
       </c>
       <c r="H3" s="31">
         <f>[1]contribuicao!G2</f>
-        <v>0.44594160118704962</v>
+        <v>0.44157922994593263</v>
       </c>
       <c r="I3" s="31">
         <f>[1]contribuicao!H2</f>
@@ -63472,7 +63495,7 @@
       </c>
       <c r="H4" s="31">
         <f>[1]contribuicao!G3</f>
-        <v>0.26563233582364709</v>
+        <v>0.27508010891412737</v>
       </c>
       <c r="I4" s="31">
         <f>[1]contribuicao!H3</f>
@@ -63505,7 +63528,7 @@
       </c>
       <c r="H5" s="31">
         <f>[1]contribuicao!G4</f>
-        <v>6.3772928729853864E-2</v>
+        <v>6.2110276675833097E-2</v>
       </c>
       <c r="I5" s="31">
         <f>[1]contribuicao!H4</f>
@@ -63538,7 +63561,7 @@
       </c>
       <c r="H6" s="31">
         <f>[1]contribuicao!G5</f>
-        <v>5.1870521812547428E-2</v>
+        <v>5.0547434655360747E-2</v>
       </c>
       <c r="I6" s="31">
         <f>[1]contribuicao!H5</f>
@@ -63571,7 +63594,7 @@
       </c>
       <c r="H7" s="31">
         <f>[1]contribuicao!G6</f>
-        <v>5.0121657557831122E-2</v>
+        <v>5.018229588233817E-2</v>
       </c>
       <c r="I7" s="31">
         <f>[1]contribuicao!H6</f>
@@ -63604,7 +63627,7 @@
       </c>
       <c r="H8" s="31">
         <f>[1]contribuicao!G7</f>
-        <v>3.9800668158157901E-2</v>
+        <v>3.9129173899198538E-2</v>
       </c>
       <c r="I8" s="31">
         <f>[1]contribuicao!H7</f>
@@ -63637,7 +63660,7 @@
       </c>
       <c r="H9" s="31">
         <f>[1]contribuicao!G8</f>
-        <v>3.2746680769462758E-2</v>
+        <v>3.2161247099097387E-2</v>
       </c>
       <c r="I9" s="31">
         <f>[1]contribuicao!H8</f>
@@ -63670,7 +63693,7 @@
       </c>
       <c r="H10" s="31">
         <f>[1]contribuicao!G9</f>
-        <v>2.613960916092696E-2</v>
+        <v>2.5159701144226429E-2</v>
       </c>
       <c r="I10" s="31">
         <f>[1]contribuicao!H9</f>
@@ -63703,7 +63726,7 @@
       </c>
       <c r="H11" s="31">
         <f>[1]contribuicao!G10</f>
-        <v>2.3973996800523319E-2</v>
+        <v>2.4050531783885581E-2</v>
       </c>
       <c r="I11" s="31">
         <f>[1]contribuicao!H10</f>
@@ -63730,7 +63753,7 @@
       </c>
       <c r="H12" s="34">
         <f>SUM(H3:H11)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I12" s="34">
         <f>SUM(I3:I11)</f>
@@ -63968,7 +63991,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43">
         <f>[1]data_inclusao!A2</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C4" t="str">
         <f>[1]data_inclusao!B2</f>
@@ -63986,7 +64009,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <f>[1]data_inclusao!A3</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C5" t="str">
         <f>[1]data_inclusao!B3</f>
@@ -64004,7 +64027,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <f>[1]data_inclusao!A4</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C6" t="str">
         <f>[1]data_inclusao!B4</f>
@@ -64022,7 +64045,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <f>[1]data_inclusao!A5</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C7" t="str">
         <f>[1]data_inclusao!B5</f>
@@ -64040,7 +64063,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <f>[1]data_inclusao!A6</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C8" t="str">
         <f>[1]data_inclusao!B6</f>
@@ -64058,7 +64081,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <f>[1]data_inclusao!A7</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C9" t="str">
         <f>[1]data_inclusao!B7</f>
@@ -64076,7 +64099,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <f>[1]data_inclusao!A8</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C10" t="str">
         <f>[1]data_inclusao!B8</f>
@@ -64094,7 +64117,7 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <f>[1]data_inclusao!A9</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C11" t="str">
         <f>[1]data_inclusao!B9</f>
@@ -64112,7 +64135,7 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <f>[1]data_inclusao!A10</f>
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="C12" s="40" t="str">
         <f>[1]data_inclusao!B10</f>

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a548da2118d25344/Alysson/Unifor/Monitoria/indice_nupe/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7746744A-0669-41A5-8B4D-963D1EC84CC0}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9E02C2F-BE09-4532-A0BF-3E0CB27E04F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Tabela 1 - Retornos do Índice das ações cearenses e do Ibovespa.</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Divisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** Quantidade de ações ponderadas por peso mínimo de 5%. </t>
   </si>
   <si>
     <t>Tabela 5 - Data de entrada das empresas no índice.</t>
@@ -359,6 +356,12 @@
       </rPr>
       <t>30 de Abril de 2021.</t>
     </r>
+  </si>
+  <si>
+    <t>IAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Quantidade de ações ponderadas por peso mínimo de 1%. </t>
   </si>
 </sst>
 </file>
@@ -7702,7 +7705,7 @@
             <c:numRef>
               <c:f>[1]indice!$D$2:$D$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -14323,307 +14326,307 @@
                   <c:v>476.33098712503778</c:v>
                 </c:pt>
                 <c:pt idx="2206">
-                  <c:v>479.70504690184299</c:v>
+                  <c:v>479.70590834868472</c:v>
                 </c:pt>
                 <c:pt idx="2207">
-                  <c:v>483.3383548571382</c:v>
+                  <c:v>483.32848057351191</c:v>
                 </c:pt>
                 <c:pt idx="2208">
-                  <c:v>460.58583263555528</c:v>
+                  <c:v>460.61063202881371</c:v>
                 </c:pt>
                 <c:pt idx="2209">
-                  <c:v>462.31464874354327</c:v>
+                  <c:v>462.34350734294492</c:v>
                 </c:pt>
                 <c:pt idx="2210">
-                  <c:v>467.21521403823778</c:v>
+                  <c:v>467.23856780950263</c:v>
                 </c:pt>
                 <c:pt idx="2211">
-                  <c:v>470.92617216910691</c:v>
+                  <c:v>470.95096948631982</c:v>
                 </c:pt>
                 <c:pt idx="2212">
-                  <c:v>462.18757436445708</c:v>
+                  <c:v>462.23824166772528</c:v>
                 </c:pt>
                 <c:pt idx="2213">
-                  <c:v>470.37410720261602</c:v>
+                  <c:v>470.43030795968969</c:v>
                 </c:pt>
                 <c:pt idx="2214">
-                  <c:v>462.61470342620561</c:v>
+                  <c:v>462.67531174602442</c:v>
                 </c:pt>
                 <c:pt idx="2215">
-                  <c:v>471.54933941295877</c:v>
+                  <c:v>471.598047573271</c:v>
                 </c:pt>
                 <c:pt idx="2216">
-                  <c:v>471.53496533603118</c:v>
+                  <c:v>471.57935634230518</c:v>
                 </c:pt>
                 <c:pt idx="2217">
-                  <c:v>467.19834460961869</c:v>
+                  <c:v>467.25540528131393</c:v>
                 </c:pt>
                 <c:pt idx="2218">
-                  <c:v>474.0598531197208</c:v>
+                  <c:v>474.11141924228821</c:v>
                 </c:pt>
                 <c:pt idx="2219">
-                  <c:v>476.87196115622243</c:v>
+                  <c:v>476.92547275109348</c:v>
                 </c:pt>
                 <c:pt idx="2220">
-                  <c:v>474.82727351233461</c:v>
+                  <c:v>474.88914331438309</c:v>
                 </c:pt>
                 <c:pt idx="2221">
-                  <c:v>469.16709874717537</c:v>
+                  <c:v>469.23912003243993</c:v>
                 </c:pt>
                 <c:pt idx="2222">
-                  <c:v>468.43584956448677</c:v>
+                  <c:v>468.53421773324698</c:v>
                 </c:pt>
                 <c:pt idx="2223">
-                  <c:v>472.6885868308035</c:v>
+                  <c:v>472.85534323890931</c:v>
                 </c:pt>
                 <c:pt idx="2224">
-                  <c:v>474.53903792686123</c:v>
+                  <c:v>474.74096673058079</c:v>
                 </c:pt>
                 <c:pt idx="2225">
-                  <c:v>478.10628017904259</c:v>
+                  <c:v>478.32026747237239</c:v>
                 </c:pt>
                 <c:pt idx="2226">
-                  <c:v>480.8304738039061</c:v>
+                  <c:v>481.06852448909819</c:v>
                 </c:pt>
                 <c:pt idx="2227">
-                  <c:v>477.21446300650791</c:v>
+                  <c:v>477.43558893568343</c:v>
                 </c:pt>
                 <c:pt idx="2228">
-                  <c:v>470.61798732352378</c:v>
+                  <c:v>470.88039500942278</c:v>
                 </c:pt>
                 <c:pt idx="2229">
-                  <c:v>469.71095983422168</c:v>
+                  <c:v>469.95961182489629</c:v>
                 </c:pt>
                 <c:pt idx="2230">
-                  <c:v>458.58657988538658</c:v>
+                  <c:v>458.83709182581498</c:v>
                 </c:pt>
                 <c:pt idx="2231">
-                  <c:v>467.76029456347482</c:v>
+                  <c:v>468.01586183903169</c:v>
                 </c:pt>
                 <c:pt idx="2232">
-                  <c:v>506.45638713992918</c:v>
+                  <c:v>506.68755555387003</c:v>
                 </c:pt>
                 <c:pt idx="2233">
-                  <c:v>531.41339992168389</c:v>
+                  <c:v>531.67054310202286</c:v>
                 </c:pt>
                 <c:pt idx="2234">
-                  <c:v>520.56570548358354</c:v>
+                  <c:v>520.85965815571456</c:v>
                 </c:pt>
                 <c:pt idx="2235">
-                  <c:v>509.75367729915439</c:v>
+                  <c:v>510.08337392331998</c:v>
                 </c:pt>
                 <c:pt idx="2236">
-                  <c:v>517.18488487377897</c:v>
+                  <c:v>517.54228165728296</c:v>
                 </c:pt>
                 <c:pt idx="2237">
-                  <c:v>519.94722905813626</c:v>
+                  <c:v>520.31214197383599</c:v>
                 </c:pt>
                 <c:pt idx="2238">
-                  <c:v>527.88713012334028</c:v>
+                  <c:v>528.2488161236887</c:v>
                 </c:pt>
                 <c:pt idx="2239">
-                  <c:v>521.36807983845188</c:v>
+                  <c:v>521.66284262853844</c:v>
                 </c:pt>
                 <c:pt idx="2240">
-                  <c:v>524.64549182568317</c:v>
+                  <c:v>525.00295399011577</c:v>
                 </c:pt>
                 <c:pt idx="2241">
-                  <c:v>520.78902041539584</c:v>
+                  <c:v>521.13775026994983</c:v>
                 </c:pt>
                 <c:pt idx="2242">
-                  <c:v>511.84125666597112</c:v>
+                  <c:v>512.17080203508556</c:v>
                 </c:pt>
                 <c:pt idx="2243">
-                  <c:v>515.18163316436039</c:v>
+                  <c:v>515.49731305976366</c:v>
                 </c:pt>
                 <c:pt idx="2244">
-                  <c:v>500.73592397065897</c:v>
+                  <c:v>501.0367960231851</c:v>
                 </c:pt>
                 <c:pt idx="2245">
-                  <c:v>509.04357667691289</c:v>
+                  <c:v>509.36216137220089</c:v>
                 </c:pt>
                 <c:pt idx="2246">
-                  <c:v>490.29190011063719</c:v>
+                  <c:v>490.60584438672748</c:v>
                 </c:pt>
                 <c:pt idx="2247">
-                  <c:v>504.39986813588558</c:v>
+                  <c:v>538.10632483803045</c:v>
                 </c:pt>
                 <c:pt idx="2248">
-                  <c:v>510.22699933136539</c:v>
+                  <c:v>544.28830316359506</c:v>
                 </c:pt>
                 <c:pt idx="2249">
-                  <c:v>509.86249430787541</c:v>
+                  <c:v>543.70587341633302</c:v>
                 </c:pt>
                 <c:pt idx="2250">
-                  <c:v>524.76180404522688</c:v>
+                  <c:v>558.83844482174459</c:v>
                 </c:pt>
                 <c:pt idx="2251">
-                  <c:v>530.84875028374358</c:v>
+                  <c:v>564.84719197882623</c:v>
                 </c:pt>
                 <c:pt idx="2252">
-                  <c:v>521.84404482779723</c:v>
+                  <c:v>556.20037491800167</c:v>
                 </c:pt>
                 <c:pt idx="2253">
-                  <c:v>522.86133693472823</c:v>
+                  <c:v>556.63039149358178</c:v>
                 </c:pt>
                 <c:pt idx="2254">
-                  <c:v>509.92658619910861</c:v>
+                  <c:v>542.75863987268065</c:v>
                 </c:pt>
                 <c:pt idx="2255">
-                  <c:v>514.08224605424357</c:v>
+                  <c:v>547.34833978354868</c:v>
                 </c:pt>
                 <c:pt idx="2256">
-                  <c:v>506.95337709560192</c:v>
+                  <c:v>539.67646410336283</c:v>
                 </c:pt>
                 <c:pt idx="2257">
-                  <c:v>494.63269898433367</c:v>
+                  <c:v>526.61139876960954</c:v>
                 </c:pt>
                 <c:pt idx="2258">
-                  <c:v>496.309651691699</c:v>
+                  <c:v>528.73717044401735</c:v>
                 </c:pt>
                 <c:pt idx="2259">
-                  <c:v>491.54614689593728</c:v>
+                  <c:v>523.18998047930586</c:v>
                 </c:pt>
                 <c:pt idx="2260">
-                  <c:v>487.96855524266772</c:v>
+                  <c:v>518.95835140413647</c:v>
                 </c:pt>
                 <c:pt idx="2261">
-                  <c:v>486.71989291573288</c:v>
+                  <c:v>517.516609073209</c:v>
                 </c:pt>
                 <c:pt idx="2262">
-                  <c:v>483.0532249943987</c:v>
+                  <c:v>513.37556459743462</c:v>
                 </c:pt>
                 <c:pt idx="2263">
-                  <c:v>472.04705357839572</c:v>
+                  <c:v>501.64316443078911</c:v>
                 </c:pt>
                 <c:pt idx="2264">
-                  <c:v>479.38844137840022</c:v>
+                  <c:v>510.230218488106</c:v>
                 </c:pt>
                 <c:pt idx="2265">
-                  <c:v>478.10493550669901</c:v>
+                  <c:v>509.00054448866689</c:v>
                 </c:pt>
                 <c:pt idx="2266">
-                  <c:v>477.28785759369839</c:v>
+                  <c:v>507.86006310462778</c:v>
                 </c:pt>
                 <c:pt idx="2267">
-                  <c:v>469.68486293286469</c:v>
+                  <c:v>499.18289115710297</c:v>
                 </c:pt>
                 <c:pt idx="2268">
-                  <c:v>469.83674799147758</c:v>
+                  <c:v>499.38789615205201</c:v>
                 </c:pt>
                 <c:pt idx="2269">
-                  <c:v>456.38196378475942</c:v>
+                  <c:v>484.84808266217101</c:v>
                 </c:pt>
                 <c:pt idx="2270">
-                  <c:v>449.77663983677701</c:v>
+                  <c:v>478.50939702929082</c:v>
                 </c:pt>
                 <c:pt idx="2271">
-                  <c:v>453.12290532421417</c:v>
+                  <c:v>482.11569152656682</c:v>
                 </c:pt>
                 <c:pt idx="2272">
-                  <c:v>460.85849943430833</c:v>
+                  <c:v>490.34052028530328</c:v>
                 </c:pt>
                 <c:pt idx="2273">
-                  <c:v>457.87926620851698</c:v>
+                  <c:v>487.09808625104438</c:v>
                 </c:pt>
                 <c:pt idx="2274">
-                  <c:v>459.6551099908657</c:v>
+                  <c:v>489.17168622554789</c:v>
                 </c:pt>
                 <c:pt idx="2275">
-                  <c:v>464.7479746826674</c:v>
+                  <c:v>494.92551513437149</c:v>
                 </c:pt>
                 <c:pt idx="2276">
-                  <c:v>462.81874611460302</c:v>
+                  <c:v>492.35498930689351</c:v>
                 </c:pt>
                 <c:pt idx="2277">
-                  <c:v>451.84016223482308</c:v>
+                  <c:v>480.71017671091482</c:v>
                 </c:pt>
                 <c:pt idx="2278">
-                  <c:v>452.95652446907752</c:v>
+                  <c:v>482.01585159301868</c:v>
                 </c:pt>
                 <c:pt idx="2279">
-                  <c:v>446.2542123853226</c:v>
+                  <c:v>474.92009934720551</c:v>
                 </c:pt>
                 <c:pt idx="2280">
-                  <c:v>443.82817796913758</c:v>
+                  <c:v>472.78297699796559</c:v>
                 </c:pt>
                 <c:pt idx="2281">
-                  <c:v>432.96636422872842</c:v>
+                  <c:v>461.20451844227767</c:v>
                 </c:pt>
                 <c:pt idx="2282">
-                  <c:v>440.96313775318998</c:v>
+                  <c:v>470.31642371880741</c:v>
                 </c:pt>
                 <c:pt idx="2283">
-                  <c:v>433.20560191428177</c:v>
+                  <c:v>462.14009285567391</c:v>
                 </c:pt>
                 <c:pt idx="2284">
-                  <c:v>429.548116375738</c:v>
+                  <c:v>458.09638681691013</c:v>
                 </c:pt>
                 <c:pt idx="2285">
-                  <c:v>430.54181651981082</c:v>
+                  <c:v>459.13460881069079</c:v>
                 </c:pt>
                 <c:pt idx="2286">
-                  <c:v>429.16415354673018</c:v>
+                  <c:v>457.58976869370628</c:v>
                 </c:pt>
                 <c:pt idx="2287">
-                  <c:v>432.9850659865188</c:v>
+                  <c:v>461.24614949754579</c:v>
                 </c:pt>
                 <c:pt idx="2288">
-                  <c:v>431.35095915624231</c:v>
+                  <c:v>459.52057857283029</c:v>
                 </c:pt>
                 <c:pt idx="2289">
-                  <c:v>436.44208045594343</c:v>
+                  <c:v>464.47589984920688</c:v>
                 </c:pt>
                 <c:pt idx="2290">
-                  <c:v>440.80865904513331</c:v>
+                  <c:v>469.70829502210569</c:v>
                 </c:pt>
                 <c:pt idx="2291">
-                  <c:v>440.63943402415862</c:v>
+                  <c:v>468.9307540700384</c:v>
                 </c:pt>
                 <c:pt idx="2292">
-                  <c:v>445.18366247890009</c:v>
+                  <c:v>473.43371027574818</c:v>
                 </c:pt>
                 <c:pt idx="2293">
-                  <c:v>444.12059375621402</c:v>
+                  <c:v>472.2988374682318</c:v>
                 </c:pt>
                 <c:pt idx="2294">
-                  <c:v>454.33311392894768</c:v>
+                  <c:v>483.18935654750391</c:v>
                 </c:pt>
                 <c:pt idx="2295">
-                  <c:v>443.33877054676412</c:v>
+                  <c:v>472.04317072749041</c:v>
                 </c:pt>
                 <c:pt idx="2296">
-                  <c:v>443.18029341735178</c:v>
+                  <c:v>471.82959380667899</c:v>
                 </c:pt>
                 <c:pt idx="2297">
-                  <c:v>448.12411973879352</c:v>
+                  <c:v>477.08276422095531</c:v>
                 </c:pt>
                 <c:pt idx="2298">
-                  <c:v>443.36399870632277</c:v>
+                  <c:v>471.94442151629852</c:v>
                 </c:pt>
                 <c:pt idx="2299">
-                  <c:v>447.26161418553522</c:v>
+                  <c:v>476.14623573002359</c:v>
                 </c:pt>
                 <c:pt idx="2300">
-                  <c:v>439.06139622375468</c:v>
+                  <c:v>467.43817382513981</c:v>
                 </c:pt>
                 <c:pt idx="2301">
-                  <c:v>434.33493278920201</c:v>
+                  <c:v>462.68586213975112</c:v>
                 </c:pt>
                 <c:pt idx="2302">
-                  <c:v>435.14864639727631</c:v>
+                  <c:v>463.59513815837067</c:v>
                 </c:pt>
                 <c:pt idx="2303">
-                  <c:v>427.32788251736571</c:v>
+                  <c:v>455.33759884866032</c:v>
                 </c:pt>
                 <c:pt idx="2304">
-                  <c:v>428.51013181031578</c:v>
+                  <c:v>456.95688965772018</c:v>
                 </c:pt>
                 <c:pt idx="2305">
-                  <c:v>426.80174612730241</c:v>
+                  <c:v>455.37921154096517</c:v>
                 </c:pt>
                 <c:pt idx="2306">
-                  <c:v>421.34916982350319</c:v>
+                  <c:v>448.82212757514782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21595,7 +21598,7 @@
             <c:numRef>
               <c:f>[1]indice!$E$2:$E$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -28621,7 +28624,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -28835,7 +28838,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -29516,7 +29519,7 @@
                   <c:v>429.16415354673018</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>421.34916982350319</c:v>
+                  <c:v>420.83677901035009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29558,7 +29561,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -29902,346 +29905,6 @@
           <c:val>
             <c:numRef>
               <c:f>[1]indice_mensal!$D$2:$D$1048576</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048575"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113.80449255563821</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111.5547562641581</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106.9013816597209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.226080340313672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93.99263345380345</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97.004962907883581</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>98.671946601186249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>102.3292811565132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98.684051254560856</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99.387850386484288</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>105.4004046412699</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>103.3408843313908</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99.299659340469319</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97.445918137958472</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.681595739162006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>92.52451192308358</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82.064362171228964</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83.407978695810058</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86.475643708174104</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>90.504764045721004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>93.821439070362629</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>90.753774057998584</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>89.067768766535821</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>82.379083158968683</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>81.436649431945909</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.179442840097536</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>89.273547873904093</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88.604333465908113</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>91.940030088709818</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>96.541527607255873</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>105.981428003251</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>93.579346002870537</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>94.466444171609396</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>94.52696743848243</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>86.473914471977736</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>81.115011499420703</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>89.199190717460098</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88.450431444431004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>97.233222085804698</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>91.234501720590018</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>91.789586539625446</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>87.957599128464963</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>80.627366892043781</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77.917653772328762</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>79.318335091390139</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>78.023137180307458</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>74.962389112728914</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>69.871517750609556</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>74.000933787546046</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>86.556917809403586</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>93.224852582614261</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>83.819536910546617</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>89.102353490463258</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>99.099067941690151</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>100.1245050061388</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>100.9303290736482</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>112.2706600494562</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>107.0500959726089</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>104.1467083989002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>111.8314340555777</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>115.2743433225544</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>112.3726849850421</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>113.09723495132199</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>108.44213111068839</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>108.7689567518027</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>113.9912500648464</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>122.490445970015</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>128.47187397326601</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>128.4960832800152</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>124.45485828909371</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>132.11710387521831</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>146.83463314254101</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>147.8168393020803</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>147.6179771394975</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>148.91317505058021</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>132.72579501634129</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>125.8244133566204</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>136.99009147659481</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>132.59437306541699</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>137.2010582925522</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>151.1767452316312</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>154.77355652008509</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>151.97738159055149</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>168.41723010946069</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>165.28731259402721</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>164.9950716768403</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>166.6170952290374</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>167.78778813398119</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>174.595791039098</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>176.05699562503241</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>174.88630272008851</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>181.12884538899169</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>185.40870497501251</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>187.1604212419374</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>200.5291462760899</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>196.71963893548221</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>180.13799304847049</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>126.268827059088</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>139.21388922512929</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>151.1404312715074</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>164.3742758823428</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>177.9591554410417</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>171.83247159729549</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>163.5909318853862</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>162.46519912154801</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>188.29307095056109</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>206.30825364436529</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>200.60350343253381</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>190.2765048677999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>201.6877345276591</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>205.59580833146001</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -30591,7 +30254,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>indice</c:v>
+                  <c:v>IAC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>COCE3.SA</c:v>
@@ -30630,7 +30293,7 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.47849999999999998</c:v>
+                  <c:v>0.46339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.89</c:v>
@@ -31205,31 +30868,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.43900189390605082</c:v>
+                  <c:v>0.46200479306165848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2305346624957241</c:v>
+                  <c:v>0.21620156005724631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4527228421536909E-2</c:v>
+                  <c:v>6.05153572129975E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3908279136249552E-2</c:v>
+                  <c:v>5.9572637532534022E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1692580367119489E-2</c:v>
+                  <c:v>5.3321833851889232E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4310064851093248E-2</c:v>
+                  <c:v>4.1555161568043168E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7980708152871939E-2</c:v>
+                  <c:v>3.8541649316621782E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6117790535764097E-2</c:v>
+                  <c:v>3.6651218068859549E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1926792133589947E-2</c:v>
+                  <c:v>3.1635789330149988E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31643,22 +31306,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.55975717735270336</c:v>
+                  <c:v>0.58212630130960219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0612363322438271E-2</c:v>
+                  <c:v>2.829125486131746E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.463087635006599E-2</c:v>
+                  <c:v>4.1246848020327617E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14402422176765989</c:v>
+                  <c:v>0.13229943965308749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1057514114365315</c:v>
+                  <c:v>0.1074968654365553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4982914839431684E-2</c:v>
+                  <c:v>7.8539290719109991E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01</c:v>
@@ -31667,7 +31330,7 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.024103493116936E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34681,7 +34344,6 @@
       <sheetName val="base_contribuicao"/>
       <sheetName val="base"/>
       <sheetName val="base_mensal"/>
-      <sheetName val="Planilha1"/>
       <sheetName val="base_wide_price"/>
       <sheetName val="base_wide_price_mensal"/>
       <sheetName val="data_inclusao"/>
@@ -34747,16 +34409,16 @@
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>-1.820977744446239E-2</v>
+            <v>-1.916048329399456E-2</v>
           </cell>
           <cell r="D2">
-            <v>-0.1170653815289812</v>
+            <v>-5.9931563594414317E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.51019267587978923</v>
+            <v>0.60866079342388657</v>
           </cell>
           <cell r="F2">
-            <v>0.64538205118405223</v>
+            <v>0.75266483424122255</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -34783,10 +34445,10 @@
             <v>0.7535667715231793</v>
           </cell>
           <cell r="O2">
-            <v>8.5495689049521983E-2</v>
+            <v>8.5998673056638664E-2</v>
           </cell>
           <cell r="P2">
-            <v>-0.1170653815289812</v>
+            <v>-5.9931563594414428E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -35097,16 +34759,16 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>-2.9569892473118361E-2</v>
+            <v>-3.2258064516129122E-2</v>
           </cell>
           <cell r="D9">
-            <v>-5.3735255570117942E-2</v>
+            <v>-5.6356487549148022E-2</v>
           </cell>
           <cell r="E9">
-            <v>1.385988103106411</v>
+            <v>1.379378717779246</v>
           </cell>
           <cell r="F9">
-            <v>1.6159420289855071</v>
+            <v>1.6086956521739131</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -35118,7 +34780,7 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>-5.3735255570117942E-2</v>
+            <v>-5.6356487549148022E-2</v>
           </cell>
         </row>
         <row r="10">
@@ -35209,13 +34871,13 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>1.26E-2</v>
+            <v>1.3899999999999999E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.7299999999999999E-2</v>
+            <v>6.6799999999999998E-2</v>
           </cell>
           <cell r="D2">
-            <v>5.3412698412698409</v>
+            <v>4.8057553956834536</v>
           </cell>
           <cell r="E2">
             <v>4.4999999999999997E-3</v>
@@ -35388,13 +35050,13 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>3.1899999999999998E-2</v>
+            <v>3.1800000000000002E-2</v>
           </cell>
           <cell r="C9">
             <v>0.1008</v>
           </cell>
           <cell r="D9">
-            <v>3.1598746081504698</v>
+            <v>3.1698113207547172</v>
           </cell>
           <cell r="E9">
             <v>1.0200000000000001E-2</v>
@@ -35491,22 +35153,22 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>6.7699999999999996E-2</v>
+            <v>8.7300000000000003E-2</v>
           </cell>
           <cell r="C2">
-            <v>5.4999999999999997E-3</v>
+            <v>7.0000000000000001E-3</v>
           </cell>
           <cell r="D2">
-            <v>0.47849999999999998</v>
+            <v>0.46339999999999998</v>
           </cell>
           <cell r="E2">
-            <v>0.52039999999999997</v>
+            <v>0.50770000000000004</v>
           </cell>
           <cell r="F2">
-            <v>1E-4</v>
+            <v>2.0000000000000001E-4</v>
           </cell>
           <cell r="G2">
-            <v>0.27089999999999997</v>
+            <v>0.25769999999999998</v>
           </cell>
         </row>
         <row r="3">
@@ -35629,7 +35291,7 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.32200000000000001</v>
+            <v>0.32079999999999997</v>
           </cell>
           <cell r="C8">
             <v>2.35E-2</v>
@@ -35638,13 +35300,13 @@
             <v>0.67479999999999996</v>
           </cell>
           <cell r="E8">
-            <v>0.53800000000000003</v>
+            <v>0.53769999999999996</v>
           </cell>
           <cell r="F8">
             <v>6.9999999999999999E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.28949999999999998</v>
+            <v>0.28910000000000002</v>
           </cell>
         </row>
         <row r="9">
@@ -59997,7 +59659,7 @@
             <v>44162</v>
           </cell>
           <cell r="D2208">
-            <v>479.70504690184299</v>
+            <v>479.70590834868472</v>
           </cell>
           <cell r="E2208">
             <v>191.21029241384079</v>
@@ -60008,7 +59670,7 @@
             <v>44165</v>
           </cell>
           <cell r="D2209">
-            <v>483.3383548571382</v>
+            <v>483.32848057351191</v>
           </cell>
           <cell r="E2209">
             <v>188.29307095056109</v>
@@ -60019,7 +59681,7 @@
             <v>44166</v>
           </cell>
           <cell r="D2210">
-            <v>460.58583263555528</v>
+            <v>460.61063202881371</v>
           </cell>
           <cell r="E2210">
             <v>192.52451192308359</v>
@@ -60030,7 +59692,7 @@
             <v>44167</v>
           </cell>
           <cell r="D2211">
-            <v>462.31464874354327</v>
+            <v>462.34350734294492</v>
           </cell>
           <cell r="E2211">
             <v>193.3528160611458</v>
@@ -60041,7 +59703,7 @@
             <v>44168</v>
           </cell>
           <cell r="D2212">
-            <v>467.21521403823778</v>
+            <v>467.23856780950263</v>
           </cell>
           <cell r="E2212">
             <v>195.26362205813689</v>
@@ -60052,7 +59714,7 @@
             <v>44169</v>
           </cell>
           <cell r="D2213">
-            <v>470.92617216910691</v>
+            <v>470.95096948631982</v>
           </cell>
           <cell r="E2213">
             <v>196.58302927596881</v>
@@ -60063,7 +59725,7 @@
             <v>44172</v>
           </cell>
           <cell r="D2214">
-            <v>462.18757436445708</v>
+            <v>462.23824166772528</v>
           </cell>
           <cell r="E2214">
             <v>196.4844628127756</v>
@@ -60074,7 +59736,7 @@
             <v>44173</v>
           </cell>
           <cell r="D2215">
-            <v>470.37410720261602</v>
+            <v>470.43030795968969</v>
           </cell>
           <cell r="E2215">
             <v>196.39108405817149</v>
@@ -60085,7 +59747,7 @@
             <v>44174</v>
           </cell>
           <cell r="D2216">
-            <v>462.61470342620561</v>
+            <v>462.67531174602442</v>
           </cell>
           <cell r="E2216">
             <v>194.9229625274516</v>
@@ -60096,7 +59758,7 @@
             <v>44175</v>
           </cell>
           <cell r="D2217">
-            <v>471.54933941295877</v>
+            <v>471.598047573271</v>
           </cell>
           <cell r="E2217">
             <v>198.84832869321619</v>
@@ -60107,7 +59769,7 @@
             <v>44176</v>
           </cell>
           <cell r="D2218">
-            <v>471.53496533603118</v>
+            <v>471.57935634230518</v>
           </cell>
           <cell r="E2218">
             <v>199.4207058742154</v>
@@ -60118,7 +59780,7 @@
             <v>44179</v>
           </cell>
           <cell r="D2219">
-            <v>467.19834460961869</v>
+            <v>467.25540528131393</v>
           </cell>
           <cell r="E2219">
             <v>198.81893167787791</v>
@@ -60129,7 +59791,7 @@
             <v>44180</v>
           </cell>
           <cell r="D2220">
-            <v>474.0598531197208</v>
+            <v>474.11141924228821</v>
           </cell>
           <cell r="E2220">
             <v>200.84386726382959</v>
@@ -60140,7 +59802,7 @@
             <v>44181</v>
           </cell>
           <cell r="D2221">
-            <v>476.87196115622243</v>
+            <v>476.92547275109348</v>
           </cell>
           <cell r="E2221">
             <v>203.9582216534956</v>
@@ -60151,7 +59813,7 @@
             <v>44182</v>
           </cell>
           <cell r="D2222">
-            <v>474.82727351233461</v>
+            <v>474.88914331438309</v>
           </cell>
           <cell r="E2222">
             <v>204.3213612547338</v>
@@ -60162,7 +59824,7 @@
             <v>44183</v>
           </cell>
           <cell r="D2223">
-            <v>469.16709874717537</v>
+            <v>469.23912003243993</v>
           </cell>
           <cell r="E2223">
             <v>203.494786352868</v>
@@ -60173,7 +59835,7 @@
             <v>44186</v>
           </cell>
           <cell r="D2224">
-            <v>468.43584956448677</v>
+            <v>468.53421773324698</v>
           </cell>
           <cell r="E2224">
             <v>200.6190665583012</v>
@@ -60184,7 +59846,7 @@
             <v>44187</v>
           </cell>
           <cell r="D2225">
-            <v>472.6885868308035</v>
+            <v>472.85534323890931</v>
           </cell>
           <cell r="E2225">
             <v>201.19317297549671</v>
@@ -60195,7 +59857,7 @@
             <v>44188</v>
           </cell>
           <cell r="D2226">
-            <v>474.53903792686123</v>
+            <v>474.74096673058079</v>
           </cell>
           <cell r="E2226">
             <v>203.80259039582219</v>
@@ -60206,7 +59868,7 @@
             <v>44193</v>
           </cell>
           <cell r="D2227">
-            <v>478.10628017904259</v>
+            <v>478.32026747237239</v>
           </cell>
           <cell r="E2227">
             <v>205.86729841429039</v>
@@ -60217,7 +59879,7 @@
             <v>44194</v>
           </cell>
           <cell r="D2228">
-            <v>480.8304738039061</v>
+            <v>481.06852448909819</v>
           </cell>
           <cell r="E2228">
             <v>206.60049456155221</v>
@@ -60228,7 +59890,7 @@
             <v>44195</v>
           </cell>
           <cell r="D2229">
-            <v>477.21446300650791</v>
+            <v>477.43558893568343</v>
           </cell>
           <cell r="E2229">
             <v>206.30825364436529</v>
@@ -60239,7 +59901,7 @@
             <v>44200</v>
           </cell>
           <cell r="D2230">
-            <v>470.61798732352378</v>
+            <v>470.88039500942278</v>
           </cell>
           <cell r="E2230">
             <v>205.014784969479</v>
@@ -60250,7 +59912,7 @@
             <v>44201</v>
           </cell>
           <cell r="D2231">
-            <v>469.71095983422168</v>
+            <v>469.95961182489629</v>
           </cell>
           <cell r="E2231">
             <v>206.1647270400664</v>
@@ -60261,7 +59923,7 @@
             <v>44202</v>
           </cell>
           <cell r="D2232">
-            <v>458.58657988538658</v>
+            <v>458.83709182581498</v>
           </cell>
           <cell r="E2232">
             <v>207.25068737138801</v>
@@ -60272,7 +59934,7 @@
             <v>44203</v>
           </cell>
           <cell r="D2233">
-            <v>467.76029456347482</v>
+            <v>468.01586183903169</v>
           </cell>
           <cell r="E2233">
             <v>210.8907295647513</v>
@@ -60283,7 +59945,7 @@
             <v>44204</v>
           </cell>
           <cell r="D2234">
-            <v>506.45638713992918</v>
+            <v>506.68755555387003</v>
           </cell>
           <cell r="E2234">
             <v>216.2876757336285</v>
@@ -60294,7 +59956,7 @@
             <v>44207</v>
           </cell>
           <cell r="D2235">
-            <v>531.41339992168389</v>
+            <v>531.67054310202286</v>
           </cell>
           <cell r="E2235">
             <v>212.36230956786389</v>
@@ -60305,7 +59967,7 @@
             <v>44208</v>
           </cell>
           <cell r="D2236">
-            <v>520.56570548358354</v>
+            <v>520.85965815571456</v>
           </cell>
           <cell r="E2236">
             <v>214.42182987774299</v>
@@ -60316,7 +59978,7 @@
             <v>44209</v>
           </cell>
           <cell r="D2237">
-            <v>509.75367729915439</v>
+            <v>510.08337392331998</v>
           </cell>
           <cell r="E2237">
             <v>211.03598540524649</v>
@@ -60327,7 +59989,7 @@
             <v>44210</v>
           </cell>
           <cell r="D2238">
-            <v>517.18488487377897</v>
+            <v>517.54228165728296</v>
           </cell>
           <cell r="E2238">
             <v>213.5278147642187</v>
@@ -60338,7 +60000,7 @@
             <v>44211</v>
           </cell>
           <cell r="D2239">
-            <v>519.94722905813626</v>
+            <v>520.31214197383599</v>
           </cell>
           <cell r="E2239">
             <v>208.37642013522631</v>
@@ -60349,7 +60011,7 @@
             <v>44214</v>
           </cell>
           <cell r="D2240">
-            <v>527.88713012334028</v>
+            <v>528.2488161236887</v>
           </cell>
           <cell r="E2240">
             <v>209.65605492054161</v>
@@ -60360,7 +60022,7 @@
             <v>44215</v>
           </cell>
           <cell r="D2241">
-            <v>521.36807983845188</v>
+            <v>521.66284262853844</v>
           </cell>
           <cell r="E2241">
             <v>208.67211952480591</v>
@@ -60371,7 +60033,7 @@
             <v>44216</v>
           </cell>
           <cell r="D2242">
-            <v>524.64549182568317</v>
+            <v>525.00295399011577</v>
           </cell>
           <cell r="E2242">
             <v>207.00340659530681</v>
@@ -60382,7 +60044,7 @@
             <v>44217</v>
           </cell>
           <cell r="D2243">
-            <v>520.78902041539584</v>
+            <v>521.13775026994983</v>
           </cell>
           <cell r="E2243">
             <v>204.8159228068962</v>
@@ -60393,7 +60055,7 @@
             <v>44218</v>
           </cell>
           <cell r="D2244">
-            <v>511.84125666597112</v>
+            <v>512.17080203508556</v>
           </cell>
           <cell r="E2244">
             <v>202.61806360130731</v>
@@ -60404,7 +60066,7 @@
             <v>44222</v>
           </cell>
           <cell r="D2245">
-            <v>515.18163316436039</v>
+            <v>515.49731305976366</v>
           </cell>
           <cell r="E2245">
             <v>201.39376437427589</v>
@@ -60415,7 +60077,7 @@
             <v>44223</v>
           </cell>
           <cell r="D2246">
-            <v>500.73592397065897</v>
+            <v>501.0367960231851</v>
           </cell>
           <cell r="E2246">
             <v>200.38734890798739</v>
@@ -60426,7 +60088,7 @@
             <v>44224</v>
           </cell>
           <cell r="D2247">
-            <v>509.04357667691289</v>
+            <v>509.36216137220089</v>
           </cell>
           <cell r="E2247">
             <v>206.3220875339363</v>
@@ -60437,7 +60099,7 @@
             <v>44225</v>
           </cell>
           <cell r="D2248">
-            <v>490.29190011063719</v>
+            <v>490.60584438672748</v>
           </cell>
           <cell r="E2248">
             <v>200.60350343253381</v>
@@ -60448,7 +60110,7 @@
             <v>44228</v>
           </cell>
           <cell r="D2249">
-            <v>504.39986813588558</v>
+            <v>538.10632483803045</v>
           </cell>
           <cell r="E2249">
             <v>202.9518061872071</v>
@@ -60459,7 +60121,7 @@
             <v>44229</v>
           </cell>
           <cell r="D2250">
-            <v>510.22699933136539</v>
+            <v>544.28830316359506</v>
           </cell>
           <cell r="E2250">
             <v>204.4545124418544</v>
@@ -60470,7 +60132,7 @@
             <v>44230</v>
           </cell>
           <cell r="D2251">
-            <v>509.86249430787541</v>
+            <v>543.70587341633302</v>
           </cell>
           <cell r="E2251">
             <v>207.0328036106452</v>
@@ -60481,7 +60143,7 @@
             <v>44231</v>
           </cell>
           <cell r="D2252">
-            <v>524.76180404522688</v>
+            <v>558.83844482174459</v>
           </cell>
           <cell r="E2252">
             <v>206.23043801552859</v>
@@ -60492,7 +60154,7 @@
             <v>44232</v>
           </cell>
           <cell r="D2253">
-            <v>530.84875028374358</v>
+            <v>564.84719197882623</v>
           </cell>
           <cell r="E2253">
             <v>207.37865084991961</v>
@@ -60503,7 +60165,7 @@
             <v>44235</v>
           </cell>
           <cell r="D2254">
-            <v>521.84404482779723</v>
+            <v>556.20037491800167</v>
           </cell>
           <cell r="E2254">
             <v>206.67139324560341</v>
@@ -60514,7 +60176,7 @@
             <v>44236</v>
           </cell>
           <cell r="D2255">
-            <v>522.86133693472823</v>
+            <v>556.63039149358178</v>
           </cell>
           <cell r="E2255">
             <v>206.5209496965191</v>
@@ -60525,7 +60187,7 @@
             <v>44237</v>
           </cell>
           <cell r="D2256">
-            <v>509.92658619910861</v>
+            <v>542.75863987268065</v>
           </cell>
           <cell r="E2256">
             <v>204.79344273634339</v>
@@ -60536,7 +60198,7 @@
             <v>44238</v>
           </cell>
           <cell r="D2257">
-            <v>514.08224605424357</v>
+            <v>547.34833978354868</v>
           </cell>
           <cell r="E2257">
             <v>206.18547787442279</v>
@@ -60547,7 +60209,7 @@
             <v>44239</v>
           </cell>
           <cell r="D2258">
-            <v>506.95337709560192</v>
+            <v>539.67646410336283</v>
           </cell>
           <cell r="E2258">
             <v>205.9796987670546</v>
@@ -60558,7 +60220,7 @@
             <v>44245</v>
           </cell>
           <cell r="D2259">
-            <v>494.63269898433367</v>
+            <v>526.61139876960954</v>
           </cell>
           <cell r="E2259">
             <v>206.0212004357675</v>
@@ -60569,7 +60231,7 @@
             <v>44246</v>
           </cell>
           <cell r="D2260">
-            <v>496.309651691699</v>
+            <v>528.73717044401735</v>
           </cell>
           <cell r="E2260">
             <v>205.34333984678969</v>
@@ -60580,7 +60242,7 @@
             <v>44249</v>
           </cell>
           <cell r="D2261">
-            <v>491.54614689593728</v>
+            <v>523.18998047930586</v>
           </cell>
           <cell r="E2261">
             <v>194.82958377284751</v>
@@ -60591,7 +60253,7 @@
             <v>44250</v>
           </cell>
           <cell r="D2262">
-            <v>487.96855524266772</v>
+            <v>518.95835140413647</v>
           </cell>
           <cell r="E2262">
             <v>199.25469919936361</v>
@@ -60602,7 +60264,7 @@
             <v>44251</v>
           </cell>
           <cell r="D2263">
-            <v>486.71989291573288</v>
+            <v>517.516609073209</v>
           </cell>
           <cell r="E2263">
             <v>200.01729236196371</v>
@@ -60613,7 +60275,7 @@
             <v>44252</v>
           </cell>
           <cell r="D2264">
-            <v>483.0532249943987</v>
+            <v>513.37556459743462</v>
           </cell>
           <cell r="E2264">
             <v>194.11713845994231</v>
@@ -60624,7 +60286,7 @@
             <v>44253</v>
           </cell>
           <cell r="D2265">
-            <v>472.04705357839572</v>
+            <v>501.64316443078911</v>
           </cell>
           <cell r="E2265">
             <v>190.2765048677999</v>
@@ -60635,7 +60297,7 @@
             <v>44256</v>
           </cell>
           <cell r="D2266">
-            <v>479.38844137840022</v>
+            <v>510.230218488106</v>
           </cell>
           <cell r="E2266">
             <v>190.79527572671151</v>
@@ -60646,7 +60308,7 @@
             <v>44257</v>
           </cell>
           <cell r="D2267">
-            <v>478.10493550669901</v>
+            <v>509.00054448866689</v>
           </cell>
           <cell r="E2267">
             <v>192.8790053433398</v>
@@ -60657,7 +60319,7 @@
             <v>44258</v>
           </cell>
           <cell r="D2268">
-            <v>477.28785759369839</v>
+            <v>507.86006310462778</v>
           </cell>
           <cell r="E2268">
             <v>192.26339725743139</v>
@@ -60668,7 +60330,7 @@
             <v>44259</v>
           </cell>
           <cell r="D2269">
-            <v>469.68486293286469</v>
+            <v>499.18289115710297</v>
           </cell>
           <cell r="E2269">
             <v>194.8676269691677</v>
@@ -60679,7 +60341,7 @@
             <v>44260</v>
           </cell>
           <cell r="D2270">
-            <v>469.83674799147758</v>
+            <v>499.38789615205201</v>
           </cell>
           <cell r="E2270">
             <v>199.21146829445431</v>
@@ -60690,7 +60352,7 @@
             <v>44263</v>
           </cell>
           <cell r="D2271">
-            <v>456.38196378475942</v>
+            <v>484.84808266217101</v>
           </cell>
           <cell r="E2271">
             <v>191.2742741531066</v>
@@ -60701,7 +60363,7 @@
             <v>44264</v>
           </cell>
           <cell r="D2272">
-            <v>449.77663983677701</v>
+            <v>478.50939702929082</v>
           </cell>
           <cell r="E2272">
             <v>192.51759497829809</v>
@@ -60712,7 +60374,7 @@
             <v>44265</v>
           </cell>
           <cell r="D2273">
-            <v>453.12290532421417</v>
+            <v>482.11569152656682</v>
           </cell>
           <cell r="E2273">
             <v>195.01634128205569</v>
@@ -60723,7 +60385,7 @@
             <v>44266</v>
           </cell>
           <cell r="D2274">
-            <v>460.85849943430833</v>
+            <v>490.34052028530328</v>
           </cell>
           <cell r="E2274">
             <v>198.83449480364521</v>
@@ -60734,7 +60396,7 @@
             <v>44267</v>
           </cell>
           <cell r="D2275">
-            <v>457.87926620851698</v>
+            <v>487.09808625104438</v>
           </cell>
           <cell r="E2275">
             <v>197.40960417783461</v>
@@ -60745,7 +60407,7 @@
             <v>44270</v>
           </cell>
           <cell r="D2276">
-            <v>459.6551099908657</v>
+            <v>489.17168622554789</v>
           </cell>
           <cell r="E2276">
             <v>198.6045063895277</v>
@@ -60756,7 +60418,7 @@
             <v>44271</v>
           </cell>
           <cell r="D2277">
-            <v>464.7479746826674</v>
+            <v>494.92551513437149</v>
           </cell>
           <cell r="E2277">
             <v>197.16578187414621</v>
@@ -60767,7 +60429,7 @@
             <v>44272</v>
           </cell>
           <cell r="D2278">
-            <v>462.81874611460302</v>
+            <v>492.35498930689351</v>
           </cell>
           <cell r="E2278">
             <v>201.5407494509675</v>
@@ -60778,7 +60440,7 @@
             <v>44273</v>
           </cell>
           <cell r="D2279">
-            <v>451.84016223482308</v>
+            <v>480.71017671091482</v>
           </cell>
           <cell r="E2279">
             <v>198.57683861038581</v>
@@ -60789,7 +60451,7 @@
             <v>44274</v>
           </cell>
           <cell r="D2280">
-            <v>452.95652446907752</v>
+            <v>482.01585159301868</v>
           </cell>
           <cell r="E2280">
             <v>200.97528921475379</v>
@@ -60800,7 +60462,7 @@
             <v>44277</v>
           </cell>
           <cell r="D2281">
-            <v>446.2542123853226</v>
+            <v>474.92009934720551</v>
           </cell>
           <cell r="E2281">
             <v>198.82584862266339</v>
@@ -60811,7 +60473,7 @@
             <v>44278</v>
           </cell>
           <cell r="D2282">
-            <v>443.82817796913758</v>
+            <v>472.78297699796559</v>
           </cell>
           <cell r="E2282">
             <v>195.85675007349261</v>
@@ -60822,7 +60484,7 @@
             <v>44279</v>
           </cell>
           <cell r="D2283">
-            <v>432.96636422872842</v>
+            <v>461.20451844227767</v>
           </cell>
           <cell r="E2283">
             <v>193.78512511023879</v>
@@ -60833,7 +60495,7 @@
             <v>44280</v>
           </cell>
           <cell r="D2284">
-            <v>440.96313775318998</v>
+            <v>470.31642371880741</v>
           </cell>
           <cell r="E2284">
             <v>196.70061733732209</v>
@@ -60844,7 +60506,7 @@
             <v>44281</v>
           </cell>
           <cell r="D2285">
-            <v>433.20560191428177</v>
+            <v>462.14009285567391</v>
           </cell>
           <cell r="E2285">
             <v>198.48345985578169</v>
@@ -60855,7 +60517,7 @@
             <v>44284</v>
           </cell>
           <cell r="D2286">
-            <v>429.548116375738</v>
+            <v>458.09638681691013</v>
           </cell>
           <cell r="E2286">
             <v>199.5867125490671</v>
@@ -60866,7 +60528,7 @@
             <v>44285</v>
           </cell>
           <cell r="D2287">
-            <v>430.54181651981082</v>
+            <v>459.13460881069079</v>
           </cell>
           <cell r="E2287">
             <v>202.06124954607549</v>
@@ -60877,7 +60539,7 @@
             <v>44286</v>
           </cell>
           <cell r="D2288">
-            <v>429.16415354673018</v>
+            <v>457.58976869370628</v>
           </cell>
           <cell r="E2288">
             <v>201.6877345276591</v>
@@ -60888,7 +60550,7 @@
             <v>44287</v>
           </cell>
           <cell r="D2289">
-            <v>432.9850659865188</v>
+            <v>461.24614949754579</v>
           </cell>
           <cell r="E2289">
             <v>199.2996593404693</v>
@@ -60899,7 +60561,7 @@
             <v>44291</v>
           </cell>
           <cell r="D2290">
-            <v>431.35095915624231</v>
+            <v>459.52057857283029</v>
           </cell>
           <cell r="E2290">
             <v>203.21637932525201</v>
@@ -60910,7 +60572,7 @@
             <v>44292</v>
           </cell>
           <cell r="D2291">
-            <v>436.44208045594343</v>
+            <v>464.47589984920688</v>
           </cell>
           <cell r="E2291">
             <v>203.18352383752099</v>
@@ -60921,7 +60583,7 @@
             <v>44293</v>
           </cell>
           <cell r="D2292">
-            <v>440.80865904513331</v>
+            <v>469.70829502210569</v>
           </cell>
           <cell r="E2292">
             <v>203.3996783620675</v>
@@ -60932,7 +60594,7 @@
             <v>44294</v>
           </cell>
           <cell r="D2293">
-            <v>440.63943402415862</v>
+            <v>468.9307540700384</v>
           </cell>
           <cell r="E2293">
             <v>204.5911221013678</v>
@@ -60943,7 +60605,7 @@
             <v>44295</v>
           </cell>
           <cell r="D2294">
-            <v>445.18366247890009</v>
+            <v>473.43371027574818</v>
           </cell>
           <cell r="E2294">
             <v>203.47922322710059</v>
@@ -60954,7 +60616,7 @@
             <v>44298</v>
           </cell>
           <cell r="D2295">
-            <v>444.12059375621402</v>
+            <v>472.2988374682318</v>
           </cell>
           <cell r="E2295">
             <v>205.45401096335749</v>
@@ -60965,7 +60627,7 @@
             <v>44299</v>
           </cell>
           <cell r="D2296">
-            <v>454.33311392894768</v>
+            <v>483.18935654750391</v>
           </cell>
           <cell r="E2296">
             <v>206.29269051859799</v>
@@ -60976,7 +60638,7 @@
             <v>44300</v>
           </cell>
           <cell r="D2297">
-            <v>443.33877054676412</v>
+            <v>472.04317072749041</v>
           </cell>
           <cell r="E2297">
             <v>208.0184682425772</v>
@@ -60987,7 +60649,7 @@
             <v>44301</v>
           </cell>
           <cell r="D2298">
-            <v>443.18029341735178</v>
+            <v>471.82959380667899</v>
           </cell>
           <cell r="E2298">
             <v>208.72053813830431</v>
@@ -60998,7 +60660,7 @@
             <v>44302</v>
           </cell>
           <cell r="D2299">
-            <v>448.12411973879352</v>
+            <v>477.08276422095531</v>
           </cell>
           <cell r="E2299">
             <v>209.43471268740601</v>
@@ -61009,7 +60671,7 @@
             <v>44305</v>
           </cell>
           <cell r="D2300">
-            <v>443.36399870632277</v>
+            <v>471.94442151629852</v>
           </cell>
           <cell r="E2300">
             <v>209.12345017205899</v>
@@ -61020,7 +60682,7 @@
             <v>44306</v>
           </cell>
           <cell r="D2301">
-            <v>447.26161418553522</v>
+            <v>476.14623573002359</v>
           </cell>
           <cell r="E2301">
             <v>207.6155562088226</v>
@@ -61031,7 +60693,7 @@
             <v>44308</v>
           </cell>
           <cell r="D2302">
-            <v>439.06139622375468</v>
+            <v>467.43817382513981</v>
           </cell>
           <cell r="E2302">
             <v>206.42065399712951</v>
@@ -61042,7 +60704,7 @@
             <v>44309</v>
           </cell>
           <cell r="D2303">
-            <v>434.33493278920201</v>
+            <v>462.68586213975112</v>
           </cell>
           <cell r="E2303">
             <v>208.42483874872471</v>
@@ -61053,7 +60715,7 @@
             <v>44312</v>
           </cell>
           <cell r="D2304">
-            <v>435.14864639727631</v>
+            <v>463.59513815837067</v>
           </cell>
           <cell r="E2304">
             <v>208.53723910148889</v>
@@ -61064,7 +60726,7 @@
             <v>44313</v>
           </cell>
           <cell r="D2305">
-            <v>427.32788251736571</v>
+            <v>455.33759884866032</v>
           </cell>
           <cell r="E2305">
             <v>206.45005101246781</v>
@@ -61075,7 +60737,7 @@
             <v>44314</v>
           </cell>
           <cell r="D2306">
-            <v>428.51013181031578</v>
+            <v>456.95688965772018</v>
           </cell>
           <cell r="E2306">
             <v>209.3292292794273</v>
@@ -61086,7 +60748,7 @@
             <v>44315</v>
           </cell>
           <cell r="D2307">
-            <v>426.80174612730241</v>
+            <v>455.37921154096517</v>
           </cell>
           <cell r="E2307">
             <v>207.62247315360801</v>
@@ -61097,7 +60759,7 @@
             <v>44316</v>
           </cell>
           <cell r="D2308">
-            <v>421.34916982350319</v>
+            <v>448.82212757514782</v>
           </cell>
           <cell r="E2308">
             <v>205.59580833146001</v>
@@ -62284,7 +61946,7 @@
             <v>44136</v>
           </cell>
           <cell r="C108">
-            <v>483.3383548571382</v>
+            <v>483.32848057351191</v>
           </cell>
           <cell r="D108">
             <v>188.29307095056109</v>
@@ -62295,7 +61957,7 @@
             <v>44166</v>
           </cell>
           <cell r="C109">
-            <v>477.21446300650791</v>
+            <v>477.43558893568343</v>
           </cell>
           <cell r="D109">
             <v>206.30825364436529</v>
@@ -62306,7 +61968,7 @@
             <v>44197</v>
           </cell>
           <cell r="C110">
-            <v>490.29190011063719</v>
+            <v>490.60584438672748</v>
           </cell>
           <cell r="D110">
             <v>200.60350343253381</v>
@@ -62317,7 +61979,7 @@
             <v>44228</v>
           </cell>
           <cell r="C111">
-            <v>472.04705357839572</v>
+            <v>501.64316443078911</v>
           </cell>
           <cell r="D111">
             <v>190.2765048677999</v>
@@ -62328,7 +61990,7 @@
             <v>44256</v>
           </cell>
           <cell r="C112">
-            <v>429.16415354673018</v>
+            <v>457.58976869370628</v>
           </cell>
           <cell r="D112">
             <v>201.6877345276591</v>
@@ -62339,7 +62001,7 @@
             <v>44287</v>
           </cell>
           <cell r="C113">
-            <v>421.34916982350319</v>
+            <v>448.82212757514782</v>
           </cell>
           <cell r="D113">
             <v>205.59580833146001</v>
@@ -62352,19 +62014,19 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C2">
-            <v>1085256490</v>
+            <v>1220889541.2496419</v>
           </cell>
           <cell r="D2">
-            <v>1049380268.374828</v>
+            <v>1180850975.643929</v>
           </cell>
           <cell r="E2">
             <v>3714929530</v>
           </cell>
           <cell r="G2">
-            <v>0.43900189390605082</v>
+            <v>0.46200479306165848</v>
           </cell>
           <cell r="H2">
-            <v>0.55975717735270336</v>
+            <v>0.58212630130960219</v>
           </cell>
         </row>
         <row r="3">
@@ -62381,10 +62043,10 @@
             <v>57587563</v>
           </cell>
           <cell r="G3">
-            <v>0.2305346624957241</v>
+            <v>0.21620156005724631</v>
           </cell>
           <cell r="H3">
-            <v>3.0612363322438271E-2</v>
+            <v>2.829125486131746E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -62401,10 +62063,10 @@
             <v>339000000</v>
           </cell>
           <cell r="G4">
-            <v>6.4527228421536909E-2</v>
+            <v>6.05153572129975E-2</v>
           </cell>
           <cell r="H4">
-            <v>4.463087635006599E-2</v>
+            <v>4.1246848020327617E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -62412,19 +62074,19 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="C5">
-            <v>270003106</v>
+            <v>268371180</v>
           </cell>
           <cell r="D5">
-            <v>270003106</v>
+            <v>268371180</v>
           </cell>
           <cell r="E5">
             <v>902160000</v>
           </cell>
           <cell r="G5">
-            <v>6.3908279136249552E-2</v>
+            <v>5.9572637532534022E-2</v>
           </cell>
           <cell r="H5">
-            <v>0.14402422176765989</v>
+            <v>0.13229943965308749</v>
           </cell>
         </row>
         <row r="6">
@@ -62432,19 +62094,19 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="C6">
-            <v>198252829.98445559</v>
+            <v>218058827</v>
           </cell>
           <cell r="D6">
-            <v>198252829.98445559</v>
+            <v>218058827</v>
           </cell>
           <cell r="E6">
-            <v>746598072</v>
+            <v>766213456</v>
           </cell>
           <cell r="G6">
-            <v>5.1692580367119489E-2</v>
+            <v>5.3321833851889232E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.1057514114365315</v>
+            <v>0.1074968654365553</v>
           </cell>
         </row>
         <row r="7">
@@ -62461,10 +62123,10 @@
             <v>443781062</v>
           </cell>
           <cell r="G7">
-            <v>4.4310064851093248E-2</v>
+            <v>4.1555161568043168E-2</v>
           </cell>
           <cell r="H7">
-            <v>8.4982914839431684E-2</v>
+            <v>7.8539290719109991E-2</v>
           </cell>
         </row>
         <row r="8">
@@ -62475,13 +62137,13 @@
             <v>614211</v>
           </cell>
           <cell r="D8">
-            <v>18747062.31258582</v>
+            <v>20285133.535237689</v>
           </cell>
           <cell r="E8">
             <v>86371464</v>
           </cell>
           <cell r="G8">
-            <v>3.7980708152871939E-2</v>
+            <v>3.8541649316621782E-2</v>
           </cell>
           <cell r="H8">
             <v>0.01</v>
@@ -62495,13 +62157,13 @@
             <v>1003692</v>
           </cell>
           <cell r="D9">
-            <v>18747062.31258582</v>
+            <v>20285133.535237689</v>
           </cell>
           <cell r="E9">
             <v>48067937</v>
           </cell>
           <cell r="G9">
-            <v>3.6117790535764097E-2</v>
+            <v>3.6651218068859549E-2</v>
           </cell>
           <cell r="H9">
             <v>0.01</v>
@@ -62515,19 +62177,19 @@
             <v>19198932</v>
           </cell>
           <cell r="D10">
-            <v>19198932</v>
+            <v>20285133.535237689</v>
           </cell>
           <cell r="E10">
             <v>29787362</v>
           </cell>
           <cell r="G10">
-            <v>3.1926792133589947E-2</v>
+            <v>3.1635789330149988E-2</v>
           </cell>
           <cell r="H10">
-            <v>1.024103493116936E-2</v>
+            <v>0.01</v>
           </cell>
           <cell r="I10">
-            <v>81920303.130909517</v>
+            <v>82004341.126424089</v>
           </cell>
         </row>
       </sheetData>
@@ -62536,8 +62198,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
             <v>44316</v>
@@ -62665,7 +62326,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -62971,7 +62632,7 @@
   <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63010,34 +62671,34 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -63106,19 +62767,19 @@
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>-1.820977744446239E-2</v>
+        <v>-1.916048329399456E-2</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-0.1170653815289812</v>
+        <v>-5.9931563594414317E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.51019267587978923</v>
+        <v>0.60866079342388657</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.64538205118405223</v>
+        <v>0.75266483424122255</v>
       </c>
       <c r="G5" s="60">
         <v>0</v>
@@ -63157,7 +62818,7 @@
       </c>
       <c r="P5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
-        <v>8.5495689049521983E-2</v>
+        <v>8.5998673056638664E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -63183,7 +62844,7 @@
       </c>
       <c r="G6" s="48">
         <f>_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.7980708152871939E-2</v>
+        <v>3.8541649316621782E-2</v>
       </c>
       <c r="H6" s="48">
         <f>[1]tab1_retorno_empresas!G4</f>
@@ -63245,7 +62906,7 @@
       </c>
       <c r="G7" s="48">
         <f>_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.6117790535764097E-2</v>
+        <v>3.6651218068859549E-2</v>
       </c>
       <c r="H7" s="48">
         <f>[1]tab1_retorno_empresas!G5</f>
@@ -63307,7 +62968,7 @@
       </c>
       <c r="G8" s="48">
         <f>_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.1926792133589947E-2</v>
+        <v>3.1635789330149988E-2</v>
       </c>
       <c r="H8" s="48">
         <f>[1]tab1_retorno_empresas!G6</f>
@@ -63369,7 +63030,7 @@
       </c>
       <c r="G9" s="48">
         <f>_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.3908279136249552E-2</v>
+        <v>5.9572637532534022E-2</v>
       </c>
       <c r="H9" s="48">
         <f>[1]tab1_retorno_empresas!G7</f>
@@ -63431,7 +63092,7 @@
       </c>
       <c r="G10" s="48">
         <f>_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.4527228421536909E-2</v>
+        <v>6.05153572129975E-2</v>
       </c>
       <c r="H10" s="48">
         <f>[1]tab1_retorno_empresas!G8</f>
@@ -63477,23 +63138,23 @@
       </c>
       <c r="C11" s="48">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>-2.9569892473118361E-2</v>
+        <v>-3.2258064516129122E-2</v>
       </c>
       <c r="D11" s="48">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>-5.3735255570117942E-2</v>
+        <v>-5.6356487549148022E-2</v>
       </c>
       <c r="E11" s="48">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>1.385988103106411</v>
+        <v>1.379378717779246</v>
       </c>
       <c r="F11" s="48">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>1.6159420289855071</v>
+        <v>1.6086956521739131</v>
       </c>
       <c r="G11" s="48">
         <f>_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.43900189390605082</v>
+        <v>0.46200479306165848</v>
       </c>
       <c r="H11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
@@ -63555,7 +63216,7 @@
       </c>
       <c r="G12" s="48">
         <f>_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.2305346624957241</v>
+        <v>0.21620156005724631</v>
       </c>
       <c r="H12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
@@ -63617,7 +63278,7 @@
       </c>
       <c r="G13" s="48">
         <f>_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>4.4310064851093248E-2</v>
+        <v>4.1555161568043168E-2</v>
       </c>
       <c r="H13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
@@ -63679,7 +63340,7 @@
       </c>
       <c r="G14" s="49">
         <f>_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.1692580367119489E-2</v>
+        <v>5.3321833851889232E-2</v>
       </c>
       <c r="H14" s="18">
         <f>[1]tab1_retorno_empresas!G12</f>
@@ -63725,7 +63386,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
@@ -63841,7 +63502,7 @@
   <dimension ref="C1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D5" sqref="D5:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63926,15 +63587,15 @@
       </c>
       <c r="D6" s="14">
         <f>[1]tab2_risco_empresas!B$2</f>
-        <v>1.26E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E6" s="14">
         <f>[1]tab2_risco_empresas!C$2</f>
-        <v>6.7299999999999999E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="F6" s="58">
         <f>[1]tab2_risco_empresas!D$2</f>
-        <v>5.3412698412698409</v>
+        <v>4.8057553956834536</v>
       </c>
       <c r="G6" s="14">
         <f>[1]tab2_risco_empresas!E$2</f>
@@ -63985,13 +63646,13 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D8" s="12">
-        <v>3.1899999999999998E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="E8" s="12">
         <v>0.1008</v>
       </c>
       <c r="F8" s="6">
-        <v>3.1598746081504698</v>
+        <v>3.1698113207547172</v>
       </c>
       <c r="G8" s="13">
         <v>1.0200000000000001E-2</v>
@@ -64195,7 +63856,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -64208,7 +63869,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B4" sqref="B4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64252,31 +63913,31 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>6.7699999999999996E-2</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>5.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.47849999999999998</v>
+        <v>0.46339999999999998</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.52039999999999997</v>
+        <v>0.50770000000000004</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.27089999999999997</v>
+        <v>0.25769999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -64354,7 +64015,7 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>0.32200000000000001</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="D8" s="12">
         <v>2.35E-2</v>
@@ -64363,13 +64024,13 @@
         <v>0.67479999999999996</v>
       </c>
       <c r="F8" s="13">
-        <v>0.53800000000000003</v>
+        <v>0.53769999999999996</v>
       </c>
       <c r="G8" s="12">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="H8" s="12">
-        <v>0.28949999999999998</v>
+        <v>0.28910000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -64494,7 +64155,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -64513,7 +64174,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64558,10 +64219,10 @@
         <v>32</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>33</v>
@@ -64581,11 +64242,11 @@
       </c>
       <c r="E3" s="30">
         <f>[1]contribuicao!C2</f>
-        <v>1085256490</v>
+        <v>1220889541.2496419</v>
       </c>
       <c r="F3" s="30">
         <f>[1]contribuicao!D2</f>
-        <v>1049380268.374828</v>
+        <v>1180850975.643929</v>
       </c>
       <c r="G3" s="30">
         <f>[1]contribuicao!$E2</f>
@@ -64593,11 +64254,11 @@
       </c>
       <c r="H3" s="31">
         <f>[1]contribuicao!G2</f>
-        <v>0.43900189390605082</v>
+        <v>0.46200479306165848</v>
       </c>
       <c r="I3" s="31">
         <f>[1]contribuicao!H2</f>
-        <v>0.55975717735270336</v>
+        <v>0.58212630130960219</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -64626,11 +64287,11 @@
       </c>
       <c r="H4" s="31">
         <f>[1]contribuicao!G3</f>
-        <v>0.2305346624957241</v>
+        <v>0.21620156005724631</v>
       </c>
       <c r="I4" s="31">
         <f>[1]contribuicao!H3</f>
-        <v>3.0612363322438271E-2</v>
+        <v>2.829125486131746E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -64659,11 +64320,11 @@
       </c>
       <c r="H5" s="31">
         <f>[1]contribuicao!G4</f>
-        <v>6.4527228421536909E-2</v>
+        <v>6.05153572129975E-2</v>
       </c>
       <c r="I5" s="31">
         <f>[1]contribuicao!H4</f>
-        <v>4.463087635006599E-2</v>
+        <v>4.1246848020327617E-2</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -64680,11 +64341,11 @@
       </c>
       <c r="E6" s="30">
         <f>[1]contribuicao!C5</f>
-        <v>270003106</v>
+        <v>268371180</v>
       </c>
       <c r="F6" s="30">
         <f>[1]contribuicao!D5</f>
-        <v>270003106</v>
+        <v>268371180</v>
       </c>
       <c r="G6" s="30">
         <f>[1]contribuicao!$E5</f>
@@ -64692,11 +64353,11 @@
       </c>
       <c r="H6" s="31">
         <f>[1]contribuicao!G5</f>
-        <v>6.3908279136249552E-2</v>
+        <v>5.9572637532534022E-2</v>
       </c>
       <c r="I6" s="31">
         <f>[1]contribuicao!H5</f>
-        <v>0.14402422176765989</v>
+        <v>0.13229943965308749</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -64713,23 +64374,23 @@
       </c>
       <c r="E7" s="30">
         <f>[1]contribuicao!C6</f>
-        <v>198252829.98445559</v>
+        <v>218058827</v>
       </c>
       <c r="F7" s="30">
         <f>[1]contribuicao!D6</f>
-        <v>198252829.98445559</v>
+        <v>218058827</v>
       </c>
       <c r="G7" s="30">
         <f>[1]contribuicao!$E6</f>
-        <v>746598072</v>
+        <v>766213456</v>
       </c>
       <c r="H7" s="31">
         <f>[1]contribuicao!G6</f>
-        <v>5.1692580367119489E-2</v>
+        <v>5.3321833851889232E-2</v>
       </c>
       <c r="I7" s="31">
         <f>[1]contribuicao!H6</f>
-        <v>0.1057514114365315</v>
+        <v>0.1074968654365553</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -64758,11 +64419,11 @@
       </c>
       <c r="H8" s="31">
         <f>[1]contribuicao!G7</f>
-        <v>4.4310064851093248E-2</v>
+        <v>4.1555161568043168E-2</v>
       </c>
       <c r="I8" s="31">
         <f>[1]contribuicao!H7</f>
-        <v>8.4982914839431684E-2</v>
+        <v>7.8539290719109991E-2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -64775,7 +64436,7 @@
         <v>BANCO DO NORDESTE</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="30">
         <f>[1]contribuicao!C8</f>
@@ -64783,7 +64444,7 @@
       </c>
       <c r="F9" s="30">
         <f>[1]contribuicao!D8</f>
-        <v>18747062.31258582</v>
+        <v>20285133.535237689</v>
       </c>
       <c r="G9" s="30">
         <f>[1]contribuicao!$E8</f>
@@ -64791,7 +64452,7 @@
       </c>
       <c r="H9" s="31">
         <f>[1]contribuicao!G8</f>
-        <v>3.7980708152871939E-2</v>
+        <v>3.8541649316621782E-2</v>
       </c>
       <c r="I9" s="31">
         <f>[1]contribuicao!H8</f>
@@ -64816,7 +64477,7 @@
       </c>
       <c r="F10" s="30">
         <f>[1]contribuicao!D9</f>
-        <v>18747062.31258582</v>
+        <v>20285133.535237689</v>
       </c>
       <c r="G10" s="30">
         <f>[1]contribuicao!$E9</f>
@@ -64824,7 +64485,7 @@
       </c>
       <c r="H10" s="31">
         <f>[1]contribuicao!G9</f>
-        <v>3.6117790535764097E-2</v>
+        <v>3.6651218068859549E-2</v>
       </c>
       <c r="I10" s="31">
         <f>[1]contribuicao!H9</f>
@@ -64849,7 +64510,7 @@
       </c>
       <c r="F11" s="30">
         <f>[1]contribuicao!D10</f>
-        <v>19198932</v>
+        <v>20285133.535237689</v>
       </c>
       <c r="G11" s="30">
         <f>[1]contribuicao!$E10</f>
@@ -64857,11 +64518,11 @@
       </c>
       <c r="H11" s="31">
         <f>[1]contribuicao!G10</f>
-        <v>3.1926792133589947E-2</v>
+        <v>3.1635789330149988E-2</v>
       </c>
       <c r="I11" s="31">
         <f>[1]contribuicao!H10</f>
-        <v>1.024103493116936E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -64872,15 +64533,15 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33">
         <f>SUM(E3:E11)</f>
-        <v>1874706231.2585824</v>
+        <v>2028513353.5237687</v>
       </c>
       <c r="F12" s="33">
         <f>SUM(F3:F11)</f>
-        <v>1874706231.2585819</v>
+        <v>2028513353.5237691</v>
       </c>
       <c r="G12" s="33">
         <f>SUM(G3:G11)</f>
-        <v>6368282990</v>
+        <v>6387898374</v>
       </c>
       <c r="H12" s="34">
         <f>SUM(H3:H11)</f>
@@ -64888,7 +64549,7 @@
       </c>
       <c r="I12" s="34">
         <f>SUM(I3:I11)</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -64899,7 +64560,7 @@
       <c r="D13" s="35"/>
       <c r="E13" s="47">
         <f>[1]contribuicao!$I$10</f>
-        <v>81920303.130909517</v>
+        <v>82004341.126424089</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -64916,27 +64577,27 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -65004,12 +64665,12 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -65017,7 +64678,7 @@
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -65025,7 +64686,7 @@
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -65033,7 +64694,7 @@
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -65041,7 +64702,7 @@
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -65049,7 +64710,7 @@
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -65057,7 +64718,7 @@
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -65065,7 +64726,7 @@
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -65073,7 +64734,7 @@
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -65089,7 +64750,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65102,21 +64763,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a548da2118d25344/Alysson/Unifor/Monitoria/indice_nupe/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9E02C2F-BE09-4532-A0BF-3E0CB27E04F5}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A39B1B5-3687-49B8-B778-04FC90B0FB98}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="tab3_risco_sistemico" sheetId="6" r:id="rId5"/>
     <sheet name="tab4_contribuicao" sheetId="7" r:id="rId6"/>
     <sheet name="nome_empresas" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="tab5_entrada" sheetId="8" r:id="rId8"/>
+    <sheet name="Planilha2" sheetId="13" r:id="rId8"/>
+    <sheet name="tab5_entrada" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Planilha2!$B$2:$J$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tab1_retorno_empresas!$B$20:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tab3_risco_sistemico!$B$3:$H$13</definedName>
   </definedNames>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Tabela 1 - Retornos do Índice das ações cearenses e do Ibovespa.</t>
   </si>
@@ -343,6 +345,12 @@
     <t>Part. (%)***</t>
   </si>
   <si>
+    <t>IAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Quantidade de ações ponderadas por peso mínimo de 1%. </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">¹ Data de referência: </t>
     </r>
@@ -354,21 +362,45 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>30 de Abril de 2021.</t>
+      <t>28 de Maio de 2021.</t>
     </r>
   </si>
   <si>
-    <t>IAC</t>
+    <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">** Quantidade de ações ponderadas por peso mínimo de 1%. </t>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>free_float</t>
+  </si>
+  <si>
+    <t>free_float_adj</t>
+  </si>
+  <si>
+    <t>qtd_total</t>
+  </si>
+  <si>
+    <t>vl_merc_ff_adj</t>
+  </si>
+  <si>
+    <t>price.close</t>
+  </si>
+  <si>
+    <t>Variação Mensal</t>
+  </si>
+  <si>
+    <t>Contribuição</t>
+  </si>
+  <si>
+    <t>Participação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="10">
+  <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00%;[Red]\-0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
@@ -379,6 +411,9 @@
     <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="172" formatCode="0.000000000%"/>
+    <numFmt numFmtId="173" formatCode="0.0000000%"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -489,7 +524,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,9 +680,12 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7698,6 +7736,66 @@
                 <c:pt idx="2306">
                   <c:v>44316</c:v>
                 </c:pt>
+                <c:pt idx="2307">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="2308">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="2309">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="2310">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="2311">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="2312">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="2313">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="2314">
+                  <c:v>44328</c:v>
+                </c:pt>
+                <c:pt idx="2315">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="2316">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="2317">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="2318">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="2319">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="2320">
+                  <c:v>44336</c:v>
+                </c:pt>
+                <c:pt idx="2321">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="2322">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="2323">
+                  <c:v>44341</c:v>
+                </c:pt>
+                <c:pt idx="2324">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="2325">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="2326">
+                  <c:v>44344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -7705,7 +7803,7 @@
             <c:numRef>
               <c:f>[1]indice!$D$2:$D$1048576</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -14131,502 +14229,562 @@
                   <c:v>459.76039371860088</c:v>
                 </c:pt>
                 <c:pt idx="2141">
-                  <c:v>454.10072707949013</c:v>
+                  <c:v>454.10084661507398</c:v>
                 </c:pt>
                 <c:pt idx="2142">
-                  <c:v>458.82308853326077</c:v>
+                  <c:v>458.82320803972658</c:v>
                 </c:pt>
                 <c:pt idx="2143">
-                  <c:v>453.64600248535771</c:v>
+                  <c:v>453.64612196131861</c:v>
                 </c:pt>
                 <c:pt idx="2144">
-                  <c:v>460.08199776783061</c:v>
+                  <c:v>460.08211814835971</c:v>
                 </c:pt>
                 <c:pt idx="2145">
-                  <c:v>463.2584170576651</c:v>
+                  <c:v>463.25854017685691</c:v>
                 </c:pt>
                 <c:pt idx="2146">
-                  <c:v>475.9677863808439</c:v>
+                  <c:v>475.96791046283988</c:v>
                 </c:pt>
                 <c:pt idx="2147">
-                  <c:v>486.26273501981058</c:v>
+                  <c:v>486.26286572323193</c:v>
                 </c:pt>
                 <c:pt idx="2148">
-                  <c:v>496.76730450636859</c:v>
+                  <c:v>496.76743326615542</c:v>
                 </c:pt>
                 <c:pt idx="2149">
-                  <c:v>487.43670013952158</c:v>
+                  <c:v>487.43682725222851</c:v>
                 </c:pt>
                 <c:pt idx="2150">
-                  <c:v>488.86274099417233</c:v>
+                  <c:v>488.86286744357511</c:v>
                 </c:pt>
                 <c:pt idx="2151">
-                  <c:v>491.29077865706392</c:v>
+                  <c:v>491.29090618522361</c:v>
                 </c:pt>
                 <c:pt idx="2152">
-                  <c:v>478.7231575875245</c:v>
+                  <c:v>478.72328629600793</c:v>
                 </c:pt>
                 <c:pt idx="2153">
-                  <c:v>471.12968582622591</c:v>
+                  <c:v>471.12981038936402</c:v>
                 </c:pt>
                 <c:pt idx="2154">
-                  <c:v>459.1941612649714</c:v>
+                  <c:v>459.194281930442</c:v>
                 </c:pt>
                 <c:pt idx="2155">
-                  <c:v>468.93536464056263</c:v>
+                  <c:v>468.93548939712832</c:v>
                 </c:pt>
                 <c:pt idx="2156">
-                  <c:v>465.41560064427563</c:v>
+                  <c:v>465.41572545179798</c:v>
                 </c:pt>
                 <c:pt idx="2157">
-                  <c:v>456.41869805939439</c:v>
+                  <c:v>456.41882310644809</c:v>
                 </c:pt>
                 <c:pt idx="2158">
-                  <c:v>443.04159533318523</c:v>
+                  <c:v>443.04171662712167</c:v>
                 </c:pt>
                 <c:pt idx="2159">
-                  <c:v>443.04159533318523</c:v>
+                  <c:v>443.04171662712167</c:v>
                 </c:pt>
                 <c:pt idx="2160">
-                  <c:v>450.37069745844292</c:v>
+                  <c:v>450.38603071679859</c:v>
                 </c:pt>
                 <c:pt idx="2161">
-                  <c:v>452.14356457133277</c:v>
+                  <c:v>452.13155963569272</c:v>
                 </c:pt>
                 <c:pt idx="2162">
-                  <c:v>451.4708396082093</c:v>
+                  <c:v>451.4691734935256</c:v>
                 </c:pt>
                 <c:pt idx="2163">
-                  <c:v>455.36946636070928</c:v>
+                  <c:v>455.37095769589308</c:v>
                 </c:pt>
                 <c:pt idx="2164">
-                  <c:v>457.21989345600269</c:v>
+                  <c:v>457.23121719337189</c:v>
                 </c:pt>
                 <c:pt idx="2165">
-                  <c:v>445.75337866456738</c:v>
+                  <c:v>445.7634338689806</c:v>
                 </c:pt>
                 <c:pt idx="2166">
-                  <c:v>450.65405290733571</c:v>
+                  <c:v>450.67466481609267</c:v>
                 </c:pt>
                 <c:pt idx="2167">
-                  <c:v>454.91437684756858</c:v>
+                  <c:v>454.94532802515403</c:v>
                 </c:pt>
                 <c:pt idx="2168">
-                  <c:v>461.68319430988089</c:v>
+                  <c:v>461.71886926620181</c:v>
                 </c:pt>
                 <c:pt idx="2169">
-                  <c:v>456.92737153179138</c:v>
+                  <c:v>456.9536244887401</c:v>
                 </c:pt>
                 <c:pt idx="2170">
-                  <c:v>457.78727191423991</c:v>
+                  <c:v>457.82347754245251</c:v>
                 </c:pt>
                 <c:pt idx="2171">
-                  <c:v>449.06369831507021</c:v>
+                  <c:v>449.09432388883852</c:v>
                 </c:pt>
                 <c:pt idx="2172">
-                  <c:v>452.20136109729998</c:v>
+                  <c:v>452.23529470493349</c:v>
                 </c:pt>
                 <c:pt idx="2173">
-                  <c:v>454.77968501586878</c:v>
+                  <c:v>455.42492089286702</c:v>
                 </c:pt>
                 <c:pt idx="2174">
-                  <c:v>450.50586399936208</c:v>
+                  <c:v>451.14503680140967</c:v>
                 </c:pt>
                 <c:pt idx="2175">
-                  <c:v>458.62577291910549</c:v>
+                  <c:v>459.27646647764539</c:v>
                 </c:pt>
                 <c:pt idx="2176">
-                  <c:v>460.82365439735992</c:v>
+                  <c:v>461.4774680663503</c:v>
                 </c:pt>
                 <c:pt idx="2177">
-                  <c:v>456.17729037712348</c:v>
+                  <c:v>456.82451155139319</c:v>
                 </c:pt>
                 <c:pt idx="2178">
-                  <c:v>449.31868778828579</c:v>
+                  <c:v>449.9561769135139</c:v>
                 </c:pt>
                 <c:pt idx="2179">
-                  <c:v>441.92373219881011</c:v>
+                  <c:v>442.55073093787661</c:v>
                 </c:pt>
                 <c:pt idx="2180">
-                  <c:v>445.96488767729488</c:v>
+                  <c:v>446.59762002020182</c:v>
                 </c:pt>
                 <c:pt idx="2181">
-                  <c:v>442.58286458169391</c:v>
+                  <c:v>443.2107985080342</c:v>
                 </c:pt>
                 <c:pt idx="2182">
-                  <c:v>442.87115430436819</c:v>
+                  <c:v>443.49949865755218</c:v>
                 </c:pt>
                 <c:pt idx="2183">
-                  <c:v>443.96597274470832</c:v>
+                  <c:v>444.59586741398198</c:v>
                 </c:pt>
                 <c:pt idx="2184">
-                  <c:v>450.19199435845599</c:v>
+                  <c:v>450.8307238887628</c:v>
                 </c:pt>
                 <c:pt idx="2185">
-                  <c:v>452.30055398738858</c:v>
+                  <c:v>452.94227572149072</c:v>
                 </c:pt>
                 <c:pt idx="2186">
-                  <c:v>440.36195348174658</c:v>
+                  <c:v>440.9867365100597</c:v>
                 </c:pt>
                 <c:pt idx="2187">
-                  <c:v>444.84609674398479</c:v>
+                  <c:v>445.47724414635911</c:v>
                 </c:pt>
                 <c:pt idx="2188">
-                  <c:v>433.18117088103452</c:v>
+                  <c:v>433.79576741802822</c:v>
                 </c:pt>
                 <c:pt idx="2189">
-                  <c:v>432.98629403569697</c:v>
+                  <c:v>433.60061571515058</c:v>
                 </c:pt>
                 <c:pt idx="2190">
-                  <c:v>452.596112516044</c:v>
+                  <c:v>453.23825688218238</c:v>
                 </c:pt>
                 <c:pt idx="2191">
-                  <c:v>462.17490184077451</c:v>
+                  <c:v>462.83063546741442</c:v>
                 </c:pt>
                 <c:pt idx="2192">
-                  <c:v>466.00600253732722</c:v>
+                  <c:v>466.66717374923729</c:v>
                 </c:pt>
                 <c:pt idx="2193">
-                  <c:v>459.40505115015912</c:v>
+                  <c:v>460.05685596306449</c:v>
                 </c:pt>
                 <c:pt idx="2194">
-                  <c:v>460.67316325583192</c:v>
+                  <c:v>461.3267647472037</c:v>
                 </c:pt>
                 <c:pt idx="2195">
-                  <c:v>464.95497932851612</c:v>
+                  <c:v>465.61465517321028</c:v>
                 </c:pt>
                 <c:pt idx="2196">
-                  <c:v>461.67095787313508</c:v>
+                  <c:v>462.32597722225722</c:v>
                 </c:pt>
                 <c:pt idx="2197">
-                  <c:v>479.92716482636041</c:v>
+                  <c:v>480.60808685163482</c:v>
                 </c:pt>
                 <c:pt idx="2198">
-                  <c:v>474.21388606522072</c:v>
+                  <c:v>474.8867031358493</c:v>
                 </c:pt>
                 <c:pt idx="2199">
-                  <c:v>468.48372734714712</c:v>
+                  <c:v>469.14841489376607</c:v>
                 </c:pt>
                 <c:pt idx="2200">
-                  <c:v>465.92266706689583</c:v>
+                  <c:v>466.58372029698671</c:v>
                 </c:pt>
                 <c:pt idx="2201">
-                  <c:v>468.46946986750851</c:v>
+                  <c:v>469.13413592418311</c:v>
                 </c:pt>
                 <c:pt idx="2202">
-                  <c:v>474.28750725591522</c:v>
+                  <c:v>474.96042705893672</c:v>
                 </c:pt>
                 <c:pt idx="2203">
-                  <c:v>473.35367627221183</c:v>
+                  <c:v>474.0252713673791</c:v>
                 </c:pt>
                 <c:pt idx="2204">
-                  <c:v>476.33098712503772</c:v>
+                  <c:v>477.00680663547348</c:v>
                 </c:pt>
                 <c:pt idx="2205">
-                  <c:v>476.33098712503778</c:v>
+                  <c:v>477.00680663547348</c:v>
                 </c:pt>
                 <c:pt idx="2206">
-                  <c:v>479.70590834868472</c:v>
+                  <c:v>480.3856535361237</c:v>
                 </c:pt>
                 <c:pt idx="2207">
-                  <c:v>483.32848057351191</c:v>
+                  <c:v>484.02411643718131</c:v>
                 </c:pt>
                 <c:pt idx="2208">
-                  <c:v>460.61063202881371</c:v>
+                  <c:v>461.23931288424581</c:v>
                 </c:pt>
                 <c:pt idx="2209">
-                  <c:v>462.34350734294492</c:v>
+                  <c:v>462.97058184054151</c:v>
                 </c:pt>
                 <c:pt idx="2210">
-                  <c:v>467.23856780950263</c:v>
+                  <c:v>467.87810006865391</c:v>
                 </c:pt>
                 <c:pt idx="2211">
-                  <c:v>470.95096948631982</c:v>
+                  <c:v>471.59432331553478</c:v>
                 </c:pt>
                 <c:pt idx="2212">
-                  <c:v>462.23824166772528</c:v>
+                  <c:v>462.84332716803129</c:v>
                 </c:pt>
                 <c:pt idx="2213">
-                  <c:v>470.43030795968969</c:v>
+                  <c:v>471.04147507798768</c:v>
                 </c:pt>
                 <c:pt idx="2214">
-                  <c:v>462.67531174602442</c:v>
+                  <c:v>463.27106224148417</c:v>
                 </c:pt>
                 <c:pt idx="2215">
-                  <c:v>471.598047573271</c:v>
+                  <c:v>472.21837471051907</c:v>
                 </c:pt>
                 <c:pt idx="2216">
-                  <c:v>471.57935634230518</c:v>
+                  <c:v>472.20398023961781</c:v>
                 </c:pt>
                 <c:pt idx="2217">
-                  <c:v>467.25540528131393</c:v>
+                  <c:v>467.86120670565032</c:v>
                 </c:pt>
                 <c:pt idx="2218">
-                  <c:v>474.11141924228821</c:v>
+                  <c:v>474.73245033995693</c:v>
                 </c:pt>
                 <c:pt idx="2219">
-                  <c:v>476.92547275109348</c:v>
+                  <c:v>477.54854820186961</c:v>
                 </c:pt>
                 <c:pt idx="2220">
-                  <c:v>474.88914331438309</c:v>
+                  <c:v>475.50095955040553</c:v>
                 </c:pt>
                 <c:pt idx="2221">
-                  <c:v>469.23912003243993</c:v>
+                  <c:v>470.38692980547057</c:v>
                 </c:pt>
                 <c:pt idx="2222">
-                  <c:v>468.53421773324698</c:v>
+                  <c:v>469.68030323881248</c:v>
                 </c:pt>
                 <c:pt idx="2223">
-                  <c:v>472.85534323890931</c:v>
+                  <c:v>474.01199868605499</c:v>
                 </c:pt>
                 <c:pt idx="2224">
-                  <c:v>474.74096673058079</c:v>
+                  <c:v>475.90223461726879</c:v>
                 </c:pt>
                 <c:pt idx="2225">
-                  <c:v>478.32026747237239</c:v>
+                  <c:v>479.49029071682293</c:v>
                 </c:pt>
                 <c:pt idx="2226">
-                  <c:v>481.06852448909819</c:v>
+                  <c:v>482.24527026823932</c:v>
                 </c:pt>
                 <c:pt idx="2227">
-                  <c:v>477.43558893568343</c:v>
+                  <c:v>478.60344816049638</c:v>
                 </c:pt>
                 <c:pt idx="2228">
-                  <c:v>470.88039500942278</c:v>
+                  <c:v>472.16593365383852</c:v>
                 </c:pt>
                 <c:pt idx="2229">
-                  <c:v>469.95961182489629</c:v>
+                  <c:v>471.24203621596951</c:v>
                 </c:pt>
                 <c:pt idx="2230">
-                  <c:v>458.83709182581498</c:v>
+                  <c:v>460.09075731192939</c:v>
                 </c:pt>
                 <c:pt idx="2231">
-                  <c:v>468.01586183903169</c:v>
+                  <c:v>469.28856572165671</c:v>
                 </c:pt>
                 <c:pt idx="2232">
-                  <c:v>506.68755555387003</c:v>
+                  <c:v>508.06063169410788</c:v>
                 </c:pt>
                 <c:pt idx="2233">
-                  <c:v>531.67054310202286</c:v>
+                  <c:v>533.10278116570316</c:v>
                 </c:pt>
                 <c:pt idx="2234">
-                  <c:v>520.85965815571456</c:v>
+                  <c:v>522.26326162046848</c:v>
                 </c:pt>
                 <c:pt idx="2235">
-                  <c:v>510.08337392331998</c:v>
+                  <c:v>511.4617201754329</c:v>
                 </c:pt>
                 <c:pt idx="2236">
-                  <c:v>517.54228165728296</c:v>
+                  <c:v>518.94036607024987</c:v>
                 </c:pt>
                 <c:pt idx="2237">
-                  <c:v>520.31214197383599</c:v>
+                  <c:v>521.58488189701814</c:v>
                 </c:pt>
                 <c:pt idx="2238">
-                  <c:v>528.2488161236887</c:v>
+                  <c:v>529.54097001251353</c:v>
                 </c:pt>
                 <c:pt idx="2239">
-                  <c:v>521.66284262853844</c:v>
+                  <c:v>522.93888651199518</c:v>
                 </c:pt>
                 <c:pt idx="2240">
-                  <c:v>525.00295399011577</c:v>
+                  <c:v>526.28716814817278</c:v>
                 </c:pt>
                 <c:pt idx="2241">
-                  <c:v>521.13775026994983</c:v>
+                  <c:v>522.41250972055514</c:v>
                 </c:pt>
                 <c:pt idx="2242">
-                  <c:v>512.17080203508556</c:v>
+                  <c:v>513.42362735791073</c:v>
                 </c:pt>
                 <c:pt idx="2243">
-                  <c:v>515.49731305976366</c:v>
+                  <c:v>516.75827538929013</c:v>
                 </c:pt>
                 <c:pt idx="2244">
-                  <c:v>501.0367960231851</c:v>
+                  <c:v>502.26238635990649</c:v>
                 </c:pt>
                 <c:pt idx="2245">
-                  <c:v>509.36216137220089</c:v>
+                  <c:v>510.60811645538882</c:v>
                 </c:pt>
                 <c:pt idx="2246">
-                  <c:v>490.60584438672748</c:v>
+                  <c:v>491.80591948458829</c:v>
                 </c:pt>
                 <c:pt idx="2247">
-                  <c:v>538.10632483803045</c:v>
+                  <c:v>505.97217124350328</c:v>
                 </c:pt>
                 <c:pt idx="2248">
-                  <c:v>544.28830316359506</c:v>
+                  <c:v>511.80479385480447</c:v>
                 </c:pt>
                 <c:pt idx="2249">
-                  <c:v>543.70587341633302</c:v>
+                  <c:v>511.41898252380048</c:v>
                 </c:pt>
                 <c:pt idx="2250">
-                  <c:v>558.83844482174459</c:v>
+                  <c:v>526.33318514255222</c:v>
                 </c:pt>
                 <c:pt idx="2251">
-                  <c:v>564.84719197882623</c:v>
+                  <c:v>532.41061445582045</c:v>
                 </c:pt>
                 <c:pt idx="2252">
-                  <c:v>556.20037491800167</c:v>
+                  <c:v>523.40255666705787</c:v>
                 </c:pt>
                 <c:pt idx="2253">
-                  <c:v>556.63039149358178</c:v>
+                  <c:v>524.41921000925959</c:v>
                 </c:pt>
                 <c:pt idx="2254">
-                  <c:v>542.75863987268065</c:v>
+                  <c:v>511.41264778771318</c:v>
                 </c:pt>
                 <c:pt idx="2255">
-                  <c:v>547.34833978354868</c:v>
+                  <c:v>515.5355097762822</c:v>
                 </c:pt>
                 <c:pt idx="2256">
-                  <c:v>539.67646410336283</c:v>
+                  <c:v>508.44014219100058</c:v>
                 </c:pt>
                 <c:pt idx="2257">
-                  <c:v>526.61139876960954</c:v>
+                  <c:v>496.05031941272853</c:v>
                 </c:pt>
                 <c:pt idx="2258">
-                  <c:v>528.73717044401735</c:v>
+                  <c:v>497.7166048414129</c:v>
                 </c:pt>
                 <c:pt idx="2259">
-                  <c:v>523.18998047930586</c:v>
+                  <c:v>492.94152154568752</c:v>
                 </c:pt>
                 <c:pt idx="2260">
-                  <c:v>518.95835140413647</c:v>
+                  <c:v>489.39225672073837</c:v>
                 </c:pt>
                 <c:pt idx="2261">
-                  <c:v>517.516609073209</c:v>
+                  <c:v>488.17378650472318</c:v>
                 </c:pt>
                 <c:pt idx="2262">
-                  <c:v>513.37556459743462</c:v>
+                  <c:v>484.48505576497678</c:v>
                 </c:pt>
                 <c:pt idx="2263">
-                  <c:v>501.64316443078911</c:v>
+                  <c:v>473.42212344116012</c:v>
                 </c:pt>
                 <c:pt idx="2264">
-                  <c:v>510.230218488106</c:v>
+                  <c:v>480.74996080002501</c:v>
                 </c:pt>
                 <c:pt idx="2265">
-                  <c:v>509.00054448866689</c:v>
+                  <c:v>479.45116073550861</c:v>
                 </c:pt>
                 <c:pt idx="2266">
-                  <c:v>507.86006310462778</c:v>
+                  <c:v>478.65234373605352</c:v>
                 </c:pt>
                 <c:pt idx="2267">
-                  <c:v>499.18289115710297</c:v>
+                  <c:v>471.01201676423028</c:v>
                 </c:pt>
                 <c:pt idx="2268">
-                  <c:v>499.38789615205201</c:v>
+                  <c:v>471.1431244148261</c:v>
                 </c:pt>
                 <c:pt idx="2269">
-                  <c:v>484.84808266217101</c:v>
+                  <c:v>457.6458571644992</c:v>
                 </c:pt>
                 <c:pt idx="2270">
-                  <c:v>478.50939702929082</c:v>
+                  <c:v>451.03607710306272</c:v>
                 </c:pt>
                 <c:pt idx="2271">
-                  <c:v>482.11569152656682</c:v>
+                  <c:v>454.43988771543928</c:v>
                 </c:pt>
                 <c:pt idx="2272">
-                  <c:v>490.34052028530328</c:v>
+                  <c:v>462.18133781742409</c:v>
                 </c:pt>
                 <c:pt idx="2273">
-                  <c:v>487.09808625104438</c:v>
+                  <c:v>459.2134137970836</c:v>
                 </c:pt>
                 <c:pt idx="2274">
-                  <c:v>489.17168622554789</c:v>
+                  <c:v>460.99161160031741</c:v>
                 </c:pt>
                 <c:pt idx="2275">
-                  <c:v>494.92551513437149</c:v>
+                  <c:v>466.07840719233411</c:v>
                 </c:pt>
                 <c:pt idx="2276">
-                  <c:v>492.35498930689351</c:v>
+                  <c:v>464.14215625619511</c:v>
                 </c:pt>
                 <c:pt idx="2277">
-                  <c:v>480.71017671091482</c:v>
+                  <c:v>453.13128820923998</c:v>
                 </c:pt>
                 <c:pt idx="2278">
-                  <c:v>482.01585159301868</c:v>
+                  <c:v>454.25035498104171</c:v>
                 </c:pt>
                 <c:pt idx="2279">
-                  <c:v>474.92009934720551</c:v>
+                  <c:v>447.53470690841652</c:v>
                 </c:pt>
                 <c:pt idx="2280">
-                  <c:v>472.78297699796559</c:v>
+                  <c:v>445.08328880289469</c:v>
                 </c:pt>
                 <c:pt idx="2281">
-                  <c:v>461.20451844227767</c:v>
+                  <c:v>434.21272446449728</c:v>
                 </c:pt>
                 <c:pt idx="2282">
-                  <c:v>470.31642371880741</c:v>
+                  <c:v>442.23145170822312</c:v>
                 </c:pt>
                 <c:pt idx="2283">
-                  <c:v>462.14009285567391</c:v>
+                  <c:v>434.4568605491915</c:v>
                 </c:pt>
                 <c:pt idx="2284">
-                  <c:v>458.09638681691013</c:v>
+                  <c:v>430.78876084425798</c:v>
                 </c:pt>
                 <c:pt idx="2285">
-                  <c:v>459.13460881069079</c:v>
+                  <c:v>431.77840773134261</c:v>
                 </c:pt>
                 <c:pt idx="2286">
-                  <c:v>457.58976869370628</c:v>
+                  <c:v>430.39480421333673</c:v>
                 </c:pt>
                 <c:pt idx="2287">
-                  <c:v>461.24614949754579</c:v>
+                  <c:v>434.20120820378992</c:v>
                 </c:pt>
                 <c:pt idx="2288">
-                  <c:v>459.52057857283029</c:v>
+                  <c:v>432.56103894185878</c:v>
                 </c:pt>
                 <c:pt idx="2289">
-                  <c:v>464.47589984920688</c:v>
+                  <c:v>437.68021089068469</c:v>
                 </c:pt>
                 <c:pt idx="2290">
-                  <c:v>469.70829502210569</c:v>
+                  <c:v>442.06303871730159</c:v>
                 </c:pt>
                 <c:pt idx="2291">
-                  <c:v>468.9307540700384</c:v>
+                  <c:v>441.87745166180127</c:v>
                 </c:pt>
                 <c:pt idx="2292">
-                  <c:v>473.43371027574818</c:v>
+                  <c:v>446.4243198485953</c:v>
                 </c:pt>
                 <c:pt idx="2293">
-                  <c:v>472.2988374682318</c:v>
+                  <c:v>917.8538172965682</c:v>
                 </c:pt>
                 <c:pt idx="2294">
-                  <c:v>483.18935654750391</c:v>
+                  <c:v>457.11882761709558</c:v>
                 </c:pt>
                 <c:pt idx="2295">
-                  <c:v>472.04317072749041</c:v>
+                  <c:v>446.07019428699829</c:v>
                 </c:pt>
                 <c:pt idx="2296">
-                  <c:v>471.82959380667899</c:v>
+                  <c:v>445.85343930874552</c:v>
                 </c:pt>
                 <c:pt idx="2297">
-                  <c:v>477.08276422095531</c:v>
+                  <c:v>450.74879582963672</c:v>
                 </c:pt>
                 <c:pt idx="2298">
-                  <c:v>471.94442151629852</c:v>
+                  <c:v>445.99454651765132</c:v>
                 </c:pt>
                 <c:pt idx="2299">
-                  <c:v>476.14623573002359</c:v>
+                  <c:v>477.3126602706738</c:v>
                 </c:pt>
                 <c:pt idx="2300">
-                  <c:v>467.43817382513981</c:v>
+                  <c:v>468.58330077717977</c:v>
                 </c:pt>
                 <c:pt idx="2301">
-                  <c:v>462.68586213975112</c:v>
+                  <c:v>463.81922861198291</c:v>
                 </c:pt>
                 <c:pt idx="2302">
-                  <c:v>463.59513815837067</c:v>
+                  <c:v>464.73072565958091</c:v>
                 </c:pt>
                 <c:pt idx="2303">
-                  <c:v>455.33759884866032</c:v>
+                  <c:v>456.45295457901989</c:v>
                 </c:pt>
                 <c:pt idx="2304">
-                  <c:v>456.95688965772018</c:v>
+                  <c:v>458.07619838559242</c:v>
                 </c:pt>
                 <c:pt idx="2305">
-                  <c:v>455.37921154096517</c:v>
+                  <c:v>465.31298255685681</c:v>
                 </c:pt>
                 <c:pt idx="2306">
-                  <c:v>448.82212757514782</c:v>
+                  <c:v>458.5484672810145</c:v>
+                </c:pt>
+                <c:pt idx="2307">
+                  <c:v>467.37074182048968</c:v>
+                </c:pt>
+                <c:pt idx="2308">
+                  <c:v>461.89860454623812</c:v>
+                </c:pt>
+                <c:pt idx="2309">
+                  <c:v>463.31186134563012</c:v>
+                </c:pt>
+                <c:pt idx="2310">
+                  <c:v>468.66132898079178</c:v>
+                </c:pt>
+                <c:pt idx="2311">
+                  <c:v>477.90605096496199</c:v>
+                </c:pt>
+                <c:pt idx="2312">
+                  <c:v>470.29353095590318</c:v>
+                </c:pt>
+                <c:pt idx="2313">
+                  <c:v>470.55007730799417</c:v>
+                </c:pt>
+                <c:pt idx="2314">
+                  <c:v>455.63170780911628</c:v>
+                </c:pt>
+                <c:pt idx="2315">
+                  <c:v>461.3111661383607</c:v>
+                </c:pt>
+                <c:pt idx="2316">
+                  <c:v>462.13994091449729</c:v>
+                </c:pt>
+                <c:pt idx="2317">
+                  <c:v>461.40102867910701</c:v>
+                </c:pt>
+                <c:pt idx="2318">
+                  <c:v>464.55308048572738</c:v>
+                </c:pt>
+                <c:pt idx="2319">
+                  <c:v>457.33021346530802</c:v>
+                </c:pt>
+                <c:pt idx="2320">
+                  <c:v>467.28801829892461</c:v>
+                </c:pt>
+                <c:pt idx="2321">
+                  <c:v>467.9373249338596</c:v>
+                </c:pt>
+                <c:pt idx="2322">
+                  <c:v>475.50438243610739</c:v>
+                </c:pt>
+                <c:pt idx="2323">
+                  <c:v>477.34696332504518</c:v>
+                </c:pt>
+                <c:pt idx="2324">
+                  <c:v>483.6962356453285</c:v>
+                </c:pt>
+                <c:pt idx="2325">
+                  <c:v>488.7772008645548</c:v>
+                </c:pt>
+                <c:pt idx="2326">
+                  <c:v>503.38442183611949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21591,6 +21749,66 @@
                 <c:pt idx="2306">
                   <c:v>44316</c:v>
                 </c:pt>
+                <c:pt idx="2307">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="2308">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="2309">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="2310">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="2311">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="2312">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="2313">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="2314">
+                  <c:v>44328</c:v>
+                </c:pt>
+                <c:pt idx="2315">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="2316">
+                  <c:v>44330</c:v>
+                </c:pt>
+                <c:pt idx="2317">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="2318">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="2319">
+                  <c:v>44335</c:v>
+                </c:pt>
+                <c:pt idx="2320">
+                  <c:v>44336</c:v>
+                </c:pt>
+                <c:pt idx="2321">
+                  <c:v>44337</c:v>
+                </c:pt>
+                <c:pt idx="2322">
+                  <c:v>44340</c:v>
+                </c:pt>
+                <c:pt idx="2323">
+                  <c:v>44341</c:v>
+                </c:pt>
+                <c:pt idx="2324">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="2325">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="2326">
+                  <c:v>44344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -21598,7 +21816,7 @@
             <c:numRef>
               <c:f>[1]indice!$E$2:$E$1048576</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -28520,6 +28738,66 @@
                 </c:pt>
                 <c:pt idx="2306">
                   <c:v>205.59580833146001</c:v>
+                </c:pt>
+                <c:pt idx="2307">
+                  <c:v>206.14051773331721</c:v>
+                </c:pt>
+                <c:pt idx="2308">
+                  <c:v>203.5518511473482</c:v>
+                </c:pt>
+                <c:pt idx="2309">
+                  <c:v>206.75439658302929</c:v>
+                </c:pt>
+                <c:pt idx="2310">
+                  <c:v>207.37173390513411</c:v>
+                </c:pt>
+                <c:pt idx="2311">
+                  <c:v>211.03252693285381</c:v>
+                </c:pt>
+                <c:pt idx="2312">
+                  <c:v>210.8094554635218</c:v>
+                </c:pt>
+                <c:pt idx="2313">
+                  <c:v>212.6337996506943</c:v>
+                </c:pt>
+                <c:pt idx="2314">
+                  <c:v>207.00686506769961</c:v>
+                </c:pt>
+                <c:pt idx="2315">
+                  <c:v>208.72918431928619</c:v>
+                </c:pt>
+                <c:pt idx="2316">
+                  <c:v>210.7610368500234</c:v>
+                </c:pt>
+                <c:pt idx="2317">
+                  <c:v>212.58883950958861</c:v>
+                </c:pt>
+                <c:pt idx="2318">
+                  <c:v>212.66146742983631</c:v>
+                </c:pt>
+                <c:pt idx="2319">
+                  <c:v>212.06661017828429</c:v>
+                </c:pt>
+                <c:pt idx="2320">
+                  <c:v>212.17901053104839</c:v>
+                </c:pt>
+                <c:pt idx="2321">
+                  <c:v>211.99052378564389</c:v>
+                </c:pt>
+                <c:pt idx="2322">
+                  <c:v>214.4806239084196</c:v>
+                </c:pt>
+                <c:pt idx="2323">
+                  <c:v>212.67530131940731</c:v>
+                </c:pt>
+                <c:pt idx="2324">
+                  <c:v>214.40626675197569</c:v>
+                </c:pt>
+                <c:pt idx="2325">
+                  <c:v>215.05991803420429</c:v>
+                </c:pt>
+                <c:pt idx="2326">
+                  <c:v>217.1246260526726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28624,7 +28902,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -28838,7 +29116,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -29175,6 +29453,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29495,31 +29776,34 @@
                   <c:v>464.39982737982069</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>475.9677863808439</c:v>
+                  <c:v>475.96791046283988</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>454.91437684756858</c:v>
+                  <c:v>454.94532802515403</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>433.18117088103452</c:v>
+                  <c:v>433.79576741802822</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>483.3383548571382</c:v>
+                  <c:v>484.02411643718131</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>477.21446300650791</c:v>
+                  <c:v>478.60344816049638</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>490.29190011063719</c:v>
+                  <c:v>491.80591948458829</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>472.04705357839572</c:v>
+                  <c:v>473.42212344116012</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>429.16415354673018</c:v>
+                  <c:v>430.39480421333673</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>420.83677901035009</c:v>
+                  <c:v>458.5484672810145</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>503.38442183611949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29561,7 +29845,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -29898,6 +30182,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29905,6 +30192,349 @@
           <c:val>
             <c:numRef>
               <c:f>[1]indice_mensal!$D$2:$D$1048576</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048575"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.80449255563821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.5547562641581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.9013816597209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.226080340313672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.99263345380345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.004962907883581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.671946601186249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.3292811565132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.684051254560856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.387850386484288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.4004046412699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.3408843313908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.299659340469319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.445918137958472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.681595739162006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.52451192308358</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82.064362171228964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.407978695810058</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86.475643708174104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.504764045721004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.821439070362629</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.753774057998584</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.067768766535821</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.379083158968683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.436649431945909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.179442840097536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.273547873904093</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88.604333465908113</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.940030088709818</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.541527607255873</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.981428003251</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>93.579346002870537</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.466444171609396</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94.52696743848243</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86.473914471977736</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.115011499420703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.199190717460098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88.450431444431004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.233222085804698</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91.234501720590018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91.789586539625446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87.957599128464963</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80.627366892043781</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77.917653772328762</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79.318335091390139</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.023137180307458</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.962389112728914</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.871517750609556</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>74.000933787546046</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86.556917809403586</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>93.224852582614261</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83.819536910546617</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>89.102353490463258</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>99.099067941690151</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100.1245050061388</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100.9303290736482</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>112.2706600494562</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107.0500959726089</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>104.1467083989002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>111.8314340555777</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>115.2743433225544</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>112.3726849850421</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>113.09723495132199</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>108.44213111068839</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>108.7689567518027</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>113.9912500648464</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>122.490445970015</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>128.47187397326601</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>128.4960832800152</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>124.45485828909371</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>132.11710387521831</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>146.83463314254101</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>147.8168393020803</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>147.6179771394975</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>148.91317505058021</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>132.72579501634129</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>125.8244133566204</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>136.99009147659481</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>132.59437306541699</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>137.2010582925522</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>151.1767452316312</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>154.77355652008509</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>151.97738159055149</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>168.41723010946069</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165.28731259402721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>164.9950716768403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>166.6170952290374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>167.78778813398119</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>174.595791039098</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>176.05699562503241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>174.88630272008851</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>181.12884538899169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>185.40870497501251</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>187.1604212419374</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>200.5291462760899</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>196.71963893548221</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>180.13799304847049</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>126.268827059088</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>139.21388922512929</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>151.1404312715074</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>164.3742758823428</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>177.9591554410417</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>171.83247159729549</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>163.5909318853862</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>162.46519912154801</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>188.29307095056109</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>206.30825364436529</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>200.60350343253381</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>190.2765048677999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>201.6877345276591</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>205.59580833146001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>217.1246260526726</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -30266,19 +30896,19 @@
                   <c:v>MDIA3.SA</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>GRND3.SA</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>HAPV3.SA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GRND3.SA</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>COCE5.SA</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>PGMN3.SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>BNBR3.SA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PGMN3.SA</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>ARCE_Ibovespa</c:v>
@@ -30293,34 +30923,34 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.46339999999999998</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88560000000000005</c:v>
+                  <c:v>0.87629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76229999999999998</c:v>
+                  <c:v>0.80740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67479999999999996</c:v>
+                  <c:v>0.71240000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66320000000000001</c:v>
+                  <c:v>0.68340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61080000000000001</c:v>
+                  <c:v>0.61639999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40970000000000001</c:v>
+                  <c:v>0.4466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29039999999999999</c:v>
+                  <c:v>0.37909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>4.1700000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30838,10 +31468,10 @@
                   <c:v>ARCE</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>GRND3.SA</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>MDIA3.SA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GRND3.SA</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AERI3.SA</c:v>
@@ -30850,10 +31480,10 @@
                   <c:v>PGMN3.SA</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>COCE3.SA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BNBR3.SA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>COCE3.SA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>COCE5.SA</c:v>
@@ -30868,31 +31498,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.46200479306165848</c:v>
+                  <c:v>0.47405229543980631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21620156005724631</c:v>
+                  <c:v>0.2117356479351743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.05153572129975E-2</c:v>
+                  <c:v>6.4718963207071739E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9572637532534022E-2</c:v>
+                  <c:v>5.7501540109578808E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3321833851889232E-2</c:v>
+                  <c:v>4.8188064521068927E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1555161568043168E-2</c:v>
+                  <c:v>4.5653205067939392E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8541649316621782E-2</c:v>
+                  <c:v>3.5237049237640948E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6651218068859549E-2</c:v>
+                  <c:v>3.4733662819960362E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1635789330149988E-2</c:v>
+                  <c:v>2.8179571661759151E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31276,10 +31906,10 @@
                   <c:v>ARCE</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>GRND3.SA</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>MDIA3.SA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GRND3.SA</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AERI3.SA</c:v>
@@ -31288,10 +31918,10 @@
                   <c:v>PGMN3.SA</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>COCE3.SA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BNBR3.SA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>COCE3.SA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>COCE5.SA</c:v>
@@ -31306,22 +31936,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.58212630130960219</c:v>
+                  <c:v>0.5904240957962571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.829125486131746E-2</c:v>
+                  <c:v>2.7685540591906942E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1246848020327617E-2</c:v>
+                  <c:v>0.129473476527458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13229943965308749</c:v>
+                  <c:v>4.036375518699134E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1074968654365553</c:v>
+                  <c:v>0.10519536323628161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8539290719109991E-2</c:v>
+                  <c:v>7.6857768661104983E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01</c:v>
@@ -34403,22 +35033,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B2" t="str">
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>-1.916048329399456E-2</v>
+            <v>9.7778005498441622E-2</v>
           </cell>
           <cell r="D2">
-            <v>-5.9931563594414317E-2</v>
+            <v>5.1777674755307812E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.60866079342388657</v>
+            <v>0.60913266612438632</v>
           </cell>
           <cell r="F2">
-            <v>0.75266483424122255</v>
+            <v>0.82194150815975586</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -34445,30 +35075,30 @@
             <v>0.7535667715231793</v>
           </cell>
           <cell r="O2">
-            <v>8.5998673056638664E-2</v>
+            <v>8.86551435792724E-2</v>
           </cell>
           <cell r="P2">
-            <v>-5.9931563594414428E-2</v>
+            <v>5.1777674755308027E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B3" t="str">
             <v>Ibovespa</v>
           </cell>
           <cell r="C3">
-            <v>1.9376854090574099E-2</v>
+            <v>5.6075159385671432E-2</v>
           </cell>
           <cell r="D3">
-            <v>-3.4533049469429589E-3</v>
+            <v>5.2428209813421223E-2</v>
           </cell>
           <cell r="E3">
-            <v>0.23394185962035441</v>
+            <v>0.29404307945996111</v>
           </cell>
           <cell r="F3">
-            <v>0.81786768191061587</v>
+            <v>1.0022165170384789</v>
           </cell>
           <cell r="G3">
             <v>5.4004046412699402E-2</v>
@@ -34498,27 +35128,27 @@
             <v>2.8819288744782678E-2</v>
           </cell>
           <cell r="P3">
-            <v>-3.4533049469429589E-3</v>
+            <v>5.2428209813421223E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B4" t="str">
             <v>BNBR3.SA</v>
           </cell>
           <cell r="C4">
-            <v>-1.5070422535211179E-2</v>
+            <v>-1.3299013299013399E-2</v>
           </cell>
           <cell r="D4">
-            <v>-7.9868421052631478E-2</v>
+            <v>-9.210526315789469E-2</v>
           </cell>
           <cell r="E4">
-            <v>0.70145993681070262</v>
+            <v>0.45263157894736827</v>
           </cell>
           <cell r="F4">
-            <v>1.445104895104895</v>
+            <v>1.654867256637168</v>
           </cell>
           <cell r="G4">
             <v>-0.45714285714285718</v>
@@ -34548,27 +35178,27 @@
             <v>-0.19991576376283329</v>
           </cell>
           <cell r="P4">
-            <v>-7.9868421052631478E-2</v>
+            <v>-9.210526315789469E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B5" t="str">
             <v>COCE3.SA</v>
           </cell>
           <cell r="C5">
-            <v>0.297814156993983</v>
+            <v>5.2631578947368363E-2</v>
           </cell>
           <cell r="D5">
-            <v>-8.4022013333939771E-2</v>
+            <v>-3.5812645614673462E-2</v>
           </cell>
           <cell r="E5">
-            <v>0.47876358730790303</v>
+            <v>0.59780868299911671</v>
           </cell>
           <cell r="F5">
-            <v>0.58333333333333259</v>
+            <v>0.66746069556931786</v>
           </cell>
           <cell r="G5">
             <v>0.4144881889763779</v>
@@ -34598,27 +35228,27 @@
             <v>0.39615380769230768</v>
           </cell>
           <cell r="P5">
-            <v>-8.4022013333939771E-2</v>
+            <v>-3.5812645614673462E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B6" t="str">
             <v>COCE5.SA</v>
           </cell>
           <cell r="C6">
-            <v>2.8858235725788939E-2</v>
+            <v>-2.473870993941785E-2</v>
           </cell>
           <cell r="D6">
-            <v>-4.3333300000000019E-2</v>
+            <v>-6.700000000000006E-2</v>
           </cell>
           <cell r="E6">
-            <v>0.1040584687802089</v>
+            <v>2.3774689100219289E-2</v>
           </cell>
           <cell r="F6">
-            <v>0.2220566484552555</v>
+            <v>0.19106382978723399</v>
           </cell>
           <cell r="G6">
             <v>0.30624089096543128</v>
@@ -34648,27 +35278,27 @@
             <v>-3.8615606473321518E-2</v>
           </cell>
           <cell r="P6">
-            <v>-4.3333300000000019E-2</v>
+            <v>-6.700000000000006E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B7" t="str">
             <v>GRND3.SA</v>
           </cell>
           <cell r="C7">
-            <v>3.4177215189873378E-2</v>
+            <v>0.21542227662178701</v>
           </cell>
           <cell r="D7">
-            <v>-2.505966587112185E-2</v>
+            <v>0.1849642004773269</v>
           </cell>
           <cell r="E7">
-            <v>0.11307901907356931</v>
+            <v>0.4065155807365437</v>
           </cell>
           <cell r="F7">
-            <v>-5.6794325094879916E-3</v>
+            <v>0.13269970590872199</v>
           </cell>
           <cell r="G7">
             <v>1.14434332176116</v>
@@ -34698,27 +35328,27 @@
             <v>-0.31758957654723119</v>
           </cell>
           <cell r="P7">
-            <v>-2.505966587112185E-2</v>
+            <v>0.1849642004773269</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B8" t="str">
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C8">
-            <v>-0.13289901847234481</v>
+            <v>6.3110365773464849E-2</v>
           </cell>
           <cell r="D8">
-            <v>-0.21843804408578851</v>
+            <v>-0.16911338317341801</v>
           </cell>
           <cell r="E8">
-            <v>-0.35994226977638871</v>
+            <v>-0.26854485056978172</v>
           </cell>
           <cell r="F8">
-            <v>-0.4537245844449006</v>
+            <v>-0.47689463870220478</v>
           </cell>
           <cell r="G8">
             <v>0.63710698113207531</v>
@@ -34748,27 +35378,27 @@
             <v>-0.10720840853429051</v>
           </cell>
           <cell r="P8">
-            <v>-0.21843804408578851</v>
+            <v>-0.16911338317341801</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B9" t="str">
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>-3.2258064516129122E-2</v>
+            <v>0.1076388888888888</v>
           </cell>
           <cell r="D9">
-            <v>-5.6356487549148022E-2</v>
+            <v>4.5216251638269922E-2</v>
           </cell>
           <cell r="E9">
-            <v>1.379378717779246</v>
+            <v>1.1682979880369759</v>
           </cell>
           <cell r="F9">
-            <v>1.6086956521739131</v>
+            <v>1.889492753623188</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -34780,27 +35410,27 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>-5.6356487549148022E-2</v>
+            <v>4.5216251638269922E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B10" t="str">
             <v>ARCE</v>
           </cell>
           <cell r="C10">
-            <v>-3.9573474694967303E-2</v>
+            <v>9.572011871924313E-2</v>
           </cell>
           <cell r="D10">
-            <v>-0.2492509986420505</v>
+            <v>-0.1773892151037143</v>
           </cell>
           <cell r="E10">
-            <v>9.3828093613087526E-2</v>
+            <v>4.0026522027167832E-3</v>
           </cell>
           <cell r="F10">
-            <v>0.72011057327476657</v>
+            <v>0.88475976155885272</v>
           </cell>
           <cell r="M10">
             <v>3.6850058535654817E-2</v>
@@ -34812,75 +35442,75 @@
             <v>2.5537255795764709E-2</v>
           </cell>
           <cell r="P10">
-            <v>-0.2492509986420505</v>
+            <v>-0.1773892151037143</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B11" t="str">
             <v>PGMN3.SA</v>
           </cell>
           <cell r="C11">
-            <v>6.1946902654867353E-2</v>
+            <v>0.22916666666666671</v>
           </cell>
           <cell r="D11">
-            <v>6.4301552106430071E-2</v>
+            <v>0.30820399113082048</v>
           </cell>
           <cell r="E11">
-            <v>2.3454157782516031E-2</v>
+            <v>0.25799573560767608</v>
           </cell>
           <cell r="F11">
-            <v>2.3454157782516031E-2</v>
+            <v>0.25799573560767608</v>
           </cell>
           <cell r="O11">
             <v>-3.8379530916844429E-2</v>
           </cell>
           <cell r="P11">
-            <v>6.4301552106430071E-2</v>
+            <v>0.30820399113082048</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B12" t="str">
             <v>AERI3.SA</v>
           </cell>
           <cell r="C12">
-            <v>1.8099547511312149E-2</v>
+            <v>1.111111111111107E-2</v>
           </cell>
           <cell r="D12">
-            <v>-9.9999999999999978E-2</v>
+            <v>-9.000000000000008E-2</v>
           </cell>
           <cell r="E12">
-            <v>0.34932533733133408</v>
+            <v>0.36431784107946008</v>
           </cell>
           <cell r="F12">
-            <v>0.34932533733133408</v>
+            <v>0.36431784107946008</v>
           </cell>
           <cell r="O12">
             <v>0.49925037481259382</v>
           </cell>
           <cell r="P12">
-            <v>-9.9999999999999978E-2</v>
+            <v>-9.000000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>1.3899999999999999E-2</v>
+            <v>1.4800000000000001E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.6799999999999998E-2</v>
+            <v>6.8000000000000005E-2</v>
           </cell>
           <cell r="D2">
-            <v>4.8057553956834536</v>
+            <v>4.5945945945945947</v>
           </cell>
           <cell r="E2">
-            <v>4.4999999999999997E-3</v>
+            <v>4.5999999999999999E-3</v>
           </cell>
           <cell r="F2">
             <v>48</v>
@@ -34894,16 +35524,16 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.49E-2</v>
+            <v>1.7500000000000002E-2</v>
           </cell>
           <cell r="C3">
-            <v>7.3200000000000001E-2</v>
+            <v>7.2599999999999998E-2</v>
           </cell>
           <cell r="D3">
-            <v>4.9127516778523503</v>
+            <v>4.1485714285714277</v>
           </cell>
           <cell r="E3">
-            <v>5.4000000000000003E-3</v>
+            <v>5.3E-3</v>
           </cell>
           <cell r="F3">
             <v>48</v>
@@ -34920,16 +35550,16 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B4">
-            <v>2.7E-2</v>
+            <v>2.8299999999999999E-2</v>
           </cell>
           <cell r="C4">
-            <v>0.13880000000000001</v>
+            <v>0.1381</v>
           </cell>
           <cell r="D4">
-            <v>5.1407407407407408</v>
+            <v>4.8798586572438163</v>
           </cell>
           <cell r="E4">
-            <v>1.9300000000000001E-2</v>
+            <v>1.9099999999999999E-2</v>
           </cell>
           <cell r="F4">
             <v>48</v>
@@ -34946,13 +35576,13 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B5">
-            <v>1.7899999999999999E-2</v>
+            <v>1.9E-2</v>
           </cell>
           <cell r="C5">
-            <v>0.13550000000000001</v>
+            <v>0.1356</v>
           </cell>
           <cell r="D5">
-            <v>7.5698324022346384</v>
+            <v>7.1368421052631579</v>
           </cell>
           <cell r="E5">
             <v>1.84E-2</v>
@@ -34972,13 +35602,13 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B6">
-            <v>6.8999999999999999E-3</v>
+            <v>6.6E-3</v>
           </cell>
           <cell r="C6">
             <v>7.0400000000000004E-2</v>
           </cell>
           <cell r="D6">
-            <v>10.20289855072464</v>
+            <v>10.66666666666667</v>
           </cell>
           <cell r="E6">
             <v>5.0000000000000001E-3</v>
@@ -34998,22 +35628,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B7">
-            <v>2E-3</v>
+            <v>6.6E-3</v>
           </cell>
           <cell r="C7">
-            <v>7.7799999999999994E-2</v>
+            <v>8.3599999999999994E-2</v>
           </cell>
           <cell r="D7">
-            <v>38.9</v>
+            <v>12.66666666666667</v>
           </cell>
           <cell r="E7">
-            <v>6.1000000000000004E-3</v>
+            <v>7.0000000000000001E-3</v>
           </cell>
           <cell r="F7">
             <v>48</v>
           </cell>
           <cell r="G7">
-            <v>0.14230000000000001</v>
+            <v>0.21540000000000001</v>
           </cell>
           <cell r="H7">
             <v>-0.22370000000000001</v>
@@ -35024,16 +35654,16 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B8">
-            <v>-8.9999999999999993E-3</v>
+            <v>-8.2000000000000007E-3</v>
           </cell>
           <cell r="C8">
-            <v>9.2299999999999993E-2</v>
+            <v>9.1600000000000001E-2</v>
           </cell>
           <cell r="D8">
-            <v>-10.25555555555556</v>
+            <v>-11.170731707317071</v>
           </cell>
           <cell r="E8">
-            <v>8.5000000000000006E-3</v>
+            <v>8.3999999999999995E-3</v>
           </cell>
           <cell r="F8">
             <v>48</v>
@@ -35050,19 +35680,19 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>3.1800000000000002E-2</v>
+            <v>3.39E-2</v>
           </cell>
           <cell r="C9">
-            <v>0.1008</v>
+            <v>0.1002</v>
           </cell>
           <cell r="D9">
-            <v>3.1698113207547172</v>
+            <v>2.9557522123893811</v>
           </cell>
           <cell r="E9">
-            <v>1.0200000000000001E-2</v>
+            <v>0.01</v>
           </cell>
           <cell r="F9">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="G9">
             <v>0.23710000000000001</v>
@@ -35076,19 +35706,19 @@
             <v>ARCE</v>
           </cell>
           <cell r="B10">
-            <v>2.7900000000000001E-2</v>
+            <v>3.0099999999999998E-2</v>
           </cell>
           <cell r="C10">
-            <v>0.1477</v>
+            <v>0.14580000000000001</v>
           </cell>
           <cell r="D10">
-            <v>5.2939068100358417</v>
+            <v>4.8438538205980084</v>
           </cell>
           <cell r="E10">
-            <v>2.18E-2</v>
+            <v>2.1299999999999999E-2</v>
           </cell>
           <cell r="F10">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="G10">
             <v>0.39539999999999997</v>
@@ -35102,22 +35732,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>5.8999999999999999E-3</v>
+            <v>3.0700000000000002E-2</v>
           </cell>
           <cell r="C11">
-            <v>8.2400000000000001E-2</v>
+            <v>0.1072</v>
           </cell>
           <cell r="D11">
-            <v>13.966101694915251</v>
+            <v>3.4918566775244302</v>
           </cell>
           <cell r="E11">
-            <v>6.7999999999999996E-3</v>
+            <v>1.15E-2</v>
           </cell>
           <cell r="F11">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="G11">
-            <v>0.12529999999999999</v>
+            <v>0.22919999999999999</v>
           </cell>
           <cell r="H11">
             <v>-0.1087</v>
@@ -35128,19 +35758,19 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="B12">
-            <v>7.1800000000000003E-2</v>
+            <v>6.3200000000000006E-2</v>
           </cell>
           <cell r="C12">
-            <v>0.24249999999999999</v>
+            <v>0.2225</v>
           </cell>
           <cell r="D12">
-            <v>3.3774373259052921</v>
+            <v>3.520569620253164</v>
           </cell>
           <cell r="E12">
-            <v>5.8799999999999998E-2</v>
+            <v>4.9500000000000002E-2</v>
           </cell>
           <cell r="F12">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="G12">
             <v>0.50380000000000003</v>
@@ -35153,22 +35783,22 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>8.7300000000000003E-2</v>
+            <v>7.0800000000000002E-2</v>
           </cell>
           <cell r="C2">
-            <v>7.0000000000000001E-3</v>
+            <v>5.7000000000000002E-3</v>
           </cell>
           <cell r="D2">
-            <v>0.46339999999999998</v>
+            <v>0.52</v>
           </cell>
           <cell r="E2">
-            <v>0.50770000000000004</v>
+            <v>0.55510000000000004</v>
           </cell>
           <cell r="F2">
-            <v>2.0000000000000001E-4</v>
+            <v>0</v>
           </cell>
           <cell r="G2">
-            <v>0.25769999999999998</v>
+            <v>0.30819999999999997</v>
           </cell>
         </row>
         <row r="3">
@@ -35176,22 +35806,22 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B3">
-            <v>0.28079999999999999</v>
+            <v>0.29260000000000003</v>
           </cell>
           <cell r="C3">
-            <v>2.0799999999999999E-2</v>
+            <v>2.1600000000000001E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.40970000000000001</v>
+            <v>0.37909999999999999</v>
           </cell>
           <cell r="E3">
-            <v>0.21609999999999999</v>
+            <v>0.19919999999999999</v>
           </cell>
           <cell r="F3">
-            <v>0.1401</v>
+            <v>0.17460000000000001</v>
           </cell>
           <cell r="G3">
-            <v>4.6699999999999998E-2</v>
+            <v>3.9699999999999999E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -35199,22 +35829,22 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B4">
-            <v>5.67E-2</v>
+            <v>3.7999999999999999E-2</v>
           </cell>
           <cell r="C4">
-            <v>4.5999999999999999E-3</v>
+            <v>3.0999999999999999E-3</v>
           </cell>
           <cell r="D4">
-            <v>0.89</v>
+            <v>0.90500000000000003</v>
           </cell>
           <cell r="E4">
-            <v>0.48089999999999999</v>
+            <v>0.48449999999999999</v>
           </cell>
           <cell r="F4">
             <v>5.0000000000000001E-4</v>
           </cell>
           <cell r="G4">
-            <v>0.23119999999999999</v>
+            <v>0.23469999999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -35222,22 +35852,22 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B5">
-            <v>-2.6599999999999999E-2</v>
+            <v>-4.9099999999999998E-2</v>
           </cell>
           <cell r="C5">
-            <v>-2.2000000000000001E-3</v>
+            <v>-4.1999999999999997E-3</v>
           </cell>
           <cell r="D5">
-            <v>0.61080000000000001</v>
+            <v>0.61639999999999995</v>
           </cell>
           <cell r="E5">
-            <v>0.63549999999999995</v>
+            <v>0.63500000000000001</v>
           </cell>
           <cell r="F5">
             <v>0</v>
           </cell>
           <cell r="G5">
-            <v>0.40379999999999999</v>
+            <v>0.4032</v>
           </cell>
         </row>
         <row r="6">
@@ -35245,22 +35875,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B6">
-            <v>-9.0700000000000003E-2</v>
+            <v>-6.7799999999999999E-2</v>
           </cell>
           <cell r="C6">
-            <v>-7.9000000000000008E-3</v>
+            <v>-5.7999999999999996E-3</v>
           </cell>
           <cell r="D6">
-            <v>0.66320000000000001</v>
+            <v>0.71240000000000003</v>
           </cell>
           <cell r="E6">
-            <v>0.62380000000000002</v>
+            <v>0.61880000000000002</v>
           </cell>
           <cell r="F6">
             <v>0</v>
           </cell>
           <cell r="G6">
-            <v>0.38919999999999999</v>
+            <v>0.38290000000000002</v>
           </cell>
         </row>
         <row r="7">
@@ -35268,22 +35898,22 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B7">
-            <v>-0.21870000000000001</v>
+            <v>-0.23699999999999999</v>
           </cell>
           <cell r="C7">
-            <v>-2.0400000000000001E-2</v>
+            <v>-2.23E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.76229999999999998</v>
+            <v>0.80740000000000001</v>
           </cell>
           <cell r="E7">
-            <v>0.60499999999999998</v>
+            <v>0.63980000000000004</v>
           </cell>
           <cell r="F7">
             <v>0</v>
           </cell>
           <cell r="G7">
-            <v>0.36599999999999999</v>
+            <v>0.4093</v>
           </cell>
         </row>
         <row r="8">
@@ -35291,22 +35921,22 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.32079999999999997</v>
+            <v>0.33850000000000002</v>
           </cell>
           <cell r="C8">
-            <v>2.35E-2</v>
+            <v>2.46E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.67479999999999996</v>
+            <v>0.68340000000000001</v>
           </cell>
           <cell r="E8">
-            <v>0.53769999999999996</v>
+            <v>0.54259999999999997</v>
           </cell>
           <cell r="F8">
-            <v>6.9999999999999999E-4</v>
+            <v>5.0000000000000001E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.28910000000000002</v>
+            <v>0.2944</v>
           </cell>
         </row>
         <row r="9">
@@ -35314,22 +35944,22 @@
             <v>ARCE_Ibovespa</v>
           </cell>
           <cell r="B9">
-            <v>0.38419999999999999</v>
+            <v>0.41439999999999999</v>
           </cell>
           <cell r="C9">
-            <v>2.75E-2</v>
+            <v>2.93E-2</v>
           </cell>
           <cell r="D9">
-            <v>2.9000000000000001E-2</v>
+            <v>4.1700000000000001E-2</v>
           </cell>
           <cell r="E9">
-            <v>1.5900000000000001E-2</v>
+            <v>2.3E-2</v>
           </cell>
           <cell r="F9">
-            <v>0.93210000000000004</v>
+            <v>0.90069999999999995</v>
           </cell>
           <cell r="G9">
-            <v>2.9999999999999997E-4</v>
+            <v>5.0000000000000001E-4</v>
           </cell>
         </row>
         <row r="10">
@@ -35337,22 +35967,22 @@
             <v>ARCE_SP500</v>
           </cell>
           <cell r="B10">
-            <v>1.12E-2</v>
+            <v>6.0299999999999999E-2</v>
           </cell>
           <cell r="C10">
-            <v>8.9999999999999998E-4</v>
+            <v>4.8999999999999998E-3</v>
           </cell>
           <cell r="D10">
-            <v>0.88560000000000005</v>
+            <v>0.87629999999999997</v>
           </cell>
           <cell r="E10">
-            <v>0.35170000000000001</v>
+            <v>0.34429999999999999</v>
           </cell>
           <cell r="F10">
-            <v>4.8399999999999999E-2</v>
+            <v>4.9799999999999997E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.1237</v>
+            <v>0.11849999999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -35360,22 +35990,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>-0.1497</v>
+            <v>9.0999999999999998E-2</v>
           </cell>
           <cell r="C11">
-            <v>-1.34E-2</v>
+            <v>7.3000000000000001E-3</v>
           </cell>
           <cell r="D11">
-            <v>0.29039999999999999</v>
+            <v>0.4466</v>
           </cell>
           <cell r="E11">
-            <v>0.2336</v>
+            <v>0.2697</v>
           </cell>
           <cell r="F11">
-            <v>0.5776</v>
+            <v>0.48280000000000001</v>
           </cell>
           <cell r="G11">
-            <v>5.4600000000000003E-2</v>
+            <v>7.2700000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -58944,7 +59574,7 @@
             <v>44067</v>
           </cell>
           <cell r="D2143">
-            <v>454.10072707949013</v>
+            <v>454.10084661507398</v>
           </cell>
           <cell r="E2143">
             <v>176.89740441646919</v>
@@ -58955,7 +59585,7 @@
             <v>44068</v>
           </cell>
           <cell r="D2144">
-            <v>458.82308853326077</v>
+            <v>458.82320803972658</v>
           </cell>
           <cell r="E2144">
             <v>176.58614190112229</v>
@@ -58966,7 +59596,7 @@
             <v>44069</v>
           </cell>
           <cell r="D2145">
-            <v>453.64600248535771</v>
+            <v>453.64612196131861</v>
           </cell>
           <cell r="E2145">
             <v>174.0078507323316</v>
@@ -58977,7 +59607,7 @@
             <v>44070</v>
           </cell>
           <cell r="D2146">
-            <v>460.08199776783061</v>
+            <v>460.08211814835971</v>
           </cell>
           <cell r="E2146">
             <v>174.0026630237424</v>
@@ -58988,7 +59618,7 @@
             <v>44071</v>
           </cell>
           <cell r="D2147">
-            <v>463.2584170576651</v>
+            <v>463.25854017685691</v>
           </cell>
           <cell r="E2147">
             <v>176.6293728060316</v>
@@ -58999,7 +59629,7 @@
             <v>44074</v>
           </cell>
           <cell r="D2148">
-            <v>475.9677863808439</v>
+            <v>475.96791046283988</v>
           </cell>
           <cell r="E2148">
             <v>171.83247159729549</v>
@@ -59010,7 +59640,7 @@
             <v>44075</v>
           </cell>
           <cell r="D2149">
-            <v>486.26273501981058</v>
+            <v>486.26286572323193</v>
           </cell>
           <cell r="E2149">
             <v>176.6726037109409</v>
@@ -59021,7 +59651,7 @@
             <v>44076</v>
           </cell>
           <cell r="D2150">
-            <v>496.76730450636859</v>
+            <v>496.76743326615542</v>
           </cell>
           <cell r="E2150">
             <v>176.22819000847329</v>
@@ -59032,7 +59662,7 @@
             <v>44077</v>
           </cell>
           <cell r="D2151">
-            <v>487.43670013952158</v>
+            <v>487.43682725222851</v>
           </cell>
           <cell r="E2151">
             <v>174.17039893479051</v>
@@ -59043,7 +59673,7 @@
             <v>44078</v>
           </cell>
           <cell r="D2152">
-            <v>488.86274099417233</v>
+            <v>488.86286744357511</v>
           </cell>
           <cell r="E2152">
             <v>175.07133099310039</v>
@@ -59054,7 +59684,7 @@
             <v>44082</v>
           </cell>
           <cell r="D2153">
-            <v>491.29077865706392</v>
+            <v>491.29090618522361</v>
           </cell>
           <cell r="E2153">
             <v>173.0100814470249</v>
@@ -59065,7 +59695,7 @@
             <v>44083</v>
           </cell>
           <cell r="D2154">
-            <v>478.7231575875245</v>
+            <v>478.72328629600793</v>
           </cell>
           <cell r="E2154">
             <v>175.157792802919</v>
@@ -59076,7 +59706,7 @@
             <v>44084</v>
           </cell>
           <cell r="D2155">
-            <v>471.12968582622591</v>
+            <v>471.12981038936402</v>
           </cell>
           <cell r="E2155">
             <v>170.90905946843279</v>
@@ -59087,7 +59717,7 @@
             <v>44085</v>
           </cell>
           <cell r="D2156">
-            <v>459.1941612649714</v>
+            <v>459.194281930442</v>
           </cell>
           <cell r="E2156">
             <v>170.0928599837452</v>
@@ -59098,7 +59728,7 @@
             <v>44088</v>
           </cell>
           <cell r="D2157">
-            <v>468.93536464056263</v>
+            <v>468.93548939712832</v>
           </cell>
           <cell r="E2157">
             <v>173.39915959120859</v>
@@ -59109,7 +59739,7 @@
             <v>44089</v>
           </cell>
           <cell r="D2158">
-            <v>465.41560064427563</v>
+            <v>465.41572545179798</v>
           </cell>
           <cell r="E2158">
             <v>173.4389320237251</v>
@@ -59120,7 +59750,7 @@
             <v>44090</v>
           </cell>
           <cell r="D2159">
-            <v>456.41869805939439</v>
+            <v>456.41882310644809</v>
           </cell>
           <cell r="E2159">
             <v>172.3633471095817</v>
@@ -59131,7 +59761,7 @@
             <v>44091</v>
           </cell>
           <cell r="D2160">
-            <v>443.04159533318523</v>
+            <v>443.04171662712167</v>
           </cell>
           <cell r="E2160">
             <v>173.0930847844507</v>
@@ -59142,7 +59772,7 @@
             <v>44092</v>
           </cell>
           <cell r="D2161">
-            <v>443.04159533318523</v>
+            <v>443.04171662712167</v>
           </cell>
           <cell r="E2161">
             <v>169.96662574141001</v>
@@ -59153,7 +59783,7 @@
             <v>44095</v>
           </cell>
           <cell r="D2162">
-            <v>450.37069745844292</v>
+            <v>450.38603071679859</v>
           </cell>
           <cell r="E2162">
             <v>167.7203479223227</v>
@@ -59164,7 +59794,7 @@
             <v>44096</v>
           </cell>
           <cell r="D2163">
-            <v>452.14356457133277</v>
+            <v>452.13155963569272</v>
           </cell>
           <cell r="E2163">
             <v>168.24430648982349</v>
@@ -59175,7 +59805,7 @@
             <v>44097</v>
           </cell>
           <cell r="D2164">
-            <v>451.4708396082093</v>
+            <v>451.4691734935256</v>
           </cell>
           <cell r="E2164">
             <v>165.54842725967941</v>
@@ -59186,7 +59816,7 @@
             <v>44098</v>
           </cell>
           <cell r="D2165">
-            <v>455.36946636070928</v>
+            <v>455.37095769589308</v>
           </cell>
           <cell r="E2165">
             <v>167.75666188244651</v>
@@ -59197,7 +59827,7 @@
             <v>44099</v>
           </cell>
           <cell r="D2166">
-            <v>457.21989345600269</v>
+            <v>457.23121719337189</v>
           </cell>
           <cell r="E2166">
             <v>167.73418181189371</v>
@@ -59208,7 +59838,7 @@
             <v>44102</v>
           </cell>
           <cell r="D2167">
-            <v>445.75337866456738</v>
+            <v>445.7634338689806</v>
           </cell>
           <cell r="E2167">
             <v>163.6998737657577</v>
@@ -59219,7 +59849,7 @@
             <v>44103</v>
           </cell>
           <cell r="D2168">
-            <v>450.65405290733571</v>
+            <v>450.67466481609267</v>
           </cell>
           <cell r="E2168">
             <v>161.8219232564976</v>
@@ -59230,7 +59860,7 @@
             <v>44104</v>
           </cell>
           <cell r="D2169">
-            <v>454.91437684756858</v>
+            <v>454.94532802515403</v>
           </cell>
           <cell r="E2169">
             <v>163.5909318853862</v>
@@ -59241,7 +59871,7 @@
             <v>44105</v>
           </cell>
           <cell r="D2170">
-            <v>461.68319430988089</v>
+            <v>461.71886926620181</v>
           </cell>
           <cell r="E2170">
             <v>165.10574279340821</v>
@@ -59252,7 +59882,7 @@
             <v>44106</v>
           </cell>
           <cell r="D2171">
-            <v>456.92737153179138</v>
+            <v>456.9536244887401</v>
           </cell>
           <cell r="E2171">
             <v>162.57587023811581</v>
@@ -59263,7 +59893,7 @@
             <v>44109</v>
           </cell>
           <cell r="D2172">
-            <v>457.78727191423991</v>
+            <v>457.82347754245251</v>
           </cell>
           <cell r="E2172">
             <v>166.16057687319511</v>
@@ -59274,7 +59904,7 @@
             <v>44110</v>
           </cell>
           <cell r="D2173">
-            <v>449.06369831507021</v>
+            <v>449.09432388883852</v>
           </cell>
           <cell r="E2173">
             <v>165.34091891611479</v>
@@ -59285,7 +59915,7 @@
             <v>44111</v>
           </cell>
           <cell r="D2174">
-            <v>452.20136109729998</v>
+            <v>452.23529470493349</v>
           </cell>
           <cell r="E2174">
             <v>165.18701689463771</v>
@@ -59296,7 +59926,7 @@
             <v>44112</v>
           </cell>
           <cell r="D2175">
-            <v>454.77968501586878</v>
+            <v>455.42492089286702</v>
           </cell>
           <cell r="E2175">
             <v>169.32680834875239</v>
@@ -59307,7 +59937,7 @@
             <v>44113</v>
           </cell>
           <cell r="D2176">
-            <v>450.50586399936208</v>
+            <v>451.14503680140967</v>
           </cell>
           <cell r="E2176">
             <v>168.5711321309378</v>
@@ -59318,7 +59948,7 @@
             <v>44117</v>
           </cell>
           <cell r="D2177">
-            <v>458.62577291910549</v>
+            <v>459.27646647764539</v>
           </cell>
           <cell r="E2177">
             <v>170.33495305123731</v>
@@ -59329,7 +59959,7 @@
             <v>44118</v>
           </cell>
           <cell r="D2178">
-            <v>460.82365439735992</v>
+            <v>461.4774680663503</v>
           </cell>
           <cell r="E2178">
             <v>171.7719483304225</v>
@@ -59340,7 +59970,7 @@
             <v>44119</v>
           </cell>
           <cell r="D2179">
-            <v>456.17729037712348</v>
+            <v>456.82451155139319</v>
           </cell>
           <cell r="E2179">
             <v>171.28776219543829</v>
@@ -59351,7 +59981,7 @@
             <v>44120</v>
           </cell>
           <cell r="D2180">
-            <v>449.31868778828579</v>
+            <v>449.9561769135139</v>
           </cell>
           <cell r="E2180">
             <v>169.99948122914111</v>
@@ -59362,7 +59992,7 @@
             <v>44123</v>
           </cell>
           <cell r="D2181">
-            <v>441.92373219881011</v>
+            <v>442.55073093787661</v>
           </cell>
           <cell r="E2181">
             <v>170.60298466167501</v>
@@ -59373,7 +60003,7 @@
             <v>44124</v>
           </cell>
           <cell r="D2182">
-            <v>445.96488767729488</v>
+            <v>446.59762002020182</v>
           </cell>
           <cell r="E2182">
             <v>173.8574071832472</v>
@@ -59384,7 +60014,7 @@
             <v>44125</v>
           </cell>
           <cell r="D2183">
-            <v>442.58286458169391</v>
+            <v>443.2107985080342</v>
           </cell>
           <cell r="E2183">
             <v>173.8781580176036</v>
@@ -59395,7 +60025,7 @@
             <v>44126</v>
           </cell>
           <cell r="D2184">
-            <v>442.87115430436819</v>
+            <v>443.49949865755218</v>
           </cell>
           <cell r="E2184">
             <v>176.24029466184791</v>
@@ -59406,7 +60036,7 @@
             <v>44127</v>
           </cell>
           <cell r="D2185">
-            <v>443.96597274470832</v>
+            <v>444.59586741398198</v>
           </cell>
           <cell r="E2185">
             <v>175.1024572446351</v>
@@ -59417,7 +60047,7 @@
             <v>44130</v>
           </cell>
           <cell r="D2186">
-            <v>450.19199435845599</v>
+            <v>450.8307238887628</v>
           </cell>
           <cell r="E2186">
             <v>174.68225284891659</v>
@@ -59428,7 +60058,7 @@
             <v>44131</v>
           </cell>
           <cell r="D2187">
-            <v>452.30055398738858</v>
+            <v>452.94227572149072</v>
           </cell>
           <cell r="E2187">
             <v>172.24230057583571</v>
@@ -59439,7 +60069,7 @@
             <v>44132</v>
           </cell>
           <cell r="D2188">
-            <v>440.36195348174658</v>
+            <v>440.9867365100597</v>
           </cell>
           <cell r="E2188">
             <v>164.91552681180721</v>
@@ -59450,7 +60080,7 @@
             <v>44133</v>
           </cell>
           <cell r="D2189">
-            <v>444.84609674398479</v>
+            <v>445.47724414635911</v>
           </cell>
           <cell r="E2189">
             <v>167.0130903180065</v>
@@ -59461,7 +60091,7 @@
             <v>44134</v>
           </cell>
           <cell r="D2190">
-            <v>433.18117088103452</v>
+            <v>433.79576741802822</v>
           </cell>
           <cell r="E2190">
             <v>162.46519912154801</v>
@@ -59472,7 +60102,7 @@
             <v>44138</v>
           </cell>
           <cell r="D2191">
-            <v>432.98629403569697</v>
+            <v>433.60061571515058</v>
           </cell>
           <cell r="E2191">
             <v>165.2925003026163</v>
@@ -59483,7 +60113,7 @@
             <v>44139</v>
           </cell>
           <cell r="D2192">
-            <v>452.596112516044</v>
+            <v>453.23825688218238</v>
           </cell>
           <cell r="E2192">
             <v>169.1383216033478</v>
@@ -59494,7 +60124,7 @@
             <v>44140</v>
           </cell>
           <cell r="D2193">
-            <v>462.17490184077451</v>
+            <v>462.83063546741442</v>
           </cell>
           <cell r="E2193">
             <v>174.26204845319819</v>
@@ -59505,7 +60135,7 @@
             <v>44141</v>
           </cell>
           <cell r="D2194">
-            <v>466.00600253732722</v>
+            <v>466.66717374923729</v>
           </cell>
           <cell r="E2194">
             <v>174.3052793581075</v>
@@ -59516,7 +60146,7 @@
             <v>44144</v>
           </cell>
           <cell r="D2195">
-            <v>459.40505115015912</v>
+            <v>460.05685596306449</v>
           </cell>
           <cell r="E2195">
             <v>179.69012087361011</v>
@@ -59527,7 +60157,7 @@
             <v>44145</v>
           </cell>
           <cell r="D2196">
-            <v>460.67316325583192</v>
+            <v>461.3267647472037</v>
           </cell>
           <cell r="E2196">
             <v>182.1767625239932</v>
@@ -59538,7 +60168,7 @@
             <v>44146</v>
           </cell>
           <cell r="D2197">
-            <v>464.95497932851612</v>
+            <v>465.61465517321028</v>
           </cell>
           <cell r="E2197">
             <v>180.7605180791644</v>
@@ -59549,7 +60179,7 @@
             <v>44147</v>
           </cell>
           <cell r="D2198">
-            <v>461.67095787313508</v>
+            <v>462.32597722225722</v>
           </cell>
           <cell r="E2198">
             <v>176.6847083643155</v>
@@ -59560,7 +60190,7 @@
             <v>44148</v>
           </cell>
           <cell r="D2199">
-            <v>479.92716482636041</v>
+            <v>480.60808685163482</v>
           </cell>
           <cell r="E2199">
             <v>180.725933355237</v>
@@ -59571,7 +60201,7 @@
             <v>44151</v>
           </cell>
           <cell r="D2200">
-            <v>474.21388606522072</v>
+            <v>474.8867031358493</v>
           </cell>
           <cell r="E2200">
             <v>184.0426083798786</v>
@@ -59582,7 +60212,7 @@
             <v>44152</v>
           </cell>
           <cell r="D2201">
-            <v>468.48372734714712</v>
+            <v>469.14841489376607</v>
           </cell>
           <cell r="E2201">
             <v>185.4242681007799</v>
@@ -59593,7 +60223,7 @@
             <v>44153</v>
           </cell>
           <cell r="D2202">
-            <v>465.92266706689583</v>
+            <v>466.58372029698671</v>
           </cell>
           <cell r="E2202">
             <v>184.13425789828631</v>
@@ -59604,7 +60234,7 @@
             <v>44154</v>
           </cell>
           <cell r="D2203">
-            <v>468.46946986750851</v>
+            <v>469.13413592418311</v>
           </cell>
           <cell r="E2203">
             <v>184.193051928963</v>
@@ -59615,7 +60245,7 @@
             <v>44158</v>
           </cell>
           <cell r="D2204">
-            <v>474.28750725591522</v>
+            <v>474.96042705893672</v>
           </cell>
           <cell r="E2204">
             <v>185.68365353023569</v>
@@ -59626,7 +60256,7 @@
             <v>44159</v>
           </cell>
           <cell r="D2205">
-            <v>473.35367627221183</v>
+            <v>474.0252713673791</v>
           </cell>
           <cell r="E2205">
             <v>189.84592505490329</v>
@@ -59637,7 +60267,7 @@
             <v>44160</v>
           </cell>
           <cell r="D2206">
-            <v>476.33098712503772</v>
+            <v>477.00680663547348</v>
           </cell>
           <cell r="E2206">
             <v>190.44597001504431</v>
@@ -59648,7 +60278,7 @@
             <v>44161</v>
           </cell>
           <cell r="D2207">
-            <v>476.33098712503778</v>
+            <v>477.00680663547348</v>
           </cell>
           <cell r="E2207">
             <v>190.6085182175033</v>
@@ -59659,7 +60289,7 @@
             <v>44162</v>
           </cell>
           <cell r="D2208">
-            <v>479.70590834868472</v>
+            <v>480.3856535361237</v>
           </cell>
           <cell r="E2208">
             <v>191.21029241384079</v>
@@ -59670,7 +60300,7 @@
             <v>44165</v>
           </cell>
           <cell r="D2209">
-            <v>483.32848057351191</v>
+            <v>484.02411643718131</v>
           </cell>
           <cell r="E2209">
             <v>188.29307095056109</v>
@@ -59681,7 +60311,7 @@
             <v>44166</v>
           </cell>
           <cell r="D2210">
-            <v>460.61063202881371</v>
+            <v>461.23931288424581</v>
           </cell>
           <cell r="E2210">
             <v>192.52451192308359</v>
@@ -59692,7 +60322,7 @@
             <v>44167</v>
           </cell>
           <cell r="D2211">
-            <v>462.34350734294492</v>
+            <v>462.97058184054151</v>
           </cell>
           <cell r="E2211">
             <v>193.3528160611458</v>
@@ -59703,7 +60333,7 @@
             <v>44168</v>
           </cell>
           <cell r="D2212">
-            <v>467.23856780950263</v>
+            <v>467.87810006865391</v>
           </cell>
           <cell r="E2212">
             <v>195.26362205813689</v>
@@ -59714,7 +60344,7 @@
             <v>44169</v>
           </cell>
           <cell r="D2213">
-            <v>470.95096948631982</v>
+            <v>471.59432331553478</v>
           </cell>
           <cell r="E2213">
             <v>196.58302927596881</v>
@@ -59725,7 +60355,7 @@
             <v>44172</v>
           </cell>
           <cell r="D2214">
-            <v>462.23824166772528</v>
+            <v>462.84332716803129</v>
           </cell>
           <cell r="E2214">
             <v>196.4844628127756</v>
@@ -59736,7 +60366,7 @@
             <v>44173</v>
           </cell>
           <cell r="D2215">
-            <v>470.43030795968969</v>
+            <v>471.04147507798768</v>
           </cell>
           <cell r="E2215">
             <v>196.39108405817149</v>
@@ -59747,7 +60377,7 @@
             <v>44174</v>
           </cell>
           <cell r="D2216">
-            <v>462.67531174602442</v>
+            <v>463.27106224148417</v>
           </cell>
           <cell r="E2216">
             <v>194.9229625274516</v>
@@ -59758,7 +60388,7 @@
             <v>44175</v>
           </cell>
           <cell r="D2217">
-            <v>471.598047573271</v>
+            <v>472.21837471051907</v>
           </cell>
           <cell r="E2217">
             <v>198.84832869321619</v>
@@ -59769,7 +60399,7 @@
             <v>44176</v>
           </cell>
           <cell r="D2218">
-            <v>471.57935634230518</v>
+            <v>472.20398023961781</v>
           </cell>
           <cell r="E2218">
             <v>199.4207058742154</v>
@@ -59780,7 +60410,7 @@
             <v>44179</v>
           </cell>
           <cell r="D2219">
-            <v>467.25540528131393</v>
+            <v>467.86120670565032</v>
           </cell>
           <cell r="E2219">
             <v>198.81893167787791</v>
@@ -59791,7 +60421,7 @@
             <v>44180</v>
           </cell>
           <cell r="D2220">
-            <v>474.11141924228821</v>
+            <v>474.73245033995693</v>
           </cell>
           <cell r="E2220">
             <v>200.84386726382959</v>
@@ -59802,7 +60432,7 @@
             <v>44181</v>
           </cell>
           <cell r="D2221">
-            <v>476.92547275109348</v>
+            <v>477.54854820186961</v>
           </cell>
           <cell r="E2221">
             <v>203.9582216534956</v>
@@ -59813,7 +60443,7 @@
             <v>44182</v>
           </cell>
           <cell r="D2222">
-            <v>474.88914331438309</v>
+            <v>475.50095955040553</v>
           </cell>
           <cell r="E2222">
             <v>204.3213612547338</v>
@@ -59824,7 +60454,7 @@
             <v>44183</v>
           </cell>
           <cell r="D2223">
-            <v>469.23912003243993</v>
+            <v>470.38692980547057</v>
           </cell>
           <cell r="E2223">
             <v>203.494786352868</v>
@@ -59835,7 +60465,7 @@
             <v>44186</v>
           </cell>
           <cell r="D2224">
-            <v>468.53421773324698</v>
+            <v>469.68030323881248</v>
           </cell>
           <cell r="E2224">
             <v>200.6190665583012</v>
@@ -59846,7 +60476,7 @@
             <v>44187</v>
           </cell>
           <cell r="D2225">
-            <v>472.85534323890931</v>
+            <v>474.01199868605499</v>
           </cell>
           <cell r="E2225">
             <v>201.19317297549671</v>
@@ -59857,7 +60487,7 @@
             <v>44188</v>
           </cell>
           <cell r="D2226">
-            <v>474.74096673058079</v>
+            <v>475.90223461726879</v>
           </cell>
           <cell r="E2226">
             <v>203.80259039582219</v>
@@ -59868,7 +60498,7 @@
             <v>44193</v>
           </cell>
           <cell r="D2227">
-            <v>478.32026747237239</v>
+            <v>479.49029071682293</v>
           </cell>
           <cell r="E2227">
             <v>205.86729841429039</v>
@@ -59879,7 +60509,7 @@
             <v>44194</v>
           </cell>
           <cell r="D2228">
-            <v>481.06852448909819</v>
+            <v>482.24527026823932</v>
           </cell>
           <cell r="E2228">
             <v>206.60049456155221</v>
@@ -59890,7 +60520,7 @@
             <v>44195</v>
           </cell>
           <cell r="D2229">
-            <v>477.43558893568343</v>
+            <v>478.60344816049638</v>
           </cell>
           <cell r="E2229">
             <v>206.30825364436529</v>
@@ -59901,7 +60531,7 @@
             <v>44200</v>
           </cell>
           <cell r="D2230">
-            <v>470.88039500942278</v>
+            <v>472.16593365383852</v>
           </cell>
           <cell r="E2230">
             <v>205.014784969479</v>
@@ -59912,7 +60542,7 @@
             <v>44201</v>
           </cell>
           <cell r="D2231">
-            <v>469.95961182489629</v>
+            <v>471.24203621596951</v>
           </cell>
           <cell r="E2231">
             <v>206.1647270400664</v>
@@ -59923,7 +60553,7 @@
             <v>44202</v>
           </cell>
           <cell r="D2232">
-            <v>458.83709182581498</v>
+            <v>460.09075731192939</v>
           </cell>
           <cell r="E2232">
             <v>207.25068737138801</v>
@@ -59934,7 +60564,7 @@
             <v>44203</v>
           </cell>
           <cell r="D2233">
-            <v>468.01586183903169</v>
+            <v>469.28856572165671</v>
           </cell>
           <cell r="E2233">
             <v>210.8907295647513</v>
@@ -59945,7 +60575,7 @@
             <v>44204</v>
           </cell>
           <cell r="D2234">
-            <v>506.68755555387003</v>
+            <v>508.06063169410788</v>
           </cell>
           <cell r="E2234">
             <v>216.2876757336285</v>
@@ -59956,7 +60586,7 @@
             <v>44207</v>
           </cell>
           <cell r="D2235">
-            <v>531.67054310202286</v>
+            <v>533.10278116570316</v>
           </cell>
           <cell r="E2235">
             <v>212.36230956786389</v>
@@ -59967,7 +60597,7 @@
             <v>44208</v>
           </cell>
           <cell r="D2236">
-            <v>520.85965815571456</v>
+            <v>522.26326162046848</v>
           </cell>
           <cell r="E2236">
             <v>214.42182987774299</v>
@@ -59978,7 +60608,7 @@
             <v>44209</v>
           </cell>
           <cell r="D2237">
-            <v>510.08337392331998</v>
+            <v>511.4617201754329</v>
           </cell>
           <cell r="E2237">
             <v>211.03598540524649</v>
@@ -59989,7 +60619,7 @@
             <v>44210</v>
           </cell>
           <cell r="D2238">
-            <v>517.54228165728296</v>
+            <v>518.94036607024987</v>
           </cell>
           <cell r="E2238">
             <v>213.5278147642187</v>
@@ -60000,7 +60630,7 @@
             <v>44211</v>
           </cell>
           <cell r="D2239">
-            <v>520.31214197383599</v>
+            <v>521.58488189701814</v>
           </cell>
           <cell r="E2239">
             <v>208.37642013522631</v>
@@ -60011,7 +60641,7 @@
             <v>44214</v>
           </cell>
           <cell r="D2240">
-            <v>528.2488161236887</v>
+            <v>529.54097001251353</v>
           </cell>
           <cell r="E2240">
             <v>209.65605492054161</v>
@@ -60022,7 +60652,7 @@
             <v>44215</v>
           </cell>
           <cell r="D2241">
-            <v>521.66284262853844</v>
+            <v>522.93888651199518</v>
           </cell>
           <cell r="E2241">
             <v>208.67211952480591</v>
@@ -60033,7 +60663,7 @@
             <v>44216</v>
           </cell>
           <cell r="D2242">
-            <v>525.00295399011577</v>
+            <v>526.28716814817278</v>
           </cell>
           <cell r="E2242">
             <v>207.00340659530681</v>
@@ -60044,7 +60674,7 @@
             <v>44217</v>
           </cell>
           <cell r="D2243">
-            <v>521.13775026994983</v>
+            <v>522.41250972055514</v>
           </cell>
           <cell r="E2243">
             <v>204.8159228068962</v>
@@ -60055,7 +60685,7 @@
             <v>44218</v>
           </cell>
           <cell r="D2244">
-            <v>512.17080203508556</v>
+            <v>513.42362735791073</v>
           </cell>
           <cell r="E2244">
             <v>202.61806360130731</v>
@@ -60066,7 +60696,7 @@
             <v>44222</v>
           </cell>
           <cell r="D2245">
-            <v>515.49731305976366</v>
+            <v>516.75827538929013</v>
           </cell>
           <cell r="E2245">
             <v>201.39376437427589</v>
@@ -60077,7 +60707,7 @@
             <v>44223</v>
           </cell>
           <cell r="D2246">
-            <v>501.0367960231851</v>
+            <v>502.26238635990649</v>
           </cell>
           <cell r="E2246">
             <v>200.38734890798739</v>
@@ -60088,7 +60718,7 @@
             <v>44224</v>
           </cell>
           <cell r="D2247">
-            <v>509.36216137220089</v>
+            <v>510.60811645538882</v>
           </cell>
           <cell r="E2247">
             <v>206.3220875339363</v>
@@ -60099,7 +60729,7 @@
             <v>44225</v>
           </cell>
           <cell r="D2248">
-            <v>490.60584438672748</v>
+            <v>491.80591948458829</v>
           </cell>
           <cell r="E2248">
             <v>200.60350343253381</v>
@@ -60110,7 +60740,7 @@
             <v>44228</v>
           </cell>
           <cell r="D2249">
-            <v>538.10632483803045</v>
+            <v>505.97217124350328</v>
           </cell>
           <cell r="E2249">
             <v>202.9518061872071</v>
@@ -60121,7 +60751,7 @@
             <v>44229</v>
           </cell>
           <cell r="D2250">
-            <v>544.28830316359506</v>
+            <v>511.80479385480447</v>
           </cell>
           <cell r="E2250">
             <v>204.4545124418544</v>
@@ -60132,7 +60762,7 @@
             <v>44230</v>
           </cell>
           <cell r="D2251">
-            <v>543.70587341633302</v>
+            <v>511.41898252380048</v>
           </cell>
           <cell r="E2251">
             <v>207.0328036106452</v>
@@ -60143,7 +60773,7 @@
             <v>44231</v>
           </cell>
           <cell r="D2252">
-            <v>558.83844482174459</v>
+            <v>526.33318514255222</v>
           </cell>
           <cell r="E2252">
             <v>206.23043801552859</v>
@@ -60154,7 +60784,7 @@
             <v>44232</v>
           </cell>
           <cell r="D2253">
-            <v>564.84719197882623</v>
+            <v>532.41061445582045</v>
           </cell>
           <cell r="E2253">
             <v>207.37865084991961</v>
@@ -60165,7 +60795,7 @@
             <v>44235</v>
           </cell>
           <cell r="D2254">
-            <v>556.20037491800167</v>
+            <v>523.40255666705787</v>
           </cell>
           <cell r="E2254">
             <v>206.67139324560341</v>
@@ -60176,7 +60806,7 @@
             <v>44236</v>
           </cell>
           <cell r="D2255">
-            <v>556.63039149358178</v>
+            <v>524.41921000925959</v>
           </cell>
           <cell r="E2255">
             <v>206.5209496965191</v>
@@ -60187,7 +60817,7 @@
             <v>44237</v>
           </cell>
           <cell r="D2256">
-            <v>542.75863987268065</v>
+            <v>511.41264778771318</v>
           </cell>
           <cell r="E2256">
             <v>204.79344273634339</v>
@@ -60198,7 +60828,7 @@
             <v>44238</v>
           </cell>
           <cell r="D2257">
-            <v>547.34833978354868</v>
+            <v>515.5355097762822</v>
           </cell>
           <cell r="E2257">
             <v>206.18547787442279</v>
@@ -60209,7 +60839,7 @@
             <v>44239</v>
           </cell>
           <cell r="D2258">
-            <v>539.67646410336283</v>
+            <v>508.44014219100058</v>
           </cell>
           <cell r="E2258">
             <v>205.9796987670546</v>
@@ -60220,7 +60850,7 @@
             <v>44245</v>
           </cell>
           <cell r="D2259">
-            <v>526.61139876960954</v>
+            <v>496.05031941272853</v>
           </cell>
           <cell r="E2259">
             <v>206.0212004357675</v>
@@ -60231,7 +60861,7 @@
             <v>44246</v>
           </cell>
           <cell r="D2260">
-            <v>528.73717044401735</v>
+            <v>497.7166048414129</v>
           </cell>
           <cell r="E2260">
             <v>205.34333984678969</v>
@@ -60242,7 +60872,7 @@
             <v>44249</v>
           </cell>
           <cell r="D2261">
-            <v>523.18998047930586</v>
+            <v>492.94152154568752</v>
           </cell>
           <cell r="E2261">
             <v>194.82958377284751</v>
@@ -60253,7 +60883,7 @@
             <v>44250</v>
           </cell>
           <cell r="D2262">
-            <v>518.95835140413647</v>
+            <v>489.39225672073837</v>
           </cell>
           <cell r="E2262">
             <v>199.25469919936361</v>
@@ -60264,7 +60894,7 @@
             <v>44251</v>
           </cell>
           <cell r="D2263">
-            <v>517.516609073209</v>
+            <v>488.17378650472318</v>
           </cell>
           <cell r="E2263">
             <v>200.01729236196371</v>
@@ -60275,7 +60905,7 @@
             <v>44252</v>
           </cell>
           <cell r="D2264">
-            <v>513.37556459743462</v>
+            <v>484.48505576497678</v>
           </cell>
           <cell r="E2264">
             <v>194.11713845994231</v>
@@ -60286,7 +60916,7 @@
             <v>44253</v>
           </cell>
           <cell r="D2265">
-            <v>501.64316443078911</v>
+            <v>473.42212344116012</v>
           </cell>
           <cell r="E2265">
             <v>190.2765048677999</v>
@@ -60297,7 +60927,7 @@
             <v>44256</v>
           </cell>
           <cell r="D2266">
-            <v>510.230218488106</v>
+            <v>480.74996080002501</v>
           </cell>
           <cell r="E2266">
             <v>190.79527572671151</v>
@@ -60308,7 +60938,7 @@
             <v>44257</v>
           </cell>
           <cell r="D2267">
-            <v>509.00054448866689</v>
+            <v>479.45116073550861</v>
           </cell>
           <cell r="E2267">
             <v>192.8790053433398</v>
@@ -60319,7 +60949,7 @@
             <v>44258</v>
           </cell>
           <cell r="D2268">
-            <v>507.86006310462778</v>
+            <v>478.65234373605352</v>
           </cell>
           <cell r="E2268">
             <v>192.26339725743139</v>
@@ -60330,7 +60960,7 @@
             <v>44259</v>
           </cell>
           <cell r="D2269">
-            <v>499.18289115710297</v>
+            <v>471.01201676423028</v>
           </cell>
           <cell r="E2269">
             <v>194.8676269691677</v>
@@ -60341,7 +60971,7 @@
             <v>44260</v>
           </cell>
           <cell r="D2270">
-            <v>499.38789615205201</v>
+            <v>471.1431244148261</v>
           </cell>
           <cell r="E2270">
             <v>199.21146829445431</v>
@@ -60352,7 +60982,7 @@
             <v>44263</v>
           </cell>
           <cell r="D2271">
-            <v>484.84808266217101</v>
+            <v>457.6458571644992</v>
           </cell>
           <cell r="E2271">
             <v>191.2742741531066</v>
@@ -60363,7 +60993,7 @@
             <v>44264</v>
           </cell>
           <cell r="D2272">
-            <v>478.50939702929082</v>
+            <v>451.03607710306272</v>
           </cell>
           <cell r="E2272">
             <v>192.51759497829809</v>
@@ -60374,7 +61004,7 @@
             <v>44265</v>
           </cell>
           <cell r="D2273">
-            <v>482.11569152656682</v>
+            <v>454.43988771543928</v>
           </cell>
           <cell r="E2273">
             <v>195.01634128205569</v>
@@ -60385,7 +61015,7 @@
             <v>44266</v>
           </cell>
           <cell r="D2274">
-            <v>490.34052028530328</v>
+            <v>462.18133781742409</v>
           </cell>
           <cell r="E2274">
             <v>198.83449480364521</v>
@@ -60396,7 +61026,7 @@
             <v>44267</v>
           </cell>
           <cell r="D2275">
-            <v>487.09808625104438</v>
+            <v>459.2134137970836</v>
           </cell>
           <cell r="E2275">
             <v>197.40960417783461</v>
@@ -60407,7 +61037,7 @@
             <v>44270</v>
           </cell>
           <cell r="D2276">
-            <v>489.17168622554789</v>
+            <v>460.99161160031741</v>
           </cell>
           <cell r="E2276">
             <v>198.6045063895277</v>
@@ -60418,7 +61048,7 @@
             <v>44271</v>
           </cell>
           <cell r="D2277">
-            <v>494.92551513437149</v>
+            <v>466.07840719233411</v>
           </cell>
           <cell r="E2277">
             <v>197.16578187414621</v>
@@ -60429,7 +61059,7 @@
             <v>44272</v>
           </cell>
           <cell r="D2278">
-            <v>492.35498930689351</v>
+            <v>464.14215625619511</v>
           </cell>
           <cell r="E2278">
             <v>201.5407494509675</v>
@@ -60440,7 +61070,7 @@
             <v>44273</v>
           </cell>
           <cell r="D2279">
-            <v>480.71017671091482</v>
+            <v>453.13128820923998</v>
           </cell>
           <cell r="E2279">
             <v>198.57683861038581</v>
@@ -60451,7 +61081,7 @@
             <v>44274</v>
           </cell>
           <cell r="D2280">
-            <v>482.01585159301868</v>
+            <v>454.25035498104171</v>
           </cell>
           <cell r="E2280">
             <v>200.97528921475379</v>
@@ -60462,7 +61092,7 @@
             <v>44277</v>
           </cell>
           <cell r="D2281">
-            <v>474.92009934720551</v>
+            <v>447.53470690841652</v>
           </cell>
           <cell r="E2281">
             <v>198.82584862266339</v>
@@ -60473,7 +61103,7 @@
             <v>44278</v>
           </cell>
           <cell r="D2282">
-            <v>472.78297699796559</v>
+            <v>445.08328880289469</v>
           </cell>
           <cell r="E2282">
             <v>195.85675007349261</v>
@@ -60484,7 +61114,7 @@
             <v>44279</v>
           </cell>
           <cell r="D2283">
-            <v>461.20451844227767</v>
+            <v>434.21272446449728</v>
           </cell>
           <cell r="E2283">
             <v>193.78512511023879</v>
@@ -60495,7 +61125,7 @@
             <v>44280</v>
           </cell>
           <cell r="D2284">
-            <v>470.31642371880741</v>
+            <v>442.23145170822312</v>
           </cell>
           <cell r="E2284">
             <v>196.70061733732209</v>
@@ -60506,7 +61136,7 @@
             <v>44281</v>
           </cell>
           <cell r="D2285">
-            <v>462.14009285567391</v>
+            <v>434.4568605491915</v>
           </cell>
           <cell r="E2285">
             <v>198.48345985578169</v>
@@ -60517,7 +61147,7 @@
             <v>44284</v>
           </cell>
           <cell r="D2286">
-            <v>458.09638681691013</v>
+            <v>430.78876084425798</v>
           </cell>
           <cell r="E2286">
             <v>199.5867125490671</v>
@@ -60528,7 +61158,7 @@
             <v>44285</v>
           </cell>
           <cell r="D2287">
-            <v>459.13460881069079</v>
+            <v>431.77840773134261</v>
           </cell>
           <cell r="E2287">
             <v>202.06124954607549</v>
@@ -60539,7 +61169,7 @@
             <v>44286</v>
           </cell>
           <cell r="D2288">
-            <v>457.58976869370628</v>
+            <v>430.39480421333673</v>
           </cell>
           <cell r="E2288">
             <v>201.6877345276591</v>
@@ -60550,7 +61180,7 @@
             <v>44287</v>
           </cell>
           <cell r="D2289">
-            <v>461.24614949754579</v>
+            <v>434.20120820378992</v>
           </cell>
           <cell r="E2289">
             <v>199.2996593404693</v>
@@ -60561,7 +61191,7 @@
             <v>44291</v>
           </cell>
           <cell r="D2290">
-            <v>459.52057857283029</v>
+            <v>432.56103894185878</v>
           </cell>
           <cell r="E2290">
             <v>203.21637932525201</v>
@@ -60572,7 +61202,7 @@
             <v>44292</v>
           </cell>
           <cell r="D2291">
-            <v>464.47589984920688</v>
+            <v>437.68021089068469</v>
           </cell>
           <cell r="E2291">
             <v>203.18352383752099</v>
@@ -60583,7 +61213,7 @@
             <v>44293</v>
           </cell>
           <cell r="D2292">
-            <v>469.70829502210569</v>
+            <v>442.06303871730159</v>
           </cell>
           <cell r="E2292">
             <v>203.3996783620675</v>
@@ -60594,7 +61224,7 @@
             <v>44294</v>
           </cell>
           <cell r="D2293">
-            <v>468.9307540700384</v>
+            <v>441.87745166180127</v>
           </cell>
           <cell r="E2293">
             <v>204.5911221013678</v>
@@ -60605,7 +61235,7 @@
             <v>44295</v>
           </cell>
           <cell r="D2294">
-            <v>473.43371027574818</v>
+            <v>446.4243198485953</v>
           </cell>
           <cell r="E2294">
             <v>203.47922322710059</v>
@@ -60616,7 +61246,7 @@
             <v>44298</v>
           </cell>
           <cell r="D2295">
-            <v>472.2988374682318</v>
+            <v>917.8538172965682</v>
           </cell>
           <cell r="E2295">
             <v>205.45401096335749</v>
@@ -60627,7 +61257,7 @@
             <v>44299</v>
           </cell>
           <cell r="D2296">
-            <v>483.18935654750391</v>
+            <v>457.11882761709558</v>
           </cell>
           <cell r="E2296">
             <v>206.29269051859799</v>
@@ -60638,7 +61268,7 @@
             <v>44300</v>
           </cell>
           <cell r="D2297">
-            <v>472.04317072749041</v>
+            <v>446.07019428699829</v>
           </cell>
           <cell r="E2297">
             <v>208.0184682425772</v>
@@ -60649,7 +61279,7 @@
             <v>44301</v>
           </cell>
           <cell r="D2298">
-            <v>471.82959380667899</v>
+            <v>445.85343930874552</v>
           </cell>
           <cell r="E2298">
             <v>208.72053813830431</v>
@@ -60660,7 +61290,7 @@
             <v>44302</v>
           </cell>
           <cell r="D2299">
-            <v>477.08276422095531</v>
+            <v>450.74879582963672</v>
           </cell>
           <cell r="E2299">
             <v>209.43471268740601</v>
@@ -60671,7 +61301,7 @@
             <v>44305</v>
           </cell>
           <cell r="D2300">
-            <v>471.94442151629852</v>
+            <v>445.99454651765132</v>
           </cell>
           <cell r="E2300">
             <v>209.12345017205899</v>
@@ -60682,7 +61312,7 @@
             <v>44306</v>
           </cell>
           <cell r="D2301">
-            <v>476.14623573002359</v>
+            <v>477.3126602706738</v>
           </cell>
           <cell r="E2301">
             <v>207.6155562088226</v>
@@ -60693,7 +61323,7 @@
             <v>44308</v>
           </cell>
           <cell r="D2302">
-            <v>467.43817382513981</v>
+            <v>468.58330077717977</v>
           </cell>
           <cell r="E2302">
             <v>206.42065399712951</v>
@@ -60704,7 +61334,7 @@
             <v>44309</v>
           </cell>
           <cell r="D2303">
-            <v>462.68586213975112</v>
+            <v>463.81922861198291</v>
           </cell>
           <cell r="E2303">
             <v>208.42483874872471</v>
@@ -60715,7 +61345,7 @@
             <v>44312</v>
           </cell>
           <cell r="D2304">
-            <v>463.59513815837067</v>
+            <v>464.73072565958091</v>
           </cell>
           <cell r="E2304">
             <v>208.53723910148889</v>
@@ -60726,7 +61356,7 @@
             <v>44313</v>
           </cell>
           <cell r="D2305">
-            <v>455.33759884866032</v>
+            <v>456.45295457901989</v>
           </cell>
           <cell r="E2305">
             <v>206.45005101246781</v>
@@ -60737,7 +61367,7 @@
             <v>44314</v>
           </cell>
           <cell r="D2306">
-            <v>456.95688965772018</v>
+            <v>458.07619838559242</v>
           </cell>
           <cell r="E2306">
             <v>209.3292292794273</v>
@@ -60748,7 +61378,7 @@
             <v>44315</v>
           </cell>
           <cell r="D2307">
-            <v>455.37921154096517</v>
+            <v>465.31298255685681</v>
           </cell>
           <cell r="E2307">
             <v>207.62247315360801</v>
@@ -60759,10 +61389,230 @@
             <v>44316</v>
           </cell>
           <cell r="D2308">
-            <v>448.82212757514782</v>
+            <v>458.5484672810145</v>
           </cell>
           <cell r="E2308">
             <v>205.59580833146001</v>
+          </cell>
+        </row>
+        <row r="2309">
+          <cell r="A2309">
+            <v>44319</v>
+          </cell>
+          <cell r="D2309">
+            <v>467.37074182048968</v>
+          </cell>
+          <cell r="E2309">
+            <v>206.14051773331721</v>
+          </cell>
+        </row>
+        <row r="2310">
+          <cell r="A2310">
+            <v>44320</v>
+          </cell>
+          <cell r="D2310">
+            <v>461.89860454623812</v>
+          </cell>
+          <cell r="E2310">
+            <v>203.5518511473482</v>
+          </cell>
+        </row>
+        <row r="2311">
+          <cell r="A2311">
+            <v>44321</v>
+          </cell>
+          <cell r="D2311">
+            <v>463.31186134563012</v>
+          </cell>
+          <cell r="E2311">
+            <v>206.75439658302929</v>
+          </cell>
+        </row>
+        <row r="2312">
+          <cell r="A2312">
+            <v>44322</v>
+          </cell>
+          <cell r="D2312">
+            <v>468.66132898079178</v>
+          </cell>
+          <cell r="E2312">
+            <v>207.37173390513411</v>
+          </cell>
+        </row>
+        <row r="2313">
+          <cell r="A2313">
+            <v>44323</v>
+          </cell>
+          <cell r="D2313">
+            <v>477.90605096496199</v>
+          </cell>
+          <cell r="E2313">
+            <v>211.03252693285381</v>
+          </cell>
+        </row>
+        <row r="2314">
+          <cell r="A2314">
+            <v>44326</v>
+          </cell>
+          <cell r="D2314">
+            <v>470.29353095590318</v>
+          </cell>
+          <cell r="E2314">
+            <v>210.8094554635218</v>
+          </cell>
+        </row>
+        <row r="2315">
+          <cell r="A2315">
+            <v>44327</v>
+          </cell>
+          <cell r="D2315">
+            <v>470.55007730799417</v>
+          </cell>
+          <cell r="E2315">
+            <v>212.6337996506943</v>
+          </cell>
+        </row>
+        <row r="2316">
+          <cell r="A2316">
+            <v>44328</v>
+          </cell>
+          <cell r="D2316">
+            <v>455.63170780911628</v>
+          </cell>
+          <cell r="E2316">
+            <v>207.00686506769961</v>
+          </cell>
+        </row>
+        <row r="2317">
+          <cell r="A2317">
+            <v>44329</v>
+          </cell>
+          <cell r="D2317">
+            <v>461.3111661383607</v>
+          </cell>
+          <cell r="E2317">
+            <v>208.72918431928619</v>
+          </cell>
+        </row>
+        <row r="2318">
+          <cell r="A2318">
+            <v>44330</v>
+          </cell>
+          <cell r="D2318">
+            <v>462.13994091449729</v>
+          </cell>
+          <cell r="E2318">
+            <v>210.7610368500234</v>
+          </cell>
+        </row>
+        <row r="2319">
+          <cell r="A2319">
+            <v>44333</v>
+          </cell>
+          <cell r="D2319">
+            <v>461.40102867910701</v>
+          </cell>
+          <cell r="E2319">
+            <v>212.58883950958861</v>
+          </cell>
+        </row>
+        <row r="2320">
+          <cell r="A2320">
+            <v>44334</v>
+          </cell>
+          <cell r="D2320">
+            <v>464.55308048572738</v>
+          </cell>
+          <cell r="E2320">
+            <v>212.66146742983631</v>
+          </cell>
+        </row>
+        <row r="2321">
+          <cell r="A2321">
+            <v>44335</v>
+          </cell>
+          <cell r="D2321">
+            <v>457.33021346530802</v>
+          </cell>
+          <cell r="E2321">
+            <v>212.06661017828429</v>
+          </cell>
+        </row>
+        <row r="2322">
+          <cell r="A2322">
+            <v>44336</v>
+          </cell>
+          <cell r="D2322">
+            <v>467.28801829892461</v>
+          </cell>
+          <cell r="E2322">
+            <v>212.17901053104839</v>
+          </cell>
+        </row>
+        <row r="2323">
+          <cell r="A2323">
+            <v>44337</v>
+          </cell>
+          <cell r="D2323">
+            <v>467.9373249338596</v>
+          </cell>
+          <cell r="E2323">
+            <v>211.99052378564389</v>
+          </cell>
+        </row>
+        <row r="2324">
+          <cell r="A2324">
+            <v>44340</v>
+          </cell>
+          <cell r="D2324">
+            <v>475.50438243610739</v>
+          </cell>
+          <cell r="E2324">
+            <v>214.4806239084196</v>
+          </cell>
+        </row>
+        <row r="2325">
+          <cell r="A2325">
+            <v>44341</v>
+          </cell>
+          <cell r="D2325">
+            <v>477.34696332504518</v>
+          </cell>
+          <cell r="E2325">
+            <v>212.67530131940731</v>
+          </cell>
+        </row>
+        <row r="2326">
+          <cell r="A2326">
+            <v>44342</v>
+          </cell>
+          <cell r="D2326">
+            <v>483.6962356453285</v>
+          </cell>
+          <cell r="E2326">
+            <v>214.40626675197569</v>
+          </cell>
+        </row>
+        <row r="2327">
+          <cell r="A2327">
+            <v>44343</v>
+          </cell>
+          <cell r="D2327">
+            <v>488.7772008645548</v>
+          </cell>
+          <cell r="E2327">
+            <v>215.05991803420429</v>
+          </cell>
+        </row>
+        <row r="2328">
+          <cell r="A2328">
+            <v>44344</v>
+          </cell>
+          <cell r="D2328">
+            <v>503.38442183611949</v>
+          </cell>
+          <cell r="E2328">
+            <v>217.1246260526726</v>
           </cell>
         </row>
       </sheetData>
@@ -61913,7 +62763,7 @@
             <v>44044</v>
           </cell>
           <cell r="C105">
-            <v>475.9677863808439</v>
+            <v>475.96791046283988</v>
           </cell>
           <cell r="D105">
             <v>171.83247159729549</v>
@@ -61924,7 +62774,7 @@
             <v>44075</v>
           </cell>
           <cell r="C106">
-            <v>454.91437684756858</v>
+            <v>454.94532802515403</v>
           </cell>
           <cell r="D106">
             <v>163.5909318853862</v>
@@ -61935,7 +62785,7 @@
             <v>44105</v>
           </cell>
           <cell r="C107">
-            <v>433.18117088103452</v>
+            <v>433.79576741802822</v>
           </cell>
           <cell r="D107">
             <v>162.46519912154801</v>
@@ -61946,7 +62796,7 @@
             <v>44136</v>
           </cell>
           <cell r="C108">
-            <v>483.32848057351191</v>
+            <v>484.02411643718131</v>
           </cell>
           <cell r="D108">
             <v>188.29307095056109</v>
@@ -61957,7 +62807,7 @@
             <v>44166</v>
           </cell>
           <cell r="C109">
-            <v>477.43558893568343</v>
+            <v>478.60344816049638</v>
           </cell>
           <cell r="D109">
             <v>206.30825364436529</v>
@@ -61968,7 +62818,7 @@
             <v>44197</v>
           </cell>
           <cell r="C110">
-            <v>490.60584438672748</v>
+            <v>491.80591948458829</v>
           </cell>
           <cell r="D110">
             <v>200.60350343253381</v>
@@ -61979,7 +62829,7 @@
             <v>44228</v>
           </cell>
           <cell r="C111">
-            <v>501.64316443078911</v>
+            <v>473.42212344116012</v>
           </cell>
           <cell r="D111">
             <v>190.2765048677999</v>
@@ -61990,7 +62840,7 @@
             <v>44256</v>
           </cell>
           <cell r="C112">
-            <v>457.58976869370628</v>
+            <v>430.39480421333673</v>
           </cell>
           <cell r="D112">
             <v>201.6877345276591</v>
@@ -62001,10 +62851,21 @@
             <v>44287</v>
           </cell>
           <cell r="C113">
-            <v>448.82212757514782</v>
+            <v>458.5484672810145</v>
           </cell>
           <cell r="D113">
             <v>205.59580833146001</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>44317</v>
+          </cell>
+          <cell r="C114">
+            <v>503.38442183611949</v>
+          </cell>
+          <cell r="D114">
+            <v>217.1246260526726</v>
           </cell>
         </row>
       </sheetData>
@@ -62014,19 +62875,19 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C2">
-            <v>1220889541.2496419</v>
+            <v>1265256490</v>
           </cell>
           <cell r="D2">
-            <v>1180850975.643929</v>
+            <v>1223886507.931776</v>
           </cell>
           <cell r="E2">
-            <v>3714929530</v>
+            <v>3849929530</v>
           </cell>
           <cell r="G2">
-            <v>0.46200479306165848</v>
+            <v>0.47405229543980631</v>
           </cell>
           <cell r="H2">
-            <v>0.58212630130960219</v>
+            <v>0.5904240957962571</v>
           </cell>
         </row>
         <row r="3">
@@ -62043,50 +62904,50 @@
             <v>57587563</v>
           </cell>
           <cell r="G3">
-            <v>0.21620156005724631</v>
+            <v>0.2117356479351743</v>
           </cell>
           <cell r="H3">
-            <v>2.829125486131746E-2</v>
+            <v>2.7685540591906942E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>MDIA3.SA</v>
+            <v>GRND3.SA</v>
           </cell>
           <cell r="C4">
-            <v>83669782</v>
+            <v>268384780</v>
           </cell>
           <cell r="D4">
-            <v>83669782</v>
+            <v>268384780</v>
           </cell>
           <cell r="E4">
-            <v>339000000</v>
+            <v>902160000</v>
           </cell>
           <cell r="G4">
-            <v>6.05153572129975E-2</v>
+            <v>6.4718963207071739E-2</v>
           </cell>
           <cell r="H4">
-            <v>4.1246848020327617E-2</v>
+            <v>0.129473476527458</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>GRND3.SA</v>
+            <v>MDIA3.SA</v>
           </cell>
           <cell r="C5">
-            <v>268371180</v>
+            <v>83669782</v>
           </cell>
           <cell r="D5">
-            <v>268371180</v>
+            <v>83669782</v>
           </cell>
           <cell r="E5">
-            <v>902160000</v>
+            <v>339000000</v>
           </cell>
           <cell r="G5">
-            <v>5.9572637532534022E-2</v>
+            <v>5.7501540109578808E-2</v>
           </cell>
           <cell r="H5">
-            <v>0.13229943965308749</v>
+            <v>4.036375518699134E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -62103,10 +62964,10 @@
             <v>766213456</v>
           </cell>
           <cell r="G6">
-            <v>5.3321833851889232E-2</v>
+            <v>4.8188064521068927E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.1074968654365553</v>
+            <v>0.10519536323628161</v>
           </cell>
         </row>
         <row r="7">
@@ -62123,27 +62984,27 @@
             <v>443781062</v>
           </cell>
           <cell r="G7">
-            <v>4.1555161568043168E-2</v>
+            <v>4.5653205067939392E-2</v>
           </cell>
           <cell r="H7">
-            <v>7.8539290719109991E-2</v>
+            <v>7.6857768661104983E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>BNBR3.SA</v>
+            <v>COCE3.SA</v>
           </cell>
           <cell r="C8">
-            <v>614211</v>
+            <v>1003692</v>
           </cell>
           <cell r="D8">
-            <v>20285133.535237689</v>
+            <v>20728939.022741269</v>
           </cell>
           <cell r="E8">
-            <v>86371464</v>
+            <v>48067937</v>
           </cell>
           <cell r="G8">
-            <v>3.8541649316621782E-2</v>
+            <v>3.5237049237640948E-2</v>
           </cell>
           <cell r="H8">
             <v>0.01</v>
@@ -62151,19 +63012,19 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>COCE3.SA</v>
+            <v>BNBR3.SA</v>
           </cell>
           <cell r="C9">
-            <v>1003692</v>
+            <v>614211</v>
           </cell>
           <cell r="D9">
-            <v>20285133.535237689</v>
+            <v>20728939.022741269</v>
           </cell>
           <cell r="E9">
-            <v>48067937</v>
+            <v>86371464</v>
           </cell>
           <cell r="G9">
-            <v>3.6651218068859549E-2</v>
+            <v>3.4733662819960362E-2</v>
           </cell>
           <cell r="H9">
             <v>0.01</v>
@@ -62177,19 +63038,19 @@
             <v>19198932</v>
           </cell>
           <cell r="D10">
-            <v>20285133.535237689</v>
+            <v>20728939.022741269</v>
           </cell>
           <cell r="E10">
             <v>29787362</v>
           </cell>
           <cell r="G10">
-            <v>3.1635789330149988E-2</v>
+            <v>2.8179571661759151E-2</v>
           </cell>
           <cell r="H10">
             <v>0.01</v>
           </cell>
           <cell r="I10">
-            <v>82004341.126424089</v>
+            <v>81804239.086567715</v>
           </cell>
         </row>
       </sheetData>
@@ -62201,7 +63062,7 @@
       <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B2" t="str">
             <v>BNBR3.SA</v>
@@ -62215,7 +63076,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B3" t="str">
             <v>COCE3.SA</v>
@@ -62229,7 +63090,7 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B4" t="str">
             <v>COCE5.SA</v>
@@ -62243,7 +63104,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B5" t="str">
             <v>GRND3.SA</v>
@@ -62257,7 +63118,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B6" t="str">
             <v>MDIA3.SA</v>
@@ -62271,7 +63132,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B7" t="str">
             <v>HAPV3.SA</v>
@@ -62285,7 +63146,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B8" t="str">
             <v>ARCE</v>
@@ -62299,7 +63160,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B9" t="str">
             <v>PGMN3.SA</v>
@@ -62313,7 +63174,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44316</v>
+            <v>44344</v>
           </cell>
           <cell r="B10" t="str">
             <v>AERI3.SA</v>
@@ -62632,7 +63493,7 @@
   <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62707,19 +63568,19 @@
       </c>
       <c r="C4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>1.9376854090574099E-2</v>
+        <v>5.6075159385671432E-2</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-3.4533049469429589E-3</v>
+        <v>5.2428209813421223E-2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.23394185962035441</v>
+        <v>0.29404307945996111</v>
       </c>
       <c r="F4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.81786768191061587</v>
+        <v>1.0022165170384789</v>
       </c>
       <c r="G4" s="59">
         <v>0</v>
@@ -62767,19 +63628,19 @@
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>-1.916048329399456E-2</v>
+        <v>9.7778005498441622E-2</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-5.9931563594414317E-2</v>
+        <v>5.1777674755307812E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.60866079342388657</v>
+        <v>0.60913266612438632</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.75266483424122255</v>
+        <v>0.82194150815975586</v>
       </c>
       <c r="G5" s="60">
         <v>0</v>
@@ -62818,7 +63679,7 @@
       </c>
       <c r="P5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
-        <v>8.5998673056638664E-2</v>
+        <v>8.86551435792724E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -62828,23 +63689,23 @@
       </c>
       <c r="C6" s="48">
         <f>[1]tab1_retorno_empresas!C4</f>
-        <v>-1.5070422535211179E-2</v>
+        <v>-1.3299013299013399E-2</v>
       </c>
       <c r="D6" s="48">
         <f>[1]tab1_retorno_empresas!D4</f>
-        <v>-7.9868421052631478E-2</v>
+        <v>-9.210526315789469E-2</v>
       </c>
       <c r="E6" s="48">
         <f>[1]tab1_retorno_empresas!E4</f>
-        <v>0.70145993681070262</v>
+        <v>0.45263157894736827</v>
       </c>
       <c r="F6" s="48">
         <f>[1]tab1_retorno_empresas!F4</f>
-        <v>1.445104895104895</v>
+        <v>1.654867256637168</v>
       </c>
       <c r="G6" s="48">
         <f>_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.8541649316621782E-2</v>
+        <v>3.4733662819960362E-2</v>
       </c>
       <c r="H6" s="48">
         <f>[1]tab1_retorno_empresas!G4</f>
@@ -62890,23 +63751,23 @@
       </c>
       <c r="C7" s="48">
         <f>[1]tab1_retorno_empresas!C5</f>
-        <v>0.297814156993983</v>
+        <v>5.2631578947368363E-2</v>
       </c>
       <c r="D7" s="48">
         <f>[1]tab1_retorno_empresas!D5</f>
-        <v>-8.4022013333939771E-2</v>
+        <v>-3.5812645614673462E-2</v>
       </c>
       <c r="E7" s="48">
         <f>[1]tab1_retorno_empresas!E5</f>
-        <v>0.47876358730790303</v>
+        <v>0.59780868299911671</v>
       </c>
       <c r="F7" s="48">
         <f>[1]tab1_retorno_empresas!F5</f>
-        <v>0.58333333333333259</v>
+        <v>0.66746069556931786</v>
       </c>
       <c r="G7" s="48">
         <f>_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.6651218068859549E-2</v>
+        <v>3.5237049237640948E-2</v>
       </c>
       <c r="H7" s="48">
         <f>[1]tab1_retorno_empresas!G5</f>
@@ -62952,23 +63813,23 @@
       </c>
       <c r="C8" s="48">
         <f>[1]tab1_retorno_empresas!C6</f>
-        <v>2.8858235725788939E-2</v>
+        <v>-2.473870993941785E-2</v>
       </c>
       <c r="D8" s="48">
         <f>[1]tab1_retorno_empresas!D6</f>
-        <v>-4.3333300000000019E-2</v>
+        <v>-6.700000000000006E-2</v>
       </c>
       <c r="E8" s="48">
         <f>[1]tab1_retorno_empresas!E6</f>
-        <v>0.1040584687802089</v>
+        <v>2.3774689100219289E-2</v>
       </c>
       <c r="F8" s="48">
         <f>[1]tab1_retorno_empresas!F6</f>
-        <v>0.2220566484552555</v>
+        <v>0.19106382978723399</v>
       </c>
       <c r="G8" s="48">
         <f>_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.1635789330149988E-2</v>
+        <v>2.8179571661759151E-2</v>
       </c>
       <c r="H8" s="48">
         <f>[1]tab1_retorno_empresas!G6</f>
@@ -63014,23 +63875,23 @@
       </c>
       <c r="C9" s="48">
         <f>[1]tab1_retorno_empresas!C7</f>
-        <v>3.4177215189873378E-2</v>
+        <v>0.21542227662178701</v>
       </c>
       <c r="D9" s="48">
         <f>[1]tab1_retorno_empresas!D7</f>
-        <v>-2.505966587112185E-2</v>
+        <v>0.1849642004773269</v>
       </c>
       <c r="E9" s="48">
         <f>[1]tab1_retorno_empresas!E7</f>
-        <v>0.11307901907356931</v>
+        <v>0.4065155807365437</v>
       </c>
       <c r="F9" s="48">
         <f>[1]tab1_retorno_empresas!F7</f>
-        <v>-5.6794325094879916E-3</v>
+        <v>0.13269970590872199</v>
       </c>
       <c r="G9" s="48">
         <f>_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.9572637532534022E-2</v>
+        <v>6.4718963207071739E-2</v>
       </c>
       <c r="H9" s="48">
         <f>[1]tab1_retorno_empresas!G7</f>
@@ -63076,23 +63937,23 @@
       </c>
       <c r="C10" s="48">
         <f>[1]tab1_retorno_empresas!C8</f>
-        <v>-0.13289901847234481</v>
+        <v>6.3110365773464849E-2</v>
       </c>
       <c r="D10" s="48">
         <f>[1]tab1_retorno_empresas!D8</f>
-        <v>-0.21843804408578851</v>
+        <v>-0.16911338317341801</v>
       </c>
       <c r="E10" s="48">
         <f>[1]tab1_retorno_empresas!E8</f>
-        <v>-0.35994226977638871</v>
+        <v>-0.26854485056978172</v>
       </c>
       <c r="F10" s="48">
         <f>[1]tab1_retorno_empresas!F8</f>
-        <v>-0.4537245844449006</v>
+        <v>-0.47689463870220478</v>
       </c>
       <c r="G10" s="48">
         <f>_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.05153572129975E-2</v>
+        <v>5.7501540109578808E-2</v>
       </c>
       <c r="H10" s="48">
         <f>[1]tab1_retorno_empresas!G8</f>
@@ -63138,23 +63999,23 @@
       </c>
       <c r="C11" s="48">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>-3.2258064516129122E-2</v>
+        <v>0.1076388888888888</v>
       </c>
       <c r="D11" s="48">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>-5.6356487549148022E-2</v>
+        <v>4.5216251638269922E-2</v>
       </c>
       <c r="E11" s="48">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>1.379378717779246</v>
+        <v>1.1682979880369759</v>
       </c>
       <c r="F11" s="48">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>1.6086956521739131</v>
+        <v>1.889492753623188</v>
       </c>
       <c r="G11" s="48">
         <f>_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.46200479306165848</v>
+        <v>0.47405229543980631</v>
       </c>
       <c r="H11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
@@ -63200,23 +64061,23 @@
       </c>
       <c r="C12" s="48">
         <f>[1]tab1_retorno_empresas!C10</f>
-        <v>-3.9573474694967303E-2</v>
+        <v>9.572011871924313E-2</v>
       </c>
       <c r="D12" s="48">
         <f>[1]tab1_retorno_empresas!D10</f>
-        <v>-0.2492509986420505</v>
+        <v>-0.1773892151037143</v>
       </c>
       <c r="E12" s="48">
         <f>[1]tab1_retorno_empresas!E10</f>
-        <v>9.3828093613087526E-2</v>
+        <v>4.0026522027167832E-3</v>
       </c>
       <c r="F12" s="48">
         <f>[1]tab1_retorno_empresas!F10</f>
-        <v>0.72011057327476657</v>
+        <v>0.88475976155885272</v>
       </c>
       <c r="G12" s="48">
         <f>_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.21620156005724631</v>
+        <v>0.2117356479351743</v>
       </c>
       <c r="H12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
@@ -63262,23 +64123,23 @@
       </c>
       <c r="C13" s="48">
         <f>[1]tab1_retorno_empresas!C11</f>
-        <v>6.1946902654867353E-2</v>
+        <v>0.22916666666666671</v>
       </c>
       <c r="D13" s="48">
         <f>[1]tab1_retorno_empresas!D11</f>
-        <v>6.4301552106430071E-2</v>
+        <v>0.30820399113082048</v>
       </c>
       <c r="E13" s="48">
         <f>[1]tab1_retorno_empresas!E11</f>
-        <v>2.3454157782516031E-2</v>
+        <v>0.25799573560767608</v>
       </c>
       <c r="F13" s="48">
         <f>[1]tab1_retorno_empresas!F11</f>
-        <v>2.3454157782516031E-2</v>
+        <v>0.25799573560767608</v>
       </c>
       <c r="G13" s="48">
         <f>_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>4.1555161568043168E-2</v>
+        <v>4.5653205067939392E-2</v>
       </c>
       <c r="H13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
@@ -63324,23 +64185,23 @@
       </c>
       <c r="C14" s="49">
         <f>[1]tab1_retorno_empresas!C12</f>
-        <v>1.8099547511312149E-2</v>
+        <v>1.111111111111107E-2</v>
       </c>
       <c r="D14" s="49">
         <f>[1]tab1_retorno_empresas!D12</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>-9.000000000000008E-2</v>
       </c>
       <c r="E14" s="49">
         <f>[1]tab1_retorno_empresas!E12</f>
-        <v>0.34932533733133408</v>
+        <v>0.36431784107946008</v>
       </c>
       <c r="F14" s="49">
         <f>[1]tab1_retorno_empresas!F12</f>
-        <v>0.34932533733133408</v>
+        <v>0.36431784107946008</v>
       </c>
       <c r="G14" s="49">
         <f>_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.3321833851889232E-2</v>
+        <v>4.8188064521068927E-2</v>
       </c>
       <c r="H14" s="18">
         <f>[1]tab1_retorno_empresas!G12</f>
@@ -63386,13 +64247,13 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D18" s="46"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="46"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
@@ -63502,7 +64363,7 @@
   <dimension ref="C1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63554,19 +64415,19 @@
       </c>
       <c r="D5" s="12">
         <f>[1]tab2_risco_empresas!B$3</f>
-        <v>1.49E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="E5" s="12">
         <f>[1]tab2_risco_empresas!C$3</f>
-        <v>7.3200000000000001E-2</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="F5" s="6">
         <f>[1]tab2_risco_empresas!D$3</f>
-        <v>4.9127516778523503</v>
+        <v>4.1485714285714277</v>
       </c>
       <c r="G5" s="12">
         <f>[1]tab2_risco_empresas!E$3</f>
-        <v>5.4000000000000003E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H5" s="53">
         <f>[1]tab2_risco_empresas!F$3</f>
@@ -63587,19 +64448,19 @@
       </c>
       <c r="D6" s="14">
         <f>[1]tab2_risco_empresas!B$2</f>
-        <v>1.3899999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="E6" s="14">
         <f>[1]tab2_risco_empresas!C$2</f>
-        <v>6.6799999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F6" s="58">
         <f>[1]tab2_risco_empresas!D$2</f>
-        <v>4.8057553956834536</v>
+        <v>4.5945945945945947</v>
       </c>
       <c r="G6" s="14">
         <f>[1]tab2_risco_empresas!E$2</f>
-        <v>4.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H6" s="54">
         <f>[1]tab2_risco_empresas!F$2</f>
@@ -63620,19 +64481,19 @@
         <v>AERI3.SA</v>
       </c>
       <c r="D7" s="12">
-        <v>7.1800000000000003E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.24249999999999999</v>
+        <v>0.2225</v>
       </c>
       <c r="F7" s="6">
-        <v>3.3774373259052921</v>
+        <v>3.520569620253164</v>
       </c>
       <c r="G7" s="13">
-        <v>5.8799999999999998E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="13">
         <v>0.50380000000000003</v>
@@ -63646,19 +64507,19 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D8" s="12">
-        <v>3.1800000000000002E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>0.1008</v>
+        <v>0.1002</v>
       </c>
       <c r="F8" s="6">
-        <v>3.1698113207547172</v>
+        <v>2.9557522123893811</v>
       </c>
       <c r="G8" s="13">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H8" s="20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" s="13">
         <v>0.23710000000000001</v>
@@ -63669,132 +64530,132 @@
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="str">
-        <v>ARCE</v>
+        <v>PGMN3.SA</v>
       </c>
       <c r="D9" s="12">
-        <v>2.7900000000000001E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>0.1477</v>
+        <v>0.1072</v>
       </c>
       <c r="F9" s="6">
-        <v>5.2939068100358417</v>
+        <v>3.4918566775244302</v>
       </c>
       <c r="G9" s="13">
-        <v>2.18E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I9" s="13">
-        <v>0.39539999999999997</v>
+        <v>0.22919999999999999</v>
       </c>
       <c r="J9" s="13">
-        <v>-0.26569999999999999</v>
+        <v>-0.1087</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="str">
-        <v>BNBR3.SA</v>
+        <v>ARCE</v>
       </c>
       <c r="D10" s="12">
-        <v>2.7E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E10" s="12">
-        <v>0.13880000000000001</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="F10" s="6">
-        <v>5.1407407407407408</v>
+        <v>4.8438538205980084</v>
       </c>
       <c r="G10" s="13">
-        <v>1.9300000000000001E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I10" s="13">
-        <v>0.70209999999999995</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="J10" s="13">
-        <v>-0.2389</v>
+        <v>-0.26569999999999999</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="str">
-        <v>COCE3.SA</v>
+        <v>BNBR3.SA</v>
       </c>
       <c r="D11" s="15">
-        <v>1.7899999999999999E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>0.13550000000000001</v>
+        <v>0.1381</v>
       </c>
       <c r="F11" s="16">
-        <v>7.5698324022346384</v>
+        <v>4.8798586572438163</v>
       </c>
       <c r="G11" s="13">
-        <v>1.84E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="H11" s="20">
         <v>48</v>
       </c>
       <c r="I11" s="13">
-        <v>0.5</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="J11" s="13">
-        <v>-0.28670000000000001</v>
+        <v>-0.2389</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="str">
-        <v>COCE5.SA</v>
+        <v>COCE3.SA</v>
       </c>
       <c r="D12" s="15">
-        <v>6.8999999999999999E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E12" s="15">
-        <v>7.0400000000000004E-2</v>
+        <v>0.1356</v>
       </c>
       <c r="F12" s="16">
-        <v>10.20289855072464</v>
+        <v>7.1368421052631579</v>
       </c>
       <c r="G12" s="13">
-        <v>5.0000000000000001E-3</v>
+        <v>1.84E-2</v>
       </c>
       <c r="H12" s="20">
         <v>48</v>
       </c>
       <c r="I12" s="13">
-        <v>0.16689999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="13">
-        <v>-0.23080000000000001</v>
+        <v>-0.28670000000000001</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="str">
-        <v>PGMN3.SA</v>
+        <v>COCE5.SA</v>
       </c>
       <c r="D13" s="15">
-        <v>5.8999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E13" s="15">
-        <v>8.2400000000000001E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="F13" s="16">
-        <v>13.966101694915251</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="G13" s="13">
-        <v>6.7999999999999996E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H13" s="20">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I13" s="13">
-        <v>0.12529999999999999</v>
+        <v>0.16689999999999999</v>
       </c>
       <c r="J13" s="13">
-        <v>-0.1087</v>
+        <v>-0.23080000000000001</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -63802,22 +64663,22 @@
         <v>GRND3.SA</v>
       </c>
       <c r="D14" s="15">
-        <v>2E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E14" s="15">
-        <v>7.7799999999999994E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>38.9</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="G14" s="13">
-        <v>6.1000000000000004E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H14" s="20">
         <v>48</v>
       </c>
       <c r="I14" s="13">
-        <v>0.14230000000000001</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="J14" s="13">
         <v>-0.22370000000000001</v>
@@ -63828,16 +64689,16 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="D15" s="17">
-        <v>-8.9999999999999993E-3</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="E15" s="17">
-        <v>9.2299999999999993E-2</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="F15" s="18">
-        <v>-10.25555555555556</v>
+        <v>-11.170731707317071</v>
       </c>
       <c r="G15" s="19">
-        <v>8.5000000000000006E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="H15" s="21">
         <v>48</v>
@@ -63856,7 +64717,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -63869,7 +64730,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63913,31 +64774,31 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>8.7300000000000003E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>7.0000000000000001E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.46339999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.50770000000000004</v>
+        <v>0.55510000000000004</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.25769999999999998</v>
+        <v>0.30819999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -63946,22 +64807,22 @@
         <v>COCE3.SA</v>
       </c>
       <c r="C5" s="25">
-        <v>5.67E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D5" s="25">
-        <v>4.5999999999999999E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E5" s="25">
-        <v>0.89</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="F5" s="26">
-        <v>0.48089999999999999</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="G5" s="25">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H5" s="25">
-        <v>0.23119999999999999</v>
+        <v>0.23469999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -63969,22 +64830,22 @@
         <v>ARCE_SP500</v>
       </c>
       <c r="C6" s="12">
-        <v>1.12E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="D6" s="12">
-        <v>8.9999999999999998E-4</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E6" s="12">
-        <v>0.88560000000000005</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="F6" s="13">
-        <v>0.35170000000000001</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="G6" s="12">
-        <v>4.8399999999999999E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="H6" s="12">
-        <v>0.1237</v>
+        <v>0.11849999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -63992,68 +64853,68 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C7" s="12">
-        <v>-0.21870000000000001</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="D7" s="12">
-        <v>-2.0400000000000001E-2</v>
+        <v>-2.23E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.76229999999999998</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="F7" s="13">
-        <v>0.60499999999999998</v>
+        <v>0.63980000000000004</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.36599999999999999</v>
+        <v>0.4093</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
-        <v>HAPV3.SA</v>
+        <v>GRND3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>0.32079999999999997</v>
+        <v>-6.7799999999999999E-2</v>
       </c>
       <c r="D8" s="12">
-        <v>2.35E-2</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="E8" s="12">
-        <v>0.67479999999999996</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="F8" s="13">
-        <v>0.53769999999999996</v>
+        <v>0.61880000000000002</v>
       </c>
       <c r="G8" s="12">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0.28910000000000002</v>
+        <v>0.38290000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
-        <v>GRND3.SA</v>
+        <v>HAPV3.SA</v>
       </c>
       <c r="C9" s="15">
-        <v>-9.0700000000000003E-2</v>
+        <v>0.33850000000000002</v>
       </c>
       <c r="D9" s="15">
-        <v>-7.9000000000000008E-3</v>
+        <v>2.46E-2</v>
       </c>
       <c r="E9" s="15">
-        <v>0.66320000000000001</v>
+        <v>0.68340000000000001</v>
       </c>
       <c r="F9" s="13">
-        <v>0.62380000000000002</v>
+        <v>0.54259999999999997</v>
       </c>
       <c r="G9" s="15">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="15">
-        <v>0.38919999999999999</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -64061,68 +64922,68 @@
         <v>COCE5.SA</v>
       </c>
       <c r="C10" s="12">
-        <v>-2.6599999999999999E-2</v>
+        <v>-4.9099999999999998E-2</v>
       </c>
       <c r="D10" s="12">
-        <v>-2.2000000000000001E-3</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="E10" s="12">
-        <v>0.61080000000000001</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="F10" s="13">
-        <v>0.63549999999999995</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0.40379999999999999</v>
+        <v>0.4032</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
-        <v>BNBR3.SA</v>
+        <v>PGMN3.SA</v>
       </c>
       <c r="C11" s="12">
-        <v>0.28079999999999999</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D11" s="12">
-        <v>2.0799999999999999E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E11" s="12">
-        <v>0.40970000000000001</v>
+        <v>0.4466</v>
       </c>
       <c r="F11" s="13">
-        <v>0.21609999999999999</v>
+        <v>0.2697</v>
       </c>
       <c r="G11" s="12">
-        <v>0.1401</v>
+        <v>0.48280000000000001</v>
       </c>
       <c r="H11" s="12">
-        <v>4.6699999999999998E-2</v>
+        <v>7.2700000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
-        <v>PGMN3.SA</v>
+        <v>BNBR3.SA</v>
       </c>
       <c r="C12" s="12">
-        <v>-0.1497</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="D12" s="12">
-        <v>-1.34E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E12" s="12">
-        <v>0.29039999999999999</v>
+        <v>0.37909999999999999</v>
       </c>
       <c r="F12" s="13">
-        <v>0.2336</v>
+        <v>0.19919999999999999</v>
       </c>
       <c r="G12" s="12">
-        <v>0.5776</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="H12" s="12">
-        <v>5.4600000000000003E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -64130,22 +64991,22 @@
         <v>ARCE_Ibovespa</v>
       </c>
       <c r="C13" s="17">
-        <v>0.38419999999999999</v>
+        <v>0.41439999999999999</v>
       </c>
       <c r="D13" s="17">
-        <v>2.75E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>2.9000000000000001E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="F13" s="19">
-        <v>1.5900000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.93210000000000004</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="H13" s="17">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -64155,7 +65016,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -64173,8 +65034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD60C2E-2EC0-43CE-82AC-D4B34A9E117E}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64242,23 +65103,23 @@
       </c>
       <c r="E3" s="30">
         <f>[1]contribuicao!C2</f>
-        <v>1220889541.2496419</v>
+        <v>1265256490</v>
       </c>
       <c r="F3" s="30">
         <f>[1]contribuicao!D2</f>
-        <v>1180850975.643929</v>
+        <v>1223886507.931776</v>
       </c>
       <c r="G3" s="30">
         <f>[1]contribuicao!$E2</f>
-        <v>3714929530</v>
+        <v>3849929530</v>
       </c>
       <c r="H3" s="31">
         <f>[1]contribuicao!G2</f>
-        <v>0.46200479306165848</v>
+        <v>0.47405229543980631</v>
       </c>
       <c r="I3" s="31">
         <f>[1]contribuicao!H2</f>
-        <v>0.58212630130960219</v>
+        <v>0.5904240957962571</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -64287,77 +65148,77 @@
       </c>
       <c r="H4" s="31">
         <f>[1]contribuicao!G3</f>
-        <v>0.21620156005724631</v>
+        <v>0.2117356479351743</v>
       </c>
       <c r="I4" s="31">
         <f>[1]contribuicao!H3</f>
-        <v>2.829125486131746E-2</v>
+        <v>2.7685540591906942E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="str">
         <f>[1]contribuicao!B4</f>
-        <v>MDIA3.SA</v>
+        <v>GRND3.SA</v>
       </c>
       <c r="C5" s="28" t="str">
         <f>_xlfn.XLOOKUP($B5,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>M. DIAS BRANCO</v>
+        <v>GRENDENE</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="30">
         <f>[1]contribuicao!C4</f>
-        <v>83669782</v>
+        <v>268384780</v>
       </c>
       <c r="F5" s="30">
         <f>[1]contribuicao!D4</f>
-        <v>83669782</v>
+        <v>268384780</v>
       </c>
       <c r="G5" s="30">
         <f>[1]contribuicao!$E4</f>
-        <v>339000000</v>
+        <v>902160000</v>
       </c>
       <c r="H5" s="31">
         <f>[1]contribuicao!G4</f>
-        <v>6.05153572129975E-2</v>
+        <v>6.4718963207071739E-2</v>
       </c>
       <c r="I5" s="31">
         <f>[1]contribuicao!H4</f>
-        <v>4.1246848020327617E-2</v>
+        <v>0.129473476527458</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="str">
         <f>[1]contribuicao!B5</f>
-        <v>GRND3.SA</v>
+        <v>MDIA3.SA</v>
       </c>
       <c r="C6" s="28" t="str">
         <f>_xlfn.XLOOKUP($B6,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>GRENDENE</v>
+        <v>M. DIAS BRANCO</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="30">
         <f>[1]contribuicao!C5</f>
-        <v>268371180</v>
+        <v>83669782</v>
       </c>
       <c r="F6" s="30">
         <f>[1]contribuicao!D5</f>
-        <v>268371180</v>
+        <v>83669782</v>
       </c>
       <c r="G6" s="30">
         <f>[1]contribuicao!$E5</f>
-        <v>902160000</v>
+        <v>339000000</v>
       </c>
       <c r="H6" s="31">
         <f>[1]contribuicao!G5</f>
-        <v>5.9572637532534022E-2</v>
+        <v>5.7501540109578808E-2</v>
       </c>
       <c r="I6" s="31">
         <f>[1]contribuicao!H5</f>
-        <v>0.13229943965308749</v>
+        <v>4.036375518699134E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -64386,11 +65247,11 @@
       </c>
       <c r="H7" s="31">
         <f>[1]contribuicao!G6</f>
-        <v>5.3321833851889232E-2</v>
+        <v>4.8188064521068927E-2</v>
       </c>
       <c r="I7" s="31">
         <f>[1]contribuicao!H6</f>
-        <v>0.1074968654365553</v>
+        <v>0.10519536323628161</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -64419,40 +65280,40 @@
       </c>
       <c r="H8" s="31">
         <f>[1]contribuicao!G7</f>
-        <v>4.1555161568043168E-2</v>
+        <v>4.5653205067939392E-2</v>
       </c>
       <c r="I8" s="31">
         <f>[1]contribuicao!H7</f>
-        <v>7.8539290719109991E-2</v>
+        <v>7.6857768661104983E-2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="str">
         <f>[1]contribuicao!B8</f>
-        <v>BNBR3.SA</v>
+        <v>COCE3.SA</v>
       </c>
       <c r="C9" s="28" t="str">
         <f>_xlfn.XLOOKUP($B9,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>BANCO DO NORDESTE</v>
+        <v>COELCE</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="30">
         <f>[1]contribuicao!C8</f>
-        <v>614211</v>
+        <v>1003692</v>
       </c>
       <c r="F9" s="30">
         <f>[1]contribuicao!D8</f>
-        <v>20285133.535237689</v>
+        <v>20728939.022741269</v>
       </c>
       <c r="G9" s="30">
         <f>[1]contribuicao!$E8</f>
-        <v>86371464</v>
+        <v>48067937</v>
       </c>
       <c r="H9" s="31">
         <f>[1]contribuicao!G8</f>
-        <v>3.8541649316621782E-2</v>
+        <v>3.5237049237640948E-2</v>
       </c>
       <c r="I9" s="31">
         <f>[1]contribuicao!H8</f>
@@ -64462,30 +65323,30 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="str">
         <f>[1]contribuicao!B9</f>
-        <v>COCE3.SA</v>
+        <v>BNBR3.SA</v>
       </c>
       <c r="C10" s="28" t="str">
         <f>_xlfn.XLOOKUP($B10,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>COELCE</v>
+        <v>BANCO DO NORDESTE</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="30">
         <f>[1]contribuicao!C9</f>
-        <v>1003692</v>
+        <v>614211</v>
       </c>
       <c r="F10" s="30">
         <f>[1]contribuicao!D9</f>
-        <v>20285133.535237689</v>
+        <v>20728939.022741269</v>
       </c>
       <c r="G10" s="30">
         <f>[1]contribuicao!$E9</f>
-        <v>48067937</v>
+        <v>86371464</v>
       </c>
       <c r="H10" s="31">
         <f>[1]contribuicao!G9</f>
-        <v>3.6651218068859549E-2</v>
+        <v>3.4733662819960362E-2</v>
       </c>
       <c r="I10" s="31">
         <f>[1]contribuicao!H9</f>
@@ -64510,7 +65371,7 @@
       </c>
       <c r="F11" s="30">
         <f>[1]contribuicao!D10</f>
-        <v>20285133.535237689</v>
+        <v>20728939.022741269</v>
       </c>
       <c r="G11" s="30">
         <f>[1]contribuicao!$E10</f>
@@ -64518,7 +65379,7 @@
       </c>
       <c r="H11" s="31">
         <f>[1]contribuicao!G10</f>
-        <v>3.1635789330149988E-2</v>
+        <v>2.8179571661759151E-2</v>
       </c>
       <c r="I11" s="31">
         <f>[1]contribuicao!H10</f>
@@ -64533,23 +65394,23 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33">
         <f>SUM(E3:E11)</f>
-        <v>2028513353.5237687</v>
+        <v>2072893902.2741268</v>
       </c>
       <c r="F12" s="33">
         <f>SUM(F3:F11)</f>
-        <v>2028513353.5237691</v>
+        <v>2072893902.2741268</v>
       </c>
       <c r="G12" s="33">
         <f>SUM(G3:G11)</f>
-        <v>6387898374</v>
+        <v>6522898374</v>
       </c>
       <c r="H12" s="34">
         <f>SUM(H3:H11)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="I12" s="34">
         <f>SUM(I3:I11)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -64560,7 +65421,7 @@
       <c r="D13" s="35"/>
       <c r="E13" s="47">
         <f>[1]contribuicao!$I$10</f>
-        <v>82004341.126424089</v>
+        <v>81804239.086567715</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -64577,7 +65438,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -64587,7 +65448,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -64605,21 +65466,24 @@
       <c r="G21" s="46"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="63"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="63"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="46"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="61"/>
-      <c r="G24" s="46"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="61"/>
       <c r="F25" s="51"/>
-      <c r="G25" s="46"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
@@ -64746,6 +65610,373 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F98BB6E-71AB-41CB-B604-1DE3263F0BE7}">
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="64">
+        <v>14.4</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1223886507.931776</v>
+      </c>
+      <c r="F3" s="51">
+        <v>1265256490</v>
+      </c>
+      <c r="G3" s="51">
+        <v>3849929530</v>
+      </c>
+      <c r="H3" s="51">
+        <v>17623965714.217579</v>
+      </c>
+      <c r="I3" s="65">
+        <f>H3/$H$14</f>
+        <v>0.46983199001969339</v>
+      </c>
+      <c r="J3" s="56">
+        <f>I3*$H$15</f>
+        <v>4.5939234903489348E-2</v>
+      </c>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="64">
+        <v>138.65637599999999</v>
+      </c>
+      <c r="E4" s="51">
+        <v>57389188.274126701</v>
+      </c>
+      <c r="F4" s="51">
+        <v>57389188.274126701</v>
+      </c>
+      <c r="G4" s="51">
+        <v>57587563</v>
+      </c>
+      <c r="H4" s="51">
+        <v>7957376867.6721029</v>
+      </c>
+      <c r="I4" s="65">
+        <f>H4/$H$14</f>
+        <v>0.21213331152017825</v>
+      </c>
+      <c r="J4" s="56">
+        <f>I4*$H$15</f>
+        <v>2.0741972100222619E-2</v>
+      </c>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="64">
+        <v>26.620000999999998</v>
+      </c>
+      <c r="E5" s="51">
+        <v>83669782</v>
+      </c>
+      <c r="F5" s="51">
+        <v>83669782</v>
+      </c>
+      <c r="G5" s="51">
+        <v>339000000</v>
+      </c>
+      <c r="H5" s="51">
+        <v>2227289680.5097818</v>
+      </c>
+      <c r="I5" s="65">
+        <f>H5/$H$14</f>
+        <v>5.9376644275927398E-2</v>
+      </c>
+      <c r="J5" s="56">
+        <f>I5*$H$15</f>
+        <v>5.8057298504906414E-3</v>
+      </c>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="64">
+        <v>8.17</v>
+      </c>
+      <c r="E6" s="51">
+        <v>268384780</v>
+      </c>
+      <c r="F6" s="51">
+        <v>268384780</v>
+      </c>
+      <c r="G6" s="51">
+        <v>902160000</v>
+      </c>
+      <c r="H6" s="51">
+        <v>2192703652.5999999</v>
+      </c>
+      <c r="I6" s="65">
+        <f>H6/$H$14</f>
+        <v>5.8454625782290597E-2</v>
+      </c>
+      <c r="J6" s="56">
+        <f>I6*$H$15</f>
+        <v>5.7155767211501569E-3</v>
+      </c>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="64">
+        <v>9</v>
+      </c>
+      <c r="E7" s="51">
+        <v>218058827</v>
+      </c>
+      <c r="F7" s="51">
+        <v>218058827</v>
+      </c>
+      <c r="G7" s="51">
+        <v>766213456</v>
+      </c>
+      <c r="H7" s="51">
+        <v>1962529443</v>
+      </c>
+      <c r="I7" s="65">
+        <f>H7/$H$14</f>
+        <v>5.2318480904277313E-2</v>
+      </c>
+      <c r="J7" s="56">
+        <f>I7*$H$15</f>
+        <v>5.1155967135285401E-3</v>
+      </c>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="64">
+        <v>9.6</v>
+      </c>
+      <c r="E8" s="51">
+        <v>159318000</v>
+      </c>
+      <c r="F8" s="51">
+        <v>159318000</v>
+      </c>
+      <c r="G8" s="51">
+        <v>443781062</v>
+      </c>
+      <c r="H8" s="51">
+        <v>1529452800</v>
+      </c>
+      <c r="I8" s="65">
+        <f>H8/$H$14</f>
+        <v>4.0773221210110254E-2</v>
+      </c>
+      <c r="J8" s="56">
+        <f>I8*$H$15</f>
+        <v>3.9867242476713371E-3</v>
+      </c>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="64">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="E9" s="51">
+        <v>20728939.022741269</v>
+      </c>
+      <c r="F9" s="51">
+        <v>614211</v>
+      </c>
+      <c r="G9" s="51">
+        <v>86371464</v>
+      </c>
+      <c r="H9" s="51">
+        <v>1449574705.860297</v>
+      </c>
+      <c r="I9" s="65">
+        <f>H9/$H$14</f>
+        <v>3.8643775174116123E-2</v>
+      </c>
+      <c r="J9" s="56">
+        <f>I9*$H$15</f>
+        <v>3.778511261455268E-3</v>
+      </c>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="64">
+        <v>66.5</v>
+      </c>
+      <c r="E10" s="51">
+        <v>20728939.022741269</v>
+      </c>
+      <c r="F10" s="51">
+        <v>1003692</v>
+      </c>
+      <c r="G10" s="51">
+        <v>48067937</v>
+      </c>
+      <c r="H10" s="51">
+        <v>1378474445.0122941</v>
+      </c>
+      <c r="I10" s="65">
+        <f>H10/$H$14</f>
+        <v>3.6748334750160469E-2</v>
+      </c>
+      <c r="J10" s="56">
+        <f>I10*$H$15</f>
+        <v>3.5931788772597638E-3</v>
+      </c>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="39">
+        <v>44316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="64">
+        <v>57.400002000000001</v>
+      </c>
+      <c r="E11" s="51">
+        <v>20728939.022741269</v>
+      </c>
+      <c r="F11" s="51">
+        <v>19198932</v>
+      </c>
+      <c r="G11" s="51">
+        <v>29787362</v>
+      </c>
+      <c r="H11" s="51">
+        <v>1189841141.3632269</v>
+      </c>
+      <c r="I11" s="65">
+        <f>H11/$H$14</f>
+        <v>3.1719616363246328E-2</v>
+      </c>
+      <c r="J11" s="56">
+        <f>I11*$H$15</f>
+        <v>3.1014808231739585E-3</v>
+      </c>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="66">
+        <f>SUM(H3:H11)</f>
+        <v>37511208450.235275</v>
+      </c>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="66">
+        <f>SUM(H3:H11)</f>
+        <v>37511208450.235275</v>
+      </c>
+      <c r="J14" s="56">
+        <f>SUM(J3:J11)</f>
+        <v>9.777800549844165E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="46">
+        <f>tab1_retorno_empresas!C5</f>
+        <v>9.7778005498441622E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD017D-027D-4735-AE20-1E38E567FFDC}">
   <dimension ref="B2:E13"/>
   <sheetViews>
@@ -64783,7 +66014,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43">
         <f>[1]data_inclusao!A2</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C4" t="str">
         <f>[1]data_inclusao!B2</f>
@@ -64801,7 +66032,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <f>[1]data_inclusao!A3</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C5" t="str">
         <f>[1]data_inclusao!B3</f>
@@ -64819,7 +66050,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <f>[1]data_inclusao!A4</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C6" t="str">
         <f>[1]data_inclusao!B4</f>
@@ -64837,7 +66068,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <f>[1]data_inclusao!A5</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C7" t="str">
         <f>[1]data_inclusao!B5</f>
@@ -64855,7 +66086,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <f>[1]data_inclusao!A6</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C8" t="str">
         <f>[1]data_inclusao!B6</f>
@@ -64873,7 +66104,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <f>[1]data_inclusao!A7</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C9" t="str">
         <f>[1]data_inclusao!B7</f>
@@ -64891,7 +66122,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <f>[1]data_inclusao!A8</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C10" t="str">
         <f>[1]data_inclusao!B8</f>
@@ -64909,7 +66140,7 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <f>[1]data_inclusao!A9</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C11" t="str">
         <f>[1]data_inclusao!B9</f>
@@ -64927,7 +66158,7 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <f>[1]data_inclusao!A10</f>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="C12" s="40" t="str">
         <f>[1]data_inclusao!B10</f>

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a548da2118d25344/Alysson/Unifor/Monitoria/indice_nupe/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{9934F7EE-A292-4CC4-8FCD-BB10CF47BE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A39B1B5-3687-49B8-B778-04FC90B0FB98}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="6_{51A04565-EED8-4CAB-B3F6-BD9DD9BE6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206433CC-B2A0-4D92-AAB4-9E3598E1F1FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -20,15 +20,13 @@
     <sheet name="tab3_risco_sistemico" sheetId="6" r:id="rId5"/>
     <sheet name="tab4_contribuicao" sheetId="7" r:id="rId6"/>
     <sheet name="nome_empresas" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="Planilha2" sheetId="13" r:id="rId8"/>
-    <sheet name="tab5_entrada" sheetId="8" r:id="rId9"/>
+    <sheet name="tab5_entrada" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Planilha2!$B$2:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tab1_retorno_empresas!$B$20:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tab1_retorno_empresas!$B$19:$D$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tab3_risco_sistemico!$B$3:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -72,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Tabela 1 - Retornos do Índice das ações cearenses e do Ibovespa.</t>
   </si>
@@ -366,41 +364,47 @@
     </r>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>free_float</t>
-  </si>
-  <si>
-    <t>free_float_adj</t>
-  </si>
-  <si>
-    <t>qtd_total</t>
-  </si>
-  <si>
-    <t>vl_merc_ff_adj</t>
-  </si>
-  <si>
-    <t>price.close</t>
-  </si>
-  <si>
-    <t>Variação Mensal</t>
-  </si>
-  <si>
     <t>Contribuição</t>
   </si>
   <si>
-    <t>Participação</t>
+    <r>
+      <t xml:space="preserve">¹ Data de referência: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31 de Maio de 2021.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¹ Data de referência: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30 de Junho de 2021.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="13">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00%;[Red]\-0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
@@ -412,8 +416,6 @@
     <numFmt numFmtId="171" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="172" formatCode="0.000000000%"/>
     <numFmt numFmtId="173" formatCode="0.0000000%"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -524,7 +526,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,9 +685,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7796,6 +7798,189 @@
                 <c:pt idx="2326">
                   <c:v>44344</c:v>
                 </c:pt>
+                <c:pt idx="2327">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2328">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="2329">
+                  <c:v>44349</c:v>
+                </c:pt>
+                <c:pt idx="2330">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="2331">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="2332">
+                  <c:v>44355</c:v>
+                </c:pt>
+                <c:pt idx="2333">
+                  <c:v>44356</c:v>
+                </c:pt>
+                <c:pt idx="2334">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="2335">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="2336">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="2337">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="2338">
+                  <c:v>44363</c:v>
+                </c:pt>
+                <c:pt idx="2339">
+                  <c:v>44364</c:v>
+                </c:pt>
+                <c:pt idx="2340">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="2341">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="2342">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="2343">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="2344">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="2345">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="2346">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="2347">
+                  <c:v>44376</c:v>
+                </c:pt>
+                <c:pt idx="2348">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="2349">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="2350">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="2351">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="2352">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="2353">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="2354">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="2355">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="2356">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="2357">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="2358">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="2359">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="2360">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="2361">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="2362">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="2363">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="2364">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="2365">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="2366">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="2367">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="2368">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="2369">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="2370">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="2371">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="2372">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="2373">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="2374">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="2375">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="2376">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="2377">
+                  <c:v>44419</c:v>
+                </c:pt>
+                <c:pt idx="2378">
+                  <c:v>44420</c:v>
+                </c:pt>
+                <c:pt idx="2379">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="2380">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="2381">
+                  <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="2382">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="2383">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="2384">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="2385">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="2386">
+                  <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="2387">
+                  <c:v>44433</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -14685,7 +14870,7 @@
                   <c:v>446.4243198485953</c:v>
                 </c:pt>
                 <c:pt idx="2293">
-                  <c:v>917.8538172965682</c:v>
+                  <c:v>445.17958465636917</c:v>
                 </c:pt>
                 <c:pt idx="2294">
                   <c:v>457.11882761709558</c:v>
@@ -14703,88 +14888,271 @@
                   <c:v>445.99454651765132</c:v>
                 </c:pt>
                 <c:pt idx="2299">
-                  <c:v>477.3126602706738</c:v>
+                  <c:v>445.99454651765132</c:v>
                 </c:pt>
                 <c:pt idx="2300">
-                  <c:v>468.58330077717977</c:v>
+                  <c:v>437.8379501129329</c:v>
                 </c:pt>
                 <c:pt idx="2301">
-                  <c:v>463.81922861198291</c:v>
+                  <c:v>433.38646499269851</c:v>
                 </c:pt>
                 <c:pt idx="2302">
-                  <c:v>464.73072565958091</c:v>
+                  <c:v>434.23815560606943</c:v>
                 </c:pt>
                 <c:pt idx="2303">
-                  <c:v>456.45295457901989</c:v>
+                  <c:v>426.50351735625202</c:v>
                 </c:pt>
                 <c:pt idx="2304">
-                  <c:v>458.07619838559242</c:v>
+                  <c:v>428.02025459299182</c:v>
                 </c:pt>
                 <c:pt idx="2305">
-                  <c:v>465.31298255685681</c:v>
+                  <c:v>434.78220863979811</c:v>
                 </c:pt>
                 <c:pt idx="2306">
-                  <c:v>458.5484672810145</c:v>
+                  <c:v>428.46153631329798</c:v>
                 </c:pt>
                 <c:pt idx="2307">
-                  <c:v>467.37074182048968</c:v>
+                  <c:v>436.70495129050852</c:v>
                 </c:pt>
                 <c:pt idx="2308">
-                  <c:v>461.89860454623812</c:v>
+                  <c:v>431.59185963120029</c:v>
                 </c:pt>
                 <c:pt idx="2309">
-                  <c:v>463.31186134563012</c:v>
+                  <c:v>432.91238782544599</c:v>
                 </c:pt>
                 <c:pt idx="2310">
-                  <c:v>468.66132898079178</c:v>
+                  <c:v>437.91085861962478</c:v>
                 </c:pt>
                 <c:pt idx="2311">
-                  <c:v>477.90605096496199</c:v>
+                  <c:v>446.54900282194632</c:v>
                 </c:pt>
                 <c:pt idx="2312">
-                  <c:v>470.29353095590318</c:v>
+                  <c:v>439.43596624887192</c:v>
                 </c:pt>
                 <c:pt idx="2313">
-                  <c:v>470.55007730799417</c:v>
+                  <c:v>439.6756797186481</c:v>
                 </c:pt>
                 <c:pt idx="2314">
-                  <c:v>455.63170780911628</c:v>
+                  <c:v>425.7361553916341</c:v>
                 </c:pt>
                 <c:pt idx="2315">
-                  <c:v>461.3111661383607</c:v>
+                  <c:v>431.04296506347657</c:v>
                 </c:pt>
                 <c:pt idx="2316">
-                  <c:v>462.13994091449729</c:v>
+                  <c:v>431.81736109612888</c:v>
                 </c:pt>
                 <c:pt idx="2317">
-                  <c:v>461.40102867910701</c:v>
+                  <c:v>431.12693141602688</c:v>
                 </c:pt>
                 <c:pt idx="2318">
-                  <c:v>464.55308048572738</c:v>
+                  <c:v>434.0721663387643</c:v>
                 </c:pt>
                 <c:pt idx="2319">
-                  <c:v>457.33021346530802</c:v>
+                  <c:v>427.3232162910063</c:v>
                 </c:pt>
                 <c:pt idx="2320">
-                  <c:v>467.28801829892461</c:v>
+                  <c:v>436.62765554170971</c:v>
                 </c:pt>
                 <c:pt idx="2321">
-                  <c:v>467.9373249338596</c:v>
+                  <c:v>437.23435895082213</c:v>
                 </c:pt>
                 <c:pt idx="2322">
-                  <c:v>475.50438243610739</c:v>
+                  <c:v>444.30491596742041</c:v>
                 </c:pt>
                 <c:pt idx="2323">
-                  <c:v>477.34696332504518</c:v>
+                  <c:v>446.02659883147408</c:v>
                 </c:pt>
                 <c:pt idx="2324">
-                  <c:v>483.6962356453285</c:v>
+                  <c:v>451.95927371086242</c:v>
                 </c:pt>
                 <c:pt idx="2325">
-                  <c:v>488.7772008645548</c:v>
+                  <c:v>456.70685944960172</c:v>
                 </c:pt>
                 <c:pt idx="2326">
-                  <c:v>503.38442183611949</c:v>
+                  <c:v>470.35565076681041</c:v>
+                </c:pt>
+                <c:pt idx="2327">
+                  <c:v>470.35565076681041</c:v>
+                </c:pt>
+                <c:pt idx="2328">
+                  <c:v>469.53973221375941</c:v>
+                </c:pt>
+                <c:pt idx="2329">
+                  <c:v>471.04840858003752</c:v>
+                </c:pt>
+                <c:pt idx="2330">
+                  <c:v>469.65817283148448</c:v>
+                </c:pt>
+                <c:pt idx="2331">
+                  <c:v>473.05086750882168</c:v>
+                </c:pt>
+                <c:pt idx="2332">
+                  <c:v>474.62042486653741</c:v>
+                </c:pt>
+                <c:pt idx="2333">
+                  <c:v>468.69400001950191</c:v>
+                </c:pt>
+                <c:pt idx="2334">
+                  <c:v>472.63598150567691</c:v>
+                </c:pt>
+                <c:pt idx="2335">
+                  <c:v>464.51718653779272</c:v>
+                </c:pt>
+                <c:pt idx="2336">
+                  <c:v>466.56880373943039</c:v>
+                </c:pt>
+                <c:pt idx="2337">
+                  <c:v>471.02399196757813</c:v>
+                </c:pt>
+                <c:pt idx="2338">
+                  <c:v>472.45908247672821</c:v>
+                </c:pt>
+                <c:pt idx="2339">
+                  <c:v>475.3442091213854</c:v>
+                </c:pt>
+                <c:pt idx="2340">
+                  <c:v>476.9404801909576</c:v>
+                </c:pt>
+                <c:pt idx="2341">
+                  <c:v>478.83219695455148</c:v>
+                </c:pt>
+                <c:pt idx="2342">
+                  <c:v>484.44523433603558</c:v>
+                </c:pt>
+                <c:pt idx="2343">
+                  <c:v>482.77048947340307</c:v>
+                </c:pt>
+                <c:pt idx="2344">
+                  <c:v>485.57706534278083</c:v>
+                </c:pt>
+                <c:pt idx="2345">
+                  <c:v>476.96566962492591</c:v>
+                </c:pt>
+                <c:pt idx="2346">
+                  <c:v>481.44732753098413</c:v>
+                </c:pt>
+                <c:pt idx="2347">
+                  <c:v>477.75262861965427</c:v>
+                </c:pt>
+                <c:pt idx="2348">
+                  <c:v>471.29083542265028</c:v>
+                </c:pt>
+                <c:pt idx="2349">
+                  <c:v>464.34911092994321</c:v>
+                </c:pt>
+                <c:pt idx="2350">
+                  <c:v>474.78581774412578</c:v>
+                </c:pt>
+                <c:pt idx="2351">
+                  <c:v>471.94399187003461</c:v>
+                </c:pt>
+                <c:pt idx="2352">
+                  <c:v>466.12308087668828</c:v>
+                </c:pt>
+                <c:pt idx="2353">
+                  <c:v>469.98346097407978</c:v>
+                </c:pt>
+                <c:pt idx="2354">
+                  <c:v>461.6764910901482</c:v>
+                </c:pt>
+                <c:pt idx="2355">
+                  <c:v>468.79857772767599</c:v>
+                </c:pt>
+                <c:pt idx="2356">
+                  <c:v>470.80756693342499</c:v>
+                </c:pt>
+                <c:pt idx="2357">
+                  <c:v>464.45407902358011</c:v>
+                </c:pt>
+                <c:pt idx="2358">
+                  <c:v>463.41391199740252</c:v>
+                </c:pt>
+                <c:pt idx="2359">
+                  <c:v>464.4793097649864</c:v>
+                </c:pt>
+                <c:pt idx="2360">
+                  <c:v>462.46483788987598</c:v>
+                </c:pt>
+                <c:pt idx="2361">
+                  <c:v>456.83300988520648</c:v>
+                </c:pt>
+                <c:pt idx="2362">
+                  <c:v>455.86697712381778</c:v>
+                </c:pt>
+                <c:pt idx="2363">
+                  <c:v>457.48303689370988</c:v>
+                </c:pt>
+                <c:pt idx="2364">
+                  <c:v>457.39651048906609</c:v>
+                </c:pt>
+                <c:pt idx="2365">
+                  <c:v>447.82982050862438</c:v>
+                </c:pt>
+                <c:pt idx="2366">
+                  <c:v>447.26062737131019</c:v>
+                </c:pt>
+                <c:pt idx="2367">
+                  <c:v>457.48851985650271</c:v>
+                </c:pt>
+                <c:pt idx="2368">
+                  <c:v>456.55936165970269</c:v>
+                </c:pt>
+                <c:pt idx="2369">
+                  <c:v>449.47953233689708</c:v>
+                </c:pt>
+                <c:pt idx="2370">
+                  <c:v>453.19748967708921</c:v>
+                </c:pt>
+                <c:pt idx="2371">
+                  <c:v>457.32428176307138</c:v>
+                </c:pt>
+                <c:pt idx="2372">
+                  <c:v>452.11234240197098</c:v>
+                </c:pt>
+                <c:pt idx="2373">
+                  <c:v>450.79420249763888</c:v>
+                </c:pt>
+                <c:pt idx="2374">
+                  <c:v>451.25986221819221</c:v>
+                </c:pt>
+                <c:pt idx="2375">
+                  <c:v>448.94048372523622</c:v>
+                </c:pt>
+                <c:pt idx="2376">
+                  <c:v>447.1939718838338</c:v>
+                </c:pt>
+                <c:pt idx="2377">
+                  <c:v>447.74725239843951</c:v>
+                </c:pt>
+                <c:pt idx="2378">
+                  <c:v>456.38321921506781</c:v>
+                </c:pt>
+                <c:pt idx="2379">
+                  <c:v>461.61031350175779</c:v>
+                </c:pt>
+                <c:pt idx="2380">
+                  <c:v>461.61031350175779</c:v>
+                </c:pt>
+                <c:pt idx="2381">
+                  <c:v>454.11670817645751</c:v>
+                </c:pt>
+                <c:pt idx="2382">
+                  <c:v>452.82260151093368</c:v>
+                </c:pt>
+                <c:pt idx="2383">
+                  <c:v>462.65957117644751</c:v>
+                </c:pt>
+                <c:pt idx="2384">
+                  <c:v>465.80474801583648</c:v>
+                </c:pt>
+                <c:pt idx="2385">
+                  <c:v>459.26915366876608</c:v>
+                </c:pt>
+                <c:pt idx="2386">
+                  <c:v>458.49236713579512</c:v>
+                </c:pt>
+                <c:pt idx="2387">
+                  <c:v>459.3493625467143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21809,6 +22177,189 @@
                 <c:pt idx="2326">
                   <c:v>44344</c:v>
                 </c:pt>
+                <c:pt idx="2327">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2328">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="2329">
+                  <c:v>44349</c:v>
+                </c:pt>
+                <c:pt idx="2330">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="2331">
+                  <c:v>44354</c:v>
+                </c:pt>
+                <c:pt idx="2332">
+                  <c:v>44355</c:v>
+                </c:pt>
+                <c:pt idx="2333">
+                  <c:v>44356</c:v>
+                </c:pt>
+                <c:pt idx="2334">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="2335">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="2336">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="2337">
+                  <c:v>44362</c:v>
+                </c:pt>
+                <c:pt idx="2338">
+                  <c:v>44363</c:v>
+                </c:pt>
+                <c:pt idx="2339">
+                  <c:v>44364</c:v>
+                </c:pt>
+                <c:pt idx="2340">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="2341">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="2342">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="2343">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="2344">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="2345">
+                  <c:v>44372</c:v>
+                </c:pt>
+                <c:pt idx="2346">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="2347">
+                  <c:v>44376</c:v>
+                </c:pt>
+                <c:pt idx="2348">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="2349">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="2350">
+                  <c:v>44379</c:v>
+                </c:pt>
+                <c:pt idx="2351">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="2352">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="2353">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="2354">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="2355">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="2356">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="2357">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="2358">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="2359">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="2360">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="2361">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="2362">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="2363">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="2364">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="2365">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="2366">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="2367">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="2368">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="2369">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="2370">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="2371">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="2372">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="2373">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="2374">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="2375">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="2376">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="2377">
+                  <c:v>44419</c:v>
+                </c:pt>
+                <c:pt idx="2378">
+                  <c:v>44420</c:v>
+                </c:pt>
+                <c:pt idx="2379">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="2380">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="2381">
+                  <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="2382">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="2383">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="2384">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="2385">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="2386">
+                  <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="2387">
+                  <c:v>44433</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -28798,6 +29349,189 @@
                 </c:pt>
                 <c:pt idx="2326">
                   <c:v>217.1246260526726</c:v>
+                </c:pt>
+                <c:pt idx="2327">
+                  <c:v>218.25727576129631</c:v>
+                </c:pt>
+                <c:pt idx="2328">
+                  <c:v>221.80393920005531</c:v>
+                </c:pt>
+                <c:pt idx="2329">
+                  <c:v>224.1107402860157</c:v>
+                </c:pt>
+                <c:pt idx="2330">
+                  <c:v>225.01858928911099</c:v>
+                </c:pt>
+                <c:pt idx="2331">
+                  <c:v>226.1425928167528</c:v>
+                </c:pt>
+                <c:pt idx="2332">
+                  <c:v>224.43237821854089</c:v>
+                </c:pt>
+                <c:pt idx="2333">
+                  <c:v>224.63988656210549</c:v>
+                </c:pt>
+                <c:pt idx="2334">
+                  <c:v>224.9321274792924</c:v>
+                </c:pt>
+                <c:pt idx="2335">
+                  <c:v>223.83406249459611</c:v>
+                </c:pt>
+                <c:pt idx="2336">
+                  <c:v>225.16038665721351</c:v>
+                </c:pt>
+                <c:pt idx="2337">
+                  <c:v>224.958066022238</c:v>
+                </c:pt>
+                <c:pt idx="2338">
+                  <c:v>223.51934150685639</c:v>
+                </c:pt>
+                <c:pt idx="2339">
+                  <c:v>221.44079959881719</c:v>
+                </c:pt>
+                <c:pt idx="2340">
+                  <c:v>222.04257379515471</c:v>
+                </c:pt>
+                <c:pt idx="2341">
+                  <c:v>223.52971692403469</c:v>
+                </c:pt>
+                <c:pt idx="2342">
+                  <c:v>222.66855729824141</c:v>
+                </c:pt>
+                <c:pt idx="2343">
+                  <c:v>222.0823462276712</c:v>
+                </c:pt>
+                <c:pt idx="2344">
+                  <c:v>223.9602967369313</c:v>
+                </c:pt>
+                <c:pt idx="2345">
+                  <c:v>220.05568140552319</c:v>
+                </c:pt>
+                <c:pt idx="2346">
+                  <c:v>220.35483926749549</c:v>
+                </c:pt>
+                <c:pt idx="2347">
+                  <c:v>220.17845717546561</c:v>
+                </c:pt>
+                <c:pt idx="2348">
+                  <c:v>219.27060817237029</c:v>
+                </c:pt>
+                <c:pt idx="2349">
+                  <c:v>217.3061958532916</c:v>
+                </c:pt>
+                <c:pt idx="2350">
+                  <c:v>220.68858185339539</c:v>
+                </c:pt>
+                <c:pt idx="2351">
+                  <c:v>219.47465804354221</c:v>
+                </c:pt>
+                <c:pt idx="2352">
+                  <c:v>216.31880198516311</c:v>
+                </c:pt>
+                <c:pt idx="2353">
+                  <c:v>219.645852426983</c:v>
+                </c:pt>
+                <c:pt idx="2354">
+                  <c:v>216.894637638555</c:v>
+                </c:pt>
+                <c:pt idx="2355">
+                  <c:v>220.64016323989691</c:v>
+                </c:pt>
+                <c:pt idx="2356">
+                  <c:v>221.63274481661449</c:v>
+                </c:pt>
+                <c:pt idx="2357">
+                  <c:v>222.0460322675475</c:v>
+                </c:pt>
+                <c:pt idx="2358">
+                  <c:v>220.4222794791541</c:v>
+                </c:pt>
+                <c:pt idx="2359">
+                  <c:v>217.814591295025</c:v>
+                </c:pt>
+                <c:pt idx="2360">
+                  <c:v>215.10833664770271</c:v>
+                </c:pt>
+                <c:pt idx="2361">
+                  <c:v>216.84794826125301</c:v>
+                </c:pt>
+                <c:pt idx="2362">
+                  <c:v>217.76098497293739</c:v>
+                </c:pt>
+                <c:pt idx="2363">
+                  <c:v>218.1379584637466</c:v>
+                </c:pt>
+                <c:pt idx="2364">
+                  <c:v>216.24617406491549</c:v>
+                </c:pt>
+                <c:pt idx="2365">
+                  <c:v>217.8906776876654</c:v>
+                </c:pt>
+                <c:pt idx="2366">
+                  <c:v>215.48358090231551</c:v>
+                </c:pt>
+                <c:pt idx="2367">
+                  <c:v>218.3783222950423</c:v>
+                </c:pt>
+                <c:pt idx="2368">
+                  <c:v>217.32175897905901</c:v>
+                </c:pt>
+                <c:pt idx="2369">
+                  <c:v>210.62269795431359</c:v>
+                </c:pt>
+                <c:pt idx="2370">
+                  <c:v>211.85910183471961</c:v>
+                </c:pt>
+                <c:pt idx="2371">
+                  <c:v>213.6938214390704</c:v>
+                </c:pt>
+                <c:pt idx="2372">
+                  <c:v>210.62269795431359</c:v>
+                </c:pt>
+                <c:pt idx="2373">
+                  <c:v>210.33218627332309</c:v>
+                </c:pt>
+                <c:pt idx="2374">
+                  <c:v>212.36749727645301</c:v>
+                </c:pt>
+                <c:pt idx="2375">
+                  <c:v>212.72890764149469</c:v>
+                </c:pt>
+                <c:pt idx="2376">
+                  <c:v>211.31612166905879</c:v>
+                </c:pt>
+                <c:pt idx="2377">
+                  <c:v>211.06365318438839</c:v>
+                </c:pt>
+                <c:pt idx="2378">
+                  <c:v>208.72053813830431</c:v>
+                </c:pt>
+                <c:pt idx="2379">
+                  <c:v>209.57305158311581</c:v>
+                </c:pt>
+                <c:pt idx="2380">
+                  <c:v>206.0903698836224</c:v>
+                </c:pt>
+                <c:pt idx="2381">
+                  <c:v>203.88386449705169</c:v>
+                </c:pt>
+                <c:pt idx="2382">
+                  <c:v>201.70329765342649</c:v>
+                </c:pt>
+                <c:pt idx="2383">
+                  <c:v>202.60595894793269</c:v>
+                </c:pt>
+                <c:pt idx="2384">
+                  <c:v>204.1415206903111</c:v>
+                </c:pt>
+                <c:pt idx="2385">
+                  <c:v>203.13683446021889</c:v>
+                </c:pt>
+                <c:pt idx="2386">
+                  <c:v>207.873212402082</c:v>
+                </c:pt>
+                <c:pt idx="2387">
+                  <c:v>208.92285877327981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29457,6 +30191,15 @@
                 <c:pt idx="112">
                   <c:v>44317</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -29800,10 +30543,19 @@
                   <c:v>430.39480421333673</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>458.5484672810145</c:v>
+                  <c:v>428.46153631329798</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>503.38442183611949</c:v>
+                  <c:v>470.35565076681041</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>471.29083542265028</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>449.47953233689708</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>459.3493625467143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30186,6 +30938,15 @@
                 <c:pt idx="112">
                   <c:v>44317</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -30532,7 +31293,16 @@
                   <c:v>205.59580833146001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>217.1246260526726</c:v>
+                  <c:v>218.25727576129631</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>219.27060817237029</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>210.62269795431359</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>208.92285877327981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30905,10 +31675,10 @@
                   <c:v>COCE5.SA</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>BNBR3.SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>PGMN3.SA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BNBR3.SA</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>ARCE_Ibovespa</c:v>
@@ -30923,34 +31693,34 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.52</c:v>
+                  <c:v>0.53539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90500000000000003</c:v>
+                  <c:v>0.89790000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87629999999999997</c:v>
+                  <c:v>0.85199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80740000000000001</c:v>
+                  <c:v>0.81659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71240000000000003</c:v>
+                  <c:v>0.69979999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68340000000000001</c:v>
+                  <c:v>0.69810000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61639999999999995</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4466</c:v>
+                  <c:v>0.37769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37909999999999999</c:v>
+                  <c:v>0.3629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1700000000000001E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31498,31 +32268,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.47405229543980631</c:v>
+                  <c:v>0.44235511861158472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2117356479351743</c:v>
+                  <c:v>0.21491599699129091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4718963207071739E-2</c:v>
+                  <c:v>7.4382952168061831E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7501540109578808E-2</c:v>
+                  <c:v>6.5509774043248481E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8188064521068927E-2</c:v>
+                  <c:v>4.7942617311826127E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5653205067939392E-2</c:v>
+                  <c:v>4.7837972647304758E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5237049237640948E-2</c:v>
+                  <c:v>3.9479330670832528E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4733662819960362E-2</c:v>
+                  <c:v>3.617627765947691E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8179571661759151E-2</c:v>
+                  <c:v>3.1399959896373827E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31936,22 +32706,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.5904240957962571</c:v>
+                  <c:v>0.59291354157500131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7685540591906942E-2</c:v>
+                  <c:v>2.7503965177357498E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.129473476527458</c:v>
+                  <c:v>0.12862432568297341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.036375518699134E-2</c:v>
+                  <c:v>4.0099029795174622E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10519536323628161</c:v>
+                  <c:v>0.1045054402194311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6857768661104983E-2</c:v>
+                  <c:v>7.6353697550062105E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01</c:v>
@@ -35033,22 +35803,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B2" t="str">
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>9.7778005498441622E-2</v>
+            <v>2.195835293879278E-2</v>
           </cell>
           <cell r="D2">
-            <v>5.1777674755307812E-2</v>
+            <v>-4.0229726066088663E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.60913266612438632</v>
+            <v>0.14996342976195051</v>
           </cell>
           <cell r="F2">
-            <v>0.82194150815975586</v>
+            <v>0.70675359324105291</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -35078,27 +35848,27 @@
             <v>8.86551435792724E-2</v>
           </cell>
           <cell r="P2">
-            <v>5.1777674755308027E-2</v>
+            <v>-4.0229726066088552E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B3" t="str">
             <v>Ibovespa</v>
           </cell>
           <cell r="C3">
-            <v>5.6075159385671432E-2</v>
+            <v>-8.0705412927645215E-3</v>
           </cell>
           <cell r="D3">
-            <v>5.2428209813421223E-2</v>
+            <v>1.2673293882956569E-2</v>
           </cell>
           <cell r="E3">
-            <v>0.29404307945996111</v>
+            <v>0.19462105107035171</v>
           </cell>
           <cell r="F3">
-            <v>1.0022165170384789</v>
+            <v>0.70562574998235394</v>
           </cell>
           <cell r="G3">
             <v>5.4004046412699402E-2</v>
@@ -35128,27 +35898,27 @@
             <v>2.8819288744782678E-2</v>
           </cell>
           <cell r="P3">
-            <v>5.2428209813421223E-2</v>
+            <v>1.2673293882956569E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B4" t="str">
             <v>BNBR3.SA</v>
           </cell>
           <cell r="C4">
-            <v>-1.3299013299013399E-2</v>
+            <v>1.434779710144918E-2</v>
           </cell>
           <cell r="D4">
-            <v>-9.210526315789469E-2</v>
+            <v>-7.9078973684210574E-2</v>
           </cell>
           <cell r="E4">
-            <v>0.45263157894736827</v>
+            <v>-0.1026923333333334</v>
           </cell>
           <cell r="F4">
-            <v>1.654867256637168</v>
+            <v>1.372542305084745</v>
           </cell>
           <cell r="G4">
             <v>-0.45714285714285718</v>
@@ -35178,27 +35948,27 @@
             <v>-0.19991576376283329</v>
           </cell>
           <cell r="P4">
-            <v>-9.210526315789469E-2</v>
+            <v>-7.9078973684210574E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B5" t="str">
             <v>COCE3.SA</v>
           </cell>
           <cell r="C5">
-            <v>5.2631578947368363E-2</v>
+            <v>-0.1248340056507037</v>
           </cell>
           <cell r="D5">
-            <v>-3.5812645614673462E-2</v>
+            <v>-9.2286448823318157E-2</v>
           </cell>
           <cell r="E5">
-            <v>0.59780868299911671</v>
+            <v>0.3448979999999997</v>
           </cell>
           <cell r="F5">
-            <v>0.66746069556931786</v>
+            <v>0.40212770212765903</v>
           </cell>
           <cell r="G5">
             <v>0.4144881889763779</v>
@@ -35228,27 +35998,27 @@
             <v>0.39615380769230768</v>
           </cell>
           <cell r="P5">
-            <v>-3.5812645614673462E-2</v>
+            <v>-9.2286448823318157E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B6" t="str">
             <v>COCE5.SA</v>
           </cell>
           <cell r="C6">
-            <v>-2.473870993941785E-2</v>
+            <v>3.5064118134313649E-3</v>
           </cell>
           <cell r="D6">
-            <v>-6.700000000000006E-2</v>
+            <v>1.6666333333332779E-3</v>
           </cell>
           <cell r="E6">
-            <v>2.3774689100219289E-2</v>
+            <v>1.6638375769639779E-4</v>
           </cell>
           <cell r="F6">
-            <v>0.19106382978723399</v>
+            <v>0.15599145389530869</v>
           </cell>
           <cell r="G6">
             <v>0.30624089096543128</v>
@@ -35278,27 +36048,27 @@
             <v>-3.8615606473321518E-2</v>
           </cell>
           <cell r="P6">
-            <v>-6.700000000000006E-2</v>
+            <v>1.6666333333332779E-3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B7" t="str">
             <v>GRND3.SA</v>
           </cell>
           <cell r="C7">
-            <v>0.21542227662178701</v>
+            <v>-8.1595648232094531E-3</v>
           </cell>
           <cell r="D7">
-            <v>0.1849642004773269</v>
+            <v>0.30548926014319799</v>
           </cell>
           <cell r="E7">
-            <v>0.4065155807365437</v>
+            <v>0.35900621118012382</v>
           </cell>
           <cell r="F7">
-            <v>0.13269970590872199</v>
+            <v>0.20484581497797261</v>
           </cell>
           <cell r="G7">
             <v>1.14434332176116</v>
@@ -35328,27 +36098,27 @@
             <v>-0.31758957654723119</v>
           </cell>
           <cell r="P7">
-            <v>0.1849642004773269</v>
+            <v>0.30548926014319799</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B8" t="str">
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C8">
-            <v>6.3110365773464849E-2</v>
+            <v>6.129653401797186E-2</v>
           </cell>
           <cell r="D8">
-            <v>-0.16911338317341801</v>
+            <v>-2.906638200039979E-2</v>
           </cell>
           <cell r="E8">
-            <v>-0.26854485056978172</v>
+            <v>-8.6464113633588191E-2</v>
           </cell>
           <cell r="F8">
-            <v>-0.47689463870220478</v>
+            <v>-0.32647655097664158</v>
           </cell>
           <cell r="G8">
             <v>0.63710698113207531</v>
@@ -35378,27 +36148,27 @@
             <v>-0.10720840853429051</v>
           </cell>
           <cell r="P8">
-            <v>-0.16911338317341801</v>
+            <v>-2.906638200039979E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B9" t="str">
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>0.1076388888888888</v>
+            <v>7.3787772312016831E-2</v>
           </cell>
           <cell r="D9">
-            <v>4.5216251638269922E-2</v>
+            <v>1.3106159895150959E-3</v>
           </cell>
           <cell r="E9">
-            <v>1.1682979880369759</v>
+            <v>0.47747050860568541</v>
           </cell>
           <cell r="F9">
-            <v>1.889492753623188</v>
+            <v>1.7681159420289849</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -35410,27 +36180,27 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>4.5216251638269922E-2</v>
+            <v>1.3106159895150959E-3</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B10" t="str">
             <v>ARCE</v>
           </cell>
           <cell r="C10">
-            <v>9.572011871924313E-2</v>
+            <v>-0.1685216547549844</v>
           </cell>
           <cell r="D10">
-            <v>-0.1773892151037143</v>
+            <v>-0.32902783040965311</v>
           </cell>
           <cell r="E10">
-            <v>4.0026522027167832E-3</v>
+            <v>-0.38055894880505198</v>
           </cell>
           <cell r="F10">
-            <v>0.88475976155885272</v>
+            <v>0.53732648488090384</v>
           </cell>
           <cell r="M10">
             <v>3.6850058535654817E-2</v>
@@ -35442,75 +36212,92 @@
             <v>2.5537255795764709E-2</v>
           </cell>
           <cell r="P10">
-            <v>-0.1773892151037143</v>
+            <v>-0.32902783040965311</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B11" t="str">
             <v>PGMN3.SA</v>
           </cell>
           <cell r="C11">
-            <v>0.22916666666666671</v>
+            <v>6.8619246861924665E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.30820399113082048</v>
+            <v>0.41574279379157431</v>
           </cell>
           <cell r="E11">
-            <v>0.25799573560767608</v>
+            <v>0.36140724946695091</v>
           </cell>
           <cell r="F11">
-            <v>0.25799573560767608</v>
+            <v>0.36140724946695091</v>
           </cell>
           <cell r="O11">
             <v>-3.8379530916844429E-2</v>
           </cell>
           <cell r="P11">
-            <v>0.30820399113082048</v>
+            <v>0.41574279379157431</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B12" t="str">
             <v>AERI3.SA</v>
           </cell>
           <cell r="C12">
-            <v>1.111111111111107E-2</v>
+            <v>-3.1999999999999917E-2</v>
           </cell>
           <cell r="D12">
-            <v>-9.000000000000008E-2</v>
+            <v>-0.15299999999999991</v>
           </cell>
           <cell r="E12">
-            <v>0.36431784107946008</v>
+            <v>0.26986506746626682</v>
           </cell>
           <cell r="F12">
-            <v>0.36431784107946008</v>
+            <v>0.26986506746626682</v>
           </cell>
           <cell r="O12">
             <v>0.49925037481259382</v>
           </cell>
           <cell r="P12">
-            <v>-9.000000000000008E-2</v>
+            <v>-0.15299999999999991</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>BRIT3.SA</v>
+          </cell>
+          <cell r="C13">
+            <v>-4.7759000734753809E-2</v>
+          </cell>
+          <cell r="D13">
+            <v>-4.7759000734753809E-2</v>
+          </cell>
+          <cell r="E13">
+            <v>8.5603112840468842E-3</v>
+          </cell>
+          <cell r="F13">
+            <v>8.5603112840468842E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>1.4800000000000001E-2</v>
+            <v>1.34E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.8000000000000005E-2</v>
+            <v>6.7299999999999999E-2</v>
           </cell>
           <cell r="D2">
-            <v>4.5945945945945947</v>
+            <v>5.022388059701492</v>
           </cell>
           <cell r="E2">
-            <v>4.5999999999999999E-3</v>
+            <v>4.4999999999999997E-3</v>
           </cell>
           <cell r="F2">
             <v>48</v>
@@ -35524,16 +36311,16 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.7500000000000002E-2</v>
+            <v>1.3599999999999999E-2</v>
           </cell>
           <cell r="C3">
-            <v>7.2599999999999998E-2</v>
+            <v>7.2400000000000006E-2</v>
           </cell>
           <cell r="D3">
-            <v>4.1485714285714277</v>
+            <v>5.3235294117647074</v>
           </cell>
           <cell r="E3">
-            <v>5.3E-3</v>
+            <v>5.1999999999999998E-3</v>
           </cell>
           <cell r="F3">
             <v>48</v>
@@ -35550,16 +36337,16 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B4">
-            <v>2.8299999999999999E-2</v>
+            <v>2.58E-2</v>
           </cell>
           <cell r="C4">
-            <v>0.1381</v>
+            <v>0.13800000000000001</v>
           </cell>
           <cell r="D4">
-            <v>4.8798586572438163</v>
+            <v>5.3488372093023262</v>
           </cell>
           <cell r="E4">
-            <v>1.9099999999999999E-2</v>
+            <v>1.9E-2</v>
           </cell>
           <cell r="F4">
             <v>48</v>
@@ -35576,16 +36363,16 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B5">
-            <v>1.9E-2</v>
+            <v>1.66E-2</v>
           </cell>
           <cell r="C5">
-            <v>0.1356</v>
+            <v>0.14580000000000001</v>
           </cell>
           <cell r="D5">
-            <v>7.1368421052631579</v>
+            <v>8.7831325301204828</v>
           </cell>
           <cell r="E5">
-            <v>1.84E-2</v>
+            <v>2.1299999999999999E-2</v>
           </cell>
           <cell r="F5">
             <v>48</v>
@@ -35602,16 +36389,16 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B6">
-            <v>6.6E-3</v>
+            <v>5.7000000000000002E-3</v>
           </cell>
           <cell r="C6">
-            <v>7.0400000000000004E-2</v>
+            <v>7.0199999999999999E-2</v>
           </cell>
           <cell r="D6">
-            <v>10.66666666666667</v>
+            <v>12.315789473684211</v>
           </cell>
           <cell r="E6">
-            <v>5.0000000000000001E-3</v>
+            <v>4.8999999999999998E-3</v>
           </cell>
           <cell r="F6">
             <v>48</v>
@@ -35628,22 +36415,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B7">
-            <v>6.6E-3</v>
+            <v>7.4999999999999997E-3</v>
           </cell>
           <cell r="C7">
-            <v>8.3599999999999994E-2</v>
+            <v>8.6099999999999996E-2</v>
           </cell>
           <cell r="D7">
-            <v>12.66666666666667</v>
+            <v>11.48</v>
           </cell>
           <cell r="E7">
-            <v>7.0000000000000001E-3</v>
+            <v>7.4000000000000003E-3</v>
           </cell>
           <cell r="F7">
             <v>48</v>
           </cell>
           <cell r="G7">
-            <v>0.21540000000000001</v>
+            <v>0.2424</v>
           </cell>
           <cell r="H7">
             <v>-0.22370000000000001</v>
@@ -35654,16 +36441,16 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B8">
-            <v>-8.2000000000000007E-3</v>
+            <v>-3.5999999999999999E-3</v>
           </cell>
           <cell r="C8">
-            <v>9.1600000000000001E-2</v>
+            <v>9.4299999999999995E-2</v>
           </cell>
           <cell r="D8">
-            <v>-11.170731707317071</v>
+            <v>-26.194444444444439</v>
           </cell>
           <cell r="E8">
-            <v>8.3999999999999995E-3</v>
+            <v>8.8999999999999999E-3</v>
           </cell>
           <cell r="F8">
             <v>48</v>
@@ -35680,19 +36467,19 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>3.39E-2</v>
+            <v>3.04E-2</v>
           </cell>
           <cell r="C9">
-            <v>0.1002</v>
+            <v>9.8699999999999996E-2</v>
           </cell>
           <cell r="D9">
-            <v>2.9557522123893811</v>
+            <v>3.2467105263157889</v>
           </cell>
           <cell r="E9">
-            <v>0.01</v>
+            <v>9.7000000000000003E-3</v>
           </cell>
           <cell r="F9">
-            <v>37</v>
+            <v>40</v>
           </cell>
           <cell r="G9">
             <v>0.23710000000000001</v>
@@ -35706,19 +36493,19 @@
             <v>ARCE</v>
           </cell>
           <cell r="B10">
-            <v>3.0099999999999998E-2</v>
+            <v>2.2100000000000002E-2</v>
           </cell>
           <cell r="C10">
-            <v>0.14580000000000001</v>
+            <v>0.14349999999999999</v>
           </cell>
           <cell r="D10">
-            <v>4.8438538205980084</v>
+            <v>6.4932126696832571</v>
           </cell>
           <cell r="E10">
-            <v>2.1299999999999999E-2</v>
+            <v>2.06E-2</v>
           </cell>
           <cell r="F10">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="G10">
             <v>0.39539999999999997</v>
@@ -35732,22 +36519,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>3.0700000000000002E-2</v>
+            <v>3.0099999999999998E-2</v>
           </cell>
           <cell r="C11">
-            <v>0.1072</v>
+            <v>9.7000000000000003E-2</v>
           </cell>
           <cell r="D11">
-            <v>3.4918566775244302</v>
+            <v>3.2225913621262459</v>
           </cell>
           <cell r="E11">
-            <v>1.15E-2</v>
+            <v>9.4000000000000004E-3</v>
           </cell>
           <cell r="F11">
-            <v>9</v>
+            <v>12</v>
           </cell>
           <cell r="G11">
-            <v>0.22919999999999999</v>
+            <v>0.2354</v>
           </cell>
           <cell r="H11">
             <v>-0.1087</v>
@@ -35758,19 +36545,19 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="B12">
-            <v>6.3200000000000006E-2</v>
+            <v>3.8100000000000002E-2</v>
           </cell>
           <cell r="C12">
-            <v>0.2225</v>
+            <v>0.19159999999999999</v>
           </cell>
           <cell r="D12">
-            <v>3.520569620253164</v>
+            <v>5.0288713910761151</v>
           </cell>
           <cell r="E12">
-            <v>4.9500000000000002E-2</v>
+            <v>3.6700000000000003E-2</v>
           </cell>
           <cell r="F12">
-            <v>7</v>
+            <v>10</v>
           </cell>
           <cell r="G12">
             <v>0.50380000000000003</v>
@@ -35783,22 +36570,22 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>7.0800000000000002E-2</v>
+            <v>7.5600000000000001E-2</v>
           </cell>
           <cell r="C2">
-            <v>5.7000000000000002E-3</v>
+            <v>6.1000000000000004E-3</v>
           </cell>
           <cell r="D2">
-            <v>0.52</v>
+            <v>0.53539999999999999</v>
           </cell>
           <cell r="E2">
-            <v>0.55510000000000004</v>
+            <v>0.5756</v>
           </cell>
           <cell r="F2">
             <v>0</v>
           </cell>
           <cell r="G2">
-            <v>0.30819999999999997</v>
+            <v>0.33139999999999997</v>
           </cell>
         </row>
         <row r="3">
@@ -35806,22 +36593,22 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B3">
-            <v>0.29260000000000003</v>
+            <v>0.27839999999999998</v>
           </cell>
           <cell r="C3">
-            <v>2.1600000000000001E-2</v>
+            <v>2.07E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.37909999999999999</v>
+            <v>0.37769999999999998</v>
           </cell>
           <cell r="E3">
-            <v>0.19919999999999999</v>
+            <v>0.19819999999999999</v>
           </cell>
           <cell r="F3">
-            <v>0.17460000000000001</v>
+            <v>0.17680000000000001</v>
           </cell>
           <cell r="G3">
-            <v>3.9699999999999999E-2</v>
+            <v>3.9300000000000002E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -35829,22 +36616,22 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B4">
-            <v>3.7999999999999999E-2</v>
+            <v>5.3499999999999999E-2</v>
           </cell>
           <cell r="C4">
-            <v>3.0999999999999999E-3</v>
+            <v>4.4000000000000003E-3</v>
           </cell>
           <cell r="D4">
-            <v>0.90500000000000003</v>
+            <v>0.89790000000000003</v>
           </cell>
           <cell r="E4">
-            <v>0.48449999999999999</v>
+            <v>0.44579999999999997</v>
           </cell>
           <cell r="F4">
-            <v>5.0000000000000001E-4</v>
+            <v>1.5E-3</v>
           </cell>
           <cell r="G4">
-            <v>0.23469999999999999</v>
+            <v>0.19869999999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -35852,22 +36639,22 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B5">
-            <v>-4.9099999999999998E-2</v>
+            <v>-0.03</v>
           </cell>
           <cell r="C5">
-            <v>-4.1999999999999997E-3</v>
+            <v>-2.5000000000000001E-3</v>
           </cell>
           <cell r="D5">
-            <v>0.61639999999999995</v>
+            <v>0.60099999999999998</v>
           </cell>
           <cell r="E5">
-            <v>0.63500000000000001</v>
+            <v>0.62029999999999996</v>
           </cell>
           <cell r="F5">
             <v>0</v>
           </cell>
           <cell r="G5">
-            <v>0.4032</v>
+            <v>0.38479999999999998</v>
           </cell>
         </row>
         <row r="6">
@@ -35875,22 +36662,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B6">
-            <v>-6.7799999999999999E-2</v>
+            <v>-2.3800000000000002E-2</v>
           </cell>
           <cell r="C6">
-            <v>-5.7999999999999996E-3</v>
+            <v>-2E-3</v>
           </cell>
           <cell r="D6">
-            <v>0.71240000000000003</v>
+            <v>0.69979999999999998</v>
           </cell>
           <cell r="E6">
-            <v>0.61880000000000002</v>
+            <v>0.58879999999999999</v>
           </cell>
           <cell r="F6">
             <v>0</v>
           </cell>
           <cell r="G6">
-            <v>0.38290000000000002</v>
+            <v>0.34670000000000001</v>
           </cell>
         </row>
         <row r="7">
@@ -35898,22 +36685,22 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B7">
-            <v>-0.23699999999999999</v>
+            <v>-0.1633</v>
           </cell>
           <cell r="C7">
-            <v>-2.23E-2</v>
+            <v>-1.47E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.80740000000000001</v>
+            <v>0.81659999999999999</v>
           </cell>
           <cell r="E7">
-            <v>0.63980000000000004</v>
+            <v>0.62709999999999999</v>
           </cell>
           <cell r="F7">
             <v>0</v>
           </cell>
           <cell r="G7">
-            <v>0.4093</v>
+            <v>0.39329999999999998</v>
           </cell>
         </row>
         <row r="8">
@@ -35921,22 +36708,22 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.33850000000000002</v>
+            <v>0.30320000000000003</v>
           </cell>
           <cell r="C8">
-            <v>2.46E-2</v>
+            <v>2.23E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.68340000000000001</v>
+            <v>0.69810000000000005</v>
           </cell>
           <cell r="E8">
-            <v>0.54259999999999997</v>
+            <v>0.54469999999999996</v>
           </cell>
           <cell r="F8">
-            <v>5.0000000000000001E-4</v>
+            <v>2.9999999999999997E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.2944</v>
+            <v>0.29670000000000002</v>
           </cell>
         </row>
         <row r="9">
@@ -35944,22 +36731,22 @@
             <v>ARCE_Ibovespa</v>
           </cell>
           <cell r="B9">
-            <v>0.41439999999999999</v>
+            <v>0.28139999999999998</v>
           </cell>
           <cell r="C9">
-            <v>2.93E-2</v>
+            <v>2.0899999999999998E-2</v>
           </cell>
           <cell r="D9">
-            <v>4.1700000000000001E-2</v>
+            <v>8.2000000000000003E-2</v>
           </cell>
           <cell r="E9">
-            <v>2.3E-2</v>
+            <v>4.4299999999999999E-2</v>
           </cell>
           <cell r="F9">
-            <v>0.90069999999999995</v>
+            <v>0.80059999999999998</v>
           </cell>
           <cell r="G9">
-            <v>5.0000000000000001E-4</v>
+            <v>2E-3</v>
           </cell>
         </row>
         <row r="10">
@@ -35967,22 +36754,22 @@
             <v>ARCE_SP500</v>
           </cell>
           <cell r="B10">
-            <v>6.0299999999999999E-2</v>
+            <v>-2.3199999999999998E-2</v>
           </cell>
           <cell r="C10">
-            <v>4.8999999999999998E-3</v>
+            <v>-2E-3</v>
           </cell>
           <cell r="D10">
-            <v>0.87629999999999997</v>
+            <v>0.85199999999999998</v>
           </cell>
           <cell r="E10">
-            <v>0.34429999999999999</v>
+            <v>0.32369999999999999</v>
           </cell>
           <cell r="F10">
-            <v>4.9799999999999997E-2</v>
+            <v>5.4100000000000002E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.11849999999999999</v>
+            <v>0.1048</v>
           </cell>
         </row>
         <row r="11">
@@ -35990,22 +36777,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>9.0999999999999998E-2</v>
+            <v>0.2029</v>
           </cell>
           <cell r="C11">
-            <v>7.3000000000000001E-3</v>
+            <v>1.55E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.4466</v>
+            <v>0.3629</v>
           </cell>
           <cell r="E11">
-            <v>0.2697</v>
+            <v>0.2223</v>
           </cell>
           <cell r="F11">
-            <v>0.48280000000000001</v>
+            <v>0.48749999999999999</v>
           </cell>
           <cell r="G11">
-            <v>7.2700000000000001E-2</v>
+            <v>4.9399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -61246,7 +62033,7 @@
             <v>44298</v>
           </cell>
           <cell r="D2295">
-            <v>917.8538172965682</v>
+            <v>445.17958465636917</v>
           </cell>
           <cell r="E2295">
             <v>205.45401096335749</v>
@@ -61312,7 +62099,7 @@
             <v>44306</v>
           </cell>
           <cell r="D2301">
-            <v>477.3126602706738</v>
+            <v>445.99454651765132</v>
           </cell>
           <cell r="E2301">
             <v>207.6155562088226</v>
@@ -61323,7 +62110,7 @@
             <v>44308</v>
           </cell>
           <cell r="D2302">
-            <v>468.58330077717977</v>
+            <v>437.8379501129329</v>
           </cell>
           <cell r="E2302">
             <v>206.42065399712951</v>
@@ -61334,7 +62121,7 @@
             <v>44309</v>
           </cell>
           <cell r="D2303">
-            <v>463.81922861198291</v>
+            <v>433.38646499269851</v>
           </cell>
           <cell r="E2303">
             <v>208.42483874872471</v>
@@ -61345,7 +62132,7 @@
             <v>44312</v>
           </cell>
           <cell r="D2304">
-            <v>464.73072565958091</v>
+            <v>434.23815560606943</v>
           </cell>
           <cell r="E2304">
             <v>208.53723910148889</v>
@@ -61356,7 +62143,7 @@
             <v>44313</v>
           </cell>
           <cell r="D2305">
-            <v>456.45295457901989</v>
+            <v>426.50351735625202</v>
           </cell>
           <cell r="E2305">
             <v>206.45005101246781</v>
@@ -61367,7 +62154,7 @@
             <v>44314</v>
           </cell>
           <cell r="D2306">
-            <v>458.07619838559242</v>
+            <v>428.02025459299182</v>
           </cell>
           <cell r="E2306">
             <v>209.3292292794273</v>
@@ -61378,7 +62165,7 @@
             <v>44315</v>
           </cell>
           <cell r="D2307">
-            <v>465.31298255685681</v>
+            <v>434.78220863979811</v>
           </cell>
           <cell r="E2307">
             <v>207.62247315360801</v>
@@ -61389,7 +62176,7 @@
             <v>44316</v>
           </cell>
           <cell r="D2308">
-            <v>458.5484672810145</v>
+            <v>428.46153631329798</v>
           </cell>
           <cell r="E2308">
             <v>205.59580833146001</v>
@@ -61400,7 +62187,7 @@
             <v>44319</v>
           </cell>
           <cell r="D2309">
-            <v>467.37074182048968</v>
+            <v>436.70495129050852</v>
           </cell>
           <cell r="E2309">
             <v>206.14051773331721</v>
@@ -61411,7 +62198,7 @@
             <v>44320</v>
           </cell>
           <cell r="D2310">
-            <v>461.89860454623812</v>
+            <v>431.59185963120029</v>
           </cell>
           <cell r="E2310">
             <v>203.5518511473482</v>
@@ -61422,7 +62209,7 @@
             <v>44321</v>
           </cell>
           <cell r="D2311">
-            <v>463.31186134563012</v>
+            <v>432.91238782544599</v>
           </cell>
           <cell r="E2311">
             <v>206.75439658302929</v>
@@ -61433,7 +62220,7 @@
             <v>44322</v>
           </cell>
           <cell r="D2312">
-            <v>468.66132898079178</v>
+            <v>437.91085861962478</v>
           </cell>
           <cell r="E2312">
             <v>207.37173390513411</v>
@@ -61444,7 +62231,7 @@
             <v>44323</v>
           </cell>
           <cell r="D2313">
-            <v>477.90605096496199</v>
+            <v>446.54900282194632</v>
           </cell>
           <cell r="E2313">
             <v>211.03252693285381</v>
@@ -61455,7 +62242,7 @@
             <v>44326</v>
           </cell>
           <cell r="D2314">
-            <v>470.29353095590318</v>
+            <v>439.43596624887192</v>
           </cell>
           <cell r="E2314">
             <v>210.8094554635218</v>
@@ -61466,7 +62253,7 @@
             <v>44327</v>
           </cell>
           <cell r="D2315">
-            <v>470.55007730799417</v>
+            <v>439.6756797186481</v>
           </cell>
           <cell r="E2315">
             <v>212.6337996506943</v>
@@ -61477,7 +62264,7 @@
             <v>44328</v>
           </cell>
           <cell r="D2316">
-            <v>455.63170780911628</v>
+            <v>425.7361553916341</v>
           </cell>
           <cell r="E2316">
             <v>207.00686506769961</v>
@@ -61488,7 +62275,7 @@
             <v>44329</v>
           </cell>
           <cell r="D2317">
-            <v>461.3111661383607</v>
+            <v>431.04296506347657</v>
           </cell>
           <cell r="E2317">
             <v>208.72918431928619</v>
@@ -61499,7 +62286,7 @@
             <v>44330</v>
           </cell>
           <cell r="D2318">
-            <v>462.13994091449729</v>
+            <v>431.81736109612888</v>
           </cell>
           <cell r="E2318">
             <v>210.7610368500234</v>
@@ -61510,7 +62297,7 @@
             <v>44333</v>
           </cell>
           <cell r="D2319">
-            <v>461.40102867910701</v>
+            <v>431.12693141602688</v>
           </cell>
           <cell r="E2319">
             <v>212.58883950958861</v>
@@ -61521,7 +62308,7 @@
             <v>44334</v>
           </cell>
           <cell r="D2320">
-            <v>464.55308048572738</v>
+            <v>434.0721663387643</v>
           </cell>
           <cell r="E2320">
             <v>212.66146742983631</v>
@@ -61532,7 +62319,7 @@
             <v>44335</v>
           </cell>
           <cell r="D2321">
-            <v>457.33021346530802</v>
+            <v>427.3232162910063</v>
           </cell>
           <cell r="E2321">
             <v>212.06661017828429</v>
@@ -61543,7 +62330,7 @@
             <v>44336</v>
           </cell>
           <cell r="D2322">
-            <v>467.28801829892461</v>
+            <v>436.62765554170971</v>
           </cell>
           <cell r="E2322">
             <v>212.17901053104839</v>
@@ -61554,7 +62341,7 @@
             <v>44337</v>
           </cell>
           <cell r="D2323">
-            <v>467.9373249338596</v>
+            <v>437.23435895082213</v>
           </cell>
           <cell r="E2323">
             <v>211.99052378564389</v>
@@ -61565,7 +62352,7 @@
             <v>44340</v>
           </cell>
           <cell r="D2324">
-            <v>475.50438243610739</v>
+            <v>444.30491596742041</v>
           </cell>
           <cell r="E2324">
             <v>214.4806239084196</v>
@@ -61576,7 +62363,7 @@
             <v>44341</v>
           </cell>
           <cell r="D2325">
-            <v>477.34696332504518</v>
+            <v>446.02659883147408</v>
           </cell>
           <cell r="E2325">
             <v>212.67530131940731</v>
@@ -61587,7 +62374,7 @@
             <v>44342</v>
           </cell>
           <cell r="D2326">
-            <v>483.6962356453285</v>
+            <v>451.95927371086242</v>
           </cell>
           <cell r="E2326">
             <v>214.40626675197569</v>
@@ -61598,7 +62385,7 @@
             <v>44343</v>
           </cell>
           <cell r="D2327">
-            <v>488.7772008645548</v>
+            <v>456.70685944960172</v>
           </cell>
           <cell r="E2327">
             <v>215.05991803420429</v>
@@ -61609,10 +62396,681 @@
             <v>44344</v>
           </cell>
           <cell r="D2328">
-            <v>503.38442183611949</v>
+            <v>470.35565076681041</v>
           </cell>
           <cell r="E2328">
             <v>217.1246260526726</v>
+          </cell>
+        </row>
+        <row r="2329">
+          <cell r="A2329">
+            <v>44347</v>
+          </cell>
+          <cell r="D2329">
+            <v>470.35565076681041</v>
+          </cell>
+          <cell r="E2329">
+            <v>218.25727576129631</v>
+          </cell>
+        </row>
+        <row r="2330">
+          <cell r="A2330">
+            <v>44348</v>
+          </cell>
+          <cell r="D2330">
+            <v>469.53973221375941</v>
+          </cell>
+          <cell r="E2330">
+            <v>221.80393920005531</v>
+          </cell>
+        </row>
+        <row r="2331">
+          <cell r="A2331">
+            <v>44349</v>
+          </cell>
+          <cell r="D2331">
+            <v>471.04840858003752</v>
+          </cell>
+          <cell r="E2331">
+            <v>224.1107402860157</v>
+          </cell>
+        </row>
+        <row r="2332">
+          <cell r="A2332">
+            <v>44351</v>
+          </cell>
+          <cell r="D2332">
+            <v>469.65817283148448</v>
+          </cell>
+          <cell r="E2332">
+            <v>225.01858928911099</v>
+          </cell>
+        </row>
+        <row r="2333">
+          <cell r="A2333">
+            <v>44354</v>
+          </cell>
+          <cell r="D2333">
+            <v>473.05086750882168</v>
+          </cell>
+          <cell r="E2333">
+            <v>226.1425928167528</v>
+          </cell>
+        </row>
+        <row r="2334">
+          <cell r="A2334">
+            <v>44355</v>
+          </cell>
+          <cell r="D2334">
+            <v>474.62042486653741</v>
+          </cell>
+          <cell r="E2334">
+            <v>224.43237821854089</v>
+          </cell>
+        </row>
+        <row r="2335">
+          <cell r="A2335">
+            <v>44356</v>
+          </cell>
+          <cell r="D2335">
+            <v>468.69400001950191</v>
+          </cell>
+          <cell r="E2335">
+            <v>224.63988656210549</v>
+          </cell>
+        </row>
+        <row r="2336">
+          <cell r="A2336">
+            <v>44357</v>
+          </cell>
+          <cell r="D2336">
+            <v>472.63598150567691</v>
+          </cell>
+          <cell r="E2336">
+            <v>224.9321274792924</v>
+          </cell>
+        </row>
+        <row r="2337">
+          <cell r="A2337">
+            <v>44358</v>
+          </cell>
+          <cell r="D2337">
+            <v>464.51718653779272</v>
+          </cell>
+          <cell r="E2337">
+            <v>223.83406249459611</v>
+          </cell>
+        </row>
+        <row r="2338">
+          <cell r="A2338">
+            <v>44361</v>
+          </cell>
+          <cell r="D2338">
+            <v>466.56880373943039</v>
+          </cell>
+          <cell r="E2338">
+            <v>225.16038665721351</v>
+          </cell>
+        </row>
+        <row r="2339">
+          <cell r="A2339">
+            <v>44362</v>
+          </cell>
+          <cell r="D2339">
+            <v>471.02399196757813</v>
+          </cell>
+          <cell r="E2339">
+            <v>224.958066022238</v>
+          </cell>
+        </row>
+        <row r="2340">
+          <cell r="A2340">
+            <v>44363</v>
+          </cell>
+          <cell r="D2340">
+            <v>472.45908247672821</v>
+          </cell>
+          <cell r="E2340">
+            <v>223.51934150685639</v>
+          </cell>
+        </row>
+        <row r="2341">
+          <cell r="A2341">
+            <v>44364</v>
+          </cell>
+          <cell r="D2341">
+            <v>475.3442091213854</v>
+          </cell>
+          <cell r="E2341">
+            <v>221.44079959881719</v>
+          </cell>
+        </row>
+        <row r="2342">
+          <cell r="A2342">
+            <v>44365</v>
+          </cell>
+          <cell r="D2342">
+            <v>476.9404801909576</v>
+          </cell>
+          <cell r="E2342">
+            <v>222.04257379515471</v>
+          </cell>
+        </row>
+        <row r="2343">
+          <cell r="A2343">
+            <v>44368</v>
+          </cell>
+          <cell r="D2343">
+            <v>478.83219695455148</v>
+          </cell>
+          <cell r="E2343">
+            <v>223.52971692403469</v>
+          </cell>
+        </row>
+        <row r="2344">
+          <cell r="A2344">
+            <v>44369</v>
+          </cell>
+          <cell r="D2344">
+            <v>484.44523433603558</v>
+          </cell>
+          <cell r="E2344">
+            <v>222.66855729824141</v>
+          </cell>
+        </row>
+        <row r="2345">
+          <cell r="A2345">
+            <v>44370</v>
+          </cell>
+          <cell r="D2345">
+            <v>482.77048947340307</v>
+          </cell>
+          <cell r="E2345">
+            <v>222.0823462276712</v>
+          </cell>
+        </row>
+        <row r="2346">
+          <cell r="A2346">
+            <v>44371</v>
+          </cell>
+          <cell r="D2346">
+            <v>485.57706534278083</v>
+          </cell>
+          <cell r="E2346">
+            <v>223.9602967369313</v>
+          </cell>
+        </row>
+        <row r="2347">
+          <cell r="A2347">
+            <v>44372</v>
+          </cell>
+          <cell r="D2347">
+            <v>476.96566962492591</v>
+          </cell>
+          <cell r="E2347">
+            <v>220.05568140552319</v>
+          </cell>
+        </row>
+        <row r="2348">
+          <cell r="A2348">
+            <v>44375</v>
+          </cell>
+          <cell r="D2348">
+            <v>481.44732753098413</v>
+          </cell>
+          <cell r="E2348">
+            <v>220.35483926749549</v>
+          </cell>
+        </row>
+        <row r="2349">
+          <cell r="A2349">
+            <v>44376</v>
+          </cell>
+          <cell r="D2349">
+            <v>477.75262861965427</v>
+          </cell>
+          <cell r="E2349">
+            <v>220.17845717546561</v>
+          </cell>
+        </row>
+        <row r="2350">
+          <cell r="A2350">
+            <v>44377</v>
+          </cell>
+          <cell r="D2350">
+            <v>471.29083542265028</v>
+          </cell>
+          <cell r="E2350">
+            <v>219.27060817237029</v>
+          </cell>
+        </row>
+        <row r="2351">
+          <cell r="A2351">
+            <v>44378</v>
+          </cell>
+          <cell r="D2351">
+            <v>464.34911092994321</v>
+          </cell>
+          <cell r="E2351">
+            <v>217.3061958532916</v>
+          </cell>
+        </row>
+        <row r="2352">
+          <cell r="A2352">
+            <v>44379</v>
+          </cell>
+          <cell r="D2352">
+            <v>474.78581774412578</v>
+          </cell>
+          <cell r="E2352">
+            <v>220.68858185339539</v>
+          </cell>
+        </row>
+        <row r="2353">
+          <cell r="A2353">
+            <v>44382</v>
+          </cell>
+          <cell r="D2353">
+            <v>471.94399187003461</v>
+          </cell>
+          <cell r="E2353">
+            <v>219.47465804354221</v>
+          </cell>
+        </row>
+        <row r="2354">
+          <cell r="A2354">
+            <v>44383</v>
+          </cell>
+          <cell r="D2354">
+            <v>466.12308087668828</v>
+          </cell>
+          <cell r="E2354">
+            <v>216.31880198516311</v>
+          </cell>
+        </row>
+        <row r="2355">
+          <cell r="A2355">
+            <v>44384</v>
+          </cell>
+          <cell r="D2355">
+            <v>469.98346097407978</v>
+          </cell>
+          <cell r="E2355">
+            <v>219.645852426983</v>
+          </cell>
+        </row>
+        <row r="2356">
+          <cell r="A2356">
+            <v>44385</v>
+          </cell>
+          <cell r="D2356">
+            <v>461.6764910901482</v>
+          </cell>
+          <cell r="E2356">
+            <v>216.894637638555</v>
+          </cell>
+        </row>
+        <row r="2357">
+          <cell r="A2357">
+            <v>44389</v>
+          </cell>
+          <cell r="D2357">
+            <v>468.79857772767599</v>
+          </cell>
+          <cell r="E2357">
+            <v>220.64016323989691</v>
+          </cell>
+        </row>
+        <row r="2358">
+          <cell r="A2358">
+            <v>44390</v>
+          </cell>
+          <cell r="D2358">
+            <v>470.80756693342499</v>
+          </cell>
+          <cell r="E2358">
+            <v>221.63274481661449</v>
+          </cell>
+        </row>
+        <row r="2359">
+          <cell r="A2359">
+            <v>44391</v>
+          </cell>
+          <cell r="D2359">
+            <v>464.45407902358011</v>
+          </cell>
+          <cell r="E2359">
+            <v>222.0460322675475</v>
+          </cell>
+        </row>
+        <row r="2360">
+          <cell r="A2360">
+            <v>44392</v>
+          </cell>
+          <cell r="D2360">
+            <v>463.41391199740252</v>
+          </cell>
+          <cell r="E2360">
+            <v>220.4222794791541</v>
+          </cell>
+        </row>
+        <row r="2361">
+          <cell r="A2361">
+            <v>44393</v>
+          </cell>
+          <cell r="D2361">
+            <v>464.4793097649864</v>
+          </cell>
+          <cell r="E2361">
+            <v>217.814591295025</v>
+          </cell>
+        </row>
+        <row r="2362">
+          <cell r="A2362">
+            <v>44396</v>
+          </cell>
+          <cell r="D2362">
+            <v>462.46483788987598</v>
+          </cell>
+          <cell r="E2362">
+            <v>215.10833664770271</v>
+          </cell>
+        </row>
+        <row r="2363">
+          <cell r="A2363">
+            <v>44397</v>
+          </cell>
+          <cell r="D2363">
+            <v>456.83300988520648</v>
+          </cell>
+          <cell r="E2363">
+            <v>216.84794826125301</v>
+          </cell>
+        </row>
+        <row r="2364">
+          <cell r="A2364">
+            <v>44398</v>
+          </cell>
+          <cell r="D2364">
+            <v>455.86697712381778</v>
+          </cell>
+          <cell r="E2364">
+            <v>217.76098497293739</v>
+          </cell>
+        </row>
+        <row r="2365">
+          <cell r="A2365">
+            <v>44399</v>
+          </cell>
+          <cell r="D2365">
+            <v>457.48303689370988</v>
+          </cell>
+          <cell r="E2365">
+            <v>218.1379584637466</v>
+          </cell>
+        </row>
+        <row r="2366">
+          <cell r="A2366">
+            <v>44400</v>
+          </cell>
+          <cell r="D2366">
+            <v>457.39651048906609</v>
+          </cell>
+          <cell r="E2366">
+            <v>216.24617406491549</v>
+          </cell>
+        </row>
+        <row r="2367">
+          <cell r="A2367">
+            <v>44403</v>
+          </cell>
+          <cell r="D2367">
+            <v>447.82982050862438</v>
+          </cell>
+          <cell r="E2367">
+            <v>217.8906776876654</v>
+          </cell>
+        </row>
+        <row r="2368">
+          <cell r="A2368">
+            <v>44404</v>
+          </cell>
+          <cell r="D2368">
+            <v>447.26062737131019</v>
+          </cell>
+          <cell r="E2368">
+            <v>215.48358090231551</v>
+          </cell>
+        </row>
+        <row r="2369">
+          <cell r="A2369">
+            <v>44405</v>
+          </cell>
+          <cell r="D2369">
+            <v>457.48851985650271</v>
+          </cell>
+          <cell r="E2369">
+            <v>218.3783222950423</v>
+          </cell>
+        </row>
+        <row r="2370">
+          <cell r="A2370">
+            <v>44406</v>
+          </cell>
+          <cell r="D2370">
+            <v>456.55936165970269</v>
+          </cell>
+          <cell r="E2370">
+            <v>217.32175897905901</v>
+          </cell>
+        </row>
+        <row r="2371">
+          <cell r="A2371">
+            <v>44407</v>
+          </cell>
+          <cell r="D2371">
+            <v>449.47953233689708</v>
+          </cell>
+          <cell r="E2371">
+            <v>210.62269795431359</v>
+          </cell>
+        </row>
+        <row r="2372">
+          <cell r="A2372">
+            <v>44410</v>
+          </cell>
+          <cell r="D2372">
+            <v>453.19748967708921</v>
+          </cell>
+          <cell r="E2372">
+            <v>211.85910183471961</v>
+          </cell>
+        </row>
+        <row r="2373">
+          <cell r="A2373">
+            <v>44411</v>
+          </cell>
+          <cell r="D2373">
+            <v>457.32428176307138</v>
+          </cell>
+          <cell r="E2373">
+            <v>213.6938214390704</v>
+          </cell>
+        </row>
+        <row r="2374">
+          <cell r="A2374">
+            <v>44412</v>
+          </cell>
+          <cell r="D2374">
+            <v>452.11234240197098</v>
+          </cell>
+          <cell r="E2374">
+            <v>210.62269795431359</v>
+          </cell>
+        </row>
+        <row r="2375">
+          <cell r="A2375">
+            <v>44413</v>
+          </cell>
+          <cell r="D2375">
+            <v>450.79420249763888</v>
+          </cell>
+          <cell r="E2375">
+            <v>210.33218627332309</v>
+          </cell>
+        </row>
+        <row r="2376">
+          <cell r="A2376">
+            <v>44414</v>
+          </cell>
+          <cell r="D2376">
+            <v>451.25986221819221</v>
+          </cell>
+          <cell r="E2376">
+            <v>212.36749727645301</v>
+          </cell>
+        </row>
+        <row r="2377">
+          <cell r="A2377">
+            <v>44417</v>
+          </cell>
+          <cell r="D2377">
+            <v>448.94048372523622</v>
+          </cell>
+          <cell r="E2377">
+            <v>212.72890764149469</v>
+          </cell>
+        </row>
+        <row r="2378">
+          <cell r="A2378">
+            <v>44418</v>
+          </cell>
+          <cell r="D2378">
+            <v>447.1939718838338</v>
+          </cell>
+          <cell r="E2378">
+            <v>211.31612166905879</v>
+          </cell>
+        </row>
+        <row r="2379">
+          <cell r="A2379">
+            <v>44419</v>
+          </cell>
+          <cell r="D2379">
+            <v>447.74725239843951</v>
+          </cell>
+          <cell r="E2379">
+            <v>211.06365318438839</v>
+          </cell>
+        </row>
+        <row r="2380">
+          <cell r="A2380">
+            <v>44420</v>
+          </cell>
+          <cell r="D2380">
+            <v>456.38321921506781</v>
+          </cell>
+          <cell r="E2380">
+            <v>208.72053813830431</v>
+          </cell>
+        </row>
+        <row r="2381">
+          <cell r="A2381">
+            <v>44421</v>
+          </cell>
+          <cell r="D2381">
+            <v>461.61031350175779</v>
+          </cell>
+          <cell r="E2381">
+            <v>209.57305158311581</v>
+          </cell>
+        </row>
+        <row r="2382">
+          <cell r="A2382">
+            <v>44424</v>
+          </cell>
+          <cell r="D2382">
+            <v>461.61031350175779</v>
+          </cell>
+          <cell r="E2382">
+            <v>206.0903698836224</v>
+          </cell>
+        </row>
+        <row r="2383">
+          <cell r="A2383">
+            <v>44425</v>
+          </cell>
+          <cell r="D2383">
+            <v>454.11670817645751</v>
+          </cell>
+          <cell r="E2383">
+            <v>203.88386449705169</v>
+          </cell>
+        </row>
+        <row r="2384">
+          <cell r="A2384">
+            <v>44426</v>
+          </cell>
+          <cell r="D2384">
+            <v>452.82260151093368</v>
+          </cell>
+          <cell r="E2384">
+            <v>201.70329765342649</v>
+          </cell>
+        </row>
+        <row r="2385">
+          <cell r="A2385">
+            <v>44427</v>
+          </cell>
+          <cell r="D2385">
+            <v>462.65957117644751</v>
+          </cell>
+          <cell r="E2385">
+            <v>202.60595894793269</v>
+          </cell>
+        </row>
+        <row r="2386">
+          <cell r="A2386">
+            <v>44428</v>
+          </cell>
+          <cell r="D2386">
+            <v>465.80474801583648</v>
+          </cell>
+          <cell r="E2386">
+            <v>204.1415206903111</v>
+          </cell>
+        </row>
+        <row r="2387">
+          <cell r="A2387">
+            <v>44431</v>
+          </cell>
+          <cell r="D2387">
+            <v>459.26915366876608</v>
+          </cell>
+          <cell r="E2387">
+            <v>203.13683446021889</v>
+          </cell>
+        </row>
+        <row r="2388">
+          <cell r="A2388">
+            <v>44432</v>
+          </cell>
+          <cell r="D2388">
+            <v>458.49236713579512</v>
+          </cell>
+          <cell r="E2388">
+            <v>207.873212402082</v>
+          </cell>
+        </row>
+        <row r="2389">
+          <cell r="A2389">
+            <v>44433</v>
+          </cell>
+          <cell r="D2389">
+            <v>459.3493625467143</v>
+          </cell>
+          <cell r="E2389">
+            <v>208.92285877327981</v>
           </cell>
         </row>
       </sheetData>
@@ -62851,7 +64309,7 @@
             <v>44287</v>
           </cell>
           <cell r="C113">
-            <v>458.5484672810145</v>
+            <v>428.46153631329798</v>
           </cell>
           <cell r="D113">
             <v>205.59580833146001</v>
@@ -62862,10 +64320,43 @@
             <v>44317</v>
           </cell>
           <cell r="C114">
-            <v>503.38442183611949</v>
+            <v>470.35565076681041</v>
           </cell>
           <cell r="D114">
-            <v>217.1246260526726</v>
+            <v>218.25727576129631</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>44348</v>
+          </cell>
+          <cell r="C115">
+            <v>471.29083542265028</v>
+          </cell>
+          <cell r="D115">
+            <v>219.27060817237029</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>44378</v>
+          </cell>
+          <cell r="C116">
+            <v>449.47953233689708</v>
+          </cell>
+          <cell r="D116">
+            <v>210.62269795431359</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>44409</v>
+          </cell>
+          <cell r="C117">
+            <v>459.3493625467143</v>
+          </cell>
+          <cell r="D117">
+            <v>208.92285877327981</v>
           </cell>
         </row>
       </sheetData>
@@ -62875,19 +64366,19 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C2">
-            <v>1265256490</v>
+            <v>1278941301.1606939</v>
           </cell>
           <cell r="D2">
-            <v>1223886507.931776</v>
+            <v>1237160774.7576489</v>
           </cell>
           <cell r="E2">
-            <v>3849929530</v>
+            <v>3891569750</v>
           </cell>
           <cell r="G2">
-            <v>0.47405229543980631</v>
+            <v>0.44235511861158472</v>
           </cell>
           <cell r="H2">
-            <v>0.5904240957962571</v>
+            <v>0.59291354157500131</v>
           </cell>
         </row>
         <row r="3">
@@ -62904,10 +64395,10 @@
             <v>57587563</v>
           </cell>
           <cell r="G3">
-            <v>0.2117356479351743</v>
+            <v>0.21491599699129091</v>
           </cell>
           <cell r="H3">
-            <v>2.7685540591906942E-2</v>
+            <v>2.7503965177357498E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -62924,10 +64415,10 @@
             <v>902160000</v>
           </cell>
           <cell r="G4">
-            <v>6.4718963207071739E-2</v>
+            <v>7.4382952168061831E-2</v>
           </cell>
           <cell r="H4">
-            <v>0.129473476527458</v>
+            <v>0.12862432568297341</v>
           </cell>
         </row>
         <row r="5">
@@ -62944,10 +64435,10 @@
             <v>339000000</v>
           </cell>
           <cell r="G5">
-            <v>5.7501540109578808E-2</v>
+            <v>6.5509774043248481E-2</v>
           </cell>
           <cell r="H5">
-            <v>4.036375518699134E-2</v>
+            <v>4.0099029795174622E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -62964,10 +64455,10 @@
             <v>766213456</v>
           </cell>
           <cell r="G6">
-            <v>4.8188064521068927E-2</v>
+            <v>4.7942617311826127E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.10519536323628161</v>
+            <v>0.1045054402194311</v>
           </cell>
         </row>
         <row r="7">
@@ -62984,10 +64475,10 @@
             <v>443781062</v>
           </cell>
           <cell r="G7">
-            <v>4.5653205067939392E-2</v>
+            <v>4.7837972647304758E-2</v>
           </cell>
           <cell r="H7">
-            <v>7.6857768661104983E-2</v>
+            <v>7.6353697550062105E-2</v>
           </cell>
         </row>
         <row r="8">
@@ -62998,13 +64489,13 @@
             <v>1003692</v>
           </cell>
           <cell r="D8">
-            <v>20728939.022741269</v>
+            <v>20865787.13434821</v>
           </cell>
           <cell r="E8">
             <v>48067937</v>
           </cell>
           <cell r="G8">
-            <v>3.5237049237640948E-2</v>
+            <v>3.9479330670832528E-2</v>
           </cell>
           <cell r="H8">
             <v>0.01</v>
@@ -63018,13 +64509,13 @@
             <v>614211</v>
           </cell>
           <cell r="D9">
-            <v>20728939.022741269</v>
+            <v>20865787.13434821</v>
           </cell>
           <cell r="E9">
             <v>86371464</v>
           </cell>
           <cell r="G9">
-            <v>3.4733662819960362E-2</v>
+            <v>3.617627765947691E-2</v>
           </cell>
           <cell r="H9">
             <v>0.01</v>
@@ -63038,19 +64529,19 @@
             <v>19198932</v>
           </cell>
           <cell r="D10">
-            <v>20728939.022741269</v>
+            <v>20865787.13434821</v>
           </cell>
           <cell r="E10">
             <v>29787362</v>
           </cell>
           <cell r="G10">
-            <v>2.8179571661759151E-2</v>
+            <v>3.1399959896373827E-2</v>
           </cell>
           <cell r="H10">
             <v>0.01</v>
           </cell>
           <cell r="I10">
-            <v>81804239.086567715</v>
+            <v>88542150.253864318</v>
           </cell>
         </row>
       </sheetData>
@@ -63062,7 +64553,7 @@
       <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B2" t="str">
             <v>BNBR3.SA</v>
@@ -63076,7 +64567,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B3" t="str">
             <v>COCE3.SA</v>
@@ -63090,7 +64581,7 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B4" t="str">
             <v>COCE5.SA</v>
@@ -63104,7 +64595,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B5" t="str">
             <v>GRND3.SA</v>
@@ -63118,7 +64609,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B6" t="str">
             <v>MDIA3.SA</v>
@@ -63132,7 +64623,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B7" t="str">
             <v>HAPV3.SA</v>
@@ -63146,7 +64637,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B8" t="str">
             <v>ARCE</v>
@@ -63160,7 +64651,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B9" t="str">
             <v>PGMN3.SA</v>
@@ -63174,7 +64665,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44344</v>
+            <v>44433</v>
           </cell>
           <cell r="B10" t="str">
             <v>AERI3.SA</v>
@@ -63490,10 +64981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B865D-1F9C-49C7-A6B7-434184FABAF6}">
-  <dimension ref="B2:P34"/>
+  <dimension ref="B2:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63568,19 +65059,19 @@
       </c>
       <c r="C4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>5.6075159385671432E-2</v>
+        <v>-8.0705412927645215E-3</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>5.2428209813421223E-2</v>
+        <v>1.2673293882956569E-2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.29404307945996111</v>
+        <v>0.19462105107035171</v>
       </c>
       <c r="F4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>1.0022165170384789</v>
+        <v>0.70562574998235394</v>
       </c>
       <c r="G4" s="59">
         <v>0</v>
@@ -63628,19 +65119,19 @@
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>9.7778005498441622E-2</v>
+        <v>2.195835293879278E-2</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>5.1777674755307812E-2</v>
+        <v>-4.0229726066088663E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.60913266612438632</v>
+        <v>0.14996342976195051</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.82194150815975586</v>
+        <v>0.70675359324105291</v>
       </c>
       <c r="G5" s="60">
         <v>0</v>
@@ -63689,23 +65180,23 @@
       </c>
       <c r="C6" s="48">
         <f>[1]tab1_retorno_empresas!C4</f>
-        <v>-1.3299013299013399E-2</v>
+        <v>1.434779710144918E-2</v>
       </c>
       <c r="D6" s="48">
         <f>[1]tab1_retorno_empresas!D4</f>
-        <v>-9.210526315789469E-2</v>
+        <v>-7.9078973684210574E-2</v>
       </c>
       <c r="E6" s="48">
         <f>[1]tab1_retorno_empresas!E4</f>
-        <v>0.45263157894736827</v>
+        <v>-0.1026923333333334</v>
       </c>
       <c r="F6" s="48">
         <f>[1]tab1_retorno_empresas!F4</f>
-        <v>1.654867256637168</v>
+        <v>1.372542305084745</v>
       </c>
       <c r="G6" s="48">
         <f>_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.4733662819960362E-2</v>
+        <v>3.617627765947691E-2</v>
       </c>
       <c r="H6" s="48">
         <f>[1]tab1_retorno_empresas!G4</f>
@@ -63751,23 +65242,23 @@
       </c>
       <c r="C7" s="48">
         <f>[1]tab1_retorno_empresas!C5</f>
-        <v>5.2631578947368363E-2</v>
+        <v>-0.1248340056507037</v>
       </c>
       <c r="D7" s="48">
         <f>[1]tab1_retorno_empresas!D5</f>
-        <v>-3.5812645614673462E-2</v>
+        <v>-9.2286448823318157E-2</v>
       </c>
       <c r="E7" s="48">
         <f>[1]tab1_retorno_empresas!E5</f>
-        <v>0.59780868299911671</v>
+        <v>0.3448979999999997</v>
       </c>
       <c r="F7" s="48">
         <f>[1]tab1_retorno_empresas!F5</f>
-        <v>0.66746069556931786</v>
+        <v>0.40212770212765903</v>
       </c>
       <c r="G7" s="48">
         <f>_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.5237049237640948E-2</v>
+        <v>3.9479330670832528E-2</v>
       </c>
       <c r="H7" s="48">
         <f>[1]tab1_retorno_empresas!G5</f>
@@ -63813,23 +65304,23 @@
       </c>
       <c r="C8" s="48">
         <f>[1]tab1_retorno_empresas!C6</f>
-        <v>-2.473870993941785E-2</v>
+        <v>3.5064118134313649E-3</v>
       </c>
       <c r="D8" s="48">
         <f>[1]tab1_retorno_empresas!D6</f>
-        <v>-6.700000000000006E-2</v>
+        <v>1.6666333333332779E-3</v>
       </c>
       <c r="E8" s="48">
         <f>[1]tab1_retorno_empresas!E6</f>
-        <v>2.3774689100219289E-2</v>
+        <v>1.6638375769639779E-4</v>
       </c>
       <c r="F8" s="48">
         <f>[1]tab1_retorno_empresas!F6</f>
-        <v>0.19106382978723399</v>
+        <v>0.15599145389530869</v>
       </c>
       <c r="G8" s="48">
         <f>_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>2.8179571661759151E-2</v>
+        <v>3.1399959896373827E-2</v>
       </c>
       <c r="H8" s="48">
         <f>[1]tab1_retorno_empresas!G6</f>
@@ -63875,23 +65366,23 @@
       </c>
       <c r="C9" s="48">
         <f>[1]tab1_retorno_empresas!C7</f>
-        <v>0.21542227662178701</v>
+        <v>-8.1595648232094531E-3</v>
       </c>
       <c r="D9" s="48">
         <f>[1]tab1_retorno_empresas!D7</f>
-        <v>0.1849642004773269</v>
+        <v>0.30548926014319799</v>
       </c>
       <c r="E9" s="48">
         <f>[1]tab1_retorno_empresas!E7</f>
-        <v>0.4065155807365437</v>
+        <v>0.35900621118012382</v>
       </c>
       <c r="F9" s="48">
         <f>[1]tab1_retorno_empresas!F7</f>
-        <v>0.13269970590872199</v>
+        <v>0.20484581497797261</v>
       </c>
       <c r="G9" s="48">
         <f>_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.4718963207071739E-2</v>
+        <v>7.4382952168061831E-2</v>
       </c>
       <c r="H9" s="48">
         <f>[1]tab1_retorno_empresas!G7</f>
@@ -63937,23 +65428,23 @@
       </c>
       <c r="C10" s="48">
         <f>[1]tab1_retorno_empresas!C8</f>
-        <v>6.3110365773464849E-2</v>
+        <v>6.129653401797186E-2</v>
       </c>
       <c r="D10" s="48">
         <f>[1]tab1_retorno_empresas!D8</f>
-        <v>-0.16911338317341801</v>
+        <v>-2.906638200039979E-2</v>
       </c>
       <c r="E10" s="48">
         <f>[1]tab1_retorno_empresas!E8</f>
-        <v>-0.26854485056978172</v>
+        <v>-8.6464113633588191E-2</v>
       </c>
       <c r="F10" s="48">
         <f>[1]tab1_retorno_empresas!F8</f>
-        <v>-0.47689463870220478</v>
+        <v>-0.32647655097664158</v>
       </c>
       <c r="G10" s="48">
         <f>_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>5.7501540109578808E-2</v>
+        <v>6.5509774043248481E-2</v>
       </c>
       <c r="H10" s="48">
         <f>[1]tab1_retorno_empresas!G8</f>
@@ -63999,23 +65490,23 @@
       </c>
       <c r="C11" s="48">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>0.1076388888888888</v>
+        <v>7.3787772312016831E-2</v>
       </c>
       <c r="D11" s="48">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>4.5216251638269922E-2</v>
+        <v>1.3106159895150959E-3</v>
       </c>
       <c r="E11" s="48">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>1.1682979880369759</v>
+        <v>0.47747050860568541</v>
       </c>
       <c r="F11" s="48">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>1.889492753623188</v>
+        <v>1.7681159420289849</v>
       </c>
       <c r="G11" s="48">
         <f>_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.47405229543980631</v>
+        <v>0.44235511861158472</v>
       </c>
       <c r="H11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
@@ -64061,23 +65552,23 @@
       </c>
       <c r="C12" s="48">
         <f>[1]tab1_retorno_empresas!C10</f>
-        <v>9.572011871924313E-2</v>
+        <v>-0.1685216547549844</v>
       </c>
       <c r="D12" s="48">
         <f>[1]tab1_retorno_empresas!D10</f>
-        <v>-0.1773892151037143</v>
+        <v>-0.32902783040965311</v>
       </c>
       <c r="E12" s="48">
         <f>[1]tab1_retorno_empresas!E10</f>
-        <v>4.0026522027167832E-3</v>
+        <v>-0.38055894880505198</v>
       </c>
       <c r="F12" s="48">
         <f>[1]tab1_retorno_empresas!F10</f>
-        <v>0.88475976155885272</v>
+        <v>0.53732648488090384</v>
       </c>
       <c r="G12" s="48">
         <f>_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.2117356479351743</v>
+        <v>0.21491599699129091</v>
       </c>
       <c r="H12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
@@ -64123,23 +65614,23 @@
       </c>
       <c r="C13" s="48">
         <f>[1]tab1_retorno_empresas!C11</f>
-        <v>0.22916666666666671</v>
+        <v>6.8619246861924665E-2</v>
       </c>
       <c r="D13" s="48">
         <f>[1]tab1_retorno_empresas!D11</f>
-        <v>0.30820399113082048</v>
+        <v>0.41574279379157431</v>
       </c>
       <c r="E13" s="48">
         <f>[1]tab1_retorno_empresas!E11</f>
-        <v>0.25799573560767608</v>
+        <v>0.36140724946695091</v>
       </c>
       <c r="F13" s="48">
         <f>[1]tab1_retorno_empresas!F11</f>
-        <v>0.25799573560767608</v>
+        <v>0.36140724946695091</v>
       </c>
       <c r="G13" s="48">
         <f>_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>4.5653205067939392E-2</v>
+        <v>4.7837972647304758E-2</v>
       </c>
       <c r="H13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
@@ -64185,23 +65676,23 @@
       </c>
       <c r="C14" s="49">
         <f>[1]tab1_retorno_empresas!C12</f>
-        <v>1.111111111111107E-2</v>
+        <v>-3.1999999999999917E-2</v>
       </c>
       <c r="D14" s="49">
         <f>[1]tab1_retorno_empresas!D12</f>
-        <v>-9.000000000000008E-2</v>
+        <v>-0.15299999999999991</v>
       </c>
       <c r="E14" s="49">
         <f>[1]tab1_retorno_empresas!E12</f>
-        <v>0.36431784107946008</v>
+        <v>0.26986506746626682</v>
       </c>
       <c r="F14" s="49">
         <f>[1]tab1_retorno_empresas!F12</f>
-        <v>0.36431784107946008</v>
+        <v>0.26986506746626682</v>
       </c>
       <c r="G14" s="49">
         <f>_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>4.8188064521068927E-2</v>
+        <v>4.7942617311826127E-2</v>
       </c>
       <c r="H14" s="18">
         <f>[1]tab1_retorno_empresas!G12</f>
@@ -64241,107 +65732,240 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>8</v>
+      <c r="B15" s="9" t="str">
+        <f>[1]tab1_retorno_empresas!B13</f>
+        <v>BRIT3.SA</v>
+      </c>
+      <c r="C15" s="49">
+        <f>[1]tab1_retorno_empresas!C13</f>
+        <v>-4.7759000734753809E-2</v>
+      </c>
+      <c r="D15" s="49">
+        <f>[1]tab1_retorno_empresas!D13</f>
+        <v>-4.7759000734753809E-2</v>
+      </c>
+      <c r="E15" s="49">
+        <f>[1]tab1_retorno_empresas!E13</f>
+        <v>8.5603112840468842E-3</v>
+      </c>
+      <c r="F15" s="49">
+        <f>[1]tab1_retorno_empresas!F13</f>
+        <v>8.5603112840468842E-3</v>
+      </c>
+      <c r="G15" s="49" t="e">
+        <f>_xlfn.XLOOKUP($B15,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="18">
+        <f>[1]tab1_retorno_empresas!G13</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <f>[1]tab1_retorno_empresas!H13</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <f>[1]tab1_retorno_empresas!I13</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f>[1]tab1_retorno_empresas!J13</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f>[1]tab1_retorno_empresas!K13</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <f>[1]tab1_retorno_empresas!L13</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <f>[1]tab1_retorno_empresas!M13</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <f>[1]tab1_retorno_empresas!N13</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="57" t="e">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B15,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="46"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="46"/>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="46"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="48">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="D20" s="48">
+        <v>5.2203554446632626E-2</v>
+      </c>
       <c r="G20" s="46"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="46"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="56"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="48">
+        <v>9.572011871924313E-2</v>
+      </c>
+      <c r="D21" s="48">
+        <v>2.0305425763017644E-2</v>
+      </c>
       <c r="G21" s="46"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="48">
+        <v>0.24235006119951041</v>
+      </c>
+      <c r="D22" s="48">
+        <v>1.4166482135732607E-2</v>
+      </c>
       <c r="E22" s="56"/>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="48">
+        <v>0.23541666666666661</v>
+      </c>
+      <c r="D23" s="48">
+        <v>9.598695826546785E-3</v>
+      </c>
       <c r="E23" s="56"/>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="48">
+        <v>0.1003005221524973</v>
+      </c>
+      <c r="D24" s="48">
+        <v>5.9555084245386056E-3</v>
+      </c>
       <c r="E24" s="56"/>
       <c r="G24" s="46"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="64">
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="D25" s="64">
+        <v>2.9065822724598511E-3</v>
+      </c>
       <c r="E25" s="56"/>
       <c r="G25" s="46"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="48">
+        <v>-4.862062062062189E-3</v>
+      </c>
+      <c r="D26" s="48">
+        <v>-1.8788843320893066E-4</v>
+      </c>
       <c r="E26" s="56"/>
       <c r="G26" s="46"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="64">
+        <v>-7.8397384027966144E-3</v>
+      </c>
+      <c r="D27" s="64">
+        <v>-2.4867349452491812E-4</v>
+      </c>
       <c r="E27" s="56"/>
+      <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="49">
+        <v>-2.2255684210526261E-2</v>
+      </c>
+      <c r="D28" s="49">
+        <v>-8.1785933346227981E-4</v>
+      </c>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="48">
+        <f>SUM(D20:D28)</f>
+        <v>0.103881827607732</v>
+      </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" s="56"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="56"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -64349,6 +65973,9 @@
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="56"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64363,7 +65990,7 @@
   <dimension ref="C1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64415,19 +66042,19 @@
       </c>
       <c r="D5" s="12">
         <f>[1]tab2_risco_empresas!B$3</f>
-        <v>1.7500000000000002E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="E5" s="12">
         <f>[1]tab2_risco_empresas!C$3</f>
-        <v>7.2599999999999998E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="F5" s="6">
         <f>[1]tab2_risco_empresas!D$3</f>
-        <v>4.1485714285714277</v>
+        <v>5.3235294117647074</v>
       </c>
       <c r="G5" s="12">
         <f>[1]tab2_risco_empresas!E$3</f>
-        <v>5.3E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="H5" s="53">
         <f>[1]tab2_risco_empresas!F$3</f>
@@ -64448,19 +66075,19 @@
       </c>
       <c r="D6" s="14">
         <f>[1]tab2_risco_empresas!B$2</f>
-        <v>1.4800000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E6" s="14">
         <f>[1]tab2_risco_empresas!C$2</f>
-        <v>6.8000000000000005E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="F6" s="58">
         <f>[1]tab2_risco_empresas!D$2</f>
-        <v>4.5945945945945947</v>
+        <v>5.022388059701492</v>
       </c>
       <c r="G6" s="14">
         <f>[1]tab2_risco_empresas!E$2</f>
-        <v>4.5999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="H6" s="54">
         <f>[1]tab2_risco_empresas!F$2</f>
@@ -64481,19 +66108,19 @@
         <v>AERI3.SA</v>
       </c>
       <c r="D7" s="12">
-        <v>6.3200000000000006E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.2225</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="F7" s="6">
-        <v>3.520569620253164</v>
+        <v>5.0288713910761151</v>
       </c>
       <c r="G7" s="13">
-        <v>4.9500000000000002E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="13">
         <v>0.50380000000000003</v>
@@ -64507,19 +66134,19 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D8" s="12">
-        <v>3.39E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>0.1002</v>
+        <v>9.8699999999999996E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>2.9557522123893811</v>
+        <v>3.2467105263157889</v>
       </c>
       <c r="G8" s="13">
-        <v>0.01</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="H8" s="20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" s="13">
         <v>0.23710000000000001</v>
@@ -64533,22 +66160,22 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="D9" s="12">
-        <v>3.0700000000000002E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>0.1072</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F9" s="6">
-        <v>3.4918566775244302</v>
+        <v>3.2225913621262459</v>
       </c>
       <c r="G9" s="13">
-        <v>1.15E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="H9" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I9" s="13">
-        <v>0.22919999999999999</v>
+        <v>0.2354</v>
       </c>
       <c r="J9" s="13">
         <v>-0.1087</v>
@@ -64556,54 +66183,54 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="str">
-        <v>ARCE</v>
+        <v>BNBR3.SA</v>
       </c>
       <c r="D10" s="12">
-        <v>3.0099999999999998E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E10" s="12">
-        <v>0.14580000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F10" s="6">
-        <v>4.8438538205980084</v>
+        <v>5.3488372093023262</v>
       </c>
       <c r="G10" s="13">
-        <v>2.1299999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I10" s="13">
-        <v>0.39539999999999997</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="J10" s="13">
-        <v>-0.26569999999999999</v>
+        <v>-0.2389</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="str">
-        <v>BNBR3.SA</v>
+        <v>ARCE</v>
       </c>
       <c r="D11" s="15">
-        <v>2.8299999999999999E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>0.1381</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="F11" s="16">
-        <v>4.8798586572438163</v>
+        <v>6.4932126696832571</v>
       </c>
       <c r="G11" s="13">
-        <v>1.9099999999999999E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I11" s="13">
-        <v>0.70209999999999995</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="J11" s="13">
-        <v>-0.2389</v>
+        <v>-0.26569999999999999</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
@@ -64611,16 +66238,16 @@
         <v>COCE3.SA</v>
       </c>
       <c r="D12" s="15">
-        <v>1.9E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="E12" s="15">
-        <v>0.1356</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="F12" s="16">
-        <v>7.1368421052631579</v>
+        <v>8.7831325301204828</v>
       </c>
       <c r="G12" s="13">
-        <v>1.84E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="H12" s="20">
         <v>48</v>
@@ -64634,54 +66261,54 @@
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="str">
-        <v>COCE5.SA</v>
+        <v>GRND3.SA</v>
       </c>
       <c r="D13" s="15">
-        <v>6.6E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E13" s="15">
-        <v>7.0400000000000004E-2</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="F13" s="16">
-        <v>10.66666666666667</v>
+        <v>11.48</v>
       </c>
       <c r="G13" s="13">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="H13" s="20">
         <v>48</v>
       </c>
       <c r="I13" s="13">
-        <v>0.16689999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="J13" s="13">
-        <v>-0.23080000000000001</v>
+        <v>-0.22370000000000001</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="str">
-        <v>GRND3.SA</v>
+        <v>COCE5.SA</v>
       </c>
       <c r="D14" s="15">
-        <v>6.6E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E14" s="15">
-        <v>8.3599999999999994E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>12.66666666666667</v>
+        <v>12.315789473684211</v>
       </c>
       <c r="G14" s="13">
-        <v>7.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H14" s="20">
         <v>48</v>
       </c>
       <c r="I14" s="13">
-        <v>0.21540000000000001</v>
+        <v>0.16689999999999999</v>
       </c>
       <c r="J14" s="13">
-        <v>-0.22370000000000001</v>
+        <v>-0.23080000000000001</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
@@ -64689,16 +66316,16 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="D15" s="17">
-        <v>-8.2000000000000007E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="E15" s="17">
-        <v>9.1600000000000001E-2</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="F15" s="18">
-        <v>-11.170731707317071</v>
+        <v>-26.194444444444439</v>
       </c>
       <c r="G15" s="19">
-        <v>8.3999999999999995E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="H15" s="21">
         <v>48</v>
@@ -64730,7 +66357,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64778,19 +66405,19 @@
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>7.0800000000000002E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>5.7000000000000002E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.52</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.55510000000000004</v>
+        <v>0.5756</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
@@ -64798,7 +66425,7 @@
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.30819999999999997</v>
+        <v>0.33139999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -64807,22 +66434,22 @@
         <v>COCE3.SA</v>
       </c>
       <c r="C5" s="25">
-        <v>3.7999999999999999E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="D5" s="25">
-        <v>3.0999999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="E5" s="25">
-        <v>0.90500000000000003</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="F5" s="26">
-        <v>0.48449999999999999</v>
+        <v>0.44579999999999997</v>
       </c>
       <c r="G5" s="25">
-        <v>5.0000000000000001E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H5" s="25">
-        <v>0.23469999999999999</v>
+        <v>0.19869999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -64830,22 +66457,22 @@
         <v>ARCE_SP500</v>
       </c>
       <c r="C6" s="12">
-        <v>6.0299999999999999E-2</v>
+        <v>-2.3199999999999998E-2</v>
       </c>
       <c r="D6" s="12">
-        <v>4.8999999999999998E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E6" s="12">
-        <v>0.87629999999999997</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F6" s="13">
-        <v>0.34429999999999999</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="G6" s="12">
-        <v>4.9799999999999997E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="H6" s="12">
-        <v>0.11849999999999999</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -64853,22 +66480,22 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C7" s="12">
-        <v>-0.23699999999999999</v>
+        <v>-0.1633</v>
       </c>
       <c r="D7" s="12">
-        <v>-2.23E-2</v>
+        <v>-1.47E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.80740000000000001</v>
+        <v>0.81659999999999999</v>
       </c>
       <c r="F7" s="13">
-        <v>0.63980000000000004</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.4093</v>
+        <v>0.39329999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -64876,22 +66503,22 @@
         <v>GRND3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>-6.7799999999999999E-2</v>
+        <v>-2.3800000000000002E-2</v>
       </c>
       <c r="D8" s="12">
-        <v>-5.7999999999999996E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E8" s="12">
-        <v>0.71240000000000003</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="F8" s="13">
-        <v>0.61880000000000002</v>
+        <v>0.58879999999999999</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0.38290000000000002</v>
+        <v>0.34670000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -64899,22 +66526,22 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C9" s="15">
-        <v>0.33850000000000002</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="D9" s="15">
-        <v>2.46E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="E9" s="15">
-        <v>0.68340000000000001</v>
+        <v>0.69810000000000005</v>
       </c>
       <c r="F9" s="13">
-        <v>0.54259999999999997</v>
+        <v>0.54469999999999996</v>
       </c>
       <c r="G9" s="15">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H9" s="15">
-        <v>0.2944</v>
+        <v>0.29670000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -64922,68 +66549,68 @@
         <v>COCE5.SA</v>
       </c>
       <c r="C10" s="12">
-        <v>-4.9099999999999998E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="D10" s="12">
-        <v>-4.1999999999999997E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="E10" s="12">
-        <v>0.61639999999999995</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="F10" s="13">
-        <v>0.63500000000000001</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0.4032</v>
+        <v>0.38479999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
-        <v>PGMN3.SA</v>
+        <v>BNBR3.SA</v>
       </c>
       <c r="C11" s="12">
-        <v>9.0999999999999998E-2</v>
+        <v>0.27839999999999998</v>
       </c>
       <c r="D11" s="12">
-        <v>7.3000000000000001E-3</v>
+        <v>2.07E-2</v>
       </c>
       <c r="E11" s="12">
-        <v>0.4466</v>
+        <v>0.37769999999999998</v>
       </c>
       <c r="F11" s="13">
-        <v>0.2697</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="G11" s="12">
-        <v>0.48280000000000001</v>
+        <v>0.17680000000000001</v>
       </c>
       <c r="H11" s="12">
-        <v>7.2700000000000001E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
-        <v>BNBR3.SA</v>
+        <v>PGMN3.SA</v>
       </c>
       <c r="C12" s="12">
-        <v>0.29260000000000003</v>
+        <v>0.2029</v>
       </c>
       <c r="D12" s="12">
-        <v>2.1600000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E12" s="12">
-        <v>0.37909999999999999</v>
+        <v>0.3629</v>
       </c>
       <c r="F12" s="13">
-        <v>0.19919999999999999</v>
+        <v>0.2223</v>
       </c>
       <c r="G12" s="12">
-        <v>0.17460000000000001</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="H12" s="12">
-        <v>3.9699999999999999E-2</v>
+        <v>4.9399999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -64991,22 +66618,22 @@
         <v>ARCE_Ibovespa</v>
       </c>
       <c r="C13" s="17">
-        <v>0.41439999999999999</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="D13" s="17">
-        <v>2.93E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>4.1700000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F13" s="19">
-        <v>2.3E-2</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.90069999999999995</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="H13" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -65034,8 +66661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD60C2E-2EC0-43CE-82AC-D4B34A9E117E}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65103,23 +66730,23 @@
       </c>
       <c r="E3" s="30">
         <f>[1]contribuicao!C2</f>
-        <v>1265256490</v>
+        <v>1278941301.1606939</v>
       </c>
       <c r="F3" s="30">
         <f>[1]contribuicao!D2</f>
-        <v>1223886507.931776</v>
+        <v>1237160774.7576489</v>
       </c>
       <c r="G3" s="30">
         <f>[1]contribuicao!$E2</f>
-        <v>3849929530</v>
+        <v>3891569750</v>
       </c>
       <c r="H3" s="31">
         <f>[1]contribuicao!G2</f>
-        <v>0.47405229543980631</v>
+        <v>0.44235511861158472</v>
       </c>
       <c r="I3" s="31">
         <f>[1]contribuicao!H2</f>
-        <v>0.5904240957962571</v>
+        <v>0.59291354157500131</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -65148,11 +66775,11 @@
       </c>
       <c r="H4" s="31">
         <f>[1]contribuicao!G3</f>
-        <v>0.2117356479351743</v>
+        <v>0.21491599699129091</v>
       </c>
       <c r="I4" s="31">
         <f>[1]contribuicao!H3</f>
-        <v>2.7685540591906942E-2</v>
+        <v>2.7503965177357498E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -65181,11 +66808,11 @@
       </c>
       <c r="H5" s="31">
         <f>[1]contribuicao!G4</f>
-        <v>6.4718963207071739E-2</v>
+        <v>7.4382952168061831E-2</v>
       </c>
       <c r="I5" s="31">
         <f>[1]contribuicao!H4</f>
-        <v>0.129473476527458</v>
+        <v>0.12862432568297341</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -65214,11 +66841,11 @@
       </c>
       <c r="H6" s="31">
         <f>[1]contribuicao!G5</f>
-        <v>5.7501540109578808E-2</v>
+        <v>6.5509774043248481E-2</v>
       </c>
       <c r="I6" s="31">
         <f>[1]contribuicao!H5</f>
-        <v>4.036375518699134E-2</v>
+        <v>4.0099029795174622E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -65247,11 +66874,11 @@
       </c>
       <c r="H7" s="31">
         <f>[1]contribuicao!G6</f>
-        <v>4.8188064521068927E-2</v>
+        <v>4.7942617311826127E-2</v>
       </c>
       <c r="I7" s="31">
         <f>[1]contribuicao!H6</f>
-        <v>0.10519536323628161</v>
+        <v>0.1045054402194311</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -65280,11 +66907,11 @@
       </c>
       <c r="H8" s="31">
         <f>[1]contribuicao!G7</f>
-        <v>4.5653205067939392E-2</v>
+        <v>4.7837972647304758E-2</v>
       </c>
       <c r="I8" s="31">
         <f>[1]contribuicao!H7</f>
-        <v>7.6857768661104983E-2</v>
+        <v>7.6353697550062105E-2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -65305,7 +66932,7 @@
       </c>
       <c r="F9" s="30">
         <f>[1]contribuicao!D8</f>
-        <v>20728939.022741269</v>
+        <v>20865787.13434821</v>
       </c>
       <c r="G9" s="30">
         <f>[1]contribuicao!$E8</f>
@@ -65313,7 +66940,7 @@
       </c>
       <c r="H9" s="31">
         <f>[1]contribuicao!G8</f>
-        <v>3.5237049237640948E-2</v>
+        <v>3.9479330670832528E-2</v>
       </c>
       <c r="I9" s="31">
         <f>[1]contribuicao!H8</f>
@@ -65338,7 +66965,7 @@
       </c>
       <c r="F10" s="30">
         <f>[1]contribuicao!D9</f>
-        <v>20728939.022741269</v>
+        <v>20865787.13434821</v>
       </c>
       <c r="G10" s="30">
         <f>[1]contribuicao!$E9</f>
@@ -65346,7 +66973,7 @@
       </c>
       <c r="H10" s="31">
         <f>[1]contribuicao!G9</f>
-        <v>3.4733662819960362E-2</v>
+        <v>3.617627765947691E-2</v>
       </c>
       <c r="I10" s="31">
         <f>[1]contribuicao!H9</f>
@@ -65371,7 +66998,7 @@
       </c>
       <c r="F11" s="30">
         <f>[1]contribuicao!D10</f>
-        <v>20728939.022741269</v>
+        <v>20865787.13434821</v>
       </c>
       <c r="G11" s="30">
         <f>[1]contribuicao!$E10</f>
@@ -65379,7 +67006,7 @@
       </c>
       <c r="H11" s="31">
         <f>[1]contribuicao!G10</f>
-        <v>2.8179571661759151E-2</v>
+        <v>3.1399959896373827E-2</v>
       </c>
       <c r="I11" s="31">
         <f>[1]contribuicao!H10</f>
@@ -65394,23 +67021,23 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33">
         <f>SUM(E3:E11)</f>
-        <v>2072893902.2741268</v>
+        <v>2086578713.4348207</v>
       </c>
       <c r="F12" s="33">
         <f>SUM(F3:F11)</f>
-        <v>2072893902.2741268</v>
+        <v>2086578713.4348202</v>
       </c>
       <c r="G12" s="33">
         <f>SUM(G3:G11)</f>
-        <v>6522898374</v>
+        <v>6564538594</v>
       </c>
       <c r="H12" s="34">
         <f>SUM(H3:H11)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I12" s="34">
         <f>SUM(I3:I11)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -65421,7 +67048,7 @@
       <c r="D13" s="35"/>
       <c r="E13" s="47">
         <f>[1]contribuicao!$I$10</f>
-        <v>81804239.086567715</v>
+        <v>88542150.253864318</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -65438,7 +67065,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -65610,378 +67237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F98BB6E-71AB-41CB-B604-1DE3263F0BE7}">
-  <dimension ref="B2:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="64">
-        <v>14.4</v>
-      </c>
-      <c r="E3" s="51">
-        <v>1223886507.931776</v>
-      </c>
-      <c r="F3" s="51">
-        <v>1265256490</v>
-      </c>
-      <c r="G3" s="51">
-        <v>3849929530</v>
-      </c>
-      <c r="H3" s="51">
-        <v>17623965714.217579</v>
-      </c>
-      <c r="I3" s="65">
-        <f>H3/$H$14</f>
-        <v>0.46983199001969339</v>
-      </c>
-      <c r="J3" s="56">
-        <f>I3*$H$15</f>
-        <v>4.5939234903489348E-2</v>
-      </c>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="64">
-        <v>138.65637599999999</v>
-      </c>
-      <c r="E4" s="51">
-        <v>57389188.274126701</v>
-      </c>
-      <c r="F4" s="51">
-        <v>57389188.274126701</v>
-      </c>
-      <c r="G4" s="51">
-        <v>57587563</v>
-      </c>
-      <c r="H4" s="51">
-        <v>7957376867.6721029</v>
-      </c>
-      <c r="I4" s="65">
-        <f>H4/$H$14</f>
-        <v>0.21213331152017825</v>
-      </c>
-      <c r="J4" s="56">
-        <f>I4*$H$15</f>
-        <v>2.0741972100222619E-2</v>
-      </c>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="64">
-        <v>26.620000999999998</v>
-      </c>
-      <c r="E5" s="51">
-        <v>83669782</v>
-      </c>
-      <c r="F5" s="51">
-        <v>83669782</v>
-      </c>
-      <c r="G5" s="51">
-        <v>339000000</v>
-      </c>
-      <c r="H5" s="51">
-        <v>2227289680.5097818</v>
-      </c>
-      <c r="I5" s="65">
-        <f>H5/$H$14</f>
-        <v>5.9376644275927398E-2</v>
-      </c>
-      <c r="J5" s="56">
-        <f>I5*$H$15</f>
-        <v>5.8057298504906414E-3</v>
-      </c>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="64">
-        <v>8.17</v>
-      </c>
-      <c r="E6" s="51">
-        <v>268384780</v>
-      </c>
-      <c r="F6" s="51">
-        <v>268384780</v>
-      </c>
-      <c r="G6" s="51">
-        <v>902160000</v>
-      </c>
-      <c r="H6" s="51">
-        <v>2192703652.5999999</v>
-      </c>
-      <c r="I6" s="65">
-        <f>H6/$H$14</f>
-        <v>5.8454625782290597E-2</v>
-      </c>
-      <c r="J6" s="56">
-        <f>I6*$H$15</f>
-        <v>5.7155767211501569E-3</v>
-      </c>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="64">
-        <v>9</v>
-      </c>
-      <c r="E7" s="51">
-        <v>218058827</v>
-      </c>
-      <c r="F7" s="51">
-        <v>218058827</v>
-      </c>
-      <c r="G7" s="51">
-        <v>766213456</v>
-      </c>
-      <c r="H7" s="51">
-        <v>1962529443</v>
-      </c>
-      <c r="I7" s="65">
-        <f>H7/$H$14</f>
-        <v>5.2318480904277313E-2</v>
-      </c>
-      <c r="J7" s="56">
-        <f>I7*$H$15</f>
-        <v>5.1155967135285401E-3</v>
-      </c>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="64">
-        <v>9.6</v>
-      </c>
-      <c r="E8" s="51">
-        <v>159318000</v>
-      </c>
-      <c r="F8" s="51">
-        <v>159318000</v>
-      </c>
-      <c r="G8" s="51">
-        <v>443781062</v>
-      </c>
-      <c r="H8" s="51">
-        <v>1529452800</v>
-      </c>
-      <c r="I8" s="65">
-        <f>H8/$H$14</f>
-        <v>4.0773221210110254E-2</v>
-      </c>
-      <c r="J8" s="56">
-        <f>I8*$H$15</f>
-        <v>3.9867242476713371E-3</v>
-      </c>
-      <c r="K8" s="51"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="64">
-        <v>69.930000000000007</v>
-      </c>
-      <c r="E9" s="51">
-        <v>20728939.022741269</v>
-      </c>
-      <c r="F9" s="51">
-        <v>614211</v>
-      </c>
-      <c r="G9" s="51">
-        <v>86371464</v>
-      </c>
-      <c r="H9" s="51">
-        <v>1449574705.860297</v>
-      </c>
-      <c r="I9" s="65">
-        <f>H9/$H$14</f>
-        <v>3.8643775174116123E-2</v>
-      </c>
-      <c r="J9" s="56">
-        <f>I9*$H$15</f>
-        <v>3.778511261455268E-3</v>
-      </c>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="64">
-        <v>66.5</v>
-      </c>
-      <c r="E10" s="51">
-        <v>20728939.022741269</v>
-      </c>
-      <c r="F10" s="51">
-        <v>1003692</v>
-      </c>
-      <c r="G10" s="51">
-        <v>48067937</v>
-      </c>
-      <c r="H10" s="51">
-        <v>1378474445.0122941</v>
-      </c>
-      <c r="I10" s="65">
-        <f>H10/$H$14</f>
-        <v>3.6748334750160469E-2</v>
-      </c>
-      <c r="J10" s="56">
-        <f>I10*$H$15</f>
-        <v>3.5931788772597638E-3</v>
-      </c>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
-        <v>44316</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="64">
-        <v>57.400002000000001</v>
-      </c>
-      <c r="E11" s="51">
-        <v>20728939.022741269</v>
-      </c>
-      <c r="F11" s="51">
-        <v>19198932</v>
-      </c>
-      <c r="G11" s="51">
-        <v>29787362</v>
-      </c>
-      <c r="H11" s="51">
-        <v>1189841141.3632269</v>
-      </c>
-      <c r="I11" s="65">
-        <f>H11/$H$14</f>
-        <v>3.1719616363246328E-2</v>
-      </c>
-      <c r="J11" s="56">
-        <f>I11*$H$15</f>
-        <v>3.1014808231739585E-3</v>
-      </c>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H12" s="66">
-        <f>SUM(H3:H11)</f>
-        <v>37511208450.235275</v>
-      </c>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="66">
-        <f>SUM(H3:H11)</f>
-        <v>37511208450.235275</v>
-      </c>
-      <c r="J14" s="56">
-        <f>SUM(J3:J11)</f>
-        <v>9.777800549844165E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="46">
-        <f>tab1_retorno_empresas!C5</f>
-        <v>9.7778005498441622E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD017D-027D-4735-AE20-1E38E567FFDC}">
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66014,7 +67274,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43">
         <f>[1]data_inclusao!A2</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C4" t="str">
         <f>[1]data_inclusao!B2</f>
@@ -66032,7 +67292,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <f>[1]data_inclusao!A3</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C5" t="str">
         <f>[1]data_inclusao!B3</f>
@@ -66050,7 +67310,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <f>[1]data_inclusao!A4</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C6" t="str">
         <f>[1]data_inclusao!B4</f>
@@ -66068,7 +67328,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <f>[1]data_inclusao!A5</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C7" t="str">
         <f>[1]data_inclusao!B5</f>
@@ -66086,7 +67346,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <f>[1]data_inclusao!A6</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C8" t="str">
         <f>[1]data_inclusao!B6</f>
@@ -66104,7 +67364,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <f>[1]data_inclusao!A7</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C9" t="str">
         <f>[1]data_inclusao!B7</f>
@@ -66122,7 +67382,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <f>[1]data_inclusao!A8</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C10" t="str">
         <f>[1]data_inclusao!B8</f>
@@ -66140,7 +67400,7 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <f>[1]data_inclusao!A9</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C11" t="str">
         <f>[1]data_inclusao!B9</f>
@@ -66158,7 +67418,7 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <f>[1]data_inclusao!A10</f>
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="C12" s="40" t="str">
         <f>[1]data_inclusao!B10</f>

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a548da2118d25344/Alysson/Unifor/Monitoria/indice_nupe/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="6_{51A04565-EED8-4CAB-B3F6-BD9DD9BE6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206433CC-B2A0-4D92-AAB4-9E3598E1F1FD}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="6_{51A04565-EED8-4CAB-B3F6-BD9DD9BE6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25CBFCE-7D14-40FC-8086-F351D88BE0DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="tab2_risco_empresas" sheetId="4" r:id="rId4"/>
     <sheet name="tab3_risco_sistemico" sheetId="6" r:id="rId5"/>
     <sheet name="tab4_contribuicao" sheetId="7" r:id="rId6"/>
-    <sheet name="nome_empresas" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="nome_empresas" sheetId="10" r:id="rId7"/>
     <sheet name="tab5_entrada" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tab1_retorno_empresas!$B$19:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tab1_retorno_empresas!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tab3_risco_sistemico!$B$3:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Tabela 1 - Retornos do Índice das ações cearenses e do Ibovespa.</t>
   </si>
@@ -349,22 +349,7 @@
     <t xml:space="preserve">** Quantidade de ações ponderadas por peso mínimo de 1%. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">¹ Data de referência: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>28 de Maio de 2021.</t>
-    </r>
-  </si>
-  <si>
-    <t>Contribuição</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -378,7 +363,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>31 de Maio de 2021.</t>
+      <t>28 de Agosto de 2021.</t>
     </r>
   </si>
   <si>
@@ -393,11 +378,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>30 de Junho de 2021.</t>
+      <t>31 de Agosto de 2021.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>BRIT3.SA</t>
+  </si>
+  <si>
+    <t>BRISANET</t>
+  </si>
+  <si>
+    <t>Contrib. p.p.</t>
   </si>
 </sst>
 </file>
@@ -411,11 +402,11 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="mmmm\,\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;?????_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="172" formatCode="0.000000000%"/>
-    <numFmt numFmtId="173" formatCode="0.0000000%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="171" formatCode="0.000000000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000000%"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -526,7 +517,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,7 +637,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -657,13 +647,12 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -683,9 +672,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +825,7 @@
             <c:numRef>
               <c:f>[1]indice!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40910</c:v>
@@ -7980,6 +7990,36 @@
                 </c:pt>
                 <c:pt idx="2387">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="2388">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="2389">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="2390">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="2391">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="2392">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="2393">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="2394">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="2395">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="2396">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="2397">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15119,40 +15159,70 @@
                   <c:v>448.94048372523622</c:v>
                 </c:pt>
                 <c:pt idx="2376">
-                  <c:v>447.1939718838338</c:v>
+                  <c:v>462.72392467967882</c:v>
                 </c:pt>
                 <c:pt idx="2377">
-                  <c:v>447.74725239843951</c:v>
+                  <c:v>447.29588776669078</c:v>
                 </c:pt>
                 <c:pt idx="2378">
-                  <c:v>456.38321921506781</c:v>
+                  <c:v>455.94778250688842</c:v>
                 </c:pt>
                 <c:pt idx="2379">
-                  <c:v>461.61031350175779</c:v>
+                  <c:v>461.17303027614832</c:v>
                 </c:pt>
                 <c:pt idx="2380">
-                  <c:v>461.61031350175779</c:v>
+                  <c:v>461.17303027614821</c:v>
                 </c:pt>
                 <c:pt idx="2381">
-                  <c:v>454.11670817645751</c:v>
+                  <c:v>453.68747461253702</c:v>
                 </c:pt>
                 <c:pt idx="2382">
-                  <c:v>452.82260151093368</c:v>
+                  <c:v>452.39931730588688</c:v>
                 </c:pt>
                 <c:pt idx="2383">
-                  <c:v>462.65957117644751</c:v>
+                  <c:v>462.22634502875411</c:v>
                 </c:pt>
                 <c:pt idx="2384">
-                  <c:v>465.80474801583648</c:v>
+                  <c:v>465.36568912274419</c:v>
                 </c:pt>
                 <c:pt idx="2385">
-                  <c:v>459.26915366876608</c:v>
+                  <c:v>458.8390329272151</c:v>
                 </c:pt>
                 <c:pt idx="2386">
-                  <c:v>458.49236713579512</c:v>
+                  <c:v>458.05363488758383</c:v>
                 </c:pt>
                 <c:pt idx="2387">
-                  <c:v>459.3493625467143</c:v>
+                  <c:v>458.90954561493493</c:v>
+                </c:pt>
+                <c:pt idx="2388">
+                  <c:v>451.69255841011341</c:v>
+                </c:pt>
+                <c:pt idx="2389">
+                  <c:v>448.96714009607678</c:v>
+                </c:pt>
+                <c:pt idx="2390">
+                  <c:v>449.01380029965378</c:v>
+                </c:pt>
+                <c:pt idx="2391">
+                  <c:v>446.66191123751372</c:v>
+                </c:pt>
+                <c:pt idx="2392">
+                  <c:v>450.61564795906628</c:v>
+                </c:pt>
+                <c:pt idx="2393">
+                  <c:v>445.67380443172192</c:v>
+                </c:pt>
+                <c:pt idx="2394">
+                  <c:v>450.0163458459831</c:v>
+                </c:pt>
+                <c:pt idx="2395">
+                  <c:v>454.58160625965138</c:v>
+                </c:pt>
+                <c:pt idx="2396">
+                  <c:v>443.17439147620951</c:v>
+                </c:pt>
+                <c:pt idx="2397">
+                  <c:v>445.12302863267138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15194,7 +15264,7 @@
             <c:numRef>
               <c:f>[1]indice!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40910</c:v>
@@ -22359,6 +22429,36 @@
                 </c:pt>
                 <c:pt idx="2387">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="2388">
+                  <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="2389">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="2390">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="2391">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="2392">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="2393">
+                  <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="2394">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="2395">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="2396">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="2397">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29532,6 +29632,36 @@
                 </c:pt>
                 <c:pt idx="2387">
                   <c:v>208.92285877327981</c:v>
+                </c:pt>
+                <c:pt idx="2388">
+                  <c:v>205.30183817807671</c:v>
+                </c:pt>
+                <c:pt idx="2389">
+                  <c:v>208.68076570578779</c:v>
+                </c:pt>
+                <c:pt idx="2390">
+                  <c:v>207.0587421535908</c:v>
+                </c:pt>
+                <c:pt idx="2391">
+                  <c:v>205.40040464126989</c:v>
+                </c:pt>
+                <c:pt idx="2392">
+                  <c:v>206.46388490203881</c:v>
+                </c:pt>
+                <c:pt idx="2393">
+                  <c:v>201.76209168410321</c:v>
+                </c:pt>
+                <c:pt idx="2394">
+                  <c:v>202.20477615037441</c:v>
+                </c:pt>
+                <c:pt idx="2395">
+                  <c:v>203.82334123017861</c:v>
+                </c:pt>
+                <c:pt idx="2396">
+                  <c:v>196.11786473914469</c:v>
+                </c:pt>
+                <c:pt idx="2397">
+                  <c:v>197.6274879385775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29850,7 +29980,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -30199,6 +30329,9 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30555,7 +30688,10 @@
                   <c:v>449.47953233689708</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>459.3493625467143</c:v>
+                  <c:v>446.66191123751372</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>445.12302863267138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30597,7 +30733,7 @@
             <c:numRef>
               <c:f>[1]indice_mensal!$A$2:$A$1048576</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>40909</c:v>
@@ -30946,6 +31082,9 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31302,7 +31441,10 @@
                   <c:v>210.62269795431359</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>208.92285877327981</c:v>
+                  <c:v>205.40040464126989</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>197.6274879385775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31693,34 +31835,34 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.53539999999999999</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89790000000000003</c:v>
+                  <c:v>0.88660000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.84340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81659999999999999</c:v>
+                  <c:v>0.80649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69979999999999998</c:v>
+                  <c:v>0.70720000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69810000000000005</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60099999999999998</c:v>
+                  <c:v>0.5958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37769999999999998</c:v>
+                  <c:v>0.378</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3629</c:v>
+                  <c:v>0.31640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>0.1023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32148,6 +32290,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-BFFF-46A2-8638-0812F901A74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="8"/>
@@ -32228,9 +32390,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tab4_contribuicao!$B$3:$B$11</c:f>
+              <c:f>tab4_contribuicao!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>HAPV3.SA</c:v>
                 </c:pt>
@@ -32244,55 +32406,61 @@
                   <c:v>MDIA3.SA</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>PGMN3.SA</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>AERI3.SA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>PGMN3.SA</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>BNBR3.SA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>COCE3.SA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BNBR3.SA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>COCE5.SA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BRIT3.SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tab4_contribuicao!$H$3:$H$11</c:f>
+              <c:f>tab4_contribuicao!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.44235511861158472</c:v>
+                  <c:v>0.45469636125062668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21491599699129091</c:v>
+                  <c:v>0.17907022835020611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4382952168061831E-2</c:v>
+                  <c:v>7.1983132316320295E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5509774043248481E-2</c:v>
+                  <c:v>6.6732324116895433E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7942617311826127E-2</c:v>
+                  <c:v>4.7958453731050663E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7837972647304758E-2</c:v>
+                  <c:v>4.3768212537736523E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9479330670832528E-2</c:v>
+                  <c:v>3.8183085163135573E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.617627765947691E-2</c:v>
+                  <c:v>3.5951785405348977E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1399959896373827E-2</c:v>
+                  <c:v>3.2727581379594743E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8928835749084881E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32609,6 +32777,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-5262-4953-84E3-D9B5C3CDEEBE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -32666,9 +32854,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>tab4_contribuicao!$B$3:$B$11</c:f>
+              <c:f>tab4_contribuicao!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>HAPV3.SA</c:v>
                 </c:pt>
@@ -32682,46 +32870,49 @@
                   <c:v>MDIA3.SA</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>PGMN3.SA</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>AERI3.SA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>PGMN3.SA</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>BNBR3.SA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>COCE3.SA</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BNBR3.SA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>COCE5.SA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BRIT3.SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tab4_contribuicao!$I$3:$I$11</c:f>
+              <c:f>tab4_contribuicao!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.59291354157500131</c:v>
+                  <c:v>0.56775424249740603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7503965177357498E-2</c:v>
+                  <c:v>2.639308759657652E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12862432568297341</c:v>
+                  <c:v>0.1234292245830813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0099029795174622E-2</c:v>
+                  <c:v>3.8249235223540408E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1045054402194311</c:v>
+                  <c:v>7.2591537350635948E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6353697550062105E-2</c:v>
+                  <c:v>0.100284494262701</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01</c:v>
@@ -32731,6 +32922,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1298178486058913E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35523,7 +35717,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{129C7279-EF9F-4FB6-BB9A-34686DAD9DD2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -35803,22 +35997,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B2" t="str">
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>2.195835293879278E-2</v>
+            <v>-3.4452962433682011E-3</v>
           </cell>
           <cell r="D2">
-            <v>-4.0229726066088663E-2</v>
+            <v>-6.995440516884377E-2</v>
           </cell>
           <cell r="E2">
-            <v>0.14996342976195051</v>
+            <v>7.3923108745961308E-2</v>
           </cell>
           <cell r="F2">
-            <v>0.70675359324105291</v>
+            <v>0.63887845577316837</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -35848,27 +36042,27 @@
             <v>8.86551435792724E-2</v>
           </cell>
           <cell r="P2">
-            <v>-4.0229726066088552E-2</v>
+            <v>-6.995440516884377E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B3" t="str">
             <v>Ibovespa</v>
           </cell>
           <cell r="C3">
-            <v>-8.0705412927645215E-3</v>
+            <v>-3.7842752628787453E-2</v>
           </cell>
           <cell r="D3">
-            <v>1.2673293882956569E-2</v>
+            <v>-4.2076676780715139E-2</v>
           </cell>
           <cell r="E3">
-            <v>0.19462105107035171</v>
+            <v>9.1087880089742113E-2</v>
           </cell>
           <cell r="F3">
-            <v>0.70562574998235394</v>
+            <v>0.5382938056909039</v>
           </cell>
           <cell r="G3">
             <v>5.4004046412699402E-2</v>
@@ -35898,27 +36092,27 @@
             <v>2.8819288744782678E-2</v>
           </cell>
           <cell r="P3">
-            <v>1.2673293882956569E-2</v>
+            <v>-4.2076676780715028E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B4" t="str">
             <v>BNBR3.SA</v>
           </cell>
           <cell r="C4">
-            <v>1.434779710144918E-2</v>
+            <v>2.857551160381511E-2</v>
           </cell>
           <cell r="D4">
-            <v>-7.9078973684210574E-2</v>
+            <v>-5.2763184210526282E-2</v>
           </cell>
           <cell r="E4">
-            <v>-0.1026923333333334</v>
+            <v>-6.724542627623753E-2</v>
           </cell>
           <cell r="F4">
-            <v>1.372542305084745</v>
+            <v>1.48241372413793</v>
           </cell>
           <cell r="G4">
             <v>-0.45714285714285718</v>
@@ -35948,18 +36142,18 @@
             <v>-0.19991576376283329</v>
           </cell>
           <cell r="P4">
-            <v>-7.9078973684210574E-2</v>
+            <v>-5.2763184210526282E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B5" t="str">
             <v>COCE3.SA</v>
           </cell>
           <cell r="C5">
-            <v>-0.1248340056507037</v>
+            <v>0</v>
           </cell>
           <cell r="D5">
             <v>-9.2286448823318157E-2</v>
@@ -35968,7 +36162,7 @@
             <v>0.3448979999999997</v>
           </cell>
           <cell r="F5">
-            <v>0.40212770212765903</v>
+            <v>0.19818185454545409</v>
           </cell>
           <cell r="G5">
             <v>0.4144881889763779</v>
@@ -36003,22 +36197,22 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B6" t="str">
             <v>COCE5.SA</v>
           </cell>
           <cell r="C6">
-            <v>3.5064118134313649E-3</v>
+            <v>-2.100353322208592E-2</v>
           </cell>
           <cell r="D6">
-            <v>1.6666333333332779E-3</v>
+            <v>-2.116666666666667E-2</v>
           </cell>
           <cell r="E6">
-            <v>1.6638375769639779E-4</v>
+            <v>-2.1329745753366439E-2</v>
           </cell>
           <cell r="F6">
-            <v>0.15599145389530869</v>
+            <v>8.7995553908855051E-2</v>
           </cell>
           <cell r="G6">
             <v>0.30624089096543128</v>
@@ -36048,27 +36242,27 @@
             <v>-3.8615606473321518E-2</v>
           </cell>
           <cell r="P6">
-            <v>1.6666333333332779E-3</v>
+            <v>-2.116666666666667E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B7" t="str">
             <v>GRND3.SA</v>
           </cell>
           <cell r="C7">
-            <v>-8.1595648232094531E-3</v>
+            <v>-4.0224508886810062E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.30548926014319799</v>
+            <v>0.2243436754176609</v>
           </cell>
           <cell r="E7">
-            <v>0.35900621118012382</v>
+            <v>0.17525773195876271</v>
           </cell>
           <cell r="F7">
-            <v>0.20484581497797261</v>
+            <v>0.15151515151515069</v>
           </cell>
           <cell r="G7">
             <v>1.14434332176116</v>
@@ -36098,27 +36292,27 @@
             <v>-0.31758957654723119</v>
           </cell>
           <cell r="P7">
-            <v>0.30548926014319799</v>
+            <v>0.2243436754176609</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B8" t="str">
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C8">
-            <v>6.129653401797186E-2</v>
+            <v>-9.6935584740462932E-3</v>
           </cell>
           <cell r="D8">
-            <v>-2.906638200039979E-2</v>
+            <v>-7.0170315027295427E-2</v>
           </cell>
           <cell r="E8">
-            <v>-8.6464113633588191E-2</v>
+            <v>-9.5142857142857307E-2</v>
           </cell>
           <cell r="F8">
-            <v>-0.32647655097664158</v>
+            <v>-0.36277667278115361</v>
           </cell>
           <cell r="G8">
             <v>0.63710698113207531</v>
@@ -36148,27 +36342,27 @@
             <v>-0.10720840853429051</v>
           </cell>
           <cell r="P8">
-            <v>-2.906638200039979E-2</v>
+            <v>-7.0170315027295427E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B9" t="str">
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>7.3787772312016831E-2</v>
+            <v>-1.3623978201634519E-3</v>
           </cell>
           <cell r="D9">
-            <v>1.3106159895150959E-3</v>
+            <v>-3.9318479685452101E-2</v>
           </cell>
           <cell r="E9">
-            <v>0.47747050860568541</v>
+            <v>0.3611884865366759</v>
           </cell>
           <cell r="F9">
-            <v>1.7681159420289849</v>
+            <v>1.6557971014492749</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -36180,27 +36374,27 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>1.3106159895150959E-3</v>
+            <v>-3.9318479685452101E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B10" t="str">
             <v>ARCE</v>
           </cell>
           <cell r="C10">
-            <v>-0.1685216547549844</v>
+            <v>-6.0348877932644429E-3</v>
           </cell>
           <cell r="D10">
-            <v>-0.32902783040965311</v>
+            <v>-0.33069477948739379</v>
           </cell>
           <cell r="E10">
-            <v>-0.38055894880505198</v>
+            <v>-0.41440875663023402</v>
           </cell>
           <cell r="F10">
-            <v>0.53732648488090384</v>
+            <v>0.53350718345186965</v>
           </cell>
           <cell r="M10">
             <v>3.6850058535654817E-2</v>
@@ -36212,59 +36406,59 @@
             <v>2.5537255795764709E-2</v>
           </cell>
           <cell r="P10">
-            <v>-0.32902783040965311</v>
+            <v>-0.33069477948739379</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B11" t="str">
             <v>PGMN3.SA</v>
           </cell>
           <cell r="C11">
-            <v>6.8619246861924665E-2</v>
+            <v>6.5235342691990272E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.41574279379157431</v>
+            <v>0.43015521064301548</v>
           </cell>
           <cell r="E11">
-            <v>0.36140724946695091</v>
+            <v>0.375266524520256</v>
           </cell>
           <cell r="F11">
-            <v>0.36140724946695091</v>
+            <v>0.375266524520256</v>
           </cell>
           <cell r="O11">
             <v>-3.8379530916844429E-2</v>
           </cell>
           <cell r="P11">
-            <v>0.41574279379157431</v>
+            <v>0.43015521064301548</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B12" t="str">
             <v>AERI3.SA</v>
           </cell>
           <cell r="C12">
-            <v>-3.1999999999999917E-2</v>
+            <v>5.2499999999999991E-2</v>
           </cell>
           <cell r="D12">
-            <v>-0.15299999999999991</v>
+            <v>-0.158</v>
           </cell>
           <cell r="E12">
-            <v>0.26986506746626682</v>
+            <v>0.26236881559220371</v>
           </cell>
           <cell r="F12">
-            <v>0.26986506746626682</v>
+            <v>0.26236881559220371</v>
           </cell>
           <cell r="O12">
             <v>0.49925037481259382</v>
           </cell>
           <cell r="P12">
-            <v>-0.15299999999999991</v>
+            <v>-0.158</v>
           </cell>
         </row>
         <row r="13">
@@ -36272,29 +36466,29 @@
             <v>BRIT3.SA</v>
           </cell>
           <cell r="C13">
-            <v>-4.7759000734753809E-2</v>
+            <v>-0.13940809968847351</v>
           </cell>
           <cell r="D13">
-            <v>-4.7759000734753809E-2</v>
+            <v>-0.18809698750918441</v>
           </cell>
           <cell r="E13">
-            <v>8.5603112840468842E-3</v>
+            <v>-0.1400778210116731</v>
           </cell>
           <cell r="F13">
-            <v>8.5603112840468842E-3</v>
+            <v>-0.1400778210116731</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>1.34E-2</v>
+            <v>1.2500000000000001E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.7299999999999999E-2</v>
+            <v>6.7400000000000002E-2</v>
           </cell>
           <cell r="D2">
-            <v>5.022388059701492</v>
+            <v>5.3920000000000003</v>
           </cell>
           <cell r="E2">
             <v>4.4999999999999997E-3</v>
@@ -36311,16 +36505,16 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.3599999999999999E-2</v>
+            <v>1.18E-2</v>
           </cell>
           <cell r="C3">
-            <v>7.2400000000000006E-2</v>
+            <v>7.2900000000000006E-2</v>
           </cell>
           <cell r="D3">
-            <v>5.3235294117647074</v>
+            <v>6.1779661016949161</v>
           </cell>
           <cell r="E3">
-            <v>5.1999999999999998E-3</v>
+            <v>5.3E-3</v>
           </cell>
           <cell r="F3">
             <v>48</v>
@@ -36337,16 +36531,16 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B4">
-            <v>2.58E-2</v>
+            <v>2.5899999999999999E-2</v>
           </cell>
           <cell r="C4">
-            <v>0.13800000000000001</v>
+            <v>0.13619999999999999</v>
           </cell>
           <cell r="D4">
-            <v>5.3488372093023262</v>
+            <v>5.2586872586872584</v>
           </cell>
           <cell r="E4">
-            <v>1.9E-2</v>
+            <v>1.8499999999999999E-2</v>
           </cell>
           <cell r="F4">
             <v>48</v>
@@ -36363,16 +36557,16 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B5">
-            <v>1.66E-2</v>
+            <v>1.3100000000000001E-2</v>
           </cell>
           <cell r="C5">
-            <v>0.14580000000000001</v>
+            <v>0.14410000000000001</v>
           </cell>
           <cell r="D5">
-            <v>8.7831325301204828</v>
+            <v>11</v>
           </cell>
           <cell r="E5">
-            <v>2.1299999999999999E-2</v>
+            <v>2.0799999999999999E-2</v>
           </cell>
           <cell r="F5">
             <v>48</v>
@@ -36389,13 +36583,13 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B6">
-            <v>5.7000000000000002E-3</v>
+            <v>4.3E-3</v>
           </cell>
           <cell r="C6">
-            <v>7.0199999999999999E-2</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
           <cell r="D6">
-            <v>12.315789473684211</v>
+            <v>16.279069767441861</v>
           </cell>
           <cell r="E6">
             <v>4.8999999999999998E-3</v>
@@ -36415,16 +36609,16 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B7">
+            <v>6.6E-3</v>
+          </cell>
+          <cell r="C7">
+            <v>8.6400000000000005E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>13.09090909090909</v>
+          </cell>
+          <cell r="E7">
             <v>7.4999999999999997E-3</v>
-          </cell>
-          <cell r="C7">
-            <v>8.6099999999999996E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>11.48</v>
-          </cell>
-          <cell r="E7">
-            <v>7.4000000000000003E-3</v>
           </cell>
           <cell r="F7">
             <v>48</v>
@@ -36441,16 +36635,16 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B8">
-            <v>-3.5999999999999999E-3</v>
+            <v>-4.7000000000000002E-3</v>
           </cell>
           <cell r="C8">
-            <v>9.4299999999999995E-2</v>
+            <v>9.3799999999999994E-2</v>
           </cell>
           <cell r="D8">
-            <v>-26.194444444444439</v>
+            <v>-19.957446808510639</v>
           </cell>
           <cell r="E8">
-            <v>8.8999999999999999E-3</v>
+            <v>8.8000000000000005E-3</v>
           </cell>
           <cell r="F8">
             <v>48</v>
@@ -36467,19 +36661,19 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>3.04E-2</v>
+            <v>2.86E-2</v>
           </cell>
           <cell r="C9">
-            <v>9.8699999999999996E-2</v>
+            <v>9.74E-2</v>
           </cell>
           <cell r="D9">
-            <v>3.2467105263157889</v>
+            <v>3.405594405594405</v>
           </cell>
           <cell r="E9">
-            <v>9.7000000000000003E-3</v>
+            <v>9.4999999999999998E-3</v>
           </cell>
           <cell r="F9">
-            <v>40</v>
+            <v>41</v>
           </cell>
           <cell r="G9">
             <v>0.23710000000000001</v>
@@ -36493,19 +36687,19 @@
             <v>ARCE</v>
           </cell>
           <cell r="B10">
-            <v>2.2100000000000002E-2</v>
+            <v>2.1399999999999999E-2</v>
           </cell>
           <cell r="C10">
-            <v>0.14349999999999999</v>
+            <v>0.1414</v>
           </cell>
           <cell r="D10">
-            <v>6.4932126696832571</v>
+            <v>6.6074766355140193</v>
           </cell>
           <cell r="E10">
-            <v>2.06E-2</v>
+            <v>0.02</v>
           </cell>
           <cell r="F10">
-            <v>35</v>
+            <v>36</v>
           </cell>
           <cell r="G10">
             <v>0.39539999999999997</v>
@@ -36519,19 +36713,19 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>3.0099999999999998E-2</v>
+            <v>2.86E-2</v>
           </cell>
           <cell r="C11">
-            <v>9.7000000000000003E-2</v>
+            <v>9.2899999999999996E-2</v>
           </cell>
           <cell r="D11">
-            <v>3.2225913621262459</v>
+            <v>3.2482517482517479</v>
           </cell>
           <cell r="E11">
-            <v>9.4000000000000004E-3</v>
+            <v>8.6E-3</v>
           </cell>
           <cell r="F11">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="G11">
             <v>0.2354</v>
@@ -36545,24 +36739,50 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="B12">
-            <v>3.8100000000000002E-2</v>
+            <v>3.4500000000000003E-2</v>
           </cell>
           <cell r="C12">
-            <v>0.19159999999999999</v>
+            <v>0.18459999999999999</v>
           </cell>
           <cell r="D12">
-            <v>5.0288713910761151</v>
+            <v>5.3507246376811581</v>
           </cell>
           <cell r="E12">
-            <v>3.6700000000000003E-2</v>
+            <v>3.4099999999999998E-2</v>
           </cell>
           <cell r="F12">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="G12">
             <v>0.50380000000000003</v>
           </cell>
           <cell r="H12">
+            <v>-0.1394</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>BRIT3.SA</v>
+          </cell>
+          <cell r="B13">
+            <v>-7.0099999999999996E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>9.8000000000000004E-2</v>
+          </cell>
+          <cell r="D13">
+            <v>-1.398002853067047</v>
+          </cell>
+          <cell r="E13">
+            <v>9.5999999999999992E-3</v>
+          </cell>
+          <cell r="F13">
+            <v>2</v>
+          </cell>
+          <cell r="G13">
+            <v>-8.0000000000000004E-4</v>
+          </cell>
+          <cell r="H13">
             <v>-0.1394</v>
           </cell>
         </row>
@@ -36570,22 +36790,22 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>7.5600000000000001E-2</v>
+            <v>7.7299999999999994E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.1000000000000004E-3</v>
+            <v>6.1999999999999998E-3</v>
           </cell>
           <cell r="D2">
-            <v>0.53539999999999999</v>
+            <v>0.53600000000000003</v>
           </cell>
           <cell r="E2">
-            <v>0.5756</v>
+            <v>0.57920000000000005</v>
           </cell>
           <cell r="F2">
             <v>0</v>
           </cell>
           <cell r="G2">
-            <v>0.33139999999999997</v>
+            <v>0.33550000000000002</v>
           </cell>
         </row>
         <row r="3">
@@ -36593,22 +36813,22 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B3">
-            <v>0.27839999999999998</v>
+            <v>0.28960000000000002</v>
           </cell>
           <cell r="C3">
-            <v>2.07E-2</v>
+            <v>2.1399999999999999E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.37769999999999998</v>
+            <v>0.378</v>
           </cell>
           <cell r="E3">
-            <v>0.19819999999999999</v>
+            <v>0.20230000000000001</v>
           </cell>
           <cell r="F3">
-            <v>0.17680000000000001</v>
+            <v>0.16789999999999999</v>
           </cell>
           <cell r="G3">
-            <v>3.9300000000000002E-2</v>
+            <v>4.0899999999999999E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -36616,22 +36836,22 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B4">
-            <v>5.3499999999999999E-2</v>
+            <v>3.1600000000000003E-2</v>
           </cell>
           <cell r="C4">
-            <v>4.4000000000000003E-3</v>
+            <v>2.5999999999999999E-3</v>
           </cell>
           <cell r="D4">
-            <v>0.89790000000000003</v>
+            <v>0.88660000000000005</v>
           </cell>
           <cell r="E4">
-            <v>0.44579999999999997</v>
+            <v>0.44840000000000002</v>
           </cell>
           <cell r="F4">
-            <v>1.5E-3</v>
+            <v>1.4E-3</v>
           </cell>
           <cell r="G4">
-            <v>0.19869999999999999</v>
+            <v>0.20100000000000001</v>
           </cell>
         </row>
         <row r="5">
@@ -36639,22 +36859,22 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B5">
-            <v>-0.03</v>
+            <v>-3.2800000000000003E-2</v>
           </cell>
           <cell r="C5">
-            <v>-2.5000000000000001E-3</v>
+            <v>-2.8E-3</v>
           </cell>
           <cell r="D5">
-            <v>0.60099999999999998</v>
+            <v>0.5958</v>
           </cell>
           <cell r="E5">
-            <v>0.62029999999999996</v>
+            <v>0.62019999999999997</v>
           </cell>
           <cell r="F5">
             <v>0</v>
           </cell>
           <cell r="G5">
-            <v>0.38479999999999998</v>
+            <v>0.38469999999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -36662,22 +36882,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B6">
-            <v>-2.3800000000000002E-2</v>
+            <v>-2.1100000000000001E-2</v>
           </cell>
           <cell r="C6">
-            <v>-2E-3</v>
+            <v>-1.8E-3</v>
           </cell>
           <cell r="D6">
-            <v>0.69979999999999998</v>
+            <v>0.70720000000000005</v>
           </cell>
           <cell r="E6">
-            <v>0.58879999999999999</v>
+            <v>0.59650000000000003</v>
           </cell>
           <cell r="F6">
             <v>0</v>
           </cell>
           <cell r="G6">
-            <v>0.34670000000000001</v>
+            <v>0.35580000000000001</v>
           </cell>
         </row>
         <row r="7">
@@ -36685,22 +36905,22 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B7">
-            <v>-0.1633</v>
+            <v>-0.15790000000000001</v>
           </cell>
           <cell r="C7">
-            <v>-1.47E-2</v>
+            <v>-1.4200000000000001E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.81659999999999999</v>
+            <v>0.80649999999999999</v>
           </cell>
           <cell r="E7">
-            <v>0.62709999999999999</v>
+            <v>0.62629999999999997</v>
           </cell>
           <cell r="F7">
             <v>0</v>
           </cell>
           <cell r="G7">
-            <v>0.39329999999999998</v>
+            <v>0.39229999999999998</v>
           </cell>
         </row>
         <row r="8">
@@ -36708,22 +36928,22 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.30320000000000003</v>
+            <v>0.29289999999999999</v>
           </cell>
           <cell r="C8">
-            <v>2.23E-2</v>
+            <v>2.1600000000000001E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.69810000000000005</v>
+            <v>0.69799999999999995</v>
           </cell>
           <cell r="E8">
-            <v>0.54469999999999996</v>
+            <v>0.54920000000000002</v>
           </cell>
           <cell r="F8">
-            <v>2.9999999999999997E-4</v>
+            <v>2.0000000000000001E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.29670000000000002</v>
+            <v>0.30159999999999998</v>
           </cell>
         </row>
         <row r="9">
@@ -36731,22 +36951,22 @@
             <v>ARCE_Ibovespa</v>
           </cell>
           <cell r="B9">
-            <v>0.28139999999999998</v>
+            <v>0.26929999999999998</v>
           </cell>
           <cell r="C9">
-            <v>2.0899999999999998E-2</v>
+            <v>2.01E-2</v>
           </cell>
           <cell r="D9">
-            <v>8.2000000000000003E-2</v>
+            <v>0.1023</v>
           </cell>
           <cell r="E9">
-            <v>4.4299999999999999E-2</v>
+            <v>5.57E-2</v>
           </cell>
           <cell r="F9">
-            <v>0.80059999999999998</v>
+            <v>0.74680000000000002</v>
           </cell>
           <cell r="G9">
-            <v>2E-3</v>
+            <v>3.0999999999999999E-3</v>
           </cell>
         </row>
         <row r="10">
@@ -36754,22 +36974,22 @@
             <v>ARCE_SP500</v>
           </cell>
           <cell r="B10">
-            <v>-2.3199999999999998E-2</v>
+            <v>-1.9300000000000001E-2</v>
           </cell>
           <cell r="C10">
-            <v>-2E-3</v>
+            <v>-1.6000000000000001E-3</v>
           </cell>
           <cell r="D10">
-            <v>0.85199999999999998</v>
+            <v>0.84340000000000004</v>
           </cell>
           <cell r="E10">
-            <v>0.32369999999999999</v>
+            <v>0.32340000000000002</v>
           </cell>
           <cell r="F10">
-            <v>5.4100000000000002E-2</v>
+            <v>5.0799999999999998E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.1048</v>
+            <v>0.1046</v>
           </cell>
         </row>
         <row r="11">
@@ -36777,22 +36997,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>0.2029</v>
+            <v>0.2271</v>
           </cell>
           <cell r="C11">
-            <v>1.55E-2</v>
+            <v>1.72E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.3629</v>
+            <v>0.31640000000000001</v>
           </cell>
           <cell r="E11">
-            <v>0.2223</v>
+            <v>0.2021</v>
           </cell>
           <cell r="F11">
-            <v>0.48749999999999999</v>
+            <v>0.50780000000000003</v>
           </cell>
           <cell r="G11">
-            <v>4.9399999999999999E-2</v>
+            <v>4.0899999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -62946,7 +63166,7 @@
             <v>44418</v>
           </cell>
           <cell r="D2378">
-            <v>447.1939718838338</v>
+            <v>462.72392467967882</v>
           </cell>
           <cell r="E2378">
             <v>211.31612166905879</v>
@@ -62957,7 +63177,7 @@
             <v>44419</v>
           </cell>
           <cell r="D2379">
-            <v>447.74725239843951</v>
+            <v>447.29588776669078</v>
           </cell>
           <cell r="E2379">
             <v>211.06365318438839</v>
@@ -62968,7 +63188,7 @@
             <v>44420</v>
           </cell>
           <cell r="D2380">
-            <v>456.38321921506781</v>
+            <v>455.94778250688842</v>
           </cell>
           <cell r="E2380">
             <v>208.72053813830431</v>
@@ -62979,7 +63199,7 @@
             <v>44421</v>
           </cell>
           <cell r="D2381">
-            <v>461.61031350175779</v>
+            <v>461.17303027614832</v>
           </cell>
           <cell r="E2381">
             <v>209.57305158311581</v>
@@ -62990,7 +63210,7 @@
             <v>44424</v>
           </cell>
           <cell r="D2382">
-            <v>461.61031350175779</v>
+            <v>461.17303027614821</v>
           </cell>
           <cell r="E2382">
             <v>206.0903698836224</v>
@@ -63001,7 +63221,7 @@
             <v>44425</v>
           </cell>
           <cell r="D2383">
-            <v>454.11670817645751</v>
+            <v>453.68747461253702</v>
           </cell>
           <cell r="E2383">
             <v>203.88386449705169</v>
@@ -63012,7 +63232,7 @@
             <v>44426</v>
           </cell>
           <cell r="D2384">
-            <v>452.82260151093368</v>
+            <v>452.39931730588688</v>
           </cell>
           <cell r="E2384">
             <v>201.70329765342649</v>
@@ -63023,7 +63243,7 @@
             <v>44427</v>
           </cell>
           <cell r="D2385">
-            <v>462.65957117644751</v>
+            <v>462.22634502875411</v>
           </cell>
           <cell r="E2385">
             <v>202.60595894793269</v>
@@ -63034,7 +63254,7 @@
             <v>44428</v>
           </cell>
           <cell r="D2386">
-            <v>465.80474801583648</v>
+            <v>465.36568912274419</v>
           </cell>
           <cell r="E2386">
             <v>204.1415206903111</v>
@@ -63045,7 +63265,7 @@
             <v>44431</v>
           </cell>
           <cell r="D2387">
-            <v>459.26915366876608</v>
+            <v>458.8390329272151</v>
           </cell>
           <cell r="E2387">
             <v>203.13683446021889</v>
@@ -63056,7 +63276,7 @@
             <v>44432</v>
           </cell>
           <cell r="D2388">
-            <v>458.49236713579512</v>
+            <v>458.05363488758383</v>
           </cell>
           <cell r="E2388">
             <v>207.873212402082</v>
@@ -63067,10 +63287,120 @@
             <v>44433</v>
           </cell>
           <cell r="D2389">
-            <v>459.3493625467143</v>
+            <v>458.90954561493493</v>
           </cell>
           <cell r="E2389">
             <v>208.92285877327981</v>
+          </cell>
+        </row>
+        <row r="2390">
+          <cell r="A2390">
+            <v>44434</v>
+          </cell>
+          <cell r="D2390">
+            <v>451.69255841011341</v>
+          </cell>
+          <cell r="E2390">
+            <v>205.30183817807671</v>
+          </cell>
+        </row>
+        <row r="2391">
+          <cell r="A2391">
+            <v>44435</v>
+          </cell>
+          <cell r="D2391">
+            <v>448.96714009607678</v>
+          </cell>
+          <cell r="E2391">
+            <v>208.68076570578779</v>
+          </cell>
+        </row>
+        <row r="2392">
+          <cell r="A2392">
+            <v>44438</v>
+          </cell>
+          <cell r="D2392">
+            <v>449.01380029965378</v>
+          </cell>
+          <cell r="E2392">
+            <v>207.0587421535908</v>
+          </cell>
+        </row>
+        <row r="2393">
+          <cell r="A2393">
+            <v>44439</v>
+          </cell>
+          <cell r="D2393">
+            <v>446.66191123751372</v>
+          </cell>
+          <cell r="E2393">
+            <v>205.40040464126989</v>
+          </cell>
+        </row>
+        <row r="2394">
+          <cell r="A2394">
+            <v>44440</v>
+          </cell>
+          <cell r="D2394">
+            <v>450.61564795906628</v>
+          </cell>
+          <cell r="E2394">
+            <v>206.46388490203881</v>
+          </cell>
+        </row>
+        <row r="2395">
+          <cell r="A2395">
+            <v>44441</v>
+          </cell>
+          <cell r="D2395">
+            <v>445.67380443172192</v>
+          </cell>
+          <cell r="E2395">
+            <v>201.76209168410321</v>
+          </cell>
+        </row>
+        <row r="2396">
+          <cell r="A2396">
+            <v>44442</v>
+          </cell>
+          <cell r="D2396">
+            <v>450.0163458459831</v>
+          </cell>
+          <cell r="E2396">
+            <v>202.20477615037441</v>
+          </cell>
+        </row>
+        <row r="2397">
+          <cell r="A2397">
+            <v>44445</v>
+          </cell>
+          <cell r="D2397">
+            <v>454.58160625965138</v>
+          </cell>
+          <cell r="E2397">
+            <v>203.82334123017861</v>
+          </cell>
+        </row>
+        <row r="2398">
+          <cell r="A2398">
+            <v>44447</v>
+          </cell>
+          <cell r="D2398">
+            <v>443.17439147620951</v>
+          </cell>
+          <cell r="E2398">
+            <v>196.11786473914469</v>
+          </cell>
+        </row>
+        <row r="2399">
+          <cell r="A2399">
+            <v>44449</v>
+          </cell>
+          <cell r="D2399">
+            <v>445.12302863267138</v>
+          </cell>
+          <cell r="E2399">
+            <v>197.6274879385775</v>
           </cell>
         </row>
       </sheetData>
@@ -64353,10 +64683,21 @@
             <v>44409</v>
           </cell>
           <cell r="C117">
-            <v>459.3493625467143</v>
+            <v>446.66191123751372</v>
           </cell>
           <cell r="D117">
-            <v>208.92285877327981</v>
+            <v>205.40040464126989</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>44440</v>
+          </cell>
+          <cell r="C118">
+            <v>445.12302863267138</v>
+          </cell>
+          <cell r="D118">
+            <v>197.6274879385775</v>
           </cell>
         </row>
       </sheetData>
@@ -64369,16 +64710,16 @@
             <v>1278941301.1606939</v>
           </cell>
           <cell r="D2">
-            <v>1237160774.7576489</v>
+            <v>1234526085.5476489</v>
           </cell>
           <cell r="E2">
             <v>3891569750</v>
           </cell>
           <cell r="G2">
-            <v>0.44235511861158472</v>
+            <v>0.45469636125062668</v>
           </cell>
           <cell r="H2">
-            <v>0.59291354157500131</v>
+            <v>0.56775424249740603</v>
           </cell>
         </row>
         <row r="3">
@@ -64395,10 +64736,10 @@
             <v>57587563</v>
           </cell>
           <cell r="G3">
-            <v>0.21491599699129091</v>
+            <v>0.17907022835020611</v>
           </cell>
           <cell r="H3">
-            <v>2.7503965177357498E-2</v>
+            <v>2.639308759657652E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -64415,10 +64756,10 @@
             <v>902160000</v>
           </cell>
           <cell r="G4">
-            <v>7.4382952168061831E-2</v>
+            <v>7.1983132316320295E-2</v>
           </cell>
           <cell r="H4">
-            <v>0.12862432568297341</v>
+            <v>0.1234292245830813</v>
           </cell>
         </row>
         <row r="5">
@@ -64426,76 +64767,76 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C5">
-            <v>83669782</v>
+            <v>83169222</v>
           </cell>
           <cell r="D5">
-            <v>83669782</v>
+            <v>83169222</v>
           </cell>
           <cell r="E5">
             <v>339000000</v>
           </cell>
           <cell r="G5">
-            <v>6.5509774043248481E-2</v>
+            <v>6.6732324116895433E-2</v>
           </cell>
           <cell r="H5">
-            <v>4.0099029795174622E-2</v>
+            <v>3.8249235223540408E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>AERI3.SA</v>
+            <v>PGMN3.SA</v>
           </cell>
           <cell r="C6">
-            <v>218058827</v>
+            <v>157843200</v>
           </cell>
           <cell r="D6">
-            <v>218058827</v>
+            <v>157843200</v>
           </cell>
           <cell r="E6">
-            <v>766213456</v>
+            <v>443781062</v>
           </cell>
           <cell r="G6">
-            <v>4.7942617311826127E-2</v>
+            <v>4.7958453731050663E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.1045054402194311</v>
+            <v>7.2591537350635948E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>PGMN3.SA</v>
+            <v>AERI3.SA</v>
           </cell>
           <cell r="C7">
-            <v>159318000</v>
+            <v>218058827</v>
           </cell>
           <cell r="D7">
-            <v>159318000</v>
+            <v>218058827</v>
           </cell>
           <cell r="E7">
-            <v>443781062</v>
+            <v>766213456</v>
           </cell>
           <cell r="G7">
-            <v>4.7837972647304758E-2</v>
+            <v>4.3768212537736523E-2</v>
           </cell>
           <cell r="H7">
-            <v>7.6353697550062105E-2</v>
+            <v>0.100284494262701</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>COCE3.SA</v>
+            <v>BNBR3.SA</v>
           </cell>
           <cell r="C8">
-            <v>1003692</v>
+            <v>614227</v>
           </cell>
           <cell r="D8">
-            <v>20865787.13434821</v>
+            <v>21744022.204348199</v>
           </cell>
           <cell r="E8">
-            <v>48067937</v>
+            <v>86371464</v>
           </cell>
           <cell r="G8">
-            <v>3.9479330670832528E-2</v>
+            <v>3.8183085163135573E-2</v>
           </cell>
           <cell r="H8">
             <v>0.01</v>
@@ -64503,19 +64844,19 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>BNBR3.SA</v>
+            <v>COCE3.SA</v>
           </cell>
           <cell r="C9">
-            <v>614211</v>
+            <v>1003692</v>
           </cell>
           <cell r="D9">
-            <v>20865787.13434821</v>
+            <v>21744022.204348199</v>
           </cell>
           <cell r="E9">
-            <v>86371464</v>
+            <v>48067937</v>
           </cell>
           <cell r="G9">
-            <v>3.617627765947691E-2</v>
+            <v>3.5951785405348977E-2</v>
           </cell>
           <cell r="H9">
             <v>0.01</v>
@@ -64529,19 +64870,39 @@
             <v>19198932</v>
           </cell>
           <cell r="D10">
-            <v>20865787.13434821</v>
+            <v>21744022.204348199</v>
           </cell>
           <cell r="E10">
             <v>29787362</v>
           </cell>
           <cell r="G10">
-            <v>3.1399959896373827E-2</v>
+            <v>3.2727581379594743E-2</v>
           </cell>
           <cell r="H10">
             <v>0.01</v>
           </cell>
           <cell r="I10">
-            <v>88542150.253864318</v>
+            <v>89233089.130579159</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>BRIT3.SA</v>
+          </cell>
+          <cell r="C11">
+            <v>89798851</v>
+          </cell>
+          <cell r="D11">
+            <v>89798851</v>
+          </cell>
+          <cell r="E11">
+            <v>449094916</v>
+          </cell>
+          <cell r="G11">
+            <v>2.8928835749084881E-2</v>
+          </cell>
+          <cell r="H11">
+            <v>4.1298178486058913E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -64553,7 +64914,7 @@
       <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B2" t="str">
             <v>BNBR3.SA</v>
@@ -64567,7 +64928,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B3" t="str">
             <v>COCE3.SA</v>
@@ -64581,7 +64942,7 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B4" t="str">
             <v>COCE5.SA</v>
@@ -64595,7 +64956,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B5" t="str">
             <v>GRND3.SA</v>
@@ -64609,7 +64970,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B6" t="str">
             <v>MDIA3.SA</v>
@@ -64623,7 +64984,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B7" t="str">
             <v>HAPV3.SA</v>
@@ -64637,7 +64998,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B8" t="str">
             <v>ARCE</v>
@@ -64651,7 +65012,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B9" t="str">
             <v>PGMN3.SA</v>
@@ -64665,7 +65026,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44433</v>
+            <v>44449</v>
           </cell>
           <cell r="B10" t="str">
             <v>AERI3.SA</v>
@@ -64675,6 +65036,20 @@
           </cell>
           <cell r="D10">
             <v>44161</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>44449</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>BRIT3.SA</v>
+          </cell>
+          <cell r="C11">
+            <v>44410</v>
+          </cell>
+          <cell r="D11">
+            <v>44424</v>
           </cell>
         </row>
       </sheetData>
@@ -64981,10 +65356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B865D-1F9C-49C7-A6B7-434184FABAF6}">
-  <dimension ref="B2:P35"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64993,20 +65368,21 @@
     <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -65026,971 +65402,867 @@
         <v>73</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>-8.0705412927645215E-3</v>
+        <v>-3.7842752628787453E-2</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>1.2673293882956569E-2</v>
+        <v>-4.2076676780715139E-2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.19462105107035171</v>
+        <v>9.1087880089742113E-2</v>
       </c>
       <c r="F4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.70562574998235394</v>
+        <v>0.5382938056909039</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="57">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(H$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>5.4004046412699402E-2</v>
+      <c r="H4" s="57">
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(I$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>-0.15495799973749841</v>
+        <v>5.4004046412699402E-2</v>
       </c>
       <c r="J4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(J$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>-2.9122255227444719E-2</v>
+        <v>-0.15495799973749841</v>
       </c>
       <c r="K4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(K$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>-0.13312136300917879</v>
+        <v>-2.9122255227444719E-2</v>
       </c>
       <c r="L4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(L$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.38931949250288361</v>
+        <v>-0.13312136300917879</v>
       </c>
       <c r="M4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(M$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.26856725388945119</v>
+        <v>0.38931949250288361</v>
       </c>
       <c r="N4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(N$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.15032328996623151</v>
+        <v>0.26856725388945119</v>
       </c>
       <c r="O4" s="5">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(O$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
+        <v>0.15032328996623151</v>
+      </c>
+      <c r="P4" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
         <v>0.31946704290736982</v>
       </c>
-      <c r="P4" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q4" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B4,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>2.8819288744782678E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>2.195835293879278E-2</v>
+        <v>-3.4452962433682011E-3</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-4.0229726066088663E-2</v>
+        <v>-6.995440516884377E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>0.14996342976195051</v>
+        <v>7.3923108745961308E-2</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.70675359324105291</v>
+        <v>0.63887845577316837</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="58">
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(H$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.63504395478950859</v>
+        <f>SUM(H6:H15)/100</f>
+        <v>-3.4452962433681113E-3</v>
       </c>
       <c r="I5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(I$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.15408591384047129</v>
+        <v>0.63504395478950859</v>
       </c>
       <c r="J5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(J$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>-9.9470140486063063E-2</v>
+        <v>0.15408591384047129</v>
       </c>
       <c r="K5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(K$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>-0.13434922281534509</v>
+        <v>-9.9470140486063063E-2</v>
       </c>
       <c r="L5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(L$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.40125737508424653</v>
+        <v>-0.13434922281534509</v>
       </c>
       <c r="M5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(M$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>0.38023823246391258</v>
+        <v>0.40125737508424653</v>
       </c>
       <c r="N5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(N$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
-        <v>-0.11878311715633021</v>
+        <v>0.38023823246391258</v>
       </c>
       <c r="O5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(O$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
+        <v>-0.11878311715633021</v>
+      </c>
+      <c r="P5" s="8">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
         <v>0.7535667715231793</v>
       </c>
-      <c r="P5" s="8">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q5" s="8">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>8.86551435792724E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B4</f>
         <v>BNBR3.SA</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <f>[1]tab1_retorno_empresas!C4</f>
-        <v>1.434779710144918E-2</v>
+        <v>2.857551160381511E-2</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="47">
         <f>[1]tab1_retorno_empresas!D4</f>
-        <v>-7.9078973684210574E-2</v>
+        <v>-5.2763184210526282E-2</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <f>[1]tab1_retorno_empresas!E4</f>
-        <v>-0.1026923333333334</v>
+        <v>-6.724542627623753E-2</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <f>[1]tab1_retorno_empresas!F4</f>
-        <v>1.372542305084745</v>
+        <v>1.48241372413793</v>
       </c>
-      <c r="G6" s="48">
-        <f>_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.617627765947691E-2</v>
+      <c r="G6" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B6,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>3.8183085163135573E-2</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="70">
+        <f>(C6*G6)*100</f>
+        <v>0.10911011931486411</v>
+      </c>
+      <c r="I6" s="47">
         <f>[1]tab1_retorno_empresas!G4</f>
         <v>-0.45714285714285718</v>
       </c>
-      <c r="I6" s="48">
+      <c r="J6" s="47">
         <f>[1]tab1_retorno_empresas!H4</f>
         <v>0.51263157894736833</v>
       </c>
-      <c r="J6" s="48">
+      <c r="K6" s="47">
         <f>[1]tab1_retorno_empresas!I4</f>
         <v>-0.14752957550452331</v>
       </c>
-      <c r="K6" s="48">
+      <c r="L6" s="47">
         <f>[1]tab1_retorno_empresas!J4</f>
         <v>0.1224489795918367</v>
       </c>
-      <c r="L6" s="48">
+      <c r="M6" s="47">
         <f>[1]tab1_retorno_empresas!K4</f>
         <v>-7.4909054545454601E-2</v>
       </c>
-      <c r="M6" s="48">
+      <c r="N6" s="47">
         <f>[1]tab1_retorno_empresas!L4</f>
         <v>0.45440245855336259</v>
       </c>
-      <c r="N6" s="48">
+      <c r="O6" s="47">
         <f>[1]tab1_retorno_empresas!M4</f>
         <v>2.6486486486486441E-2</v>
       </c>
-      <c r="O6" s="48">
+      <c r="P6" s="47">
         <f>[1]tab1_retorno_empresas!N4</f>
         <v>1.501053133228015</v>
       </c>
-      <c r="P6" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B6,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q6" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B6,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>-0.19991576376283329</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B5</f>
         <v>COCE3.SA</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <f>[1]tab1_retorno_empresas!C5</f>
-        <v>-0.1248340056507037</v>
+        <v>0</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <f>[1]tab1_retorno_empresas!D5</f>
         <v>-9.2286448823318157E-2</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <f>[1]tab1_retorno_empresas!E5</f>
         <v>0.3448979999999997</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <f>[1]tab1_retorno_empresas!F5</f>
-        <v>0.40212770212765903</v>
+        <v>0.19818185454545409</v>
       </c>
-      <c r="G7" s="48">
-        <f>_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.9479330670832528E-2</v>
+      <c r="G7" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B7,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>3.5951785405348977E-2</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="70">
+        <f t="shared" ref="H7:H14" si="0">(C7*G7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="47">
         <f>[1]tab1_retorno_empresas!G5</f>
         <v>0.4144881889763779</v>
       </c>
-      <c r="I7" s="48">
+      <c r="J7" s="47">
         <f>[1]tab1_retorno_empresas!H5</f>
         <v>-6.9027388109551557E-3</v>
       </c>
-      <c r="J7" s="48">
+      <c r="K7" s="47">
         <f>[1]tab1_retorno_empresas!I5</f>
         <v>9.865475778720878E-2</v>
       </c>
-      <c r="K7" s="48">
+      <c r="L7" s="47">
         <f>[1]tab1_retorno_empresas!J5</f>
         <v>-0.31408161224489811</v>
       </c>
-      <c r="L7" s="48">
+      <c r="M7" s="47">
         <f>[1]tab1_retorno_empresas!K5</f>
         <v>0.252603295072797</v>
       </c>
-      <c r="M7" s="48">
+      <c r="N7" s="47">
         <f>[1]tab1_retorno_empresas!L5</f>
         <v>0.1555820501464158</v>
       </c>
-      <c r="N7" s="48">
+      <c r="O7" s="47">
         <f>[1]tab1_retorno_empresas!M5</f>
         <v>-0.21891061792762101</v>
       </c>
-      <c r="O7" s="48">
+      <c r="P7" s="47">
         <f>[1]tab1_retorno_empresas!N5</f>
         <v>0.36842105263157898</v>
       </c>
-      <c r="P7" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B7,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q7" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B7,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>0.39615380769230768</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B6</f>
         <v>COCE5.SA</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <f>[1]tab1_retorno_empresas!C6</f>
-        <v>3.5064118134313649E-3</v>
+        <v>-2.100353322208592E-2</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="47">
         <f>[1]tab1_retorno_empresas!D6</f>
-        <v>1.6666333333332779E-3</v>
+        <v>-2.116666666666667E-2</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <f>[1]tab1_retorno_empresas!E6</f>
-        <v>1.6638375769639779E-4</v>
+        <v>-2.1329745753366439E-2</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <f>[1]tab1_retorno_empresas!F6</f>
-        <v>0.15599145389530869</v>
+        <v>8.7995553908855051E-2</v>
       </c>
-      <c r="G8" s="48">
-        <f>_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>3.1399959896373827E-2</v>
+      <c r="G8" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>3.2727581379594743E-2</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="70">
+        <f t="shared" si="0"/>
+        <v>-6.8739484278483878E-2</v>
+      </c>
+      <c r="I8" s="47">
         <f>[1]tab1_retorno_empresas!G6</f>
         <v>0.30624089096543128</v>
       </c>
-      <c r="I8" s="48">
+      <c r="J8" s="47">
         <f>[1]tab1_retorno_empresas!H6</f>
         <v>-6.6666666666666652E-2</v>
       </c>
-      <c r="J8" s="48">
+      <c r="K8" s="47">
         <f>[1]tab1_retorno_empresas!I6</f>
         <v>-5.8333357142857152E-2</v>
       </c>
-      <c r="K8" s="48">
+      <c r="L8" s="47">
         <f>[1]tab1_retorno_empresas!J6</f>
         <v>-8.9759774709475937E-2</v>
       </c>
-      <c r="L8" s="48">
+      <c r="M8" s="47">
         <f>[1]tab1_retorno_empresas!K6</f>
         <v>0.38861116666666651</v>
       </c>
-      <c r="M8" s="48">
+      <c r="N8" s="47">
         <f>[1]tab1_retorno_empresas!L6</f>
         <v>9.5218999991238285E-2</v>
       </c>
-      <c r="N8" s="48">
+      <c r="O8" s="47">
         <f>[1]tab1_retorno_empresas!M6</f>
         <v>-0.1232876712328768</v>
       </c>
-      <c r="O8" s="48">
+      <c r="P8" s="47">
         <f>[1]tab1_retorno_empresas!N6</f>
         <v>0.30020833333333319</v>
       </c>
-      <c r="P8" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B8,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q8" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B8,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>-3.8615606473321518E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B7</f>
         <v>GRND3.SA</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <f>[1]tab1_retorno_empresas!C7</f>
-        <v>-8.1595648232094531E-3</v>
+        <v>-4.0224508886810062E-2</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <f>[1]tab1_retorno_empresas!D7</f>
-        <v>0.30548926014319799</v>
+        <v>0.2243436754176609</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <f>[1]tab1_retorno_empresas!E7</f>
-        <v>0.35900621118012382</v>
+        <v>0.17525773195876271</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <f>[1]tab1_retorno_empresas!F7</f>
-        <v>0.20484581497797261</v>
+        <v>0.15151515151515069</v>
       </c>
-      <c r="G9" s="48">
-        <f>_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>7.4382952168061831E-2</v>
+      <c r="G9" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>7.1983132316320295E-2</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.28954861455582503</v>
+      </c>
+      <c r="I9" s="47">
         <f>[1]tab1_retorno_empresas!G7</f>
         <v>1.14434332176116</v>
       </c>
-      <c r="I9" s="48">
+      <c r="J9" s="47">
         <f>[1]tab1_retorno_empresas!H7</f>
         <v>9.7028635176305E-2</v>
       </c>
-      <c r="J9" s="48">
+      <c r="K9" s="47">
         <f>[1]tab1_retorno_empresas!I7</f>
         <v>-0.15422885572139311</v>
       </c>
-      <c r="K9" s="48">
+      <c r="L9" s="47">
         <f>[1]tab1_retorno_empresas!J7</f>
         <v>0.10065352941176479</v>
       </c>
-      <c r="L9" s="48">
+      <c r="M9" s="47">
         <f>[1]tab1_retorno_empresas!K7</f>
         <v>4.394305486597716E-2</v>
       </c>
-      <c r="M9" s="48">
+      <c r="N9" s="47">
         <f>[1]tab1_retorno_empresas!L7</f>
         <v>0.61831621160409544</v>
       </c>
-      <c r="N9" s="48">
+      <c r="O9" s="47">
         <f>[1]tab1_retorno_empresas!M7</f>
         <v>-0.13532510141740259</v>
       </c>
-      <c r="O9" s="48">
+      <c r="P9" s="47">
         <f>[1]tab1_retorno_empresas!N7</f>
         <v>0.4975609756097561</v>
       </c>
-      <c r="P9" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B9,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q9" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B9,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>-0.31758957654723119</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B8</f>
         <v>MDIA3.SA</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <f>[1]tab1_retorno_empresas!C8</f>
-        <v>6.129653401797186E-2</v>
+        <v>-9.6935584740462932E-3</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <f>[1]tab1_retorno_empresas!D8</f>
-        <v>-2.906638200039979E-2</v>
+        <v>-7.0170315027295427E-2</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <f>[1]tab1_retorno_empresas!E8</f>
-        <v>-8.6464113633588191E-2</v>
+        <v>-9.5142857142857307E-2</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f>[1]tab1_retorno_empresas!F8</f>
-        <v>-0.32647655097664158</v>
+        <v>-0.36277667278115361</v>
       </c>
-      <c r="G10" s="48">
-        <f>_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>6.5509774043248481E-2</v>
+      <c r="G10" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>6.6732324116895433E-2</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="70">
+        <f t="shared" si="0"/>
+        <v>-6.4687368593613556E-2</v>
+      </c>
+      <c r="I10" s="47">
         <f>[1]tab1_retorno_empresas!G8</f>
         <v>0.63710698113207531</v>
       </c>
-      <c r="I10" s="48">
+      <c r="J10" s="47">
         <f>[1]tab1_retorno_empresas!H8</f>
         <v>0.28057359659724962</v>
       </c>
-      <c r="J10" s="48">
+      <c r="K10" s="47">
         <f>[1]tab1_retorno_empresas!I8</f>
         <v>-9.0000003600000156E-2</v>
       </c>
-      <c r="K10" s="48">
+      <c r="L10" s="47">
         <f>[1]tab1_retorno_empresas!J8</f>
         <v>-0.26923075908706628</v>
       </c>
-      <c r="L10" s="48">
+      <c r="M10" s="47">
         <f>[1]tab1_retorno_empresas!K8</f>
         <v>0.72947370614958529</v>
       </c>
-      <c r="M10" s="48">
+      <c r="N10" s="47">
         <f>[1]tab1_retorno_empresas!L8</f>
         <v>0.359012231267059</v>
       </c>
-      <c r="N10" s="48">
+      <c r="O10" s="47">
         <f>[1]tab1_retorno_empresas!M8</f>
         <v>-0.17850286673715421</v>
       </c>
-      <c r="O10" s="48">
+      <c r="P10" s="47">
         <f>[1]tab1_retorno_empresas!N8</f>
         <v>-0.1086447922580559</v>
       </c>
-      <c r="P10" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B10,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q10" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B10,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>-0.10720840853429051</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B9</f>
         <v>HAPV3.SA</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>7.3787772312016831E-2</v>
+        <v>-1.3623978201634519E-3</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>1.3106159895150959E-3</v>
+        <v>-3.9318479685452101E-2</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>0.47747050860568541</v>
+        <v>0.3611884865366759</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>1.7681159420289849</v>
+        <v>1.6557971014492749</v>
       </c>
-      <c r="G11" s="48">
-        <f>_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.44235511861158472</v>
+      <c r="G11" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>0.45469636125062668</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="70">
+        <f t="shared" si="0"/>
+        <v>-6.194773314041073E-2</v>
+      </c>
+      <c r="I11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f>[1]tab1_retorno_empresas!H9</f>
         <v>0</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f>[1]tab1_retorno_empresas!I9</f>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <f>[1]tab1_retorno_empresas!J9</f>
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <f>[1]tab1_retorno_empresas!K9</f>
         <v>0</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <f>[1]tab1_retorno_empresas!L9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="48">
+      <c r="O11" s="47">
         <f>[1]tab1_retorno_empresas!M9</f>
         <v>0.13043478260869579</v>
       </c>
-      <c r="O11" s="48">
+      <c r="P11" s="47">
         <f>[1]tab1_retorno_empresas!N9</f>
         <v>1.0480769230769229</v>
       </c>
-      <c r="P11" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B11,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q11" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B11,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>0.19405320813771529</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B10</f>
         <v>ARCE</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <f>[1]tab1_retorno_empresas!C10</f>
-        <v>-0.1685216547549844</v>
+        <v>-6.0348877932644429E-3</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <f>[1]tab1_retorno_empresas!D10</f>
-        <v>-0.32902783040965311</v>
+        <v>-0.33069477948739379</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="47">
         <f>[1]tab1_retorno_empresas!E10</f>
-        <v>-0.38055894880505198</v>
+        <v>-0.41440875663023402</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="47">
         <f>[1]tab1_retorno_empresas!F10</f>
-        <v>0.53732648488090384</v>
+        <v>0.53350718345186965</v>
       </c>
-      <c r="G12" s="48">
-        <f>_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>0.21491599699129091</v>
+      <c r="G12" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>0.17907022835020611</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.10806687352077353</v>
+      </c>
+      <c r="I12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f>[1]tab1_retorno_empresas!H10</f>
         <v>0</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f>[1]tab1_retorno_empresas!I10</f>
         <v>0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <f>[1]tab1_retorno_empresas!J10</f>
         <v>0</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <f>[1]tab1_retorno_empresas!K10</f>
         <v>0</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <f>[1]tab1_retorno_empresas!L10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="48">
+      <c r="O12" s="47">
         <f>[1]tab1_retorno_empresas!M10</f>
         <v>3.6850058535654817E-2</v>
       </c>
-      <c r="O12" s="48">
+      <c r="P12" s="47">
         <f>[1]tab1_retorno_empresas!N10</f>
         <v>1.1547366747007</v>
       </c>
-      <c r="P12" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B12,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q12" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B12,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>2.5537255795764709E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f>[1]tab1_retorno_empresas!B11</f>
         <v>PGMN3.SA</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <f>[1]tab1_retorno_empresas!C11</f>
-        <v>6.8619246861924665E-2</v>
+        <v>6.5235342691990272E-2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <f>[1]tab1_retorno_empresas!D11</f>
-        <v>0.41574279379157431</v>
+        <v>0.43015521064301548</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <f>[1]tab1_retorno_empresas!E11</f>
-        <v>0.36140724946695091</v>
+        <v>0.375266524520256</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="47">
         <f>[1]tab1_retorno_empresas!F11</f>
-        <v>0.36140724946695091</v>
+        <v>0.375266524520256</v>
       </c>
-      <c r="G13" s="48">
-        <f>_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>4.7837972647304758E-2</v>
+      <c r="G13" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>4.7958453731050663E-2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="70">
+        <f t="shared" si="0"/>
+        <v>0.31285861641230495</v>
+      </c>
+      <c r="I13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f>[1]tab1_retorno_empresas!H11</f>
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <f>[1]tab1_retorno_empresas!I11</f>
         <v>0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <f>[1]tab1_retorno_empresas!J11</f>
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <f>[1]tab1_retorno_empresas!K11</f>
         <v>0</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <f>[1]tab1_retorno_empresas!L11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <f>[1]tab1_retorno_empresas!M11</f>
         <v>0</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <f>[1]tab1_retorno_empresas!N11</f>
         <v>0</v>
       </c>
-      <c r="P13" s="5">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B13,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q13" s="5">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B13,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>-3.8379530916844429E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="str">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="str">
         <f>[1]tab1_retorno_empresas!B12</f>
         <v>AERI3.SA</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="62">
         <f>[1]tab1_retorno_empresas!C12</f>
-        <v>-3.1999999999999917E-2</v>
+        <v>5.2499999999999991E-2</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="62">
         <f>[1]tab1_retorno_empresas!D12</f>
-        <v>-0.15299999999999991</v>
+        <v>-0.158</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="62">
         <f>[1]tab1_retorno_empresas!E12</f>
-        <v>0.26986506746626682</v>
+        <v>0.26236881559220371</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="62">
         <f>[1]tab1_retorno_empresas!F12</f>
-        <v>0.26986506746626682</v>
+        <v>0.26236881559220371</v>
       </c>
-      <c r="G14" s="49">
-        <f>_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>4.7942617311826127E-2</v>
+      <c r="G14" s="62">
+        <f>IFERROR(_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>4.3768212537736523E-2</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="70">
+        <f t="shared" si="0"/>
+        <v>0.2297831158231167</v>
+      </c>
+      <c r="I14" s="16">
         <f>[1]tab1_retorno_empresas!G12</f>
         <v>0</v>
       </c>
-      <c r="I14" s="18">
+      <c r="J14" s="16">
         <f>[1]tab1_retorno_empresas!H12</f>
         <v>0</v>
       </c>
-      <c r="J14" s="18">
+      <c r="K14" s="16">
         <f>[1]tab1_retorno_empresas!I12</f>
         <v>0</v>
       </c>
-      <c r="K14" s="18">
+      <c r="L14" s="16">
         <f>[1]tab1_retorno_empresas!J12</f>
         <v>0</v>
       </c>
-      <c r="L14" s="18">
+      <c r="M14" s="16">
         <f>[1]tab1_retorno_empresas!K12</f>
         <v>0</v>
       </c>
-      <c r="M14" s="18">
+      <c r="N14" s="16">
         <f>[1]tab1_retorno_empresas!L12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="18">
+      <c r="O14" s="16">
         <f>[1]tab1_retorno_empresas!M12</f>
         <v>0</v>
       </c>
-      <c r="O14" s="18">
+      <c r="P14" s="16">
         <f>[1]tab1_retorno_empresas!N12</f>
         <v>0</v>
       </c>
-      <c r="P14" s="57">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B14,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
+      <c r="Q14" s="64">
+        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B14,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
         <v>0.49925037481259382</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="str">
         <f>[1]tab1_retorno_empresas!B13</f>
         <v>BRIT3.SA</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <f>[1]tab1_retorno_empresas!C13</f>
-        <v>-4.7759000734753809E-2</v>
+        <v>-0.13940809968847351</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <f>[1]tab1_retorno_empresas!D13</f>
-        <v>-4.7759000734753809E-2</v>
+        <v>-0.18809698750918441</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <f>[1]tab1_retorno_empresas!E13</f>
-        <v>8.5603112840468842E-3</v>
+        <v>-0.1400778210116731</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <f>[1]tab1_retorno_empresas!F13</f>
-        <v>8.5603112840468842E-3</v>
+        <v>-0.1400778210116731</v>
       </c>
-      <c r="G15" s="49" t="e">
-        <f>_xlfn.XLOOKUP($B15,tab4_contribuicao!$B$3:$B$11,tab4_contribuicao!$H$3:$H$11)</f>
-        <v>#N/A</v>
+      <c r="G15" s="48">
+        <f>IFERROR(_xlfn.XLOOKUP($B15,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
+        <v>2.8928835749084881E-2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="71">
+        <f>(C15*G15)*100</f>
+        <v>-0.40329140179799006</v>
+      </c>
+      <c r="I15" s="18">
         <f>[1]tab1_retorno_empresas!G13</f>
         <v>0</v>
       </c>
-      <c r="I15" s="18">
+      <c r="J15" s="18">
         <f>[1]tab1_retorno_empresas!H13</f>
         <v>0</v>
       </c>
-      <c r="J15" s="18">
+      <c r="K15" s="18">
         <f>[1]tab1_retorno_empresas!I13</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18">
+      <c r="L15" s="18">
         <f>[1]tab1_retorno_empresas!J13</f>
         <v>0</v>
       </c>
-      <c r="L15" s="18">
+      <c r="M15" s="18">
         <f>[1]tab1_retorno_empresas!K13</f>
         <v>0</v>
       </c>
-      <c r="M15" s="18">
+      <c r="N15" s="18">
         <f>[1]tab1_retorno_empresas!L13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="18">
         <f>[1]tab1_retorno_empresas!M13</f>
         <v>0</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="18">
         <f>[1]tab1_retorno_empresas!N13</f>
         <v>0</v>
       </c>
-      <c r="P15" s="57" t="e">
-        <f>INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B15,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(P$3,[1]tab1_retorno_empresas!$A$1:$P$1,0))</f>
-        <v>#N/A</v>
+      <c r="Q15" s="55">
+        <f>IFERROR(INDEX([1]tab1_retorno_empresas!$A$1:$P$12,MATCH($B15,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(Q$3,[1]tab1_retorno_empresas!$A$1:$P$1,0)),0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="48"/>
-      <c r="D19" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="46"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="54"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="48">
-        <v>0.1111111111111112</v>
-      </c>
-      <c r="D20" s="48">
-        <v>5.2203554446632626E-2</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="46"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="54"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="48">
-        <v>9.572011871924313E-2</v>
-      </c>
-      <c r="D21" s="48">
-        <v>2.0305425763017644E-2</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="54"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="48">
-        <v>0.24235006119951041</v>
-      </c>
-      <c r="D22" s="48">
-        <v>1.4166482135732607E-2</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="G22" s="46"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="54"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="48">
-        <v>0.23541666666666661</v>
-      </c>
-      <c r="D23" s="48">
-        <v>9.598695826546785E-3</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="48">
-        <v>0.1003005221524973</v>
-      </c>
-      <c r="D24" s="48">
-        <v>5.9555084245386056E-3</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="G24" s="46"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="64">
-        <v>5.555555555555558E-2</v>
-      </c>
-      <c r="D25" s="64">
-        <v>2.9065822724598511E-3</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="G25" s="46"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="48">
-        <v>-4.862062062062189E-3</v>
-      </c>
-      <c r="D26" s="48">
-        <v>-1.8788843320893066E-4</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="G26" s="46"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="64">
-        <v>-7.8397384027966144E-3</v>
-      </c>
-      <c r="D27" s="64">
-        <v>-2.4867349452491812E-4</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="G27" s="46"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="49">
-        <v>-2.2255684210526261E-2</v>
-      </c>
-      <c r="D28" s="49">
-        <v>-8.1785933346227981E-4</v>
-      </c>
-      <c r="E28" s="56"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="56"/>
-      <c r="D29" s="48">
-        <f>SUM(D20:D28)</f>
-        <v>0.103881827607732</v>
-      </c>
-      <c r="E29" s="56"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="56"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="56"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="56"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="56"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="56"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H3:P3" numberStoredAsText="1"/>
+    <ignoredError sqref="I3:Q3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B3C49E-EE9E-4DA6-B1D1-41E982FBB464}">
-  <dimension ref="C1:J17"/>
+  <dimension ref="C1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66042,21 +66314,21 @@
       </c>
       <c r="D5" s="12">
         <f>[1]tab2_risco_empresas!B$3</f>
-        <v>1.3599999999999999E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="E5" s="12">
         <f>[1]tab2_risco_empresas!C$3</f>
-        <v>7.2400000000000006E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="F5" s="6">
         <f>[1]tab2_risco_empresas!D$3</f>
-        <v>5.3235294117647074</v>
+        <v>6.1779661016949161</v>
       </c>
       <c r="G5" s="12">
         <f>[1]tab2_risco_empresas!E$3</f>
-        <v>5.1999999999999998E-3</v>
+        <v>5.3E-3</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="51">
         <f>[1]tab2_risco_empresas!F$3</f>
         <v>48</v>
       </c>
@@ -66075,21 +66347,21 @@
       </c>
       <c r="D6" s="14">
         <f>[1]tab2_risco_empresas!B$2</f>
-        <v>1.34E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E6" s="14">
         <f>[1]tab2_risco_empresas!C$2</f>
-        <v>6.7299999999999999E-2</v>
+        <v>6.7400000000000002E-2</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="56">
         <f>[1]tab2_risco_empresas!D$2</f>
-        <v>5.022388059701492</v>
+        <v>5.3920000000000003</v>
       </c>
       <c r="G6" s="14">
         <f>[1]tab2_risco_empresas!E$2</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="52">
         <f>[1]tab2_risco_empresas!F$2</f>
         <v>48</v>
       </c>
@@ -66104,23 +66376,23 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="str" cm="1">
-        <f t="array" ref="C7:J15">_xlfn._xlws.SORT([1]tab2_risco_empresas!$A$4:$H$12,2,-1)</f>
+        <f t="array" ref="C7:J16">_xlfn._xlws.SORT([1]tab2_risco_empresas!$A$4:$H$13,2,-1)</f>
         <v>AERI3.SA</v>
       </c>
       <c r="D7" s="12">
-        <v>3.8100000000000002E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.19159999999999999</v>
+        <v>0.18459999999999999</v>
       </c>
       <c r="F7" s="6">
-        <v>5.0288713910761151</v>
+        <v>5.3507246376811581</v>
       </c>
       <c r="G7" s="13">
-        <v>3.6700000000000003E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="13">
         <v>0.50380000000000003</v>
@@ -66134,19 +66406,19 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D8" s="12">
-        <v>3.04E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>9.8699999999999996E-2</v>
+        <v>9.74E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>3.2467105263157889</v>
+        <v>3.405594405594405</v>
       </c>
       <c r="G8" s="13">
-        <v>9.7000000000000003E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="H8" s="20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="13">
         <v>0.23710000000000001</v>
@@ -66160,19 +66432,19 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="D9" s="12">
-        <v>3.0099999999999998E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>9.7000000000000003E-2</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="F9" s="6">
-        <v>3.2225913621262459</v>
+        <v>3.2482517482517479</v>
       </c>
       <c r="G9" s="13">
-        <v>9.4000000000000004E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="H9" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="13">
         <v>0.2354</v>
@@ -66186,16 +66458,16 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="D10" s="12">
-        <v>2.58E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="E10" s="12">
-        <v>0.13800000000000001</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="F10" s="6">
-        <v>5.3488372093023262</v>
+        <v>5.2586872586872584</v>
       </c>
       <c r="G10" s="13">
-        <v>1.9E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="H10" s="20">
         <v>48</v>
@@ -66212,19 +66484,19 @@
         <v>ARCE</v>
       </c>
       <c r="D11" s="15">
-        <v>2.2100000000000002E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>0.14349999999999999</v>
+        <v>0.1414</v>
       </c>
       <c r="F11" s="16">
-        <v>6.4932126696832571</v>
+        <v>6.6074766355140193</v>
       </c>
       <c r="G11" s="13">
-        <v>2.06E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H11" s="20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="13">
         <v>0.39539999999999997</v>
@@ -66238,16 +66510,16 @@
         <v>COCE3.SA</v>
       </c>
       <c r="D12" s="15">
-        <v>1.66E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="E12" s="15">
-        <v>0.14580000000000001</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="F12" s="16">
-        <v>8.7831325301204828</v>
+        <v>11</v>
       </c>
       <c r="G12" s="13">
-        <v>2.1299999999999999E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="H12" s="20">
         <v>48</v>
@@ -66264,16 +66536,16 @@
         <v>GRND3.SA</v>
       </c>
       <c r="D13" s="15">
-        <v>7.4999999999999997E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E13" s="15">
-        <v>8.6099999999999996E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="F13" s="16">
-        <v>11.48</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="G13" s="13">
-        <v>7.4000000000000003E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H13" s="20">
         <v>48</v>
@@ -66290,13 +66562,13 @@
         <v>COCE5.SA</v>
       </c>
       <c r="D14" s="15">
-        <v>5.7000000000000002E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="E14" s="15">
-        <v>7.0199999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>12.315789473684211</v>
+        <v>16.279069767441861</v>
       </c>
       <c r="G14" s="13">
         <v>4.8999999999999998E-3</v>
@@ -66312,39 +66584,65 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="63" t="str">
         <v>MDIA3.SA</v>
       </c>
-      <c r="D15" s="17">
-        <v>-3.5999999999999999E-3</v>
+      <c r="D15" s="15">
+        <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="E15" s="17">
-        <v>9.4299999999999995E-2</v>
+      <c r="E15" s="15">
+        <v>9.3799999999999994E-2</v>
       </c>
-      <c r="F15" s="18">
-        <v>-26.194444444444439</v>
+      <c r="F15" s="16">
+        <v>-19.957446808510639</v>
       </c>
-      <c r="G15" s="19">
-        <v>8.8999999999999999E-3</v>
+      <c r="G15" s="68">
+        <v>8.8000000000000005E-3</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="69">
         <v>48</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="68">
         <v>0.15329999999999999</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="68">
         <v>-0.29020000000000001</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
-        <v>8</v>
+      <c r="C16" s="9" t="str">
+        <v>BRIT3.SA</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-7.0099999999999996E-2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>-1.398002853067047</v>
+      </c>
+      <c r="G16" s="19">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>-0.1394</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>77</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -66357,7 +66655,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66405,19 +66703,19 @@
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>7.5600000000000001E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>6.1000000000000004E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.53539999999999999</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.5756</v>
+        <v>0.57920000000000005</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
@@ -66425,7 +66723,7 @@
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.33139999999999997</v>
+        <v>0.33550000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -66434,22 +66732,22 @@
         <v>COCE3.SA</v>
       </c>
       <c r="C5" s="25">
-        <v>5.3499999999999999E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="D5" s="25">
-        <v>4.4000000000000003E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E5" s="25">
-        <v>0.89790000000000003</v>
+        <v>0.88660000000000005</v>
       </c>
       <c r="F5" s="26">
-        <v>0.44579999999999997</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="G5" s="25">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="H5" s="25">
-        <v>0.19869999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -66457,22 +66755,22 @@
         <v>ARCE_SP500</v>
       </c>
       <c r="C6" s="12">
-        <v>-2.3199999999999998E-2</v>
+        <v>-1.9300000000000001E-2</v>
       </c>
       <c r="D6" s="12">
-        <v>-2E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="E6" s="12">
-        <v>0.85199999999999998</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="F6" s="13">
-        <v>0.32369999999999999</v>
+        <v>0.32340000000000002</v>
       </c>
       <c r="G6" s="12">
-        <v>5.4100000000000002E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="H6" s="12">
-        <v>0.1048</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -66480,22 +66778,22 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C7" s="12">
-        <v>-0.1633</v>
+        <v>-0.15790000000000001</v>
       </c>
       <c r="D7" s="12">
-        <v>-1.47E-2</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.81659999999999999</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="F7" s="13">
-        <v>0.62709999999999999</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.39329999999999998</v>
+        <v>0.39229999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -66503,22 +66801,22 @@
         <v>GRND3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>-2.3800000000000002E-2</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="D8" s="12">
-        <v>-2E-3</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="E8" s="12">
-        <v>0.69979999999999998</v>
+        <v>0.70720000000000005</v>
       </c>
       <c r="F8" s="13">
-        <v>0.58879999999999999</v>
+        <v>0.59650000000000003</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0.34670000000000001</v>
+        <v>0.35580000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -66526,22 +66824,22 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C9" s="15">
-        <v>0.30320000000000003</v>
+        <v>0.29289999999999999</v>
       </c>
       <c r="D9" s="15">
-        <v>2.23E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E9" s="15">
-        <v>0.69810000000000005</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="F9" s="13">
-        <v>0.54469999999999996</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="G9" s="15">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H9" s="15">
-        <v>0.29670000000000002</v>
+        <v>0.30159999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -66549,22 +66847,22 @@
         <v>COCE5.SA</v>
       </c>
       <c r="C10" s="12">
-        <v>-0.03</v>
+        <v>-3.2800000000000003E-2</v>
       </c>
       <c r="D10" s="12">
-        <v>-2.5000000000000001E-3</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="E10" s="12">
-        <v>0.60099999999999998</v>
+        <v>0.5958</v>
       </c>
       <c r="F10" s="13">
-        <v>0.62029999999999996</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0.38479999999999998</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -66572,22 +66870,22 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="C11" s="12">
-        <v>0.27839999999999998</v>
+        <v>0.28960000000000002</v>
       </c>
       <c r="D11" s="12">
-        <v>2.07E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="E11" s="12">
-        <v>0.37769999999999998</v>
+        <v>0.378</v>
       </c>
       <c r="F11" s="13">
-        <v>0.19819999999999999</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="G11" s="12">
-        <v>0.17680000000000001</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="H11" s="12">
-        <v>3.9300000000000002E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -66595,22 +66893,22 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="C12" s="12">
-        <v>0.2029</v>
+        <v>0.2271</v>
       </c>
       <c r="D12" s="12">
-        <v>1.55E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="E12" s="12">
-        <v>0.3629</v>
+        <v>0.31640000000000001</v>
       </c>
       <c r="F12" s="13">
-        <v>0.2223</v>
+        <v>0.2021</v>
       </c>
       <c r="G12" s="12">
-        <v>0.48749999999999999</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="H12" s="12">
-        <v>4.9399999999999999E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -66618,22 +66916,22 @@
         <v>ARCE_Ibovespa</v>
       </c>
       <c r="C13" s="17">
-        <v>0.28139999999999998</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="D13" s="17">
-        <v>2.0899999999999998E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>8.2000000000000003E-2</v>
+        <v>0.1023</v>
       </c>
       <c r="F13" s="19">
-        <v>4.4299999999999999E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.80059999999999998</v>
+        <v>0.74680000000000002</v>
       </c>
       <c r="H13" s="17">
-        <v>2E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -66643,7 +66941,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -66661,8 +66959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD60C2E-2EC0-43CE-82AC-D4B34A9E117E}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66674,7 +66972,7 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
@@ -66722,7 +67020,7 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C3" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B3,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
+        <f>_xlfn.XLOOKUP($B3,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
         <v>HAPVIDA</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -66734,7 +67032,7 @@
       </c>
       <c r="F3" s="30">
         <f>[1]contribuicao!D2</f>
-        <v>1237160774.7576489</v>
+        <v>1234526085.5476489</v>
       </c>
       <c r="G3" s="30">
         <f>[1]contribuicao!$E2</f>
@@ -66742,11 +67040,11 @@
       </c>
       <c r="H3" s="31">
         <f>[1]contribuicao!G2</f>
-        <v>0.44235511861158472</v>
+        <v>0.45469636125062668</v>
       </c>
       <c r="I3" s="31">
         <f>[1]contribuicao!H2</f>
-        <v>0.59291354157500131</v>
+        <v>0.56775424249740603</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -66755,7 +67053,7 @@
         <v>ARCE</v>
       </c>
       <c r="C4" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B4,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
+        <f>_xlfn.XLOOKUP($B4,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
         <v xml:space="preserve">ARCO </v>
       </c>
       <c r="D4" s="28" t="s">
@@ -66775,11 +67073,11 @@
       </c>
       <c r="H4" s="31">
         <f>[1]contribuicao!G3</f>
-        <v>0.21491599699129091</v>
+        <v>0.17907022835020611</v>
       </c>
       <c r="I4" s="31">
         <f>[1]contribuicao!H3</f>
-        <v>2.7503965177357498E-2</v>
+        <v>2.639308759657652E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -66788,7 +67086,7 @@
         <v>GRND3.SA</v>
       </c>
       <c r="C5" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B5,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
+        <f>_xlfn.XLOOKUP($B5,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
         <v>GRENDENE</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -66808,11 +67106,11 @@
       </c>
       <c r="H5" s="31">
         <f>[1]contribuicao!G4</f>
-        <v>7.4382952168061831E-2</v>
+        <v>7.1983132316320295E-2</v>
       </c>
       <c r="I5" s="31">
         <f>[1]contribuicao!H4</f>
-        <v>0.12862432568297341</v>
+        <v>0.1234292245830813</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -66821,7 +67119,7 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C6" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B6,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
+        <f>_xlfn.XLOOKUP($B6,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
         <v>M. DIAS BRANCO</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -66829,11 +67127,11 @@
       </c>
       <c r="E6" s="30">
         <f>[1]contribuicao!C5</f>
-        <v>83669782</v>
+        <v>83169222</v>
       </c>
       <c r="F6" s="30">
         <f>[1]contribuicao!D5</f>
-        <v>83669782</v>
+        <v>83169222</v>
       </c>
       <c r="G6" s="30">
         <f>[1]contribuicao!$E5</f>
@@ -66841,106 +67139,106 @@
       </c>
       <c r="H6" s="31">
         <f>[1]contribuicao!G5</f>
-        <v>6.5509774043248481E-2</v>
+        <v>6.6732324116895433E-2</v>
       </c>
       <c r="I6" s="31">
         <f>[1]contribuicao!H5</f>
-        <v>4.0099029795174622E-2</v>
+        <v>3.8249235223540408E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="str">
         <f>[1]contribuicao!B6</f>
-        <v>AERI3.SA</v>
+        <v>PGMN3.SA</v>
       </c>
       <c r="C7" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B7,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>AERIS</v>
+        <f>_xlfn.XLOOKUP($B7,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
+        <v>PAGUE MENOS</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="30">
         <f>[1]contribuicao!C6</f>
-        <v>218058827</v>
+        <v>157843200</v>
       </c>
       <c r="F7" s="30">
         <f>[1]contribuicao!D6</f>
-        <v>218058827</v>
+        <v>157843200</v>
       </c>
       <c r="G7" s="30">
         <f>[1]contribuicao!$E6</f>
-        <v>766213456</v>
+        <v>443781062</v>
       </c>
       <c r="H7" s="31">
         <f>[1]contribuicao!G6</f>
-        <v>4.7942617311826127E-2</v>
+        <v>4.7958453731050663E-2</v>
       </c>
       <c r="I7" s="31">
         <f>[1]contribuicao!H6</f>
-        <v>0.1045054402194311</v>
+        <v>7.2591537350635948E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="str">
         <f>[1]contribuicao!B7</f>
-        <v>PGMN3.SA</v>
+        <v>AERI3.SA</v>
       </c>
       <c r="C8" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B8,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>PAGUE MENOS</v>
+        <f>_xlfn.XLOOKUP($B8,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
+        <v>AERIS</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="30">
         <f>[1]contribuicao!C7</f>
-        <v>159318000</v>
+        <v>218058827</v>
       </c>
       <c r="F8" s="30">
         <f>[1]contribuicao!D7</f>
-        <v>159318000</v>
+        <v>218058827</v>
       </c>
       <c r="G8" s="30">
         <f>[1]contribuicao!$E7</f>
-        <v>443781062</v>
+        <v>766213456</v>
       </c>
       <c r="H8" s="31">
         <f>[1]contribuicao!G7</f>
-        <v>4.7837972647304758E-2</v>
+        <v>4.3768212537736523E-2</v>
       </c>
       <c r="I8" s="31">
         <f>[1]contribuicao!H7</f>
-        <v>7.6353697550062105E-2</v>
+        <v>0.100284494262701</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="str">
         <f>[1]contribuicao!B8</f>
-        <v>COCE3.SA</v>
+        <v>BNBR3.SA</v>
       </c>
       <c r="C9" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B9,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>COELCE</v>
+        <f>_xlfn.XLOOKUP($B9,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
+        <v>BANCO DO NORDESTE</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="30">
         <f>[1]contribuicao!C8</f>
-        <v>1003692</v>
+        <v>614227</v>
       </c>
       <c r="F9" s="30">
         <f>[1]contribuicao!D8</f>
-        <v>20865787.13434821</v>
+        <v>21744022.204348199</v>
       </c>
       <c r="G9" s="30">
         <f>[1]contribuicao!$E8</f>
-        <v>48067937</v>
+        <v>86371464</v>
       </c>
       <c r="H9" s="31">
         <f>[1]contribuicao!G8</f>
-        <v>3.9479330670832528E-2</v>
+        <v>3.8183085163135573E-2</v>
       </c>
       <c r="I9" s="31">
         <f>[1]contribuicao!H8</f>
@@ -66950,30 +67248,30 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="str">
         <f>[1]contribuicao!B9</f>
-        <v>BNBR3.SA</v>
+        <v>COCE3.SA</v>
       </c>
       <c r="C10" s="28" t="str">
-        <f>_xlfn.XLOOKUP($B10,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10)</f>
-        <v>BANCO DO NORDESTE</v>
+        <f>_xlfn.XLOOKUP($B10,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
+        <v>COELCE</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="30">
         <f>[1]contribuicao!C9</f>
-        <v>614211</v>
+        <v>1003692</v>
       </c>
       <c r="F10" s="30">
         <f>[1]contribuicao!D9</f>
-        <v>20865787.13434821</v>
+        <v>21744022.204348199</v>
       </c>
       <c r="G10" s="30">
         <f>[1]contribuicao!$E9</f>
-        <v>86371464</v>
+        <v>48067937</v>
       </c>
       <c r="H10" s="31">
         <f>[1]contribuicao!G9</f>
-        <v>3.617627765947691E-2</v>
+        <v>3.5951785405348977E-2</v>
       </c>
       <c r="I10" s="31">
         <f>[1]contribuicao!H9</f>
@@ -66981,12 +67279,12 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="53" t="str">
         <f>[1]contribuicao!B10</f>
         <v>COCE5.SA</v>
       </c>
       <c r="C11" s="28" t="str">
-        <f>IFERROR(_xlfn.XLOOKUP($B11,nome_empresas!$C$1:$C$10,nome_empresas!$D$1:$D$10),"")</f>
+        <f>_xlfn.XLOOKUP($B11,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
         <v>COELCE</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -66998,7 +67296,7 @@
       </c>
       <c r="F11" s="30">
         <f>[1]contribuicao!D10</f>
-        <v>20865787.13434821</v>
+        <v>21744022.204348199</v>
       </c>
       <c r="G11" s="30">
         <f>[1]contribuicao!$E10</f>
@@ -67006,7 +67304,7 @@
       </c>
       <c r="H11" s="31">
         <f>[1]contribuicao!G10</f>
-        <v>3.1399959896373827E-2</v>
+        <v>3.2727581379594743E-2</v>
       </c>
       <c r="I11" s="31">
         <f>[1]contribuicao!H10</f>
@@ -67014,122 +67312,150 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="53" t="str">
+        <f>[1]contribuicao!B11</f>
+        <v>BRIT3.SA</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>_xlfn.XLOOKUP($B12,nome_empresas!$C$1:$C$11,nome_empresas!$D$1:$D$11)</f>
+        <v>BRISANET</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="30">
+        <f>[1]contribuicao!$C$11</f>
+        <v>89798851</v>
+      </c>
+      <c r="F12" s="30">
+        <f>[1]contribuicao!D11</f>
+        <v>89798851</v>
+      </c>
+      <c r="G12" s="30">
+        <f>[1]contribuicao!E11</f>
+        <v>449094916</v>
+      </c>
+      <c r="H12" s="31">
+        <f>[1]contribuicao!G11</f>
+        <v>2.8928835749084881E-2</v>
+      </c>
+      <c r="I12" s="31">
+        <f>[1]contribuicao!H11</f>
+        <v>4.1298178486058913E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33">
         <f>SUM(E3:E11)</f>
-        <v>2086578713.4348207</v>
+        <v>2084603369.4348207</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F13" s="33">
         <f>SUM(F3:F11)</f>
-        <v>2086578713.4348202</v>
+        <v>2084603369.4348199</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G13" s="33">
         <f>SUM(G3:G11)</f>
         <v>6564538594</v>
       </c>
-      <c r="H12" s="34">
-        <f>SUM(H3:H11)</f>
-        <v>1.0000000000000002</v>
+      <c r="H13" s="34">
+        <f>SUM(H3:H12)</f>
+        <v>0.99999999999999989</v>
       </c>
-      <c r="I12" s="34">
-        <f>SUM(I3:I11)</f>
+      <c r="I13" s="34">
+        <f>SUM(I3:I12)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="47">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="46">
         <f>[1]contribuicao!$I$10</f>
-        <v>88542150.253864318</v>
+        <v>89233089.130579159</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="B16" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="52"/>
-      <c r="G21" s="46"/>
-    </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="62"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="62"/>
-      <c r="G23" s="46"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="61"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="46"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="61"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="46"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -67139,10 +67465,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883EDE48-555E-407A-A408-357D1219BEF2}">
-  <dimension ref="C1:D10"/>
+  <dimension ref="C1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67231,6 +67557,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -67238,10 +67572,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD017D-027D-4735-AE20-1E38E567FFDC}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67274,7 +67608,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43">
         <f>[1]data_inclusao!A2</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C4" t="str">
         <f>[1]data_inclusao!B2</f>
@@ -67292,7 +67626,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <f>[1]data_inclusao!A3</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C5" t="str">
         <f>[1]data_inclusao!B3</f>
@@ -67310,7 +67644,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <f>[1]data_inclusao!A4</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C6" t="str">
         <f>[1]data_inclusao!B4</f>
@@ -67328,7 +67662,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <f>[1]data_inclusao!A5</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C7" t="str">
         <f>[1]data_inclusao!B5</f>
@@ -67346,7 +67680,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <f>[1]data_inclusao!A6</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C8" t="str">
         <f>[1]data_inclusao!B6</f>
@@ -67364,7 +67698,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <f>[1]data_inclusao!A7</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C9" t="str">
         <f>[1]data_inclusao!B7</f>
@@ -67382,7 +67716,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <f>[1]data_inclusao!A8</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C10" t="str">
         <f>[1]data_inclusao!B8</f>
@@ -67400,7 +67734,7 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <f>[1]data_inclusao!A9</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="C11" t="str">
         <f>[1]data_inclusao!B9</f>
@@ -67416,25 +67750,43 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="44">
+      <c r="B12" s="65">
         <f>[1]data_inclusao!A10</f>
-        <v>44433</v>
+        <v>44449</v>
       </c>
-      <c r="C12" s="40" t="str">
+      <c r="C12" s="66" t="str">
         <f>[1]data_inclusao!B10</f>
         <v>AERI3.SA</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="67">
         <f>[1]data_inclusao!C10</f>
         <v>44147</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="67">
         <f>[1]data_inclusao!D10</f>
         <v>44161</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="44">
+        <f>[1]data_inclusao!A11</f>
+        <v>44449</v>
+      </c>
+      <c r="C13" s="40" t="str">
+        <f>[1]data_inclusao!B11</f>
+        <v>BRIT3.SA</v>
+      </c>
+      <c r="D13" s="42">
+        <f>[1]data_inclusao!C11</f>
+        <v>44410</v>
+      </c>
+      <c r="E13" s="42">
+        <f>[1]data_inclusao!D11</f>
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/tabs/tabelas_graficos.xlsx
+++ b/tabs/tabelas_graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a548da2118d25344/Alysson/Unifor/Monitoria/indice_nupe/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="6_{51A04565-EED8-4CAB-B3F6-BD9DD9BE6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25CBFCE-7D14-40FC-8086-F351D88BE0DA}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{88448B48-7E28-409F-97CE-BAEC1C834077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C84B8ECE-E51D-41D3-9101-5E5A95AA06FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{7F871319-D33C-4D47-91A4-A4FA8BFF2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="tab2_risco_empresas" sheetId="4" r:id="rId4"/>
     <sheet name="tab3_risco_sistemico" sheetId="6" r:id="rId5"/>
     <sheet name="tab4_contribuicao" sheetId="7" r:id="rId6"/>
-    <sheet name="nome_empresas" sheetId="10" r:id="rId7"/>
+    <sheet name="nome_empresas" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="tab5_entrada" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>Tabela 1 - Retornos do Índice das ações cearenses e do Ibovespa.</t>
   </si>
@@ -352,19 +352,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">¹ Data de referência: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>28 de Agosto de 2021.</t>
-    </r>
+    <t>BRIT3.SA</t>
+  </si>
+  <si>
+    <t>BRISANET</t>
+  </si>
+  <si>
+    <t>Contrib. p.p.</t>
   </si>
   <si>
     <r>
@@ -378,17 +372,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>31 de Agosto de 2021.</t>
+      <t>21 de Setembro de 2021.</t>
     </r>
-  </si>
-  <si>
-    <t>BRIT3.SA</t>
-  </si>
-  <si>
-    <t>BRISANET</t>
-  </si>
-  <si>
-    <t>Contrib. p.p.</t>
   </si>
 </sst>
 </file>
@@ -8021,6 +8006,24 @@
                 <c:pt idx="2397">
                   <c:v>44449</c:v>
                 </c:pt>
+                <c:pt idx="2398">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="2399">
+                  <c:v>44453</c:v>
+                </c:pt>
+                <c:pt idx="2400">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="2401">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="2402">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="2403">
+                  <c:v>44459</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15222,7 +15225,25 @@
                   <c:v>443.17439147620951</c:v>
                 </c:pt>
                 <c:pt idx="2397">
-                  <c:v>445.12302863267138</c:v>
+                  <c:v>462.6653117728676</c:v>
+                </c:pt>
+                <c:pt idx="2398">
+                  <c:v>469.05778974478028</c:v>
+                </c:pt>
+                <c:pt idx="2399">
+                  <c:v>453.88205679472372</c:v>
+                </c:pt>
+                <c:pt idx="2400">
+                  <c:v>455.23593460447648</c:v>
+                </c:pt>
+                <c:pt idx="2401">
+                  <c:v>453.56738515639069</c:v>
+                </c:pt>
+                <c:pt idx="2402">
+                  <c:v>453.45775831947259</c:v>
+                </c:pt>
+                <c:pt idx="2403">
+                  <c:v>442.31999553727468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22460,6 +22481,24 @@
                 <c:pt idx="2397">
                   <c:v>44449</c:v>
                 </c:pt>
+                <c:pt idx="2398">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="2399">
+                  <c:v>44453</c:v>
+                </c:pt>
+                <c:pt idx="2400">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="2401">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="2402">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="2403">
+                  <c:v>44459</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -29662,6 +29701,24 @@
                 </c:pt>
                 <c:pt idx="2397">
                   <c:v>197.6274879385775</c:v>
+                </c:pt>
+                <c:pt idx="2398">
+                  <c:v>201.29001020249359</c:v>
+                </c:pt>
+                <c:pt idx="2399">
+                  <c:v>200.90439053070261</c:v>
+                </c:pt>
+                <c:pt idx="2400">
+                  <c:v>198.97110446315861</c:v>
+                </c:pt>
+                <c:pt idx="2401">
+                  <c:v>196.77670372996249</c:v>
+                </c:pt>
+                <c:pt idx="2402">
+                  <c:v>192.7043524875063</c:v>
+                </c:pt>
+                <c:pt idx="2403">
+                  <c:v>188.2169845579208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30691,7 +30748,7 @@
                   <c:v>446.66191123751372</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>445.12302863267138</c:v>
+                  <c:v>442.31999553727468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31444,7 +31501,7 @@
                   <c:v>205.40040464126989</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>197.6274879385775</c:v>
+                  <c:v>188.2169845579208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31835,34 +31892,34 @@
                 <c:formatCode>#,##0.0000_ ;[Red]\-#,##0.0000\ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.53600000000000003</c:v>
+                  <c:v>0.52739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88660000000000005</c:v>
+                  <c:v>0.86609999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84340000000000004</c:v>
+                  <c:v>0.85899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80649999999999999</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70720000000000005</c:v>
+                  <c:v>0.72529999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69799999999999995</c:v>
+                  <c:v>0.67930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5958</c:v>
+                  <c:v>0.60260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.378</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31640000000000001</c:v>
+                  <c:v>0.24479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1023</c:v>
+                  <c:v>0.1174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35717,7 +35774,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{129C7279-EF9F-4FB6-BB9A-34686DAD9DD2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -35728,7 +35785,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F28CDB9-98F9-47CC-A3D6-161C67EE80CF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -35739,7 +35796,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9642432" cy="6002055"/>
+    <xdr:ext cx="9648265" cy="6017559"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -35772,7 +35829,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9642432" cy="6002055"/>
+    <xdr:ext cx="9648265" cy="6017559"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -35997,22 +36054,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B2" t="str">
             <v>Índice</v>
           </cell>
           <cell r="C2">
-            <v>-3.4452962433682011E-3</v>
+            <v>-9.7208102840229405E-3</v>
           </cell>
           <cell r="D2">
-            <v>-6.995440516884377E-2</v>
+            <v>-7.5811097397389338E-2</v>
           </cell>
           <cell r="E2">
-            <v>7.3923108745961308E-2</v>
+            <v>6.7160389627669126E-2</v>
           </cell>
           <cell r="F2">
-            <v>0.63887845577316837</v>
+            <v>0.62855809431045961</v>
           </cell>
           <cell r="G2">
             <v>0.63504395478950859</v>
@@ -36042,27 +36099,27 @@
             <v>8.86551435792724E-2</v>
           </cell>
           <cell r="P2">
-            <v>-6.995440516884377E-2</v>
+            <v>-7.5811097397389338E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B3" t="str">
             <v>Ibovespa</v>
           </cell>
           <cell r="C3">
-            <v>-3.7842752628787453E-2</v>
+            <v>-8.3658160816965643E-2</v>
           </cell>
           <cell r="D3">
-            <v>-4.2076676780715139E-2</v>
+            <v>-8.7690476589609823E-2</v>
           </cell>
           <cell r="E3">
-            <v>9.1087880089742113E-2</v>
+            <v>3.9133132846436817E-2</v>
           </cell>
           <cell r="F3">
-            <v>0.5382938056909039</v>
+            <v>0.46504428352222282</v>
           </cell>
           <cell r="G3">
             <v>5.4004046412699402E-2</v>
@@ -36092,12 +36149,12 @@
             <v>2.8819288744782678E-2</v>
           </cell>
           <cell r="P3">
-            <v>-4.2076676780715028E-2</v>
+            <v>-8.7690476589609823E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B4" t="str">
             <v>BNBR3.SA</v>
@@ -36147,7 +36204,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B5" t="str">
             <v>COCE3.SA</v>
@@ -36197,22 +36254,22 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B6" t="str">
             <v>COCE5.SA</v>
           </cell>
           <cell r="C6">
-            <v>-2.100353322208592E-2</v>
+            <v>-6.8678160737517535E-2</v>
           </cell>
           <cell r="D6">
-            <v>-2.116666666666667E-2</v>
+            <v>-6.8833350000000015E-2</v>
           </cell>
           <cell r="E6">
-            <v>-2.1329745753366439E-2</v>
+            <v>-6.8988487551691402E-2</v>
           </cell>
           <cell r="F6">
-            <v>8.7995553908855051E-2</v>
+            <v>3.501294924045939E-2</v>
           </cell>
           <cell r="G6">
             <v>0.30624089096543128</v>
@@ -36242,27 +36299,27 @@
             <v>-3.8615606473321518E-2</v>
           </cell>
           <cell r="P6">
-            <v>-2.116666666666667E-2</v>
+            <v>-6.8833350000000015E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B7" t="str">
             <v>GRND3.SA</v>
           </cell>
           <cell r="C7">
-            <v>-4.0224508886810062E-2</v>
+            <v>-0.1159962581852199</v>
           </cell>
           <cell r="D7">
-            <v>0.2243436754176609</v>
+            <v>0.1276849642004772</v>
           </cell>
           <cell r="E7">
-            <v>0.17525773195876271</v>
+            <v>8.2474226804123418E-2</v>
           </cell>
           <cell r="F7">
-            <v>0.15151515151515069</v>
+            <v>6.0606060606059657E-2</v>
           </cell>
           <cell r="G7">
             <v>1.14434332176116</v>
@@ -36292,27 +36349,27 @@
             <v>-0.31758957654723119</v>
           </cell>
           <cell r="P7">
-            <v>0.2243436754176609</v>
+            <v>0.1276849642004772</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B8" t="str">
             <v>MDIA3.SA</v>
           </cell>
           <cell r="C8">
-            <v>-9.6935584740462932E-3</v>
+            <v>-3.0644152595372121E-2</v>
           </cell>
           <cell r="D8">
-            <v>-7.0170315027295427E-2</v>
+            <v>-8.9841482975881237E-2</v>
           </cell>
           <cell r="E8">
-            <v>-9.5142857142857307E-2</v>
+            <v>-0.11428571428571439</v>
           </cell>
           <cell r="F8">
-            <v>-0.36277667278115361</v>
+            <v>-0.37625755782177961</v>
           </cell>
           <cell r="G8">
             <v>0.63710698113207531</v>
@@ -36342,27 +36399,27 @@
             <v>-0.10720840853429051</v>
           </cell>
           <cell r="P8">
-            <v>-7.0170315027295427E-2</v>
+            <v>-8.9841482975881237E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B9" t="str">
             <v>HAPV3.SA</v>
           </cell>
           <cell r="C9">
-            <v>-1.3623978201634519E-3</v>
+            <v>1.3623978201634969E-2</v>
           </cell>
           <cell r="D9">
-            <v>-3.9318479685452101E-2</v>
+            <v>-2.4901703800786271E-2</v>
           </cell>
           <cell r="E9">
-            <v>0.3611884865366759</v>
+            <v>0.38161559888579388</v>
           </cell>
           <cell r="F9">
-            <v>1.6557971014492749</v>
+            <v>1.695652173913043</v>
           </cell>
           <cell r="M9">
             <v>0.13043478260869579</v>
@@ -36374,27 +36431,27 @@
             <v>0.19405320813771529</v>
           </cell>
           <cell r="P9">
-            <v>-3.9318479685452101E-2</v>
+            <v>-2.4901703800786271E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B10" t="str">
             <v>ARCE</v>
           </cell>
           <cell r="C10">
-            <v>-6.0348877932644429E-3</v>
+            <v>-3.3835828969685837E-2</v>
           </cell>
           <cell r="D10">
-            <v>-0.33069477948739379</v>
+            <v>-0.34941506940102268</v>
           </cell>
           <cell r="E10">
-            <v>-0.41440875663023402</v>
+            <v>-0.43078758875463991</v>
           </cell>
           <cell r="F10">
-            <v>0.53350718345186965</v>
+            <v>0.49061539331034809</v>
           </cell>
           <cell r="M10">
             <v>3.6850058535654817E-2</v>
@@ -36406,59 +36463,59 @@
             <v>2.5537255795764709E-2</v>
           </cell>
           <cell r="P10">
-            <v>-0.33069477948739379</v>
+            <v>-0.34941506940102268</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B11" t="str">
             <v>PGMN3.SA</v>
           </cell>
           <cell r="C11">
-            <v>6.5235342691990272E-2</v>
+            <v>6.440957886044596E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.43015521064301548</v>
+            <v>0.4290465631929048</v>
           </cell>
           <cell r="E11">
-            <v>0.375266524520256</v>
+            <v>0.37420042643923251</v>
           </cell>
           <cell r="F11">
-            <v>0.375266524520256</v>
+            <v>0.37420042643923251</v>
           </cell>
           <cell r="O11">
             <v>-3.8379530916844429E-2</v>
           </cell>
           <cell r="P11">
-            <v>0.43015521064301548</v>
+            <v>0.4290465631929048</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B12" t="str">
             <v>AERI3.SA</v>
           </cell>
           <cell r="C12">
-            <v>5.2499999999999991E-2</v>
+            <v>0.12874999999999989</v>
           </cell>
           <cell r="D12">
-            <v>-0.158</v>
+            <v>-9.7000000000000086E-2</v>
           </cell>
           <cell r="E12">
-            <v>0.26236881559220371</v>
+            <v>0.35382308845577182</v>
           </cell>
           <cell r="F12">
-            <v>0.26236881559220371</v>
+            <v>0.35382308845577182</v>
           </cell>
           <cell r="O12">
             <v>0.49925037481259382</v>
           </cell>
           <cell r="P12">
-            <v>-0.158</v>
+            <v>-9.7000000000000086E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -36466,32 +36523,32 @@
             <v>BRIT3.SA</v>
           </cell>
           <cell r="C13">
-            <v>-0.13940809968847351</v>
+            <v>-0.24299065420560739</v>
           </cell>
           <cell r="D13">
-            <v>-0.18809698750918441</v>
+            <v>-0.28581925055106527</v>
           </cell>
           <cell r="E13">
-            <v>-0.1400778210116731</v>
+            <v>-0.24357976653696489</v>
           </cell>
           <cell r="F13">
-            <v>-0.1400778210116731</v>
+            <v>-0.24357976653696489</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>1.24E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.7400000000000002E-2</v>
+            <v>6.7500000000000004E-2</v>
           </cell>
           <cell r="D2">
-            <v>5.3920000000000003</v>
+            <v>5.4435483870967749</v>
           </cell>
           <cell r="E2">
-            <v>4.4999999999999997E-3</v>
+            <v>4.5999999999999999E-3</v>
           </cell>
           <cell r="F2">
             <v>48</v>
@@ -36505,16 +36562,16 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.18E-2</v>
+            <v>1.0800000000000001E-2</v>
           </cell>
           <cell r="C3">
-            <v>7.2900000000000006E-2</v>
+            <v>7.3800000000000004E-2</v>
           </cell>
           <cell r="D3">
-            <v>6.1779661016949161</v>
+            <v>6.833333333333333</v>
           </cell>
           <cell r="E3">
-            <v>5.3E-3</v>
+            <v>5.4000000000000003E-3</v>
           </cell>
           <cell r="F3">
             <v>48</v>
@@ -36583,16 +36640,16 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B6">
-            <v>4.3E-3</v>
+            <v>3.3E-3</v>
           </cell>
           <cell r="C6">
-            <v>7.0000000000000007E-2</v>
+            <v>7.0699999999999999E-2</v>
           </cell>
           <cell r="D6">
-            <v>16.279069767441861</v>
+            <v>21.424242424242429</v>
           </cell>
           <cell r="E6">
-            <v>4.8999999999999998E-3</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
           <cell r="F6">
             <v>48</v>
@@ -36609,16 +36666,16 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B7">
-            <v>6.6E-3</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
           <cell r="C7">
-            <v>8.6400000000000005E-2</v>
+            <v>8.7900000000000006E-2</v>
           </cell>
           <cell r="D7">
-            <v>13.09090909090909</v>
+            <v>17.579999999999998</v>
           </cell>
           <cell r="E7">
-            <v>7.4999999999999997E-3</v>
+            <v>7.7000000000000002E-3</v>
           </cell>
           <cell r="F7">
             <v>48</v>
@@ -36635,13 +36692,13 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B8">
-            <v>-4.7000000000000002E-3</v>
+            <v>-5.1000000000000004E-3</v>
           </cell>
           <cell r="C8">
-            <v>9.3799999999999994E-2</v>
+            <v>9.3899999999999997E-2</v>
           </cell>
           <cell r="D8">
-            <v>-19.957446808510639</v>
+            <v>-18.411764705882351</v>
           </cell>
           <cell r="E8">
             <v>8.8000000000000005E-3</v>
@@ -36661,13 +36718,13 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B9">
-            <v>2.86E-2</v>
+            <v>2.9000000000000001E-2</v>
           </cell>
           <cell r="C9">
-            <v>9.74E-2</v>
+            <v>9.7299999999999998E-2</v>
           </cell>
           <cell r="D9">
-            <v>3.405594405594405</v>
+            <v>3.3551724137931029</v>
           </cell>
           <cell r="E9">
             <v>9.4999999999999998E-3</v>
@@ -36687,16 +36744,16 @@
             <v>ARCE</v>
           </cell>
           <cell r="B10">
-            <v>2.1399999999999999E-2</v>
+            <v>2.07E-2</v>
           </cell>
           <cell r="C10">
-            <v>0.1414</v>
+            <v>0.14169999999999999</v>
           </cell>
           <cell r="D10">
-            <v>6.6074766355140193</v>
+            <v>6.8454106280193239</v>
           </cell>
           <cell r="E10">
-            <v>0.02</v>
+            <v>2.01E-2</v>
           </cell>
           <cell r="F10">
             <v>36</v>
@@ -36713,13 +36770,13 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>2.86E-2</v>
+            <v>2.8500000000000001E-2</v>
           </cell>
           <cell r="C11">
             <v>9.2899999999999996E-2</v>
           </cell>
           <cell r="D11">
-            <v>3.2482517482517479</v>
+            <v>3.2596491228070179</v>
           </cell>
           <cell r="E11">
             <v>8.6E-3</v>
@@ -36739,16 +36796,16 @@
             <v>AERI3.SA</v>
           </cell>
           <cell r="B12">
-            <v>3.4500000000000003E-2</v>
+            <v>4.1399999999999999E-2</v>
           </cell>
           <cell r="C12">
-            <v>0.18459999999999999</v>
+            <v>0.18679999999999999</v>
           </cell>
           <cell r="D12">
-            <v>5.3507246376811581</v>
+            <v>4.5120772946859899</v>
           </cell>
           <cell r="E12">
-            <v>3.4099999999999998E-2</v>
+            <v>3.49E-2</v>
           </cell>
           <cell r="F12">
             <v>11</v>
@@ -36765,16 +36822,16 @@
             <v>BRIT3.SA</v>
           </cell>
           <cell r="B13">
-            <v>-7.0099999999999996E-2</v>
+            <v>-0.12189999999999999</v>
           </cell>
           <cell r="C13">
-            <v>9.8000000000000004E-2</v>
+            <v>0.17130000000000001</v>
           </cell>
           <cell r="D13">
-            <v>-1.398002853067047</v>
+            <v>-1.405250205086136</v>
           </cell>
           <cell r="E13">
-            <v>9.5999999999999992E-3</v>
+            <v>2.93E-2</v>
           </cell>
           <cell r="F13">
             <v>2</v>
@@ -36783,29 +36840,29 @@
             <v>-8.0000000000000004E-4</v>
           </cell>
           <cell r="H13">
-            <v>-0.1394</v>
+            <v>-0.24299999999999999</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>7.7299999999999994E-2</v>
+            <v>8.3400000000000002E-2</v>
           </cell>
           <cell r="C2">
-            <v>6.1999999999999998E-3</v>
+            <v>6.7000000000000002E-3</v>
           </cell>
           <cell r="D2">
-            <v>0.53600000000000003</v>
+            <v>0.52739999999999998</v>
           </cell>
           <cell r="E2">
-            <v>0.57920000000000005</v>
+            <v>0.57699999999999996</v>
           </cell>
           <cell r="F2">
             <v>0</v>
           </cell>
           <cell r="G2">
-            <v>0.33550000000000002</v>
+            <v>0.33300000000000002</v>
           </cell>
         </row>
         <row r="3">
@@ -36813,22 +36870,22 @@
             <v>BNBR3.SA</v>
           </cell>
           <cell r="B3">
-            <v>0.28960000000000002</v>
+            <v>0.29680000000000001</v>
           </cell>
           <cell r="C3">
-            <v>2.1399999999999999E-2</v>
+            <v>2.1899999999999999E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.378</v>
+            <v>0.36780000000000002</v>
           </cell>
           <cell r="E3">
-            <v>0.20230000000000001</v>
+            <v>0.19939999999999999</v>
           </cell>
           <cell r="F3">
-            <v>0.16789999999999999</v>
+            <v>0.17419999999999999</v>
           </cell>
           <cell r="G3">
-            <v>4.0899999999999999E-2</v>
+            <v>3.9800000000000002E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -36836,22 +36893,22 @@
             <v>COCE3.SA</v>
           </cell>
           <cell r="B4">
-            <v>3.1600000000000003E-2</v>
+            <v>4.4900000000000002E-2</v>
           </cell>
           <cell r="C4">
-            <v>2.5999999999999999E-3</v>
+            <v>3.7000000000000002E-3</v>
           </cell>
           <cell r="D4">
-            <v>0.88660000000000005</v>
+            <v>0.86609999999999998</v>
           </cell>
           <cell r="E4">
-            <v>0.44840000000000002</v>
+            <v>0.44379999999999997</v>
           </cell>
           <cell r="F4">
-            <v>1.4E-3</v>
+            <v>1.6000000000000001E-3</v>
           </cell>
           <cell r="G4">
-            <v>0.20100000000000001</v>
+            <v>0.19689999999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -36859,22 +36916,22 @@
             <v>COCE5.SA</v>
           </cell>
           <cell r="B5">
-            <v>-3.2800000000000003E-2</v>
+            <v>-3.85E-2</v>
           </cell>
           <cell r="C5">
-            <v>-2.8E-3</v>
+            <v>-3.3E-3</v>
           </cell>
           <cell r="D5">
-            <v>0.5958</v>
+            <v>0.60260000000000002</v>
           </cell>
           <cell r="E5">
-            <v>0.62019999999999997</v>
+            <v>0.62919999999999998</v>
           </cell>
           <cell r="F5">
             <v>0</v>
           </cell>
           <cell r="G5">
-            <v>0.38469999999999999</v>
+            <v>0.39589999999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -36882,22 +36939,22 @@
             <v>GRND3.SA</v>
           </cell>
           <cell r="B6">
-            <v>-2.1100000000000001E-2</v>
+            <v>-3.4000000000000002E-2</v>
           </cell>
           <cell r="C6">
-            <v>-1.8E-3</v>
+            <v>-2.8999999999999998E-3</v>
           </cell>
           <cell r="D6">
-            <v>0.70720000000000005</v>
+            <v>0.72529999999999994</v>
           </cell>
           <cell r="E6">
-            <v>0.59650000000000003</v>
+            <v>0.6089</v>
           </cell>
           <cell r="F6">
             <v>0</v>
           </cell>
           <cell r="G6">
-            <v>0.35580000000000001</v>
+            <v>0.37069999999999997</v>
           </cell>
         </row>
         <row r="7">
@@ -36905,22 +36962,22 @@
             <v>MDIA3.SA</v>
           </cell>
           <cell r="B7">
-            <v>-0.15790000000000001</v>
+            <v>-0.15310000000000001</v>
           </cell>
           <cell r="C7">
-            <v>-1.4200000000000001E-2</v>
+            <v>-1.38E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.80649999999999999</v>
+            <v>0.79430000000000001</v>
           </cell>
           <cell r="E7">
-            <v>0.62629999999999997</v>
+            <v>0.62450000000000006</v>
           </cell>
           <cell r="F7">
             <v>0</v>
           </cell>
           <cell r="G7">
-            <v>0.39229999999999998</v>
+            <v>0.39</v>
           </cell>
         </row>
         <row r="8">
@@ -36928,22 +36985,22 @@
             <v>HAPV3.SA</v>
           </cell>
           <cell r="B8">
-            <v>0.29289999999999999</v>
+            <v>0.31290000000000001</v>
           </cell>
           <cell r="C8">
-            <v>2.1600000000000001E-2</v>
+            <v>2.29E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.69799999999999995</v>
+            <v>0.67930000000000001</v>
           </cell>
           <cell r="E8">
-            <v>0.54920000000000002</v>
+            <v>0.5423</v>
           </cell>
           <cell r="F8">
             <v>2.0000000000000001E-4</v>
           </cell>
           <cell r="G8">
-            <v>0.30159999999999998</v>
+            <v>0.29409999999999997</v>
           </cell>
         </row>
         <row r="9">
@@ -36951,22 +37008,22 @@
             <v>ARCE_Ibovespa</v>
           </cell>
           <cell r="B9">
-            <v>0.26929999999999998</v>
+            <v>0.25700000000000001</v>
           </cell>
           <cell r="C9">
-            <v>2.01E-2</v>
+            <v>1.9199999999999998E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.1023</v>
+            <v>0.1174</v>
           </cell>
           <cell r="E9">
-            <v>5.57E-2</v>
+            <v>6.4899999999999999E-2</v>
           </cell>
           <cell r="F9">
-            <v>0.74680000000000002</v>
+            <v>0.70699999999999996</v>
           </cell>
           <cell r="G9">
-            <v>3.0999999999999999E-3</v>
+            <v>4.1999999999999997E-3</v>
           </cell>
         </row>
         <row r="10">
@@ -36974,22 +37031,22 @@
             <v>ARCE_SP500</v>
           </cell>
           <cell r="B10">
-            <v>-1.9300000000000001E-2</v>
+            <v>-3.09E-2</v>
           </cell>
           <cell r="C10">
-            <v>-1.6000000000000001E-3</v>
+            <v>-2.5999999999999999E-3</v>
           </cell>
           <cell r="D10">
-            <v>0.84340000000000004</v>
+            <v>0.85899999999999999</v>
           </cell>
           <cell r="E10">
-            <v>0.32340000000000002</v>
+            <v>0.33100000000000002</v>
           </cell>
           <cell r="F10">
-            <v>5.0799999999999998E-2</v>
+            <v>4.5400000000000003E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.1046</v>
+            <v>0.1095</v>
           </cell>
         </row>
         <row r="11">
@@ -36997,22 +37054,22 @@
             <v>PGMN3.SA</v>
           </cell>
           <cell r="B11">
-            <v>0.2271</v>
+            <v>0.252</v>
           </cell>
           <cell r="C11">
-            <v>1.72E-2</v>
+            <v>1.89E-2</v>
           </cell>
           <cell r="D11">
-            <v>0.31640000000000001</v>
+            <v>0.24479999999999999</v>
           </cell>
           <cell r="E11">
-            <v>0.2021</v>
+            <v>0.16639999999999999</v>
           </cell>
           <cell r="F11">
-            <v>0.50780000000000003</v>
+            <v>0.58679999999999999</v>
           </cell>
           <cell r="G11">
-            <v>4.0899999999999999E-2</v>
+            <v>2.7699999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -63397,10 +63454,76 @@
             <v>44449</v>
           </cell>
           <cell r="D2399">
-            <v>445.12302863267138</v>
+            <v>462.6653117728676</v>
           </cell>
           <cell r="E2399">
             <v>197.6274879385775</v>
+          </cell>
+        </row>
+        <row r="2400">
+          <cell r="A2400">
+            <v>44452</v>
+          </cell>
+          <cell r="D2400">
+            <v>469.05778974478028</v>
+          </cell>
+          <cell r="E2400">
+            <v>201.29001020249359</v>
+          </cell>
+        </row>
+        <row r="2401">
+          <cell r="A2401">
+            <v>44453</v>
+          </cell>
+          <cell r="D2401">
+            <v>453.88205679472372</v>
+          </cell>
+          <cell r="E2401">
+            <v>200.90439053070261</v>
+          </cell>
+        </row>
+        <row r="2402">
+          <cell r="A2402">
+            <v>44454</v>
+          </cell>
+          <cell r="D2402">
+            <v>455.23593460447648</v>
+          </cell>
+          <cell r="E2402">
+            <v>198.97110446315861</v>
+          </cell>
+        </row>
+        <row r="2403">
+          <cell r="A2403">
+            <v>44455</v>
+          </cell>
+          <cell r="D2403">
+            <v>453.56738515639069</v>
+          </cell>
+          <cell r="E2403">
+            <v>196.77670372996249</v>
+          </cell>
+        </row>
+        <row r="2404">
+          <cell r="A2404">
+            <v>44456</v>
+          </cell>
+          <cell r="D2404">
+            <v>453.45775831947259</v>
+          </cell>
+          <cell r="E2404">
+            <v>192.7043524875063</v>
+          </cell>
+        </row>
+        <row r="2405">
+          <cell r="A2405">
+            <v>44459</v>
+          </cell>
+          <cell r="D2405">
+            <v>442.31999553727468</v>
+          </cell>
+          <cell r="E2405">
+            <v>188.2169845579208</v>
           </cell>
         </row>
       </sheetData>
@@ -64694,10 +64817,10 @@
             <v>44440</v>
           </cell>
           <cell r="C118">
-            <v>445.12302863267138</v>
+            <v>442.31999553727468</v>
           </cell>
           <cell r="D118">
-            <v>197.6274879385775</v>
+            <v>188.2169845579208</v>
           </cell>
         </row>
       </sheetData>
@@ -64914,7 +65037,7 @@
       <sheetData sheetId="11">
         <row r="2">
           <cell r="A2">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B2" t="str">
             <v>BNBR3.SA</v>
@@ -64928,7 +65051,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B3" t="str">
             <v>COCE3.SA</v>
@@ -64942,7 +65065,7 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B4" t="str">
             <v>COCE5.SA</v>
@@ -64956,7 +65079,7 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B5" t="str">
             <v>GRND3.SA</v>
@@ -64970,7 +65093,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B6" t="str">
             <v>MDIA3.SA</v>
@@ -64984,7 +65107,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B7" t="str">
             <v>HAPV3.SA</v>
@@ -64998,7 +65121,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B8" t="str">
             <v>ARCE</v>
@@ -65012,7 +65135,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B9" t="str">
             <v>PGMN3.SA</v>
@@ -65026,7 +65149,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B10" t="str">
             <v>AERI3.SA</v>
@@ -65040,7 +65163,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44449</v>
+            <v>44459</v>
           </cell>
           <cell r="B11" t="str">
             <v>BRIT3.SA</v>
@@ -65358,8 +65481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B865D-1F9C-49C7-A6B7-434184FABAF6}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65402,7 +65525,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>63</v>
@@ -65438,19 +65561,19 @@
       </c>
       <c r="C4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>-3.7842752628787453E-2</v>
+        <v>-8.3658160816965643E-2</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-4.2076676780715139E-2</v>
+        <v>-8.7690476589609823E-2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>9.1087880089742113E-2</v>
+        <v>3.9133132846436817E-2</v>
       </c>
       <c r="F4" s="5">
         <f>VLOOKUP($B4,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.5382938056909039</v>
+        <v>0.46504428352222282</v>
       </c>
       <c r="G4" s="57">
         <v>0</v>
@@ -65501,26 +65624,26 @@
       </c>
       <c r="C5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,2,0)</f>
-        <v>-3.4452962433682011E-3</v>
+        <v>-9.7208102840229405E-3</v>
       </c>
       <c r="D5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,3,0)</f>
-        <v>-6.995440516884377E-2</v>
+        <v>-7.5811097397389338E-2</v>
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,4,0)</f>
-        <v>7.3923108745961308E-2</v>
+        <v>6.7160389627669126E-2</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP($B5,[1]tab1_retorno_empresas!$B$1:$O$12,5,0)</f>
-        <v>0.63887845577316837</v>
+        <v>0.62855809431045961</v>
       </c>
       <c r="G5" s="58">
         <v>0</v>
       </c>
       <c r="H5" s="8">
         <f>SUM(H6:H15)/100</f>
-        <v>-3.4452962433681113E-3</v>
+        <v>-9.7208102840229127E-3</v>
       </c>
       <c r="I5" s="8">
         <f>INDEX([1]tab1_retorno_empresas!$A$1:$O$12,MATCH($B5,[1]tab1_retorno_empresas!$B$1:$B$12,0),MATCH(I$3,[1]tab1_retorno_empresas!$A$1:$O$1,0))</f>
@@ -65698,19 +65821,19 @@
       </c>
       <c r="C8" s="47">
         <f>[1]tab1_retorno_empresas!C6</f>
-        <v>-2.100353322208592E-2</v>
+        <v>-6.8678160737517535E-2</v>
       </c>
       <c r="D8" s="47">
         <f>[1]tab1_retorno_empresas!D6</f>
-        <v>-2.116666666666667E-2</v>
+        <v>-6.8833350000000015E-2</v>
       </c>
       <c r="E8" s="47">
         <f>[1]tab1_retorno_empresas!E6</f>
-        <v>-2.1329745753366439E-2</v>
+        <v>-6.8988487551691402E-2</v>
       </c>
       <c r="F8" s="47">
         <f>[1]tab1_retorno_empresas!F6</f>
-        <v>8.7995553908855051E-2</v>
+        <v>3.501294924045939E-2</v>
       </c>
       <c r="G8" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B8,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -65718,7 +65841,7 @@
       </c>
       <c r="H8" s="70">
         <f t="shared" si="0"/>
-        <v>-6.8739484278483878E-2</v>
+        <v>-0.22476700945379935</v>
       </c>
       <c r="I8" s="47">
         <f>[1]tab1_retorno_empresas!G6</f>
@@ -65764,19 +65887,19 @@
       </c>
       <c r="C9" s="47">
         <f>[1]tab1_retorno_empresas!C7</f>
-        <v>-4.0224508886810062E-2</v>
+        <v>-0.1159962581852199</v>
       </c>
       <c r="D9" s="47">
         <f>[1]tab1_retorno_empresas!D7</f>
-        <v>0.2243436754176609</v>
+        <v>0.1276849642004772</v>
       </c>
       <c r="E9" s="47">
         <f>[1]tab1_retorno_empresas!E7</f>
-        <v>0.17525773195876271</v>
+        <v>8.2474226804123418E-2</v>
       </c>
       <c r="F9" s="47">
         <f>[1]tab1_retorno_empresas!F7</f>
-        <v>0.15151515151515069</v>
+        <v>6.0606060606059657E-2</v>
       </c>
       <c r="G9" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B9,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -65784,7 +65907,7 @@
       </c>
       <c r="H9" s="70">
         <f t="shared" si="0"/>
-        <v>-0.28954861455582503</v>
+        <v>-0.83497740011447341</v>
       </c>
       <c r="I9" s="47">
         <f>[1]tab1_retorno_empresas!G7</f>
@@ -65830,19 +65953,19 @@
       </c>
       <c r="C10" s="47">
         <f>[1]tab1_retorno_empresas!C8</f>
-        <v>-9.6935584740462932E-3</v>
+        <v>-3.0644152595372121E-2</v>
       </c>
       <c r="D10" s="47">
         <f>[1]tab1_retorno_empresas!D8</f>
-        <v>-7.0170315027295427E-2</v>
+        <v>-8.9841482975881237E-2</v>
       </c>
       <c r="E10" s="47">
         <f>[1]tab1_retorno_empresas!E8</f>
-        <v>-9.5142857142857307E-2</v>
+        <v>-0.11428571428571439</v>
       </c>
       <c r="F10" s="47">
         <f>[1]tab1_retorno_empresas!F8</f>
-        <v>-0.36277667278115361</v>
+        <v>-0.37625755782177961</v>
       </c>
       <c r="G10" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B10,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -65850,7 +65973,7 @@
       </c>
       <c r="H10" s="70">
         <f t="shared" si="0"/>
-        <v>-6.4687368593613556E-2</v>
+        <v>-0.20449555232819749</v>
       </c>
       <c r="I10" s="47">
         <f>[1]tab1_retorno_empresas!G8</f>
@@ -65896,19 +66019,19 @@
       </c>
       <c r="C11" s="47">
         <f>[1]tab1_retorno_empresas!C9</f>
-        <v>-1.3623978201634519E-3</v>
+        <v>1.3623978201634969E-2</v>
       </c>
       <c r="D11" s="47">
         <f>[1]tab1_retorno_empresas!D9</f>
-        <v>-3.9318479685452101E-2</v>
+        <v>-2.4901703800786271E-2</v>
       </c>
       <c r="E11" s="47">
         <f>[1]tab1_retorno_empresas!E9</f>
-        <v>0.3611884865366759</v>
+        <v>0.38161559888579388</v>
       </c>
       <c r="F11" s="47">
         <f>[1]tab1_retorno_empresas!F9</f>
-        <v>1.6557971014492749</v>
+        <v>1.695652173913043</v>
       </c>
       <c r="G11" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B11,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -65916,7 +66039,7 @@
       </c>
       <c r="H11" s="70">
         <f t="shared" si="0"/>
-        <v>-6.194773314041073E-2</v>
+        <v>0.61947733140412775</v>
       </c>
       <c r="I11" s="6">
         <f>[1]tab1_retorno_empresas!G9</f>
@@ -65962,19 +66085,19 @@
       </c>
       <c r="C12" s="47">
         <f>[1]tab1_retorno_empresas!C10</f>
-        <v>-6.0348877932644429E-3</v>
+        <v>-3.3835828969685837E-2</v>
       </c>
       <c r="D12" s="47">
         <f>[1]tab1_retorno_empresas!D10</f>
-        <v>-0.33069477948739379</v>
+        <v>-0.34941506940102268</v>
       </c>
       <c r="E12" s="47">
         <f>[1]tab1_retorno_empresas!E10</f>
-        <v>-0.41440875663023402</v>
+        <v>-0.43078758875463991</v>
       </c>
       <c r="F12" s="47">
         <f>[1]tab1_retorno_empresas!F10</f>
-        <v>0.53350718345186965</v>
+        <v>0.49061539331034809</v>
       </c>
       <c r="G12" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B12,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -65982,7 +66105,7 @@
       </c>
       <c r="H12" s="70">
         <f t="shared" si="0"/>
-        <v>-0.10806687352077353</v>
+        <v>-0.60589896200201621</v>
       </c>
       <c r="I12" s="6">
         <f>[1]tab1_retorno_empresas!G10</f>
@@ -66028,19 +66151,19 @@
       </c>
       <c r="C13" s="47">
         <f>[1]tab1_retorno_empresas!C11</f>
-        <v>6.5235342691990272E-2</v>
+        <v>6.440957886044596E-2</v>
       </c>
       <c r="D13" s="47">
         <f>[1]tab1_retorno_empresas!D11</f>
-        <v>0.43015521064301548</v>
+        <v>0.4290465631929048</v>
       </c>
       <c r="E13" s="47">
         <f>[1]tab1_retorno_empresas!E11</f>
-        <v>0.375266524520256</v>
+        <v>0.37420042643923251</v>
       </c>
       <c r="F13" s="47">
         <f>[1]tab1_retorno_empresas!F11</f>
-        <v>0.375266524520256</v>
+        <v>0.37420042643923251</v>
       </c>
       <c r="G13" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B13,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -66048,7 +66171,7 @@
       </c>
       <c r="H13" s="70">
         <f t="shared" si="0"/>
-        <v>0.31285861641230495</v>
+        <v>0.30889838076151566</v>
       </c>
       <c r="I13" s="6">
         <f>[1]tab1_retorno_empresas!G11</f>
@@ -66094,19 +66217,19 @@
       </c>
       <c r="C14" s="62">
         <f>[1]tab1_retorno_empresas!C12</f>
-        <v>5.2499999999999991E-2</v>
+        <v>0.12874999999999989</v>
       </c>
       <c r="D14" s="62">
         <f>[1]tab1_retorno_empresas!D12</f>
-        <v>-0.158</v>
+        <v>-9.7000000000000086E-2</v>
       </c>
       <c r="E14" s="62">
         <f>[1]tab1_retorno_empresas!E12</f>
-        <v>0.26236881559220371</v>
+        <v>0.35382308845577182</v>
       </c>
       <c r="F14" s="62">
         <f>[1]tab1_retorno_empresas!F12</f>
-        <v>0.26236881559220371</v>
+        <v>0.35382308845577182</v>
       </c>
       <c r="G14" s="62">
         <f>IFERROR(_xlfn.XLOOKUP($B14,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -66114,7 +66237,7 @@
       </c>
       <c r="H14" s="70">
         <f t="shared" si="0"/>
-        <v>0.2297831158231167</v>
+        <v>0.56351573642335728</v>
       </c>
       <c r="I14" s="16">
         <f>[1]tab1_retorno_empresas!G12</f>
@@ -66160,19 +66283,19 @@
       </c>
       <c r="C15" s="48">
         <f>[1]tab1_retorno_empresas!C13</f>
-        <v>-0.13940809968847351</v>
+        <v>-0.24299065420560739</v>
       </c>
       <c r="D15" s="48">
         <f>[1]tab1_retorno_empresas!D13</f>
-        <v>-0.18809698750918441</v>
+        <v>-0.28581925055106527</v>
       </c>
       <c r="E15" s="48">
         <f>[1]tab1_retorno_empresas!E13</f>
-        <v>-0.1400778210116731</v>
+        <v>-0.24357976653696489</v>
       </c>
       <c r="F15" s="48">
         <f>[1]tab1_retorno_empresas!F13</f>
-        <v>-0.1400778210116731</v>
+        <v>-0.24357976653696489</v>
       </c>
       <c r="G15" s="48">
         <f>IFERROR(_xlfn.XLOOKUP($B15,tab4_contribuicao!$B$3:$B$12,tab4_contribuicao!$H$3:$H$12),0)</f>
@@ -66180,7 +66303,7 @@
       </c>
       <c r="H15" s="71">
         <f>(C15*G15)*100</f>
-        <v>-0.40329140179799006</v>
+        <v>-0.70294367240766975</v>
       </c>
       <c r="I15" s="18">
         <f>[1]tab1_retorno_empresas!G13</f>
@@ -66226,7 +66349,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -66262,7 +66385,7 @@
   <dimension ref="C1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66314,19 +66437,19 @@
       </c>
       <c r="D5" s="12">
         <f>[1]tab2_risco_empresas!B$3</f>
-        <v>1.18E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E5" s="12">
         <f>[1]tab2_risco_empresas!C$3</f>
-        <v>7.2900000000000006E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="F5" s="6">
         <f>[1]tab2_risco_empresas!D$3</f>
-        <v>6.1779661016949161</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="G5" s="12">
         <f>[1]tab2_risco_empresas!E$3</f>
-        <v>5.3E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H5" s="51">
         <f>[1]tab2_risco_empresas!F$3</f>
@@ -66347,19 +66470,19 @@
       </c>
       <c r="D6" s="14">
         <f>[1]tab2_risco_empresas!B$2</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E6" s="14">
         <f>[1]tab2_risco_empresas!C$2</f>
-        <v>6.7400000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F6" s="56">
         <f>[1]tab2_risco_empresas!D$2</f>
-        <v>5.3920000000000003</v>
+        <v>5.4435483870967749</v>
       </c>
       <c r="G6" s="14">
         <f>[1]tab2_risco_empresas!E$2</f>
-        <v>4.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H6" s="52">
         <f>[1]tab2_risco_empresas!F$2</f>
@@ -66380,16 +66503,16 @@
         <v>AERI3.SA</v>
       </c>
       <c r="D7" s="12">
-        <v>3.4500000000000003E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.18459999999999999</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="F7" s="6">
-        <v>5.3507246376811581</v>
+        <v>4.5120772946859899</v>
       </c>
       <c r="G7" s="13">
-        <v>3.4099999999999998E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="H7" s="20">
         <v>11</v>
@@ -66406,13 +66529,13 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="D8" s="12">
-        <v>2.86E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>9.74E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>3.405594405594405</v>
+        <v>3.3551724137931029</v>
       </c>
       <c r="G8" s="13">
         <v>9.4999999999999998E-3</v>
@@ -66432,13 +66555,13 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="D9" s="12">
-        <v>2.86E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="E9" s="12">
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="F9" s="6">
-        <v>3.2482517482517479</v>
+        <v>3.2596491228070179</v>
       </c>
       <c r="G9" s="13">
         <v>8.6E-3</v>
@@ -66484,16 +66607,16 @@
         <v>ARCE</v>
       </c>
       <c r="D11" s="15">
-        <v>2.1399999999999999E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>0.1414</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="F11" s="16">
-        <v>6.6074766355140193</v>
+        <v>6.8454106280193239</v>
       </c>
       <c r="G11" s="13">
-        <v>0.02</v>
+        <v>2.01E-2</v>
       </c>
       <c r="H11" s="20">
         <v>36</v>
@@ -66536,16 +66659,16 @@
         <v>GRND3.SA</v>
       </c>
       <c r="D13" s="15">
-        <v>6.6E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13" s="15">
-        <v>8.6400000000000005E-2</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="F13" s="16">
-        <v>13.09090909090909</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="G13" s="13">
-        <v>7.4999999999999997E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H13" s="20">
         <v>48</v>
@@ -66562,16 +66685,16 @@
         <v>COCE5.SA</v>
       </c>
       <c r="D14" s="15">
-        <v>4.3E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E14" s="15">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>16.279069767441861</v>
+        <v>21.424242424242429</v>
       </c>
       <c r="G14" s="13">
-        <v>4.8999999999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="20">
         <v>48</v>
@@ -66588,13 +66711,13 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="D15" s="15">
-        <v>-4.7000000000000002E-3</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="E15" s="15">
-        <v>9.3799999999999994E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="F15" s="16">
-        <v>-19.957446808510639</v>
+        <v>-18.411764705882351</v>
       </c>
       <c r="G15" s="68">
         <v>8.8000000000000005E-3</v>
@@ -66614,16 +66737,16 @@
         <v>BRIT3.SA</v>
       </c>
       <c r="D16" s="17">
-        <v>-7.0099999999999996E-2</v>
+        <v>-0.12189999999999999</v>
       </c>
       <c r="E16" s="17">
-        <v>9.8000000000000004E-2</v>
+        <v>0.17130000000000001</v>
       </c>
       <c r="F16" s="18">
-        <v>-1.398002853067047</v>
+        <v>-1.405250205086136</v>
       </c>
       <c r="G16" s="19">
-        <v>9.5999999999999992E-3</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H16" s="21">
         <v>2</v>
@@ -66632,7 +66755,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
       <c r="J16" s="19">
-        <v>-0.1394</v>
+        <v>-0.24299999999999999</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -66642,7 +66765,7 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -66655,7 +66778,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66703,19 +66826,19 @@
       </c>
       <c r="C4" s="23">
         <f>[1]tab3_risco_sistemico!B2</f>
-        <v>7.7299999999999994E-2</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="D4" s="23">
         <f>[1]tab3_risco_sistemico!C2</f>
-        <v>6.1999999999999998E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E4" s="23">
         <f>[1]tab3_risco_sistemico!D2</f>
-        <v>0.53600000000000003</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="F4" s="23">
         <f>[1]tab3_risco_sistemico!E2</f>
-        <v>0.57920000000000005</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="G4" s="23">
         <f>[1]tab3_risco_sistemico!F2</f>
@@ -66723,7 +66846,7 @@
       </c>
       <c r="H4" s="23">
         <f>[1]tab3_risco_sistemico!G2</f>
-        <v>0.33550000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -66732,22 +66855,22 @@
         <v>COCE3.SA</v>
       </c>
       <c r="C5" s="25">
-        <v>3.1600000000000003E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="D5" s="25">
-        <v>2.5999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="E5" s="25">
-        <v>0.88660000000000005</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="F5" s="26">
-        <v>0.44840000000000002</v>
+        <v>0.44379999999999997</v>
       </c>
       <c r="G5" s="25">
-        <v>1.4E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H5" s="25">
-        <v>0.20100000000000001</v>
+        <v>0.19689999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -66755,22 +66878,22 @@
         <v>ARCE_SP500</v>
       </c>
       <c r="C6" s="12">
-        <v>-1.9300000000000001E-2</v>
+        <v>-3.09E-2</v>
       </c>
       <c r="D6" s="12">
-        <v>-1.6000000000000001E-3</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E6" s="12">
-        <v>0.84340000000000004</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F6" s="13">
-        <v>0.32340000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G6" s="12">
-        <v>5.0799999999999998E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="H6" s="12">
-        <v>0.1046</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -66778,22 +66901,22 @@
         <v>MDIA3.SA</v>
       </c>
       <c r="C7" s="12">
-        <v>-0.15790000000000001</v>
+        <v>-0.15310000000000001</v>
       </c>
       <c r="D7" s="12">
-        <v>-1.4200000000000001E-2</v>
+        <v>-1.38E-2</v>
       </c>
       <c r="E7" s="12">
-        <v>0.80649999999999999</v>
+        <v>0.79430000000000001</v>
       </c>
       <c r="F7" s="13">
-        <v>0.62629999999999997</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.39229999999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -66801,22 +66924,22 @@
         <v>GRND3.SA</v>
       </c>
       <c r="C8" s="12">
-        <v>-2.1100000000000001E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="D8" s="12">
-        <v>-1.8E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E8" s="12">
-        <v>0.70720000000000005</v>
+        <v>0.72529999999999994</v>
       </c>
       <c r="F8" s="13">
-        <v>0.59650000000000003</v>
+        <v>0.6089</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0.35580000000000001</v>
+        <v>0.37069999999999997</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -66824,22 +66947,22 @@
         <v>HAPV3.SA</v>
       </c>
       <c r="C9" s="15">
-        <v>0.29289999999999999</v>
+        <v>0.31290000000000001</v>
       </c>
       <c r="D9" s="15">
-        <v>2.1600000000000001E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="E9" s="15">
-        <v>0.69799999999999995</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="F9" s="13">
-        <v>0.54920000000000002</v>
+        <v>0.5423</v>
       </c>
       <c r="G9" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H9" s="15">
-        <v>0.30159999999999998</v>
+        <v>0.29409999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -66847,22 +66970,22 @@
         <v>COCE5.SA</v>
       </c>
       <c r="C10" s="12">
-        <v>-3.2800000000000003E-2</v>
+        <v>-3.85E-2</v>
       </c>
       <c r="D10" s="12">
-        <v>-2.8E-3</v>
+        <v>-3.3E-3</v>
       </c>
       <c r="E10" s="12">
-        <v>0.5958</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="F10" s="13">
-        <v>0.62019999999999997</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0.38469999999999999</v>
+        <v>0.39589999999999997</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -66870,22 +66993,22 @@
         <v>BNBR3.SA</v>
       </c>
       <c r="C11" s="12">
-        <v>0.28960000000000002</v>
+        <v>0.29680000000000001</v>
       </c>
       <c r="D11" s="12">
-        <v>2.1399999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E11" s="12">
-        <v>0.378</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="F11" s="13">
-        <v>0.20230000000000001</v>
+        <v>0.19939999999999999</v>
       </c>
       <c r="G11" s="12">
-        <v>0.16789999999999999</v>
+        <v>0.17419999999999999</v>
       </c>
       <c r="H11" s="12">
-        <v>4.0899999999999999E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -66893,22 +67016,22 @@
         <v>PGMN3.SA</v>
       </c>
       <c r="C12" s="12">
-        <v>0.2271</v>
+        <v>0.252</v>
       </c>
       <c r="D12" s="12">
-        <v>1.72E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="E12" s="12">
-        <v>0.31640000000000001</v>
+        <v>0.24479999999999999</v>
       </c>
       <c r="F12" s="13">
-        <v>0.2021</v>
+        <v>0.16639999999999999</v>
       </c>
       <c r="G12" s="12">
-        <v>0.50780000000000003</v>
+        <v>0.58679999999999999</v>
       </c>
       <c r="H12" s="12">
-        <v>4.0899999999999999E-2</v>
+        <v>2.7699999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -66916,22 +67039,22 @@
         <v>ARCE_Ibovespa</v>
       </c>
       <c r="C13" s="17">
-        <v>0.26929999999999998</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D13" s="17">
-        <v>2.01E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>0.1023</v>
+        <v>0.1174</v>
       </c>
       <c r="F13" s="19">
-        <v>5.57E-2</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.74680000000000002</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="H13" s="17">
-        <v>3.0999999999999999E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -66941,7 +67064,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -66960,7 +67083,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67396,7 +67519,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -67559,10 +67682,10 @@
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -67608,7 +67731,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43">
         <f>[1]data_inclusao!A2</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C4" t="str">
         <f>[1]data_inclusao!B2</f>
@@ -67626,7 +67749,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <f>[1]data_inclusao!A3</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C5" t="str">
         <f>[1]data_inclusao!B3</f>
@@ -67644,7 +67767,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="43">
         <f>[1]data_inclusao!A4</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C6" t="str">
         <f>[1]data_inclusao!B4</f>
@@ -67662,7 +67785,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="43">
         <f>[1]data_inclusao!A5</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C7" t="str">
         <f>[1]data_inclusao!B5</f>
@@ -67680,7 +67803,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <f>[1]data_inclusao!A6</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C8" t="str">
         <f>[1]data_inclusao!B6</f>
@@ -67698,7 +67821,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <f>[1]data_inclusao!A7</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C9" t="str">
         <f>[1]data_inclusao!B7</f>
@@ -67716,7 +67839,7 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <f>[1]data_inclusao!A8</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C10" t="str">
         <f>[1]data_inclusao!B8</f>
@@ -67734,7 +67857,7 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="43">
         <f>[1]data_inclusao!A9</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C11" t="str">
         <f>[1]data_inclusao!B9</f>
@@ -67752,7 +67875,7 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="65">
         <f>[1]data_inclusao!A10</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>[1]data_inclusao!B10</f>
@@ -67770,7 +67893,7 @@
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="44">
         <f>[1]data_inclusao!A11</f>
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="C13" s="40" t="str">
         <f>[1]data_inclusao!B11</f>
